--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-18.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-18.xlsx
@@ -667,19 +667,19 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="G2" t="n">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
       <c r="H2" t="n">
-        <v>5.7</v>
+        <v>5.4</v>
       </c>
       <c r="I2" t="n">
         <v>6.8</v>
       </c>
       <c r="J2" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="K2" t="n">
         <v>4.9</v>
@@ -697,7 +697,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>2.34</v>
+        <v>2.12</v>
       </c>
       <c r="Q2" t="n">
         <v>1.61</v>
@@ -709,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="U2" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -721,58 +721,58 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="Y2" t="n">
+        <v>26</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>60</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>190</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>25</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>20</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AL2" t="n">
         <v>32</v>
       </c>
-      <c r="Z2" t="n">
-        <v>55</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>170</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>28</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>85</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>80</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>19</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>36</v>
-      </c>
       <c r="AM2" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AN2" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AO2" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3">
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="G3" t="n">
         <v>2.42</v>
@@ -811,10 +811,10 @@
         <v>3.1</v>
       </c>
       <c r="I3" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="J3" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="K3" t="n">
         <v>4</v>
@@ -823,7 +823,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -835,7 +835,7 @@
         <v>2.08</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.77</v>
+        <v>1.73</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -847,7 +847,7 @@
         <v>1.64</v>
       </c>
       <c r="U3" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>17</v>
       </c>
       <c r="Z3" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AA3" t="n">
         <v>65</v>
@@ -874,37 +874,37 @@
         <v>10.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AE3" t="n">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="AF3" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AG3" t="n">
         <v>13.5</v>
       </c>
       <c r="AH3" t="n">
-        <v>17</v>
+        <v>19.5</v>
       </c>
       <c r="AI3" t="n">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="AJ3" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AK3" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AL3" t="n">
         <v>36</v>
       </c>
       <c r="AM3" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AN3" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AO3" t="n">
         <v>30</v>
@@ -946,10 +946,10 @@
         <v>14.5</v>
       </c>
       <c r="I4" t="n">
-        <v>17.5</v>
+        <v>27</v>
       </c>
       <c r="J4" t="n">
-        <v>7.4</v>
+        <v>6.4</v>
       </c>
       <c r="K4" t="n">
         <v>8.199999999999999</v>
@@ -958,31 +958,31 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N4" t="n">
-        <v>6</v>
+        <v>2.78</v>
       </c>
       <c r="O4" t="n">
-        <v>1.16</v>
+        <v>1.13</v>
       </c>
       <c r="P4" t="n">
         <v>2.78</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.52</v>
+        <v>1.55</v>
       </c>
       <c r="R4" t="n">
-        <v>1.74</v>
+        <v>1.32</v>
       </c>
       <c r="S4" t="n">
-        <v>2.26</v>
+        <v>2.34</v>
       </c>
       <c r="T4" t="n">
-        <v>2.18</v>
+        <v>1.01</v>
       </c>
       <c r="U4" t="n">
-        <v>1.69</v>
+        <v>1.01</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -991,55 +991,55 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="Y4" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="Z4" t="n">
-        <v>180</v>
+        <v>1000</v>
       </c>
       <c r="AA4" t="n">
         <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AC4" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AD4" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AE4" t="n">
-        <v>310</v>
+        <v>1000</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AG4" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AH4" t="n">
         <v>1000</v>
       </c>
       <c r="AI4" t="n">
-        <v>210</v>
+        <v>1000</v>
       </c>
       <c r="AJ4" t="n">
-        <v>9.6</v>
+        <v>1000</v>
       </c>
       <c r="AK4" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AL4" t="n">
         <v>1000</v>
       </c>
       <c r="AM4" t="n">
-        <v>240</v>
+        <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>4.2</v>
+        <v>1000</v>
       </c>
       <c r="AO4" t="n">
         <v>1000</v>
@@ -1072,28 +1072,28 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.6</v>
+        <v>1.64</v>
       </c>
       <c r="G5" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="H5" t="n">
-        <v>5.7</v>
+        <v>5.9</v>
       </c>
       <c r="I5" t="n">
         <v>6.6</v>
       </c>
       <c r="J5" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="K5" t="n">
-        <v>4.9</v>
+        <v>4.5</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -1102,10 +1102,10 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.08</v>
+        <v>1.91</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -1114,10 +1114,10 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>1.97</v>
+        <v>2.1</v>
       </c>
       <c r="U5" t="n">
-        <v>1.62</v>
+        <v>1.73</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -1231,7 +1231,7 @@
         <v>1.07</v>
       </c>
       <c r="N6" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="O6" t="n">
         <v>1.32</v>
@@ -1342,16 +1342,16 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="G7" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="H7" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I7" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="J7" t="n">
         <v>5.6</v>
@@ -1420,7 +1420,7 @@
         <v>240</v>
       </c>
       <c r="AF7" t="n">
-        <v>8.199999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="AG7" t="n">
         <v>12.5</v>
@@ -1441,7 +1441,7 @@
         <v>1000</v>
       </c>
       <c r="AM7" t="n">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="AN7" t="n">
         <v>5.1</v>
@@ -1483,16 +1483,16 @@
         <v>2.06</v>
       </c>
       <c r="H8" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I8" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="J8" t="n">
-        <v>3.55</v>
+        <v>3.4</v>
       </c>
       <c r="K8" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -1615,16 +1615,16 @@
         <v>2.56</v>
       </c>
       <c r="G9" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="H9" t="n">
         <v>2.76</v>
-      </c>
-      <c r="H9" t="n">
-        <v>2.8</v>
       </c>
       <c r="I9" t="n">
         <v>3.1</v>
       </c>
       <c r="J9" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="K9" t="n">
         <v>3.55</v>
@@ -1642,10 +1642,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>1.8</v>
+        <v>1.68</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.99</v>
+        <v>1.86</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>1.81</v>
       </c>
       <c r="U9" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1678,22 +1678,22 @@
         <v>1000</v>
       </c>
       <c r="AB9" t="n">
-        <v>10.5</v>
+        <v>12.5</v>
       </c>
       <c r="AC9" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AD9" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AE9" t="n">
         <v>1000</v>
       </c>
       <c r="AF9" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AG9" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AH9" t="n">
         <v>1000</v>
@@ -1747,22 +1747,22 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="G10" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="H10" t="n">
-        <v>2.74</v>
+        <v>2.78</v>
       </c>
       <c r="I10" t="n">
-        <v>2.92</v>
+        <v>2.82</v>
       </c>
       <c r="J10" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="K10" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1777,10 +1777,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>1.52</v>
+        <v>1.26</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.44</v>
+        <v>1.01</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1801,7 +1801,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="Y10" t="n">
         <v>1000</v>
@@ -1885,13 +1885,13 @@
         <v>1.25</v>
       </c>
       <c r="G11" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="H11" t="n">
-        <v>11.5</v>
+        <v>8.4</v>
       </c>
       <c r="I11" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="J11" t="n">
         <v>6.8</v>
@@ -1912,10 +1912,10 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>3.15</v>
+        <v>2.72</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -1924,7 +1924,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="U11" t="n">
         <v>1.92</v>
@@ -1948,10 +1948,10 @@
         <v>1000</v>
       </c>
       <c r="AB11" t="n">
-        <v>980</v>
+        <v>16</v>
       </c>
       <c r="AC11" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AD11" t="n">
         <v>1000</v>
@@ -1963,7 +1963,7 @@
         <v>10.5</v>
       </c>
       <c r="AG11" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AH11" t="n">
         <v>1000</v>
@@ -1972,10 +1972,10 @@
         <v>150</v>
       </c>
       <c r="AJ11" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AK11" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AL11" t="n">
         <v>1000</v>
@@ -1984,7 +1984,7 @@
         <v>150</v>
       </c>
       <c r="AN11" t="n">
-        <v>3.5</v>
+        <v>4.1</v>
       </c>
       <c r="AO11" t="n">
         <v>1000</v>
@@ -2017,22 +2017,22 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="G12" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="H12" t="n">
-        <v>9.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="I12" t="n">
         <v>13</v>
       </c>
       <c r="J12" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="K12" t="n">
-        <v>7.2</v>
+        <v>6.6</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>2.38</v>
+        <v>2.34</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.6</v>
+        <v>1.58</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -2059,10 +2059,10 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>2.08</v>
+        <v>2.02</v>
       </c>
       <c r="U12" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -2092,7 +2092,7 @@
         <v>1000</v>
       </c>
       <c r="AE12" t="n">
-        <v>1000</v>
+        <v>220</v>
       </c>
       <c r="AF12" t="n">
         <v>1000</v>
@@ -2104,13 +2104,13 @@
         <v>1000</v>
       </c>
       <c r="AI12" t="n">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="AJ12" t="n">
         <v>1000</v>
       </c>
       <c r="AK12" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AL12" t="n">
         <v>1000</v>
@@ -2119,7 +2119,7 @@
         <v>1000</v>
       </c>
       <c r="AN12" t="n">
-        <v>5.1</v>
+        <v>5.8</v>
       </c>
       <c r="AO12" t="n">
         <v>1000</v>
@@ -2152,22 +2152,22 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="G13" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="H13" t="n">
-        <v>8.199999999999999</v>
+        <v>7.2</v>
       </c>
       <c r="I13" t="n">
-        <v>9.800000000000001</v>
+        <v>11</v>
       </c>
       <c r="J13" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="K13" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -2182,10 +2182,10 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.74</v>
+        <v>1.87</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -2194,10 +2194,10 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="U13" t="n">
-        <v>1.65</v>
+        <v>1.71</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -2206,7 +2206,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Y13" t="n">
         <v>32</v>
@@ -2215,7 +2215,7 @@
         <v>1000</v>
       </c>
       <c r="AA13" t="n">
-        <v>390</v>
+        <v>500</v>
       </c>
       <c r="AB13" t="n">
         <v>8</v>
@@ -2248,7 +2248,7 @@
         <v>21</v>
       </c>
       <c r="AL13" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AM13" t="n">
         <v>210</v>
@@ -2293,13 +2293,13 @@
         <v>1.2</v>
       </c>
       <c r="H14" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I14" t="n">
         <v>32</v>
       </c>
       <c r="J14" t="n">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="K14" t="n">
         <v>9.199999999999999</v>
@@ -2329,7 +2329,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="U14" t="n">
         <v>1.58</v>
@@ -2347,7 +2347,7 @@
         <v>1000</v>
       </c>
       <c r="Z14" t="n">
-        <v>350</v>
+        <v>360</v>
       </c>
       <c r="AA14" t="n">
         <v>1000</v>
@@ -2377,19 +2377,19 @@
         <v>460</v>
       </c>
       <c r="AJ14" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AK14" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AL14" t="n">
         <v>1000</v>
       </c>
       <c r="AM14" t="n">
-        <v>320</v>
+        <v>340</v>
       </c>
       <c r="AN14" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="AO14" t="n">
         <v>1000</v>
@@ -2422,7 +2422,7 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.18</v>
+        <v>2.12</v>
       </c>
       <c r="G15" t="n">
         <v>2.28</v>
@@ -2431,10 +2431,10 @@
         <v>3.45</v>
       </c>
       <c r="I15" t="n">
-        <v>3.55</v>
+        <v>3.9</v>
       </c>
       <c r="J15" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="K15" t="n">
         <v>3.9</v>
@@ -2563,7 +2563,7 @@
         <v>1.3</v>
       </c>
       <c r="H16" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I16" t="n">
         <v>14</v>
@@ -2572,7 +2572,7 @@
         <v>6.8</v>
       </c>
       <c r="K16" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -2587,10 +2587,10 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.92</v>
+        <v>2.88</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -2599,11 +2599,11 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="U16" t="n">
         <v>1.92</v>
       </c>
-      <c r="U16" t="n">
-        <v>1.88</v>
-      </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
@@ -2611,19 +2611,19 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="Y16" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="Z16" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="AA16" t="n">
-        <v>510</v>
+        <v>500</v>
       </c>
       <c r="AB16" t="n">
-        <v>12.5</v>
+        <v>15</v>
       </c>
       <c r="AC16" t="n">
         <v>17.5</v>
@@ -2635,13 +2635,13 @@
         <v>210</v>
       </c>
       <c r="AF16" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AG16" t="n">
         <v>12.5</v>
       </c>
       <c r="AH16" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AI16" t="n">
         <v>150</v>
@@ -2656,10 +2656,10 @@
         <v>1000</v>
       </c>
       <c r="AM16" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AN16" t="n">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="AO16" t="n">
         <v>1000</v>
@@ -2695,16 +2695,16 @@
         <v>3.45</v>
       </c>
       <c r="G17" t="n">
-        <v>3.8</v>
+        <v>3.55</v>
       </c>
       <c r="H17" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="I17" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="J17" t="n">
-        <v>3.5</v>
+        <v>3.65</v>
       </c>
       <c r="K17" t="n">
         <v>3.9</v>
@@ -2722,10 +2722,10 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -2734,10 +2734,10 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="U17" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -2749,7 +2749,7 @@
         <v>17.5</v>
       </c>
       <c r="Y17" t="n">
-        <v>13.5</v>
+        <v>11.5</v>
       </c>
       <c r="Z17" t="n">
         <v>18</v>
@@ -2764,7 +2764,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AD17" t="n">
-        <v>13.5</v>
+        <v>11.5</v>
       </c>
       <c r="AE17" t="n">
         <v>24</v>
@@ -2785,7 +2785,7 @@
         <v>70</v>
       </c>
       <c r="AK17" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AL17" t="n">
         <v>50</v>
@@ -2797,7 +2797,7 @@
         <v>38</v>
       </c>
       <c r="AO17" t="n">
-        <v>18.5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18">
@@ -2827,19 +2827,19 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="G18" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="H18" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I18" t="n">
-        <v>4.9</v>
+        <v>4.7</v>
       </c>
       <c r="J18" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K18" t="n">
         <v>4</v>
@@ -2848,7 +2848,7 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -2857,10 +2857,10 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.93</v>
+        <v>1.85</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -2869,10 +2869,10 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="U18" t="n">
-        <v>1.87</v>
+        <v>1.96</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -2881,7 +2881,7 @@
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="Y18" t="n">
         <v>1000</v>
@@ -2893,10 +2893,10 @@
         <v>130</v>
       </c>
       <c r="AB18" t="n">
-        <v>9.4</v>
+        <v>1000</v>
       </c>
       <c r="AC18" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="AD18" t="n">
         <v>1000</v>
@@ -2926,7 +2926,7 @@
         <v>1000</v>
       </c>
       <c r="AM18" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AN18" t="n">
         <v>1000</v>
@@ -2962,22 +2962,22 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.73</v>
+        <v>1.71</v>
       </c>
       <c r="G19" t="n">
-        <v>1.84</v>
+        <v>1.77</v>
       </c>
       <c r="H19" t="n">
         <v>5</v>
       </c>
       <c r="I19" t="n">
-        <v>5.9</v>
+        <v>6.4</v>
       </c>
       <c r="J19" t="n">
         <v>3.9</v>
       </c>
       <c r="K19" t="n">
-        <v>4.9</v>
+        <v>4.5</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -2992,7 +2992,7 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="Q19" t="n">
         <v>1.74</v>
@@ -3052,7 +3052,7 @@
         <v>1000</v>
       </c>
       <c r="AJ19" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AK19" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-18.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-18.xlsx
@@ -673,13 +673,13 @@
         <v>1.68</v>
       </c>
       <c r="H2" t="n">
-        <v>5.4</v>
+        <v>5</v>
       </c>
       <c r="I2" t="n">
         <v>6.8</v>
       </c>
       <c r="J2" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="K2" t="n">
         <v>4.9</v>
@@ -697,10 +697,10 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>2.12</v>
+        <v>2.2</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.61</v>
+        <v>1.63</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>26</v>
       </c>
       <c r="Z2" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AA2" t="n">
         <v>190</v>
@@ -754,7 +754,7 @@
         <v>20</v>
       </c>
       <c r="AI2" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AJ2" t="n">
         <v>16.5</v>
@@ -808,7 +808,7 @@
         <v>2.42</v>
       </c>
       <c r="H3" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="I3" t="n">
         <v>3.5</v>
@@ -856,40 +856,40 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>21</v>
+        <v>18.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>17</v>
+        <v>15.5</v>
       </c>
       <c r="Z3" t="n">
         <v>26</v>
       </c>
       <c r="AA3" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AB3" t="n">
         <v>12.5</v>
       </c>
       <c r="AC3" t="n">
-        <v>10.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD3" t="n">
-        <v>17</v>
+        <v>14.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="AF3" t="n">
         <v>17.5</v>
       </c>
       <c r="AG3" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="AH3" t="n">
-        <v>19.5</v>
+        <v>17</v>
       </c>
       <c r="AI3" t="n">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="AJ3" t="n">
         <v>32</v>
@@ -901,10 +901,10 @@
         <v>36</v>
       </c>
       <c r="AM3" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AN3" t="n">
-        <v>19.5</v>
+        <v>17</v>
       </c>
       <c r="AO3" t="n">
         <v>30</v>
@@ -937,22 +937,22 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="G4" t="n">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="H4" t="n">
-        <v>14.5</v>
+        <v>12.5</v>
       </c>
       <c r="I4" t="n">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="J4" t="n">
         <v>6.4</v>
       </c>
       <c r="K4" t="n">
-        <v>8.199999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -961,28 +961,28 @@
         <v>1.03</v>
       </c>
       <c r="N4" t="n">
-        <v>2.78</v>
+        <v>4.8</v>
       </c>
       <c r="O4" t="n">
-        <v>1.13</v>
+        <v>1.16</v>
       </c>
       <c r="P4" t="n">
-        <v>2.78</v>
+        <v>2.76</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="R4" t="n">
-        <v>1.32</v>
+        <v>1.68</v>
       </c>
       <c r="S4" t="n">
         <v>2.34</v>
       </c>
       <c r="T4" t="n">
-        <v>1.01</v>
+        <v>2.16</v>
       </c>
       <c r="U4" t="n">
-        <v>1.01</v>
+        <v>1.68</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -991,55 +991,55 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="Y4" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="Z4" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AA4" t="n">
         <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AC4" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AD4" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AE4" t="n">
-        <v>1000</v>
+        <v>310</v>
       </c>
       <c r="AF4" t="n">
-        <v>1000</v>
+        <v>8.6</v>
       </c>
       <c r="AG4" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AH4" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AI4" t="n">
-        <v>1000</v>
+        <v>210</v>
       </c>
       <c r="AJ4" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="AK4" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AL4" t="n">
         <v>1000</v>
       </c>
       <c r="AM4" t="n">
-        <v>1000</v>
+        <v>210</v>
       </c>
       <c r="AN4" t="n">
-        <v>1000</v>
+        <v>4.3</v>
       </c>
       <c r="AO4" t="n">
         <v>1000</v>
@@ -1075,10 +1075,10 @@
         <v>1.64</v>
       </c>
       <c r="G5" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="H5" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="I5" t="n">
         <v>6.6</v>
@@ -1105,7 +1105,7 @@
         <v>1.75</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.91</v>
+        <v>2.06</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -1231,7 +1231,7 @@
         <v>1.07</v>
       </c>
       <c r="N6" t="n">
-        <v>3.55</v>
+        <v>3.4</v>
       </c>
       <c r="O6" t="n">
         <v>1.32</v>
@@ -1249,10 +1249,10 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="U6" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1261,10 +1261,10 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="Y6" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="Z6" t="n">
         <v>1000</v>
@@ -1276,7 +1276,7 @@
         <v>1000</v>
       </c>
       <c r="AC6" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD6" t="n">
         <v>1000</v>
@@ -1348,7 +1348,7 @@
         <v>1.36</v>
       </c>
       <c r="H7" t="n">
-        <v>10</v>
+        <v>5.1</v>
       </c>
       <c r="I7" t="n">
         <v>13.5</v>
@@ -1357,7 +1357,7 @@
         <v>5.6</v>
       </c>
       <c r="K7" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1372,10 +1372,10 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.3</v>
+        <v>2.24</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1384,10 +1384,10 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>2.16</v>
+        <v>2.08</v>
       </c>
       <c r="U7" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1399,10 +1399,10 @@
         <v>28</v>
       </c>
       <c r="Y7" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="Z7" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="AA7" t="n">
         <v>1000</v>
@@ -1411,7 +1411,7 @@
         <v>9.4</v>
       </c>
       <c r="AC7" t="n">
-        <v>16</v>
+        <v>980</v>
       </c>
       <c r="AD7" t="n">
         <v>1000</v>
@@ -1420,10 +1420,10 @@
         <v>240</v>
       </c>
       <c r="AF7" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AG7" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AH7" t="n">
         <v>1000</v>
@@ -1432,10 +1432,10 @@
         <v>180</v>
       </c>
       <c r="AJ7" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AK7" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AL7" t="n">
         <v>1000</v>
@@ -1444,7 +1444,7 @@
         <v>210</v>
       </c>
       <c r="AN7" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="AO7" t="n">
         <v>1000</v>
@@ -1486,13 +1486,13 @@
         <v>4</v>
       </c>
       <c r="I8" t="n">
-        <v>4.6</v>
+        <v>4.2</v>
       </c>
       <c r="J8" t="n">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="K8" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -1507,10 +1507,10 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>1.71</v>
+        <v>1.69</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1519,10 +1519,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="U8" t="n">
-        <v>1.83</v>
+        <v>1.86</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1540,7 +1540,7 @@
         <v>1000</v>
       </c>
       <c r="AA8" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="AB8" t="n">
         <v>1000</v>
@@ -1576,7 +1576,7 @@
         <v>1000</v>
       </c>
       <c r="AM8" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="AN8" t="n">
         <v>1000</v>
@@ -1612,7 +1612,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.56</v>
+        <v>2.54</v>
       </c>
       <c r="G9" t="n">
         <v>2.82</v>
@@ -1654,10 +1654,10 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="U9" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1678,22 +1678,22 @@
         <v>1000</v>
       </c>
       <c r="AB9" t="n">
-        <v>12.5</v>
+        <v>10.5</v>
       </c>
       <c r="AC9" t="n">
         <v>9</v>
       </c>
       <c r="AD9" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AE9" t="n">
         <v>1000</v>
       </c>
       <c r="AF9" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AG9" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AH9" t="n">
         <v>1000</v>
@@ -1711,7 +1711,7 @@
         <v>1000</v>
       </c>
       <c r="AM9" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AN9" t="n">
         <v>1000</v>
@@ -1753,16 +1753,16 @@
         <v>3.5</v>
       </c>
       <c r="H10" t="n">
-        <v>2.78</v>
+        <v>2.74</v>
       </c>
       <c r="I10" t="n">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="J10" t="n">
         <v>2.8</v>
       </c>
       <c r="K10" t="n">
-        <v>2.82</v>
+        <v>2.88</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1882,13 +1882,13 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="G11" t="n">
         <v>1.3</v>
       </c>
       <c r="H11" t="n">
-        <v>8.4</v>
+        <v>1.5</v>
       </c>
       <c r="I11" t="n">
         <v>14</v>
@@ -1897,7 +1897,7 @@
         <v>6.8</v>
       </c>
       <c r="K11" t="n">
-        <v>8</v>
+        <v>8.6</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -1912,7 +1912,7 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>2.72</v>
+        <v>2.76</v>
       </c>
       <c r="Q11" t="n">
         <v>1.39</v>
@@ -1924,10 +1924,10 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="U11" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1948,10 +1948,10 @@
         <v>1000</v>
       </c>
       <c r="AB11" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AC11" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AD11" t="n">
         <v>1000</v>
@@ -1966,13 +1966,13 @@
         <v>13</v>
       </c>
       <c r="AH11" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AI11" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AJ11" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AK11" t="n">
         <v>15</v>
@@ -1984,7 +1984,7 @@
         <v>150</v>
       </c>
       <c r="AN11" t="n">
-        <v>4.1</v>
+        <v>3.65</v>
       </c>
       <c r="AO11" t="n">
         <v>1000</v>
@@ -2017,22 +2017,22 @@
         </is>
       </c>
       <c r="F12" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="G12" t="n">
         <v>1.31</v>
       </c>
-      <c r="G12" t="n">
-        <v>1.37</v>
-      </c>
       <c r="H12" t="n">
-        <v>9</v>
+        <v>8.4</v>
       </c>
       <c r="I12" t="n">
         <v>13</v>
       </c>
       <c r="J12" t="n">
-        <v>5.6</v>
+        <v>5.8</v>
       </c>
       <c r="K12" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="Q12" t="n">
         <v>1.58</v>
@@ -2059,7 +2059,7 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="U12" t="n">
         <v>1.79</v>
@@ -2083,7 +2083,7 @@
         <v>1000</v>
       </c>
       <c r="AB12" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="AC12" t="n">
         <v>1000</v>
@@ -2095,7 +2095,7 @@
         <v>220</v>
       </c>
       <c r="AF12" t="n">
-        <v>1000</v>
+        <v>9</v>
       </c>
       <c r="AG12" t="n">
         <v>1000</v>
@@ -2110,16 +2110,16 @@
         <v>1000</v>
       </c>
       <c r="AK12" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AL12" t="n">
         <v>1000</v>
       </c>
       <c r="AM12" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AN12" t="n">
-        <v>5.8</v>
+        <v>5.1</v>
       </c>
       <c r="AO12" t="n">
         <v>1000</v>
@@ -2152,13 +2152,13 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="G13" t="n">
         <v>1.5</v>
       </c>
       <c r="H13" t="n">
-        <v>7.2</v>
+        <v>6.8</v>
       </c>
       <c r="I13" t="n">
         <v>11</v>
@@ -2167,7 +2167,7 @@
         <v>4.4</v>
       </c>
       <c r="K13" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -2182,10 +2182,10 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.87</v>
+        <v>1.77</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -2194,10 +2194,10 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>2.06</v>
+        <v>2.14</v>
       </c>
       <c r="U13" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -2206,7 +2206,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>19</v>
+        <v>16.5</v>
       </c>
       <c r="Y13" t="n">
         <v>32</v>
@@ -2215,46 +2215,46 @@
         <v>1000</v>
       </c>
       <c r="AA13" t="n">
-        <v>500</v>
+        <v>490</v>
       </c>
       <c r="AB13" t="n">
-        <v>8</v>
+        <v>8.6</v>
       </c>
       <c r="AC13" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="AD13" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="AE13" t="n">
+        <v>230</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>32</v>
+      </c>
+      <c r="AI13" t="n">
         <v>190</v>
       </c>
-      <c r="AF13" t="n">
-        <v>10</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>34</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>160</v>
-      </c>
       <c r="AJ13" t="n">
-        <v>15.5</v>
+        <v>14</v>
       </c>
       <c r="AK13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AL13" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AM13" t="n">
-        <v>210</v>
+        <v>250</v>
       </c>
       <c r="AN13" t="n">
-        <v>9.800000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="AO13" t="n">
         <v>1000</v>
@@ -2293,13 +2293,13 @@
         <v>1.2</v>
       </c>
       <c r="H14" t="n">
-        <v>15</v>
+        <v>1.09</v>
       </c>
       <c r="I14" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J14" t="n">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="K14" t="n">
         <v>9.199999999999999</v>
@@ -2317,10 +2317,10 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -2329,7 +2329,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="U14" t="n">
         <v>1.58</v>
@@ -2371,19 +2371,19 @@
         <v>14</v>
       </c>
       <c r="AH14" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AI14" t="n">
         <v>460</v>
       </c>
       <c r="AJ14" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AK14" t="n">
         <v>16</v>
       </c>
       <c r="AL14" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AM14" t="n">
         <v>340</v>
@@ -2422,7 +2422,7 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="G15" t="n">
         <v>2.28</v>
@@ -2431,7 +2431,7 @@
         <v>3.45</v>
       </c>
       <c r="I15" t="n">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="J15" t="n">
         <v>3.7</v>
@@ -2452,10 +2452,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.87</v>
+        <v>1.74</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -2467,7 +2467,7 @@
         <v>1.72</v>
       </c>
       <c r="U15" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -2497,16 +2497,16 @@
         <v>16</v>
       </c>
       <c r="AE15" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AF15" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AG15" t="n">
         <v>11.5</v>
       </c>
       <c r="AH15" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AI15" t="n">
         <v>1000</v>
@@ -2518,7 +2518,7 @@
         <v>25</v>
       </c>
       <c r="AL15" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AM15" t="n">
         <v>110</v>
@@ -2527,7 +2527,7 @@
         <v>17.5</v>
       </c>
       <c r="AO15" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="16">
@@ -2587,10 +2587,10 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.88</v>
+        <v>2.94</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -2614,7 +2614,7 @@
         <v>44</v>
       </c>
       <c r="Y16" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="Z16" t="n">
         <v>150</v>
@@ -2623,7 +2623,7 @@
         <v>500</v>
       </c>
       <c r="AB16" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC16" t="n">
         <v>17.5</v>
@@ -2635,7 +2635,7 @@
         <v>210</v>
       </c>
       <c r="AF16" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="AG16" t="n">
         <v>12.5</v>
@@ -2659,7 +2659,7 @@
         <v>150</v>
       </c>
       <c r="AN16" t="n">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="AO16" t="n">
         <v>1000</v>
@@ -2692,7 +2692,7 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="G17" t="n">
         <v>3.55</v>
@@ -2761,7 +2761,7 @@
         <v>16.5</v>
       </c>
       <c r="AC17" t="n">
-        <v>8.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AD17" t="n">
         <v>11.5</v>
@@ -2827,10 +2827,10 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="G18" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="H18" t="n">
         <v>4</v>
@@ -2839,7 +2839,7 @@
         <v>4.7</v>
       </c>
       <c r="J18" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="K18" t="n">
         <v>4</v>
@@ -2881,7 +2881,7 @@
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="Y18" t="n">
         <v>1000</v>
@@ -2905,7 +2905,7 @@
         <v>1000</v>
       </c>
       <c r="AF18" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AG18" t="n">
         <v>1000</v>
@@ -2962,13 +2962,13 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="G19" t="n">
         <v>1.77</v>
       </c>
       <c r="H19" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="I19" t="n">
         <v>6.4</v>
@@ -2977,7 +2977,7 @@
         <v>3.9</v>
       </c>
       <c r="K19" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>2.08</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.74</v>
+        <v>1.63</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -3004,10 +3004,10 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>1.64</v>
+        <v>1.77</v>
       </c>
       <c r="U19" t="n">
-        <v>1.92</v>
+        <v>2.04</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -3016,7 +3016,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="Y19" t="n">
         <v>1000</v>
@@ -3025,10 +3025,10 @@
         <v>1000</v>
       </c>
       <c r="AA19" t="n">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="AB19" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AC19" t="n">
         <v>1000</v>
@@ -3052,10 +3052,10 @@
         <v>1000</v>
       </c>
       <c r="AJ19" t="n">
-        <v>980</v>
+        <v>21</v>
       </c>
       <c r="AK19" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AL19" t="n">
         <v>1000</v>
@@ -3064,7 +3064,7 @@
         <v>1000</v>
       </c>
       <c r="AN19" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AO19" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-18.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-18.xlsx
@@ -670,16 +670,16 @@
         <v>1.57</v>
       </c>
       <c r="G2" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>5.7</v>
       </c>
       <c r="I2" t="n">
         <v>6.8</v>
       </c>
       <c r="J2" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="K2" t="n">
         <v>4.9</v>
@@ -697,7 +697,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>2.2</v>
+        <v>2.34</v>
       </c>
       <c r="Q2" t="n">
         <v>1.63</v>
@@ -709,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="U2" t="n">
-        <v>2.1</v>
+        <v>2.16</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -721,7 +721,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Y2" t="n">
         <v>26</v>
@@ -730,7 +730,7 @@
         <v>55</v>
       </c>
       <c r="AA2" t="n">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="AB2" t="n">
         <v>11</v>
@@ -739,7 +739,7 @@
         <v>11</v>
       </c>
       <c r="AD2" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AE2" t="n">
         <v>1000</v>
@@ -754,7 +754,7 @@
         <v>20</v>
       </c>
       <c r="AI2" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AJ2" t="n">
         <v>16.5</v>
@@ -763,16 +763,16 @@
         <v>16.5</v>
       </c>
       <c r="AL2" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AM2" t="n">
         <v>110</v>
       </c>
       <c r="AN2" t="n">
-        <v>7.6</v>
+        <v>7.2</v>
       </c>
       <c r="AO2" t="n">
-        <v>95</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3">
@@ -811,10 +811,10 @@
         <v>3.15</v>
       </c>
       <c r="I3" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="J3" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="K3" t="n">
         <v>4</v>
@@ -832,10 +832,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -937,31 +937,31 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.26</v>
+        <v>1.24</v>
       </c>
       <c r="G4" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="H4" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="I4" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="J4" t="n">
-        <v>6.4</v>
+        <v>7.4</v>
       </c>
       <c r="K4" t="n">
-        <v>7.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N4" t="n">
-        <v>4.8</v>
+        <v>5.8</v>
       </c>
       <c r="O4" t="n">
         <v>1.16</v>
@@ -970,16 +970,16 @@
         <v>2.76</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="R4" t="n">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="S4" t="n">
         <v>2.34</v>
       </c>
       <c r="T4" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="U4" t="n">
         <v>1.68</v>
@@ -991,55 +991,55 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="Y4" t="n">
         <v>55</v>
       </c>
       <c r="Z4" t="n">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="AA4" t="n">
         <v>1000</v>
       </c>
       <c r="AB4" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>22</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>320</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AG4" t="n">
         <v>13.5</v>
       </c>
-      <c r="AC4" t="n">
-        <v>19</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>65</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>310</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>14.5</v>
-      </c>
       <c r="AH4" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AI4" t="n">
         <v>210</v>
       </c>
       <c r="AJ4" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="AK4" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AL4" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AM4" t="n">
-        <v>210</v>
+        <v>240</v>
       </c>
       <c r="AN4" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="AO4" t="n">
         <v>1000</v>
@@ -1075,7 +1075,7 @@
         <v>1.64</v>
       </c>
       <c r="G5" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="H5" t="n">
         <v>5.8</v>
@@ -1084,16 +1084,16 @@
         <v>6.6</v>
       </c>
       <c r="J5" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="K5" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -1102,10 +1102,10 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -1216,7 +1216,7 @@
         <v>4.2</v>
       </c>
       <c r="I6" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="J6" t="n">
         <v>3.75</v>
@@ -1231,7 +1231,7 @@
         <v>1.07</v>
       </c>
       <c r="N6" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="O6" t="n">
         <v>1.32</v>
@@ -1261,10 +1261,10 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="Y6" t="n">
-        <v>18.5</v>
+        <v>980</v>
       </c>
       <c r="Z6" t="n">
         <v>1000</v>
@@ -1309,7 +1309,7 @@
         <v>130</v>
       </c>
       <c r="AN6" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AO6" t="n">
         <v>1000</v>
@@ -1345,19 +1345,19 @@
         <v>1.3</v>
       </c>
       <c r="G7" t="n">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="H7" t="n">
-        <v>5.1</v>
+        <v>9.4</v>
       </c>
       <c r="I7" t="n">
-        <v>13.5</v>
+        <v>15</v>
       </c>
       <c r="J7" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="K7" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1372,10 +1372,10 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.53</v>
+        <v>1.59</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1384,10 +1384,10 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>2.08</v>
+        <v>2.16</v>
       </c>
       <c r="U7" t="n">
-        <v>1.76</v>
+        <v>1.74</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1399,7 +1399,7 @@
         <v>28</v>
       </c>
       <c r="Y7" t="n">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="Z7" t="n">
         <v>140</v>
@@ -1507,7 +1507,7 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="Q8" t="n">
         <v>1.99</v>
@@ -1540,7 +1540,7 @@
         <v>1000</v>
       </c>
       <c r="AA8" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AB8" t="n">
         <v>1000</v>
@@ -1612,13 +1612,13 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="G9" t="n">
         <v>2.82</v>
       </c>
       <c r="H9" t="n">
-        <v>2.76</v>
+        <v>2.8</v>
       </c>
       <c r="I9" t="n">
         <v>3.1</v>
@@ -1642,10 +1642,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>1.68</v>
+        <v>1.8</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.86</v>
+        <v>1.88</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -1750,16 +1750,16 @@
         <v>3.45</v>
       </c>
       <c r="G10" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="H10" t="n">
-        <v>2.74</v>
+        <v>2.72</v>
       </c>
       <c r="I10" t="n">
-        <v>2.84</v>
+        <v>2.8</v>
       </c>
       <c r="J10" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="K10" t="n">
         <v>2.88</v>
@@ -1882,22 +1882,22 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="G11" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="H11" t="n">
-        <v>1.5</v>
+        <v>12.5</v>
       </c>
       <c r="I11" t="n">
-        <v>14</v>
+        <v>15.5</v>
       </c>
       <c r="J11" t="n">
-        <v>6.8</v>
+        <v>7.2</v>
       </c>
       <c r="K11" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -1912,7 +1912,7 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>2.76</v>
+        <v>3.1</v>
       </c>
       <c r="Q11" t="n">
         <v>1.39</v>
@@ -1924,10 +1924,10 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="U11" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1966,7 +1966,7 @@
         <v>13</v>
       </c>
       <c r="AH11" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AI11" t="n">
         <v>140</v>
@@ -2017,19 +2017,19 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="G12" t="n">
         <v>1.31</v>
       </c>
       <c r="H12" t="n">
-        <v>8.4</v>
+        <v>11</v>
       </c>
       <c r="I12" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J12" t="n">
-        <v>5.8</v>
+        <v>6.2</v>
       </c>
       <c r="K12" t="n">
         <v>7</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.58</v>
+        <v>1.56</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -2059,10 +2059,10 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>2.04</v>
+        <v>2.26</v>
       </c>
       <c r="U12" t="n">
-        <v>1.79</v>
+        <v>1.6</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -2077,13 +2077,13 @@
         <v>1000</v>
       </c>
       <c r="Z12" t="n">
-        <v>130</v>
+        <v>160</v>
       </c>
       <c r="AA12" t="n">
         <v>1000</v>
       </c>
       <c r="AB12" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="AC12" t="n">
         <v>1000</v>
@@ -2092,19 +2092,19 @@
         <v>1000</v>
       </c>
       <c r="AE12" t="n">
-        <v>220</v>
+        <v>1000</v>
       </c>
       <c r="AF12" t="n">
-        <v>9</v>
+        <v>8.6</v>
       </c>
       <c r="AG12" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AH12" t="n">
         <v>1000</v>
       </c>
       <c r="AI12" t="n">
-        <v>170</v>
+        <v>210</v>
       </c>
       <c r="AJ12" t="n">
         <v>1000</v>
@@ -2116,10 +2116,10 @@
         <v>1000</v>
       </c>
       <c r="AM12" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="AN12" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="AO12" t="n">
         <v>1000</v>
@@ -2152,19 +2152,19 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="G13" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="H13" t="n">
-        <v>6.8</v>
+        <v>7.8</v>
       </c>
       <c r="I13" t="n">
         <v>11</v>
       </c>
       <c r="J13" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="K13" t="n">
         <v>5.2</v>
@@ -2182,10 +2182,10 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -2194,10 +2194,10 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="U13" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -2209,49 +2209,49 @@
         <v>16.5</v>
       </c>
       <c r="Y13" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="Z13" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AA13" t="n">
-        <v>490</v>
+        <v>480</v>
       </c>
       <c r="AB13" t="n">
-        <v>8.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC13" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AD13" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AE13" t="n">
-        <v>230</v>
+        <v>180</v>
       </c>
       <c r="AF13" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="AG13" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AH13" t="n">
         <v>32</v>
       </c>
       <c r="AI13" t="n">
-        <v>190</v>
+        <v>160</v>
       </c>
       <c r="AJ13" t="n">
         <v>14</v>
       </c>
       <c r="AK13" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AL13" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AM13" t="n">
-        <v>250</v>
+        <v>210</v>
       </c>
       <c r="AN13" t="n">
         <v>8.4</v>
@@ -2287,16 +2287,16 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.17</v>
+        <v>1.19</v>
       </c>
       <c r="G14" t="n">
         <v>1.2</v>
       </c>
       <c r="H14" t="n">
-        <v>1.09</v>
+        <v>11.5</v>
       </c>
       <c r="I14" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J14" t="n">
         <v>8</v>
@@ -2317,10 +2317,10 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -2347,7 +2347,7 @@
         <v>1000</v>
       </c>
       <c r="Z14" t="n">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="AA14" t="n">
         <v>1000</v>
@@ -2431,7 +2431,7 @@
         <v>3.45</v>
       </c>
       <c r="I15" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="J15" t="n">
         <v>3.7</v>
@@ -2452,10 +2452,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>1.79</v>
+        <v>1.92</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.74</v>
+        <v>1.87</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -2464,10 +2464,10 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="U15" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -2506,10 +2506,10 @@
         <v>11.5</v>
       </c>
       <c r="AH15" t="n">
-        <v>21</v>
+        <v>18.5</v>
       </c>
       <c r="AI15" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AJ15" t="n">
         <v>34</v>
@@ -2557,10 +2557,10 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="G16" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="H16" t="n">
         <v>10</v>
@@ -2572,7 +2572,7 @@
         <v>6.8</v>
       </c>
       <c r="K16" t="n">
-        <v>7.2</v>
+        <v>8</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -2587,7 +2587,7 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.94</v>
+        <v>2.9</v>
       </c>
       <c r="Q16" t="n">
         <v>1.41</v>
@@ -2599,10 +2599,10 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="U16" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -2611,7 +2611,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="Y16" t="n">
         <v>55</v>
@@ -2692,7 +2692,7 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="G17" t="n">
         <v>3.55</v>
@@ -2722,10 +2722,10 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -2734,7 +2734,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>1.57</v>
+        <v>1.66</v>
       </c>
       <c r="U17" t="n">
         <v>2.22</v>
@@ -2761,7 +2761,7 @@
         <v>16.5</v>
       </c>
       <c r="AC17" t="n">
-        <v>10</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD17" t="n">
         <v>11.5</v>
@@ -2827,28 +2827,28 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="G18" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="H18" t="n">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="I18" t="n">
-        <v>4.7</v>
+        <v>5.1</v>
       </c>
       <c r="J18" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="K18" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -2857,10 +2857,10 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.85</v>
+        <v>1.92</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -2869,10 +2869,10 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="U18" t="n">
-        <v>1.96</v>
+        <v>1.94</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -2962,22 +2962,22 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="G19" t="n">
-        <v>1.77</v>
+        <v>1.81</v>
       </c>
       <c r="H19" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="I19" t="n">
-        <v>6.4</v>
+        <v>5.8</v>
       </c>
       <c r="J19" t="n">
         <v>3.9</v>
       </c>
       <c r="K19" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -2992,10 +2992,10 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.63</v>
+        <v>1.74</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -3007,7 +3007,7 @@
         <v>1.77</v>
       </c>
       <c r="U19" t="n">
-        <v>2.04</v>
+        <v>2.1</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -3016,7 +3016,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="Y19" t="n">
         <v>1000</v>
@@ -3025,7 +3025,7 @@
         <v>1000</v>
       </c>
       <c r="AA19" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="AB19" t="n">
         <v>11.5</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-18.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-18.xlsx
@@ -679,7 +679,7 @@
         <v>6.8</v>
       </c>
       <c r="J2" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="K2" t="n">
         <v>4.9</v>
@@ -697,10 +697,10 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>2.34</v>
+        <v>2.38</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -709,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>1.72</v>
+        <v>1.62</v>
       </c>
       <c r="U2" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -733,7 +733,7 @@
         <v>180</v>
       </c>
       <c r="AB2" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AC2" t="n">
         <v>11</v>
@@ -751,28 +751,28 @@
         <v>11</v>
       </c>
       <c r="AH2" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AI2" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AJ2" t="n">
         <v>16.5</v>
       </c>
       <c r="AK2" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AL2" t="n">
         <v>30</v>
       </c>
       <c r="AM2" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AN2" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AO2" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="G3" t="n">
         <v>2.42</v>
@@ -814,10 +814,10 @@
         <v>3.4</v>
       </c>
       <c r="J3" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="K3" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -940,16 +940,16 @@
         <v>1.24</v>
       </c>
       <c r="G4" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="H4" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="I4" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="J4" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="K4" t="n">
         <v>8.199999999999999</v>
@@ -958,10 +958,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N4" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="O4" t="n">
         <v>1.16</v>
@@ -973,16 +973,16 @@
         <v>1.55</v>
       </c>
       <c r="R4" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="S4" t="n">
         <v>2.34</v>
       </c>
       <c r="T4" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="U4" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -991,13 +991,13 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Y4" t="n">
         <v>55</v>
       </c>
       <c r="Z4" t="n">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="AA4" t="n">
         <v>1000</v>
@@ -1012,7 +1012,7 @@
         <v>1000</v>
       </c>
       <c r="AE4" t="n">
-        <v>320</v>
+        <v>340</v>
       </c>
       <c r="AF4" t="n">
         <v>9.4</v>
@@ -1021,10 +1021,10 @@
         <v>13.5</v>
       </c>
       <c r="AH4" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AI4" t="n">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="AJ4" t="n">
         <v>9.6</v>
@@ -1036,7 +1036,7 @@
         <v>55</v>
       </c>
       <c r="AM4" t="n">
-        <v>240</v>
+        <v>220</v>
       </c>
       <c r="AN4" t="n">
         <v>4.2</v>
@@ -1075,10 +1075,10 @@
         <v>1.64</v>
       </c>
       <c r="G5" t="n">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="H5" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="I5" t="n">
         <v>6.6</v>
@@ -1114,7 +1114,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>2.1</v>
+        <v>1.94</v>
       </c>
       <c r="U5" t="n">
         <v>1.73</v>
@@ -1138,7 +1138,7 @@
         <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>1000</v>
+        <v>8.4</v>
       </c>
       <c r="AC5" t="n">
         <v>1000</v>
@@ -1150,10 +1150,10 @@
         <v>1000</v>
       </c>
       <c r="AF5" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AG5" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AH5" t="n">
         <v>1000</v>
@@ -1219,10 +1219,10 @@
         <v>4.7</v>
       </c>
       <c r="J6" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="K6" t="n">
-        <v>3.95</v>
+        <v>3.85</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -1261,10 +1261,10 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="Y6" t="n">
-        <v>980</v>
+        <v>18.5</v>
       </c>
       <c r="Z6" t="n">
         <v>1000</v>
@@ -1342,19 +1342,19 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="G7" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="H7" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="I7" t="n">
         <v>15</v>
       </c>
       <c r="J7" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="K7" t="n">
         <v>6.8</v>
@@ -1399,7 +1399,7 @@
         <v>28</v>
       </c>
       <c r="Y7" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="Z7" t="n">
         <v>140</v>
@@ -1444,7 +1444,7 @@
         <v>210</v>
       </c>
       <c r="AN7" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="AO7" t="n">
         <v>1000</v>
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.04</v>
+        <v>1.87</v>
       </c>
       <c r="G8" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="H8" t="n">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="I8" t="n">
-        <v>4.2</v>
+        <v>4.7</v>
       </c>
       <c r="J8" t="n">
         <v>3.7</v>
       </c>
       <c r="K8" t="n">
-        <v>3.85</v>
+        <v>4.2</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -1543,10 +1543,10 @@
         <v>130</v>
       </c>
       <c r="AB8" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC8" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AD8" t="n">
         <v>1000</v>
@@ -1576,7 +1576,7 @@
         <v>1000</v>
       </c>
       <c r="AM8" t="n">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="AN8" t="n">
         <v>1000</v>
@@ -1612,7 +1612,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="G9" t="n">
         <v>2.82</v>
@@ -1627,7 +1627,7 @@
         <v>3.3</v>
       </c>
       <c r="K9" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -1747,19 +1747,19 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="G10" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="H10" t="n">
         <v>2.72</v>
       </c>
       <c r="I10" t="n">
-        <v>2.8</v>
+        <v>2.94</v>
       </c>
       <c r="J10" t="n">
-        <v>2.82</v>
+        <v>2.78</v>
       </c>
       <c r="K10" t="n">
         <v>2.88</v>
@@ -1777,10 +1777,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>1.26</v>
+        <v>1.48</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.01</v>
+        <v>2.44</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1789,10 +1789,10 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>1.01</v>
+        <v>1.86</v>
       </c>
       <c r="U10" t="n">
-        <v>1.01</v>
+        <v>1.74</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1882,22 +1882,22 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="G11" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="H11" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="I11" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="J11" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="K11" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -1912,10 +1912,10 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.39</v>
+        <v>1.36</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -1927,7 +1927,7 @@
         <v>1.9</v>
       </c>
       <c r="U11" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1942,7 +1942,7 @@
         <v>1000</v>
       </c>
       <c r="Z11" t="n">
-        <v>140</v>
+        <v>170</v>
       </c>
       <c r="AA11" t="n">
         <v>1000</v>
@@ -1951,13 +1951,13 @@
         <v>1000</v>
       </c>
       <c r="AC11" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AD11" t="n">
         <v>1000</v>
       </c>
       <c r="AE11" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="AF11" t="n">
         <v>10.5</v>
@@ -1975,7 +1975,7 @@
         <v>11</v>
       </c>
       <c r="AK11" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AL11" t="n">
         <v>1000</v>
@@ -1984,7 +1984,7 @@
         <v>150</v>
       </c>
       <c r="AN11" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="AO11" t="n">
         <v>1000</v>
@@ -2017,22 +2017,22 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.28</v>
+        <v>1.23</v>
       </c>
       <c r="G12" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="H12" t="n">
         <v>11</v>
       </c>
       <c r="I12" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="J12" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="K12" t="n">
-        <v>7</v>
+        <v>8.6</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>2.42</v>
+        <v>2.58</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.56</v>
+        <v>1.51</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -2062,7 +2062,7 @@
         <v>2.26</v>
       </c>
       <c r="U12" t="n">
-        <v>1.6</v>
+        <v>1.71</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -2071,13 +2071,13 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="Y12" t="n">
         <v>1000</v>
       </c>
       <c r="Z12" t="n">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="AA12" t="n">
         <v>1000</v>
@@ -2095,31 +2095,31 @@
         <v>1000</v>
       </c>
       <c r="AF12" t="n">
-        <v>8.6</v>
+        <v>9.6</v>
       </c>
       <c r="AG12" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AH12" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AI12" t="n">
         <v>210</v>
       </c>
       <c r="AJ12" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AK12" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AL12" t="n">
         <v>1000</v>
       </c>
       <c r="AM12" t="n">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="AN12" t="n">
-        <v>5</v>
+        <v>4.6</v>
       </c>
       <c r="AO12" t="n">
         <v>1000</v>
@@ -2152,16 +2152,16 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.46</v>
+        <v>1.42</v>
       </c>
       <c r="G13" t="n">
-        <v>1.51</v>
+        <v>1.54</v>
       </c>
       <c r="H13" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="I13" t="n">
-        <v>11</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="J13" t="n">
         <v>4.3</v>
@@ -2182,10 +2182,10 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>1.91</v>
+        <v>1.96</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.8</v>
+        <v>1.84</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -2194,7 +2194,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>2.12</v>
+        <v>2.04</v>
       </c>
       <c r="U13" t="n">
         <v>1.72</v>
@@ -2218,19 +2218,19 @@
         <v>480</v>
       </c>
       <c r="AB13" t="n">
-        <v>8.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AC13" t="n">
         <v>11</v>
       </c>
       <c r="AD13" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AE13" t="n">
         <v>180</v>
       </c>
       <c r="AF13" t="n">
-        <v>9.199999999999999</v>
+        <v>10</v>
       </c>
       <c r="AG13" t="n">
         <v>11</v>
@@ -2293,10 +2293,10 @@
         <v>1.2</v>
       </c>
       <c r="H14" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="I14" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J14" t="n">
         <v>8</v>
@@ -2422,7 +2422,7 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.16</v>
+        <v>2.12</v>
       </c>
       <c r="G15" t="n">
         <v>2.28</v>
@@ -2431,13 +2431,13 @@
         <v>3.45</v>
       </c>
       <c r="I15" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="J15" t="n">
-        <v>3.7</v>
+        <v>3.55</v>
       </c>
       <c r="K15" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -2452,10 +2452,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -2557,22 +2557,22 @@
         </is>
       </c>
       <c r="F16" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="G16" t="n">
         <v>1.3</v>
-      </c>
-      <c r="G16" t="n">
-        <v>1.31</v>
       </c>
       <c r="H16" t="n">
         <v>10</v>
       </c>
       <c r="I16" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="J16" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="K16" t="n">
-        <v>8</v>
+        <v>7.4</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -2587,7 +2587,7 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="Q16" t="n">
         <v>1.41</v>
@@ -2614,7 +2614,7 @@
         <v>1000</v>
       </c>
       <c r="Y16" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="Z16" t="n">
         <v>150</v>
@@ -2692,22 +2692,22 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="G17" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="H17" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="I17" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="J17" t="n">
         <v>3.65</v>
       </c>
       <c r="K17" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -2734,7 +2734,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>1.66</v>
+        <v>1.56</v>
       </c>
       <c r="U17" t="n">
         <v>2.22</v>
@@ -2827,22 +2827,22 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.88</v>
+        <v>1.86</v>
       </c>
       <c r="G18" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="H18" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="I18" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="J18" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K18" t="n">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -2857,10 +2857,10 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -2962,22 +2962,22 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.67</v>
+        <v>1.64</v>
       </c>
       <c r="G19" t="n">
-        <v>1.81</v>
+        <v>1.77</v>
       </c>
       <c r="H19" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="I19" t="n">
-        <v>5.8</v>
+        <v>6.2</v>
       </c>
       <c r="J19" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="K19" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>2.1</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -3043,7 +3043,7 @@
         <v>1000</v>
       </c>
       <c r="AG19" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AH19" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-18.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-18.xlsx
@@ -679,7 +679,7 @@
         <v>6.8</v>
       </c>
       <c r="J2" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="K2" t="n">
         <v>4.9</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="U2" t="n">
         <v>2.18</v>
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="G3" t="n">
         <v>2.42</v>
@@ -811,7 +811,7 @@
         <v>3.15</v>
       </c>
       <c r="I3" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="J3" t="n">
         <v>3.6</v>
@@ -862,7 +862,7 @@
         <v>15.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AA3" t="n">
         <v>60</v>
@@ -907,7 +907,7 @@
         <v>17</v>
       </c>
       <c r="AO3" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4">
@@ -937,22 +937,22 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="G4" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="H4" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="I4" t="n">
-        <v>18.5</v>
+        <v>17</v>
       </c>
       <c r="J4" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="K4" t="n">
-        <v>8.199999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -961,28 +961,28 @@
         <v>1.03</v>
       </c>
       <c r="N4" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="O4" t="n">
         <v>1.16</v>
       </c>
       <c r="P4" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="R4" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="S4" t="n">
-        <v>2.34</v>
+        <v>2.28</v>
       </c>
       <c r="T4" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="U4" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -991,13 +991,13 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="Y4" t="n">
         <v>55</v>
       </c>
       <c r="Z4" t="n">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="AA4" t="n">
         <v>1000</v>
@@ -1006,40 +1006,40 @@
         <v>11.5</v>
       </c>
       <c r="AC4" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AD4" t="n">
         <v>1000</v>
       </c>
       <c r="AE4" t="n">
-        <v>340</v>
+        <v>320</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.4</v>
+        <v>8.4</v>
       </c>
       <c r="AG4" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AH4" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AI4" t="n">
         <v>220</v>
       </c>
       <c r="AJ4" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AK4" t="n">
         <v>15</v>
       </c>
       <c r="AL4" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AM4" t="n">
         <v>220</v>
       </c>
       <c r="AN4" t="n">
-        <v>4.2</v>
+        <v>3.65</v>
       </c>
       <c r="AO4" t="n">
         <v>1000</v>
@@ -1075,19 +1075,19 @@
         <v>1.64</v>
       </c>
       <c r="G5" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="H5" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="I5" t="n">
         <v>6.6</v>
       </c>
       <c r="J5" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="K5" t="n">
-        <v>4.6</v>
+        <v>4.9</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -1138,10 +1138,10 @@
         <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>8.4</v>
+        <v>1000</v>
       </c>
       <c r="AC5" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AD5" t="n">
         <v>1000</v>
@@ -1207,19 +1207,19 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="G6" t="n">
-        <v>1.97</v>
+        <v>1.95</v>
       </c>
       <c r="H6" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="I6" t="n">
         <v>4.7</v>
       </c>
       <c r="J6" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="K6" t="n">
         <v>3.85</v>
@@ -1249,7 +1249,7 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>1.79</v>
+        <v>1.69</v>
       </c>
       <c r="U6" t="n">
         <v>2.02</v>
@@ -1309,7 +1309,7 @@
         <v>130</v>
       </c>
       <c r="AN6" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AO6" t="n">
         <v>1000</v>
@@ -1342,19 +1342,19 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="G7" t="n">
         <v>1.35</v>
       </c>
       <c r="H7" t="n">
-        <v>9.6</v>
+        <v>11.5</v>
       </c>
       <c r="I7" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J7" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="K7" t="n">
         <v>6.8</v>
@@ -1375,7 +1375,7 @@
         <v>2.28</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.59</v>
+        <v>1.57</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1384,7 +1384,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="U7" t="n">
         <v>1.74</v>
@@ -1408,7 +1408,7 @@
         <v>1000</v>
       </c>
       <c r="AB7" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC7" t="n">
         <v>980</v>
@@ -1420,7 +1420,7 @@
         <v>240</v>
       </c>
       <c r="AF7" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AG7" t="n">
         <v>11.5</v>
@@ -1432,7 +1432,7 @@
         <v>180</v>
       </c>
       <c r="AJ7" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AK7" t="n">
         <v>1000</v>
@@ -1444,7 +1444,7 @@
         <v>210</v>
       </c>
       <c r="AN7" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="AO7" t="n">
         <v>1000</v>
@@ -1477,10 +1477,10 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.87</v>
+        <v>1.82</v>
       </c>
       <c r="G8" t="n">
-        <v>2</v>
+        <v>1.97</v>
       </c>
       <c r="H8" t="n">
         <v>4.3</v>
@@ -1489,10 +1489,10 @@
         <v>4.7</v>
       </c>
       <c r="J8" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="K8" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -1507,10 +1507,10 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.99</v>
+        <v>2.06</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1519,10 +1519,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="U8" t="n">
-        <v>1.86</v>
+        <v>1.83</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1543,13 +1543,13 @@
         <v>130</v>
       </c>
       <c r="AB8" t="n">
-        <v>8.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AC8" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AD8" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AE8" t="n">
         <v>1000</v>
@@ -1579,7 +1579,7 @@
         <v>200</v>
       </c>
       <c r="AN8" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AO8" t="n">
         <v>1000</v>
@@ -1645,7 +1645,7 @@
         <v>1.8</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>1.82</v>
       </c>
       <c r="U9" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1750,10 +1750,10 @@
         <v>3.35</v>
       </c>
       <c r="G10" t="n">
-        <v>3.6</v>
+        <v>3.45</v>
       </c>
       <c r="H10" t="n">
-        <v>2.72</v>
+        <v>2.76</v>
       </c>
       <c r="I10" t="n">
         <v>2.94</v>
@@ -1762,13 +1762,13 @@
         <v>2.78</v>
       </c>
       <c r="K10" t="n">
-        <v>2.88</v>
+        <v>2.86</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
@@ -1777,10 +1777,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>1.48</v>
+        <v>1.52</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.44</v>
+        <v>1.1</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1789,7 +1789,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="U10" t="n">
         <v>1.74</v>
@@ -1801,7 +1801,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="Y10" t="n">
         <v>1000</v>
@@ -1882,22 +1882,22 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="G11" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="H11" t="n">
         <v>13</v>
       </c>
       <c r="I11" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="J11" t="n">
         <v>7.4</v>
       </c>
       <c r="K11" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -1912,7 +1912,7 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="Q11" t="n">
         <v>1.36</v>
@@ -1948,7 +1948,7 @@
         <v>1000</v>
       </c>
       <c r="AB11" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AC11" t="n">
         <v>1000</v>
@@ -1957,7 +1957,7 @@
         <v>1000</v>
       </c>
       <c r="AE11" t="n">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="AF11" t="n">
         <v>10.5</v>
@@ -1984,7 +1984,7 @@
         <v>150</v>
       </c>
       <c r="AN11" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="AO11" t="n">
         <v>1000</v>
@@ -2017,22 +2017,22 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="G12" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="H12" t="n">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="I12" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J12" t="n">
-        <v>6.4</v>
+        <v>7</v>
       </c>
       <c r="K12" t="n">
-        <v>8.6</v>
+        <v>7.8</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>2.58</v>
+        <v>2.64</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -2062,7 +2062,7 @@
         <v>2.26</v>
       </c>
       <c r="U12" t="n">
-        <v>1.71</v>
+        <v>1.64</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -2071,13 +2071,13 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="Y12" t="n">
         <v>1000</v>
       </c>
       <c r="Z12" t="n">
-        <v>180</v>
+        <v>210</v>
       </c>
       <c r="AA12" t="n">
         <v>1000</v>
@@ -2086,7 +2086,7 @@
         <v>1000</v>
       </c>
       <c r="AC12" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AD12" t="n">
         <v>1000</v>
@@ -2095,22 +2095,22 @@
         <v>1000</v>
       </c>
       <c r="AF12" t="n">
-        <v>9.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AG12" t="n">
         <v>1000</v>
       </c>
       <c r="AH12" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AI12" t="n">
-        <v>210</v>
+        <v>260</v>
       </c>
       <c r="AJ12" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AK12" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AL12" t="n">
         <v>1000</v>
@@ -2119,7 +2119,7 @@
         <v>230</v>
       </c>
       <c r="AN12" t="n">
-        <v>4.6</v>
+        <v>4.2</v>
       </c>
       <c r="AO12" t="n">
         <v>1000</v>
@@ -2152,19 +2152,19 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.42</v>
+        <v>1.47</v>
       </c>
       <c r="G13" t="n">
         <v>1.54</v>
       </c>
       <c r="H13" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="I13" t="n">
-        <v>9.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="J13" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="K13" t="n">
         <v>5.2</v>
@@ -2185,7 +2185,7 @@
         <v>1.96</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -2197,7 +2197,7 @@
         <v>2.04</v>
       </c>
       <c r="U13" t="n">
-        <v>1.72</v>
+        <v>1.79</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -2209,28 +2209,28 @@
         <v>16.5</v>
       </c>
       <c r="Y13" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Z13" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AA13" t="n">
-        <v>480</v>
+        <v>380</v>
       </c>
       <c r="AB13" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="AC13" t="n">
         <v>11</v>
       </c>
       <c r="AD13" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AE13" t="n">
         <v>180</v>
       </c>
       <c r="AF13" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG13" t="n">
         <v>11</v>
@@ -2245,7 +2245,7 @@
         <v>14</v>
       </c>
       <c r="AK13" t="n">
-        <v>18</v>
+        <v>19.5</v>
       </c>
       <c r="AL13" t="n">
         <v>48</v>
@@ -2254,7 +2254,7 @@
         <v>210</v>
       </c>
       <c r="AN13" t="n">
-        <v>8.4</v>
+        <v>8</v>
       </c>
       <c r="AO13" t="n">
         <v>1000</v>
@@ -2293,10 +2293,10 @@
         <v>1.2</v>
       </c>
       <c r="H14" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I14" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J14" t="n">
         <v>8</v>
@@ -2317,7 +2317,7 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="Q14" t="n">
         <v>1.5</v>
@@ -2332,7 +2332,7 @@
         <v>2.4</v>
       </c>
       <c r="U14" t="n">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -2359,7 +2359,7 @@
         <v>20</v>
       </c>
       <c r="AD14" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AE14" t="n">
         <v>1000</v>
@@ -2374,7 +2374,7 @@
         <v>50</v>
       </c>
       <c r="AI14" t="n">
-        <v>460</v>
+        <v>450</v>
       </c>
       <c r="AJ14" t="n">
         <v>8.6</v>
@@ -2422,19 +2422,19 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="G15" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="H15" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="I15" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="J15" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="K15" t="n">
         <v>3.8</v>
@@ -2464,7 +2464,7 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="U15" t="n">
         <v>2.12</v>
@@ -2506,7 +2506,7 @@
         <v>11.5</v>
       </c>
       <c r="AH15" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AI15" t="n">
         <v>55</v>
@@ -2563,13 +2563,13 @@
         <v>1.3</v>
       </c>
       <c r="H16" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I16" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="J16" t="n">
-        <v>6.6</v>
+        <v>6.2</v>
       </c>
       <c r="K16" t="n">
         <v>7.4</v>
@@ -2590,7 +2590,7 @@
         <v>2.92</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -2620,7 +2620,7 @@
         <v>150</v>
       </c>
       <c r="AA16" t="n">
-        <v>500</v>
+        <v>490</v>
       </c>
       <c r="AB16" t="n">
         <v>13</v>
@@ -2635,7 +2635,7 @@
         <v>210</v>
       </c>
       <c r="AF16" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AG16" t="n">
         <v>12.5</v>
@@ -2698,16 +2698,16 @@
         <v>3.5</v>
       </c>
       <c r="H17" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="I17" t="n">
         <v>2.26</v>
       </c>
       <c r="J17" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="K17" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -2734,10 +2734,10 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>1.56</v>
+        <v>1.66</v>
       </c>
       <c r="U17" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -2752,7 +2752,7 @@
         <v>11.5</v>
       </c>
       <c r="Z17" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AA17" t="n">
         <v>29</v>
@@ -2773,7 +2773,7 @@
         <v>28</v>
       </c>
       <c r="AG17" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AH17" t="n">
         <v>17</v>
@@ -2785,7 +2785,7 @@
         <v>70</v>
       </c>
       <c r="AK17" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AL17" t="n">
         <v>50</v>
@@ -2827,10 +2827,10 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.86</v>
+        <v>1.81</v>
       </c>
       <c r="G18" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="H18" t="n">
         <v>4.4</v>
@@ -2860,7 +2860,7 @@
         <v>1.78</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.94</v>
+        <v>1.98</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -2884,7 +2884,7 @@
         <v>1000</v>
       </c>
       <c r="Y18" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="Z18" t="n">
         <v>1000</v>
@@ -2899,7 +2899,7 @@
         <v>1000</v>
       </c>
       <c r="AD18" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AE18" t="n">
         <v>1000</v>
@@ -2962,10 +2962,10 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.64</v>
+        <v>1.68</v>
       </c>
       <c r="G19" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="H19" t="n">
         <v>5.2</v>
@@ -2974,10 +2974,10 @@
         <v>6.2</v>
       </c>
       <c r="J19" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="K19" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -3016,7 +3016,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="Y19" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-18.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-18.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO19"/>
+  <dimension ref="A1:AO20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>UEFA Europa Conference League</t>
+          <t>Turkish 2 Lig</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,123 +653,123 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>08:00:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Az Alkmaar</t>
+          <t>1461 Trabzon</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Jagiellonia Bialystock</t>
+          <t>Kirklarelispor</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.57</v>
+        <v>1.02</v>
       </c>
       <c r="G2" t="n">
-        <v>1.67</v>
+        <v>1000</v>
       </c>
       <c r="H2" t="n">
-        <v>5.7</v>
+        <v>1.02</v>
       </c>
       <c r="I2" t="n">
-        <v>6.8</v>
+        <v>1000</v>
       </c>
       <c r="J2" t="n">
-        <v>4.2</v>
+        <v>1.02</v>
       </c>
       <c r="K2" t="n">
-        <v>4.9</v>
+        <v>1000</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M2" t="n">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P2" t="n">
-        <v>2.38</v>
+        <v>1.25</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.59</v>
+        <v>1.02</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="T2" t="n">
-        <v>1.7</v>
+        <v>1.01</v>
       </c>
       <c r="U2" t="n">
-        <v>2.18</v>
+        <v>1.01</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="X2" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="Y2" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="Z2" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AA2" t="n">
-        <v>180</v>
+        <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AC2" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AD2" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AE2" t="n">
         <v>1000</v>
       </c>
       <c r="AF2" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AH2" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AI2" t="n">
         <v>1000</v>
       </c>
       <c r="AJ2" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AK2" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AL2" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AM2" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>7</v>
+        <v>1000</v>
       </c>
       <c r="AO2" t="n">
         <v>1000</v>
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="G3" t="n">
         <v>2.42</v>
@@ -817,13 +817,13 @@
         <v>3.6</v>
       </c>
       <c r="K3" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -832,10 +832,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>2.12</v>
+        <v>2.04</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -844,10 +844,10 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="U3" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -856,10 +856,10 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="Z3" t="n">
         <v>25</v>
@@ -871,7 +871,7 @@
         <v>12.5</v>
       </c>
       <c r="AC3" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AD3" t="n">
         <v>14.5</v>
@@ -904,10 +904,10 @@
         <v>80</v>
       </c>
       <c r="AN3" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AO3" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4">
@@ -946,7 +946,7 @@
         <v>14</v>
       </c>
       <c r="I4" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="J4" t="n">
         <v>7</v>
@@ -961,28 +961,28 @@
         <v>1.03</v>
       </c>
       <c r="N4" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="O4" t="n">
         <v>1.16</v>
       </c>
       <c r="P4" t="n">
-        <v>2.78</v>
+        <v>2.76</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.5</v>
+        <v>1.56</v>
       </c>
       <c r="R4" t="n">
-        <v>1.72</v>
+        <v>1.68</v>
       </c>
       <c r="S4" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="T4" t="n">
-        <v>2.2</v>
+        <v>2.26</v>
       </c>
       <c r="U4" t="n">
-        <v>1.68</v>
+        <v>1.64</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -991,55 +991,55 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="Y4" t="n">
         <v>55</v>
       </c>
       <c r="Z4" t="n">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="AA4" t="n">
         <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AC4" t="n">
         <v>21</v>
       </c>
       <c r="AD4" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AE4" t="n">
-        <v>320</v>
+        <v>360</v>
       </c>
       <c r="AF4" t="n">
         <v>8.4</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AH4" t="n">
         <v>1000</v>
       </c>
       <c r="AI4" t="n">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="AJ4" t="n">
-        <v>9.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="AK4" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AL4" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AM4" t="n">
         <v>220</v>
       </c>
       <c r="AN4" t="n">
-        <v>3.65</v>
+        <v>4.2</v>
       </c>
       <c r="AO4" t="n">
         <v>1000</v>
@@ -1075,10 +1075,10 @@
         <v>1.64</v>
       </c>
       <c r="G5" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="H5" t="n">
-        <v>6</v>
+        <v>6.4</v>
       </c>
       <c r="I5" t="n">
         <v>6.6</v>
@@ -1087,7 +1087,7 @@
         <v>3.9</v>
       </c>
       <c r="K5" t="n">
-        <v>4.9</v>
+        <v>4.3</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -1105,7 +1105,7 @@
         <v>1.74</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -1117,7 +1117,7 @@
         <v>1.94</v>
       </c>
       <c r="U5" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -1231,7 +1231,7 @@
         <v>1.07</v>
       </c>
       <c r="N6" t="n">
-        <v>3.45</v>
+        <v>3.6</v>
       </c>
       <c r="O6" t="n">
         <v>1.32</v>
@@ -1240,7 +1240,7 @@
         <v>1.96</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.96</v>
+        <v>1.94</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -1264,7 +1264,7 @@
         <v>1000</v>
       </c>
       <c r="Y6" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="Z6" t="n">
         <v>1000</v>
@@ -1279,7 +1279,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AD6" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AE6" t="n">
         <v>1000</v>
@@ -1300,7 +1300,7 @@
         <v>1000</v>
       </c>
       <c r="AK6" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AL6" t="n">
         <v>1000</v>
@@ -1342,22 +1342,22 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="G7" t="n">
-        <v>1.35</v>
+        <v>1.32</v>
       </c>
       <c r="H7" t="n">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="I7" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="J7" t="n">
-        <v>5.7</v>
+        <v>5.9</v>
       </c>
       <c r="K7" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1372,10 +1372,10 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.28</v>
+        <v>2.34</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1384,7 +1384,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="U7" t="n">
         <v>1.74</v>
@@ -1402,13 +1402,13 @@
         <v>1000</v>
       </c>
       <c r="Z7" t="n">
-        <v>140</v>
+        <v>170</v>
       </c>
       <c r="AA7" t="n">
         <v>1000</v>
       </c>
       <c r="AB7" t="n">
-        <v>9.199999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="AC7" t="n">
         <v>980</v>
@@ -1417,19 +1417,19 @@
         <v>1000</v>
       </c>
       <c r="AE7" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="AF7" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="AG7" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AH7" t="n">
         <v>1000</v>
       </c>
       <c r="AI7" t="n">
-        <v>180</v>
+        <v>230</v>
       </c>
       <c r="AJ7" t="n">
         <v>10.5</v>
@@ -1441,10 +1441,10 @@
         <v>1000</v>
       </c>
       <c r="AM7" t="n">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="AN7" t="n">
-        <v>5</v>
+        <v>5.9</v>
       </c>
       <c r="AO7" t="n">
         <v>1000</v>
@@ -1477,7 +1477,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.82</v>
+        <v>1.86</v>
       </c>
       <c r="G8" t="n">
         <v>1.97</v>
@@ -1492,7 +1492,7 @@
         <v>3.8</v>
       </c>
       <c r="K8" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -1543,7 +1543,7 @@
         <v>130</v>
       </c>
       <c r="AB8" t="n">
-        <v>1000</v>
+        <v>7.8</v>
       </c>
       <c r="AC8" t="n">
         <v>1000</v>
@@ -1579,7 +1579,7 @@
         <v>200</v>
       </c>
       <c r="AN8" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AO8" t="n">
         <v>1000</v>
@@ -1624,7 +1624,7 @@
         <v>3.1</v>
       </c>
       <c r="J9" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="K9" t="n">
         <v>3.5</v>
@@ -1645,7 +1645,7 @@
         <v>1.8</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.9</v>
+        <v>1.98</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -1738,37 +1738,37 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Sigma Olomouc</t>
+          <t>Shamrock Rovers</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Lech Poznan</t>
+          <t>Hamrun Spartans FC</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>3.35</v>
+        <v>1.82</v>
       </c>
       <c r="G10" t="n">
-        <v>3.45</v>
+        <v>1.98</v>
       </c>
       <c r="H10" t="n">
-        <v>2.76</v>
+        <v>4.4</v>
       </c>
       <c r="I10" t="n">
-        <v>2.94</v>
+        <v>5.2</v>
       </c>
       <c r="J10" t="n">
-        <v>2.78</v>
+        <v>3.5</v>
       </c>
       <c r="K10" t="n">
-        <v>2.86</v>
+        <v>4.1</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
@@ -1777,10 +1777,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>1.52</v>
+        <v>1.78</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.1</v>
+        <v>1.98</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1789,10 +1789,10 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="U10" t="n">
-        <v>1.74</v>
+        <v>1.94</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1801,7 +1801,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="Y10" t="n">
         <v>1000</v>
@@ -1810,7 +1810,7 @@
         <v>1000</v>
       </c>
       <c r="AA10" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AB10" t="n">
         <v>1000</v>
@@ -1846,7 +1846,7 @@
         <v>1000</v>
       </c>
       <c r="AM10" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AN10" t="n">
         <v>1000</v>
@@ -1873,37 +1873,37 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Strasbourg</t>
+          <t>Sigma Olomouc</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Breidablik</t>
+          <t>Lech Poznan</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.22</v>
+        <v>3.3</v>
       </c>
       <c r="G11" t="n">
-        <v>1.27</v>
+        <v>3.65</v>
       </c>
       <c r="H11" t="n">
-        <v>13</v>
+        <v>2.72</v>
       </c>
       <c r="I11" t="n">
-        <v>16</v>
+        <v>2.96</v>
       </c>
       <c r="J11" t="n">
-        <v>7.4</v>
+        <v>2.8</v>
       </c>
       <c r="K11" t="n">
-        <v>8.800000000000001</v>
+        <v>2.86</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>1.02</v>
+        <v>1.09</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -1912,10 +1912,10 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>3.25</v>
+        <v>1.26</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.36</v>
+        <v>2.44</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -1924,10 +1924,10 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="U11" t="n">
-        <v>1.95</v>
+        <v>1.7</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1936,19 +1936,19 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="Y11" t="n">
         <v>1000</v>
       </c>
       <c r="Z11" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AA11" t="n">
         <v>1000</v>
       </c>
       <c r="AB11" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AC11" t="n">
         <v>1000</v>
@@ -1957,34 +1957,34 @@
         <v>1000</v>
       </c>
       <c r="AE11" t="n">
-        <v>230</v>
+        <v>1000</v>
       </c>
       <c r="AF11" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AG11" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AH11" t="n">
         <v>1000</v>
       </c>
       <c r="AI11" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AJ11" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AK11" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AL11" t="n">
         <v>1000</v>
       </c>
       <c r="AM11" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AN11" t="n">
-        <v>3.55</v>
+        <v>1000</v>
       </c>
       <c r="AO11" t="n">
         <v>1000</v>
@@ -2032,7 +2032,7 @@
         <v>7</v>
       </c>
       <c r="K12" t="n">
-        <v>7.8</v>
+        <v>8.4</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>2.64</v>
+        <v>2.6</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -2077,7 +2077,7 @@
         <v>1000</v>
       </c>
       <c r="Z12" t="n">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="AA12" t="n">
         <v>1000</v>
@@ -2182,7 +2182,7 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="Q13" t="n">
         <v>1.85</v>
@@ -2293,7 +2293,7 @@
         <v>1.2</v>
       </c>
       <c r="H14" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I14" t="n">
         <v>32</v>
@@ -2371,7 +2371,7 @@
         <v>14</v>
       </c>
       <c r="AH14" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AI14" t="n">
         <v>450</v>
@@ -2425,10 +2425,10 @@
         <v>2.14</v>
       </c>
       <c r="G15" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="H15" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="I15" t="n">
         <v>3.8</v>
@@ -2443,7 +2443,7 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -2452,10 +2452,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.86</v>
+        <v>1.94</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -2464,10 +2464,10 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="U15" t="n">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -2479,7 +2479,7 @@
         <v>16</v>
       </c>
       <c r="Y15" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="Z15" t="n">
         <v>28</v>
@@ -2488,7 +2488,7 @@
         <v>1000</v>
       </c>
       <c r="AB15" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AC15" t="n">
         <v>8.6</v>
@@ -2497,7 +2497,7 @@
         <v>16</v>
       </c>
       <c r="AE15" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AF15" t="n">
         <v>15</v>
@@ -2506,25 +2506,25 @@
         <v>11.5</v>
       </c>
       <c r="AH15" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AI15" t="n">
         <v>55</v>
       </c>
       <c r="AJ15" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AK15" t="n">
         <v>25</v>
       </c>
       <c r="AL15" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AM15" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AN15" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AO15" t="n">
         <v>1000</v>
@@ -2563,7 +2563,7 @@
         <v>1.3</v>
       </c>
       <c r="H16" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="I16" t="n">
         <v>14</v>
@@ -2590,7 +2590,7 @@
         <v>2.92</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -2602,7 +2602,7 @@
         <v>1.91</v>
       </c>
       <c r="U16" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -2614,25 +2614,25 @@
         <v>1000</v>
       </c>
       <c r="Y16" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="Z16" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AA16" t="n">
-        <v>490</v>
+        <v>480</v>
       </c>
       <c r="AB16" t="n">
         <v>13</v>
       </c>
       <c r="AC16" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AD16" t="n">
         <v>1000</v>
       </c>
       <c r="AE16" t="n">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="AF16" t="n">
         <v>10</v>
@@ -2659,7 +2659,7 @@
         <v>150</v>
       </c>
       <c r="AN16" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="AO16" t="n">
         <v>1000</v>
@@ -2818,37 +2818,37 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Shamrock Rovers</t>
+          <t>Az Alkmaar</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Hamrun Spartans FC</t>
+          <t>Jagiellonia Bialystock</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.81</v>
+        <v>1.57</v>
       </c>
       <c r="G18" t="n">
-        <v>1.98</v>
+        <v>1.67</v>
       </c>
       <c r="H18" t="n">
-        <v>4.4</v>
+        <v>5.7</v>
       </c>
       <c r="I18" t="n">
-        <v>5.2</v>
+        <v>6.8</v>
       </c>
       <c r="J18" t="n">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="K18" t="n">
-        <v>4.1</v>
+        <v>4.9</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>1.08</v>
+        <v>1.04</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -2857,10 +2857,10 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>1.78</v>
+        <v>2.38</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.98</v>
+        <v>1.59</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -2869,10 +2869,10 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>1.88</v>
+        <v>1.7</v>
       </c>
       <c r="U18" t="n">
-        <v>1.94</v>
+        <v>2.18</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -2881,55 +2881,55 @@
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="Y18" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="Z18" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AA18" t="n">
-        <v>130</v>
+        <v>180</v>
       </c>
       <c r="AB18" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AC18" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AD18" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AE18" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AF18" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AG18" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AH18" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AI18" t="n">
         <v>1000</v>
       </c>
       <c r="AJ18" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AK18" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AL18" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AM18" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="AN18" t="n">
-        <v>1000</v>
+        <v>7</v>
       </c>
       <c r="AO18" t="n">
         <v>1000</v>
@@ -2953,120 +2953,255 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
+          <t>Strasbourg</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Breidablik</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="G19" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="H19" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="I19" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="J19" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="K19" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="U19" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="n">
+        <v>0</v>
+      </c>
+      <c r="X19" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>85</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>170</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>230</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>140</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>150</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>UEFA Europa Conference League</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>2025-12-18</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>17:00:00</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
           <t>Mainz</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>Samsunspor</t>
         </is>
       </c>
-      <c r="F19" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="G19" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="H19" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="I19" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="J19" t="n">
-        <v>4</v>
-      </c>
-      <c r="K19" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" t="n">
+      <c r="F20" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="G20" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="H20" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="I20" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="J20" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="K20" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
         <v>1.05</v>
       </c>
-      <c r="N19" t="n">
-        <v>0</v>
-      </c>
-      <c r="O19" t="n">
-        <v>0</v>
-      </c>
-      <c r="P19" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="R19" t="n">
-        <v>0</v>
-      </c>
-      <c r="S19" t="n">
-        <v>0</v>
-      </c>
-      <c r="T19" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="U19" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="V19" t="n">
-        <v>0</v>
-      </c>
-      <c r="W19" t="n">
-        <v>0</v>
-      </c>
-      <c r="X19" t="n">
-        <v>22</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA19" t="n">
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="U20" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0</v>
+      </c>
+      <c r="X20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA20" t="n">
         <v>160</v>
       </c>
-      <c r="AB19" t="n">
+      <c r="AB20" t="n">
         <v>11.5</v>
       </c>
-      <c r="AC19" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG19" t="n">
+      <c r="AC20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG20" t="n">
         <v>10</v>
       </c>
-      <c r="AH19" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>21</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>21</v>
-      </c>
-      <c r="AL19" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM19" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN19" t="n">
-        <v>11</v>
-      </c>
-      <c r="AO19" t="n">
+      <c r="AH20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>20</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>8</v>
+      </c>
+      <c r="AO20" t="n">
         <v>1000</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-18.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-18.xlsx
@@ -703,7 +703,7 @@
         <v>1.02</v>
       </c>
       <c r="R2" t="n">
-        <v>1.18</v>
+        <v>1.21</v>
       </c>
       <c r="S2" t="n">
         <v>1.3</v>
@@ -835,7 +835,7 @@
         <v>2.04</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -940,19 +940,19 @@
         <v>1.25</v>
       </c>
       <c r="G4" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="H4" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I4" t="n">
-        <v>17.5</v>
+        <v>15.5</v>
       </c>
       <c r="J4" t="n">
-        <v>7</v>
+        <v>7.4</v>
       </c>
       <c r="K4" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -961,10 +961,10 @@
         <v>1.03</v>
       </c>
       <c r="N4" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="O4" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="P4" t="n">
         <v>2.76</v>
@@ -976,13 +976,13 @@
         <v>1.68</v>
       </c>
       <c r="S4" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="T4" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="U4" t="n">
-        <v>1.64</v>
+        <v>1.69</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -991,52 +991,52 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Y4" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="Z4" t="n">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="AA4" t="n">
         <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AC4" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AD4" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AE4" t="n">
         <v>360</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AH4" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AI4" t="n">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="AJ4" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AK4" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AL4" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AM4" t="n">
-        <v>220</v>
+        <v>270</v>
       </c>
       <c r="AN4" t="n">
         <v>4.2</v>
@@ -1075,7 +1075,7 @@
         <v>1.64</v>
       </c>
       <c r="G5" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="H5" t="n">
         <v>6.4</v>
@@ -1087,7 +1087,7 @@
         <v>3.9</v>
       </c>
       <c r="K5" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -1207,19 +1207,19 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="G6" t="n">
         <v>1.95</v>
       </c>
       <c r="H6" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="I6" t="n">
         <v>4.7</v>
       </c>
       <c r="J6" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="K6" t="n">
         <v>3.85</v>
@@ -1342,13 +1342,13 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="G7" t="n">
         <v>1.32</v>
       </c>
       <c r="H7" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I7" t="n">
         <v>14.5</v>
@@ -1357,7 +1357,7 @@
         <v>5.9</v>
       </c>
       <c r="K7" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1372,10 +1372,10 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.55</v>
+        <v>1.63</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1384,10 +1384,10 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="U7" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1396,13 +1396,13 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="Y7" t="n">
         <v>1000</v>
       </c>
       <c r="Z7" t="n">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="AA7" t="n">
         <v>1000</v>
@@ -1411,13 +1411,13 @@
         <v>9.6</v>
       </c>
       <c r="AC7" t="n">
-        <v>980</v>
+        <v>14.5</v>
       </c>
       <c r="AD7" t="n">
         <v>1000</v>
       </c>
       <c r="AE7" t="n">
-        <v>300</v>
+        <v>270</v>
       </c>
       <c r="AF7" t="n">
         <v>8.199999999999999</v>
@@ -1429,7 +1429,7 @@
         <v>1000</v>
       </c>
       <c r="AI7" t="n">
-        <v>230</v>
+        <v>210</v>
       </c>
       <c r="AJ7" t="n">
         <v>10.5</v>
@@ -1441,7 +1441,7 @@
         <v>1000</v>
       </c>
       <c r="AM7" t="n">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="AN7" t="n">
         <v>5.9</v>
@@ -1477,7 +1477,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.86</v>
+        <v>1.96</v>
       </c>
       <c r="G8" t="n">
         <v>1.97</v>
@@ -1486,13 +1486,13 @@
         <v>4.3</v>
       </c>
       <c r="I8" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="J8" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="K8" t="n">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -1543,13 +1543,13 @@
         <v>130</v>
       </c>
       <c r="AB8" t="n">
-        <v>7.8</v>
+        <v>9</v>
       </c>
       <c r="AC8" t="n">
         <v>1000</v>
       </c>
       <c r="AD8" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AE8" t="n">
         <v>1000</v>
@@ -1624,7 +1624,7 @@
         <v>3.1</v>
       </c>
       <c r="J9" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="K9" t="n">
         <v>3.5</v>
@@ -1642,7 +1642,7 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="Q9" t="n">
         <v>1.98</v>
@@ -1666,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="Y9" t="n">
         <v>11.5</v>
@@ -1747,16 +1747,16 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="G10" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="H10" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="I10" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="J10" t="n">
         <v>3.5</v>
@@ -1777,7 +1777,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="Q10" t="n">
         <v>1.98</v>
@@ -1813,7 +1813,7 @@
         <v>130</v>
       </c>
       <c r="AB10" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AC10" t="n">
         <v>1000</v>
@@ -1885,13 +1885,13 @@
         <v>3.3</v>
       </c>
       <c r="G11" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="H11" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="I11" t="n">
-        <v>2.96</v>
+        <v>2.92</v>
       </c>
       <c r="J11" t="n">
         <v>2.8</v>
@@ -1912,7 +1912,7 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>1.26</v>
+        <v>1.55</v>
       </c>
       <c r="Q11" t="n">
         <v>2.44</v>
@@ -1924,10 +1924,10 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="U11" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -2017,22 +2017,22 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="G12" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="H12" t="n">
-        <v>12.5</v>
+        <v>14.5</v>
       </c>
       <c r="I12" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J12" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="K12" t="n">
-        <v>8.4</v>
+        <v>7.6</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>2.6</v>
+        <v>2.56</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -2071,13 +2071,13 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="Y12" t="n">
         <v>1000</v>
       </c>
       <c r="Z12" t="n">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="AA12" t="n">
         <v>1000</v>
@@ -2095,31 +2095,31 @@
         <v>1000</v>
       </c>
       <c r="AF12" t="n">
-        <v>9.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AG12" t="n">
         <v>1000</v>
       </c>
       <c r="AH12" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AI12" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="AJ12" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="AK12" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AL12" t="n">
         <v>1000</v>
       </c>
       <c r="AM12" t="n">
-        <v>230</v>
+        <v>1000</v>
       </c>
       <c r="AN12" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="AO12" t="n">
         <v>1000</v>
@@ -2167,7 +2167,7 @@
         <v>4.2</v>
       </c>
       <c r="K13" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -2185,7 +2185,7 @@
         <v>1.97</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -2236,7 +2236,7 @@
         <v>11</v>
       </c>
       <c r="AH13" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AI13" t="n">
         <v>160</v>
@@ -2317,7 +2317,7 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="Q14" t="n">
         <v>1.5</v>
@@ -2422,22 +2422,22 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.14</v>
+        <v>2.22</v>
       </c>
       <c r="G15" t="n">
         <v>2.24</v>
       </c>
       <c r="H15" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="I15" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="J15" t="n">
         <v>3.6</v>
       </c>
-      <c r="I15" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="J15" t="n">
+      <c r="K15" t="n">
         <v>3.65</v>
-      </c>
-      <c r="K15" t="n">
-        <v>3.8</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -2560,16 +2560,16 @@
         <v>1.28</v>
       </c>
       <c r="G16" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="H16" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="I16" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="J16" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="K16" t="n">
         <v>7.4</v>
@@ -2602,7 +2602,7 @@
         <v>1.91</v>
       </c>
       <c r="U16" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -2614,7 +2614,7 @@
         <v>1000</v>
       </c>
       <c r="Y16" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="Z16" t="n">
         <v>140</v>
@@ -2692,10 +2692,10 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="G17" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="H17" t="n">
         <v>2.22</v>
@@ -2827,19 +2827,19 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.57</v>
+        <v>1.61</v>
       </c>
       <c r="G18" t="n">
-        <v>1.67</v>
+        <v>1.64</v>
       </c>
       <c r="H18" t="n">
         <v>5.7</v>
       </c>
       <c r="I18" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="J18" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="K18" t="n">
         <v>4.9</v>
@@ -2857,7 +2857,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="Q18" t="n">
         <v>1.59</v>
@@ -2881,7 +2881,7 @@
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Y18" t="n">
         <v>26</v>
@@ -2896,7 +2896,7 @@
         <v>13</v>
       </c>
       <c r="AC18" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AD18" t="n">
         <v>24</v>
@@ -2911,7 +2911,7 @@
         <v>11</v>
       </c>
       <c r="AH18" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AI18" t="n">
         <v>1000</v>
@@ -2920,16 +2920,16 @@
         <v>16.5</v>
       </c>
       <c r="AK18" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AL18" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AM18" t="n">
         <v>100</v>
       </c>
       <c r="AN18" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="AO18" t="n">
         <v>1000</v>
@@ -2962,19 +2962,19 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="G19" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="H19" t="n">
         <v>13.5</v>
       </c>
       <c r="I19" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="J19" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="K19" t="n">
         <v>8.6</v>
@@ -2992,10 +2992,10 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -3007,7 +3007,7 @@
         <v>1.9</v>
       </c>
       <c r="U19" t="n">
-        <v>1.95</v>
+        <v>2.02</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -3100,10 +3100,10 @@
         <v>1.67</v>
       </c>
       <c r="G20" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="H20" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="I20" t="n">
         <v>5.8</v>
@@ -3112,13 +3112,13 @@
         <v>4.3</v>
       </c>
       <c r="K20" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -3151,7 +3151,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="Y20" t="n">
         <v>1000</v>
@@ -3160,10 +3160,10 @@
         <v>1000</v>
       </c>
       <c r="AA20" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AB20" t="n">
-        <v>11.5</v>
+        <v>14</v>
       </c>
       <c r="AC20" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-18.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-18.xlsx
@@ -814,22 +814,22 @@
         <v>3.35</v>
       </c>
       <c r="J3" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="K3" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="M3" t="n">
         <v>1.06</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>3.95</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="P3" t="n">
         <v>2.04</v>
@@ -838,10 +838,10 @@
         <v>1.86</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>3.05</v>
       </c>
       <c r="T3" t="n">
         <v>1.66</v>
@@ -850,40 +850,40 @@
         <v>2.26</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="X3" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="Y3" t="n">
         <v>15</v>
       </c>
       <c r="Z3" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AA3" t="n">
         <v>60</v>
       </c>
       <c r="AB3" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AC3" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD3" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AE3" t="n">
         <v>36</v>
       </c>
       <c r="AF3" t="n">
-        <v>17.5</v>
+        <v>16</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AH3" t="n">
         <v>17</v>
@@ -901,7 +901,7 @@
         <v>36</v>
       </c>
       <c r="AM3" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AN3" t="n">
         <v>18</v>
@@ -940,28 +940,28 @@
         <v>1.25</v>
       </c>
       <c r="G4" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="H4" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="I4" t="n">
-        <v>15.5</v>
+        <v>18</v>
       </c>
       <c r="J4" t="n">
-        <v>7.4</v>
+        <v>7</v>
       </c>
       <c r="K4" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="M4" t="n">
         <v>1.03</v>
       </c>
       <c r="N4" t="n">
-        <v>6</v>
+        <v>5.7</v>
       </c>
       <c r="O4" t="n">
         <v>1.17</v>
@@ -970,76 +970,76 @@
         <v>2.76</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="R4" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="S4" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="T4" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="U4" t="n">
         <v>1.68</v>
       </c>
-      <c r="S4" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="T4" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="U4" t="n">
-        <v>1.69</v>
-      </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>4.7</v>
       </c>
       <c r="X4" t="n">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="Y4" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="Z4" t="n">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="AA4" t="n">
-        <v>1000</v>
+        <v>750</v>
       </c>
       <c r="AB4" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="AC4" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="AD4" t="n">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="AE4" t="n">
-        <v>360</v>
+        <v>260</v>
       </c>
       <c r="AF4" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="AG4" t="n">
-        <v>17.5</v>
+        <v>12.5</v>
       </c>
       <c r="AH4" t="n">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="AI4" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="AJ4" t="n">
-        <v>9.199999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="AK4" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AL4" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AM4" t="n">
-        <v>270</v>
+        <v>230</v>
       </c>
       <c r="AN4" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="AO4" t="n">
         <v>1000</v>
@@ -1087,19 +1087,19 @@
         <v>3.9</v>
       </c>
       <c r="K5" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="M5" t="n">
         <v>1.08</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>2.88</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="P5" t="n">
         <v>1.74</v>
@@ -1108,76 +1108,76 @@
         <v>2.1</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>3.55</v>
       </c>
       <c r="T5" t="n">
         <v>1.94</v>
       </c>
       <c r="U5" t="n">
-        <v>1.74</v>
+        <v>1.64</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>2.44</v>
       </c>
       <c r="X5" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="Y5" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="Z5" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AA5" t="n">
-        <v>1000</v>
+        <v>240</v>
       </c>
       <c r="AB5" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC5" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>27</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>130</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AG5" t="n">
         <v>11.5</v>
       </c>
-      <c r="AD5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>11</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>13</v>
-      </c>
       <c r="AH5" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AI5" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AJ5" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AK5" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AL5" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AM5" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AN5" t="n">
         <v>1000</v>
       </c>
       <c r="AO5" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
     </row>
     <row r="6">
@@ -1216,7 +1216,7 @@
         <v>4.4</v>
       </c>
       <c r="I6" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="J6" t="n">
         <v>3.8</v>
@@ -1225,13 +1225,13 @@
         <v>3.85</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="M6" t="n">
         <v>1.07</v>
       </c>
       <c r="N6" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="O6" t="n">
         <v>1.32</v>
@@ -1240,79 +1240,79 @@
         <v>1.96</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>3.35</v>
       </c>
       <c r="T6" t="n">
-        <v>1.69</v>
+        <v>1.81</v>
       </c>
       <c r="U6" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="X6" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="Y6" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Z6" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AA6" t="n">
+        <v>110</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>60</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>65</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>23</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>38</v>
+      </c>
+      <c r="AM6" t="n">
         <v>120</v>
       </c>
-      <c r="AB6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>21</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>26</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>130</v>
-      </c>
       <c r="AN6" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AO6" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7">
@@ -1354,46 +1354,46 @@
         <v>14.5</v>
       </c>
       <c r="J7" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="K7" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="M7" t="n">
         <v>1.04</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>5.1</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="P7" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>2.58</v>
       </c>
       <c r="T7" t="n">
         <v>2.2</v>
       </c>
       <c r="U7" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="X7" t="n">
         <v>1000</v>
@@ -1411,7 +1411,7 @@
         <v>9.6</v>
       </c>
       <c r="AC7" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AD7" t="n">
         <v>1000</v>
@@ -1426,10 +1426,10 @@
         <v>12</v>
       </c>
       <c r="AH7" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AI7" t="n">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="AJ7" t="n">
         <v>10.5</v>
@@ -1444,7 +1444,7 @@
         <v>210</v>
       </c>
       <c r="AN7" t="n">
-        <v>5.9</v>
+        <v>5.5</v>
       </c>
       <c r="AO7" t="n">
         <v>1000</v>
@@ -1477,10 +1477,10 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.96</v>
+        <v>1.91</v>
       </c>
       <c r="G8" t="n">
-        <v>1.97</v>
+        <v>1.99</v>
       </c>
       <c r="H8" t="n">
         <v>4.3</v>
@@ -1489,97 +1489,97 @@
         <v>4.6</v>
       </c>
       <c r="J8" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="K8" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="M8" t="n">
         <v>1.08</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>2.72</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="P8" t="n">
-        <v>1.73</v>
+        <v>1.62</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T8" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="U8" t="n">
-        <v>1.83</v>
+        <v>1.72</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X8" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="Y8" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AA8" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AB8" t="n">
-        <v>9</v>
+        <v>7.8</v>
       </c>
       <c r="AC8" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD8" t="n">
         <v>1000</v>
       </c>
       <c r="AE8" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AF8" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AG8" t="n">
         <v>1000</v>
       </c>
       <c r="AH8" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AI8" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AJ8" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AK8" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AL8" t="n">
         <v>1000</v>
       </c>
       <c r="AM8" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="AN8" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AO8" t="n">
         <v>1000</v>
@@ -1612,34 +1612,34 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="G9" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="H9" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="I9" t="n">
         <v>3.1</v>
       </c>
       <c r="J9" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="K9" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="M9" t="n">
         <v>1.08</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="P9" t="n">
         <v>1.81</v>
@@ -1648,10 +1648,10 @@
         <v>1.98</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>3.65</v>
       </c>
       <c r="T9" t="n">
         <v>1.82</v>
@@ -1660,10 +1660,10 @@
         <v>2</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="X9" t="n">
         <v>11</v>
@@ -1765,28 +1765,28 @@
         <v>4.1</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="M10" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="P10" t="n">
         <v>1.79</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.98</v>
+        <v>1.9</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="T10" t="n">
         <v>1.88</v>
@@ -1795,10 +1795,10 @@
         <v>1.94</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X10" t="n">
         <v>1000</v>
@@ -1882,7 +1882,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="G11" t="n">
         <v>3.6</v>
@@ -1900,94 +1900,94 @@
         <v>2.86</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="M11" t="n">
-        <v>1.09</v>
+        <v>1.13</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="P11" t="n">
-        <v>1.55</v>
+        <v>1.26</v>
       </c>
       <c r="Q11" t="n">
         <v>2.44</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="T11" t="n">
         <v>1.86</v>
       </c>
       <c r="U11" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="X11" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="Y11" t="n">
         <v>10.5</v>
       </c>
-      <c r="Y11" t="n">
-        <v>1000</v>
-      </c>
       <c r="Z11" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AA11" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AB11" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AC11" t="n">
-        <v>1000</v>
+        <v>7.6</v>
       </c>
       <c r="AD11" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AE11" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AF11" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AG11" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AH11" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AI11" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AJ11" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AK11" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AL11" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AM11" t="n">
-        <v>1000</v>
+        <v>210</v>
       </c>
       <c r="AN11" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AO11" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12">
@@ -2017,112 +2017,112 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="G12" t="n">
         <v>1.26</v>
       </c>
       <c r="H12" t="n">
-        <v>14.5</v>
+        <v>12.5</v>
       </c>
       <c r="I12" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J12" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="K12" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="M12" t="n">
         <v>1.03</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="P12" t="n">
-        <v>2.56</v>
+        <v>2.62</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="T12" t="n">
         <v>2.26</v>
       </c>
       <c r="U12" t="n">
-        <v>1.64</v>
+        <v>1.7</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="X12" t="n">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="Y12" t="n">
         <v>1000</v>
       </c>
       <c r="Z12" t="n">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="AA12" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="AB12" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AC12" t="n">
-        <v>19.5</v>
+        <v>16.5</v>
       </c>
       <c r="AD12" t="n">
         <v>1000</v>
       </c>
       <c r="AE12" t="n">
-        <v>1000</v>
+        <v>340</v>
       </c>
       <c r="AF12" t="n">
-        <v>8.800000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AG12" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AH12" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AI12" t="n">
         <v>240</v>
       </c>
       <c r="AJ12" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AK12" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AL12" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AM12" t="n">
-        <v>1000</v>
+        <v>260</v>
       </c>
       <c r="AN12" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="AO12" t="n">
-        <v>1000</v>
+        <v>410</v>
       </c>
     </row>
     <row r="13">
@@ -2143,121 +2143,121 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>AEK Athens</t>
+          <t>Dynamo Kiev</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Universitatea Craiova</t>
+          <t>FC Noah</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.47</v>
+        <v>2.24</v>
       </c>
       <c r="G13" t="n">
-        <v>1.54</v>
+        <v>2.26</v>
       </c>
       <c r="H13" t="n">
-        <v>7.8</v>
+        <v>3.6</v>
       </c>
       <c r="I13" t="n">
-        <v>9.4</v>
+        <v>3.65</v>
       </c>
       <c r="J13" t="n">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="K13" t="n">
-        <v>5.3</v>
+        <v>3.65</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="M13" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>3.65</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="P13" t="n">
-        <v>1.97</v>
+        <v>1.91</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.84</v>
+        <v>1.96</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="T13" t="n">
-        <v>2.04</v>
+        <v>1.78</v>
       </c>
       <c r="U13" t="n">
-        <v>1.79</v>
+        <v>2.1</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="X13" t="n">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="Y13" t="n">
-        <v>26</v>
+        <v>14.5</v>
       </c>
       <c r="Z13" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AA13" t="n">
-        <v>380</v>
+        <v>70</v>
       </c>
       <c r="AB13" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AC13" t="n">
-        <v>11</v>
+        <v>8.4</v>
       </c>
       <c r="AD13" t="n">
-        <v>34</v>
+        <v>15.5</v>
       </c>
       <c r="AE13" t="n">
-        <v>180</v>
+        <v>44</v>
       </c>
       <c r="AF13" t="n">
-        <v>9.800000000000001</v>
+        <v>14.5</v>
       </c>
       <c r="AG13" t="n">
         <v>11</v>
       </c>
       <c r="AH13" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AI13" t="n">
-        <v>160</v>
+        <v>55</v>
       </c>
       <c r="AJ13" t="n">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="AK13" t="n">
-        <v>19.5</v>
+        <v>24</v>
       </c>
       <c r="AL13" t="n">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="AM13" t="n">
-        <v>210</v>
+        <v>110</v>
       </c>
       <c r="AN13" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="AO13" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14">
@@ -2278,118 +2278,118 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Rayo Vallecano</t>
+          <t>AEK Athens</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>KF Drita</t>
+          <t>Universitatea Craiova</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.19</v>
+        <v>1.47</v>
       </c>
       <c r="G14" t="n">
-        <v>1.2</v>
+        <v>1.54</v>
       </c>
       <c r="H14" t="n">
-        <v>17</v>
+        <v>7.8</v>
       </c>
       <c r="I14" t="n">
-        <v>32</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="J14" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="K14" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N14" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="P14" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="S14" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="T14" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="U14" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="V14" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="W14" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="X14" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>28</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>370</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>34</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>180</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>160</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>14</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>48</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>210</v>
+      </c>
+      <c r="AN14" t="n">
         <v>8</v>
-      </c>
-      <c r="K14" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0</v>
-      </c>
-      <c r="T14" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="U14" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="V14" t="n">
-        <v>0</v>
-      </c>
-      <c r="W14" t="n">
-        <v>0</v>
-      </c>
-      <c r="X14" t="n">
-        <v>34</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>350</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>20</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>120</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>14</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>450</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>16</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>55</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>340</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>3.6</v>
       </c>
       <c r="AO14" t="n">
         <v>1000</v>
@@ -2413,76 +2413,76 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Dynamo Kiev</t>
+          <t>Rayo Vallecano</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>FC Noah</t>
+          <t>KF Drita</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.22</v>
+        <v>1.19</v>
       </c>
       <c r="G15" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="H15" t="n">
+        <v>22</v>
+      </c>
+      <c r="I15" t="n">
+        <v>30</v>
+      </c>
+      <c r="J15" t="n">
+        <v>8</v>
+      </c>
+      <c r="K15" t="n">
+        <v>9</v>
+      </c>
+      <c r="L15" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N15" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="P15" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="S15" t="n">
         <v>2.24</v>
       </c>
-      <c r="H15" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="I15" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="J15" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="K15" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="R15" t="n">
-        <v>0</v>
-      </c>
-      <c r="S15" t="n">
-        <v>0</v>
-      </c>
       <c r="T15" t="n">
-        <v>1.74</v>
+        <v>2.4</v>
       </c>
       <c r="U15" t="n">
-        <v>2.08</v>
+        <v>1.61</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="X15" t="n">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="Y15" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="Z15" t="n">
-        <v>28</v>
+        <v>330</v>
       </c>
       <c r="AA15" t="n">
         <v>1000</v>
@@ -2491,40 +2491,40 @@
         <v>10.5</v>
       </c>
       <c r="AC15" t="n">
+        <v>20</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>120</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>650</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>430</v>
+      </c>
+      <c r="AJ15" t="n">
         <v>8.6</v>
       </c>
-      <c r="AD15" t="n">
+      <c r="AK15" t="n">
         <v>16</v>
       </c>
-      <c r="AE15" t="n">
-        <v>46</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>15</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AI15" t="n">
+      <c r="AL15" t="n">
         <v>55</v>
       </c>
-      <c r="AJ15" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>25</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>40</v>
-      </c>
       <c r="AM15" t="n">
-        <v>120</v>
+        <v>340</v>
       </c>
       <c r="AN15" t="n">
-        <v>18</v>
+        <v>3.5</v>
       </c>
       <c r="AO15" t="n">
         <v>1000</v>
@@ -2548,121 +2548,121 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Legia Warsaw</t>
+          <t>Lausanne</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Lincoln Red Imps</t>
+          <t>Fiorentina</t>
         </is>
       </c>
       <c r="F16" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="G16" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="H16" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="I16" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="J16" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="K16" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="L16" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N16" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="O16" t="n">
         <v>1.28</v>
       </c>
-      <c r="G16" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="H16" t="n">
-        <v>12</v>
-      </c>
-      <c r="I16" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="J16" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="K16" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
-        <v>0</v>
-      </c>
       <c r="P16" t="n">
-        <v>2.92</v>
+        <v>2.06</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.43</v>
+        <v>1.83</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T16" t="n">
-        <v>1.91</v>
+        <v>1.69</v>
       </c>
       <c r="U16" t="n">
-        <v>1.92</v>
+        <v>2.26</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>1.79</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="X16" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="Y16" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="Z16" t="n">
-        <v>140</v>
+        <v>15.5</v>
       </c>
       <c r="AA16" t="n">
-        <v>480</v>
+        <v>29</v>
       </c>
       <c r="AB16" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AC16" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>26</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AH16" t="n">
         <v>16.5</v>
       </c>
-      <c r="AD16" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>200</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>10</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>1000</v>
-      </c>
       <c r="AI16" t="n">
-        <v>150</v>
+        <v>36</v>
       </c>
       <c r="AJ16" t="n">
-        <v>11</v>
+        <v>65</v>
       </c>
       <c r="AK16" t="n">
-        <v>14.5</v>
+        <v>40</v>
       </c>
       <c r="AL16" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AM16" t="n">
-        <v>150</v>
+        <v>85</v>
       </c>
       <c r="AN16" t="n">
-        <v>3.85</v>
+        <v>36</v>
       </c>
       <c r="AO16" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17">
@@ -2683,121 +2683,121 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Lausanne</t>
+          <t>Legia Warsaw</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Fiorentina</t>
+          <t>Lincoln Red Imps</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>3.5</v>
+        <v>1.29</v>
       </c>
       <c r="G17" t="n">
-        <v>3.55</v>
+        <v>1.31</v>
       </c>
       <c r="H17" t="n">
-        <v>2.22</v>
+        <v>11.5</v>
       </c>
       <c r="I17" t="n">
-        <v>2.26</v>
+        <v>14</v>
       </c>
       <c r="J17" t="n">
-        <v>3.7</v>
+        <v>6.6</v>
       </c>
       <c r="K17" t="n">
-        <v>3.8</v>
+        <v>7.2</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="M17" t="n">
-        <v>1.06</v>
+        <v>1.02</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>6.6</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="P17" t="n">
-        <v>2.04</v>
+        <v>2.94</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.8</v>
+        <v>1.44</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>1.79</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="T17" t="n">
-        <v>1.66</v>
+        <v>1.88</v>
       </c>
       <c r="U17" t="n">
-        <v>2.24</v>
+        <v>2</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="X17" t="n">
-        <v>17.5</v>
+        <v>34</v>
       </c>
       <c r="Y17" t="n">
+        <v>60</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>130</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>490</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>16</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>46</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>200</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AG17" t="n">
         <v>11.5</v>
       </c>
-      <c r="Z17" t="n">
-        <v>16</v>
-      </c>
-      <c r="AA17" t="n">
+      <c r="AH17" t="n">
         <v>29</v>
       </c>
-      <c r="AB17" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>24</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>28</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>16</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>17</v>
-      </c>
       <c r="AI17" t="n">
-        <v>36</v>
+        <v>140</v>
       </c>
       <c r="AJ17" t="n">
-        <v>70</v>
+        <v>11</v>
       </c>
       <c r="AK17" t="n">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="AL17" t="n">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="AM17" t="n">
-        <v>85</v>
+        <v>140</v>
       </c>
       <c r="AN17" t="n">
-        <v>38</v>
+        <v>3.85</v>
       </c>
       <c r="AO17" t="n">
-        <v>16</v>
+        <v>170</v>
       </c>
     </row>
     <row r="18">
@@ -2845,16 +2845,16 @@
         <v>4.9</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="M18" t="n">
         <v>1.04</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="P18" t="n">
         <v>2.4</v>
@@ -2863,10 +2863,10 @@
         <v>1.59</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>2.46</v>
       </c>
       <c r="T18" t="n">
         <v>1.7</v>
@@ -2875,10 +2875,10 @@
         <v>2.18</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>2.56</v>
       </c>
       <c r="X18" t="n">
         <v>26</v>
@@ -2887,7 +2887,7 @@
         <v>26</v>
       </c>
       <c r="Z18" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AA18" t="n">
         <v>180</v>
@@ -2911,7 +2911,7 @@
         <v>11</v>
       </c>
       <c r="AH18" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AI18" t="n">
         <v>1000</v>
@@ -2971,25 +2971,25 @@
         <v>13.5</v>
       </c>
       <c r="I19" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="J19" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="K19" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="M19" t="n">
         <v>1.02</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="P19" t="n">
         <v>3.3</v>
@@ -2998,28 +2998,28 @@
         <v>1.37</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>1.96</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="T19" t="n">
         <v>1.9</v>
       </c>
       <c r="U19" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>4.9</v>
       </c>
       <c r="X19" t="n">
         <v>1000</v>
       </c>
       <c r="Y19" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="Z19" t="n">
         <v>170</v>
@@ -3028,7 +3028,7 @@
         <v>1000</v>
       </c>
       <c r="AB19" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AC19" t="n">
         <v>1000</v>
@@ -3097,7 +3097,7 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="G20" t="n">
         <v>1.73</v>
@@ -3106,52 +3106,52 @@
         <v>5.1</v>
       </c>
       <c r="I20" t="n">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="J20" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="K20" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="M20" t="n">
         <v>1.04</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="P20" t="n">
-        <v>2.4</v>
+        <v>2.34</v>
       </c>
       <c r="Q20" t="n">
         <v>1.61</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>2.58</v>
       </c>
       <c r="T20" t="n">
-        <v>1.65</v>
+        <v>1.69</v>
       </c>
       <c r="U20" t="n">
-        <v>2.26</v>
+        <v>2.2</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>2.36</v>
       </c>
       <c r="X20" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="Y20" t="n">
         <v>1000</v>
@@ -3163,7 +3163,7 @@
         <v>150</v>
       </c>
       <c r="AB20" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AC20" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-18.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-18.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO20"/>
+  <dimension ref="A1:AO23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -653,7 +653,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>08:00:00</t>
+          <t>07:00:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -778,7 +778,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>UEFA Europa Conference League</t>
+          <t>Azerbaijan Premier League</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,132 +788,132 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>12:30:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Slovan Bratislava</t>
+          <t>FC Sabah</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Hacken</t>
+          <t>Qarabag FK</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.3</v>
+        <v>2.64</v>
       </c>
       <c r="G3" t="n">
-        <v>2.42</v>
+        <v>4.1</v>
       </c>
       <c r="H3" t="n">
-        <v>3.15</v>
+        <v>2.08</v>
       </c>
       <c r="I3" t="n">
-        <v>3.35</v>
+        <v>2.96</v>
       </c>
       <c r="J3" t="n">
-        <v>3.65</v>
+        <v>3</v>
       </c>
       <c r="K3" t="n">
-        <v>3.8</v>
+        <v>7.2</v>
       </c>
       <c r="L3" t="n">
-        <v>1.39</v>
+        <v>1.01</v>
       </c>
       <c r="M3" t="n">
-        <v>1.06</v>
+        <v>1.01</v>
       </c>
       <c r="N3" t="n">
-        <v>3.95</v>
+        <v>1.67</v>
       </c>
       <c r="O3" t="n">
-        <v>1.27</v>
+        <v>1.01</v>
       </c>
       <c r="P3" t="n">
-        <v>2.04</v>
+        <v>1.67</v>
       </c>
       <c r="Q3" t="n">
         <v>1.86</v>
       </c>
       <c r="R3" t="n">
-        <v>1.41</v>
+        <v>1.08</v>
       </c>
       <c r="S3" t="n">
-        <v>3.05</v>
+        <v>1.86</v>
       </c>
       <c r="T3" t="n">
-        <v>1.66</v>
+        <v>1.01</v>
       </c>
       <c r="U3" t="n">
-        <v>2.26</v>
+        <v>1.01</v>
       </c>
       <c r="V3" t="n">
-        <v>1.42</v>
+        <v>1.51</v>
       </c>
       <c r="W3" t="n">
-        <v>1.7</v>
+        <v>1.32</v>
       </c>
       <c r="X3" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="Y3" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="Z3" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AA3" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AC3" t="n">
-        <v>8.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AD3" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AE3" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AF3" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AG3" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AH3" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AI3" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AJ3" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AK3" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AL3" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AM3" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AO3" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UEFA Europa Conference League</t>
+          <t>Algerian Ligue 1</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,123 +923,123 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>13:00:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Crystal Palace</t>
+          <t>ASO Chlef</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>KuPS</t>
+          <t>MC Oran</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.25</v>
+        <v>2.22</v>
       </c>
       <c r="G4" t="n">
-        <v>1.27</v>
+        <v>3.15</v>
       </c>
       <c r="H4" t="n">
-        <v>14.5</v>
+        <v>3.4</v>
       </c>
       <c r="I4" t="n">
-        <v>18</v>
+        <v>5.7</v>
       </c>
       <c r="J4" t="n">
-        <v>7</v>
+        <v>2.26</v>
       </c>
       <c r="K4" t="n">
-        <v>7.8</v>
+        <v>3.95</v>
       </c>
       <c r="L4" t="n">
-        <v>1.27</v>
+        <v>1.01</v>
       </c>
       <c r="M4" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="N4" t="n">
-        <v>5.7</v>
+        <v>1.4</v>
       </c>
       <c r="O4" t="n">
-        <v>1.17</v>
+        <v>1.02</v>
       </c>
       <c r="P4" t="n">
-        <v>2.76</v>
+        <v>1.4</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.55</v>
+        <v>1.01</v>
       </c>
       <c r="R4" t="n">
-        <v>1.69</v>
+        <v>1.12</v>
       </c>
       <c r="S4" t="n">
-        <v>2.32</v>
+        <v>1.01</v>
       </c>
       <c r="T4" t="n">
-        <v>2.26</v>
+        <v>1.01</v>
       </c>
       <c r="U4" t="n">
-        <v>1.68</v>
+        <v>1.01</v>
       </c>
       <c r="V4" t="n">
-        <v>1.06</v>
+        <v>1.21</v>
       </c>
       <c r="W4" t="n">
-        <v>4.7</v>
+        <v>1.46</v>
       </c>
       <c r="X4" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="Y4" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="Z4" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AA4" t="n">
-        <v>750</v>
+        <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AC4" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AD4" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AE4" t="n">
-        <v>260</v>
+        <v>1000</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AG4" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AH4" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AI4" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="AJ4" t="n">
-        <v>9.6</v>
+        <v>1000</v>
       </c>
       <c r="AK4" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AL4" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AM4" t="n">
-        <v>230</v>
+        <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>4.1</v>
+        <v>1000</v>
       </c>
       <c r="AO4" t="n">
         <v>1000</v>
@@ -1048,7 +1048,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UEFA Europa Conference League</t>
+          <t>Algerian Ligue 1</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,126 +1058,126 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>AEK Larnaca</t>
+          <t>USM Alger</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Shkendija</t>
+          <t>ES Ben Aknoun</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.64</v>
+        <v>1.33</v>
       </c>
       <c r="G5" t="n">
-        <v>1.69</v>
+        <v>1.61</v>
       </c>
       <c r="H5" t="n">
-        <v>6.4</v>
+        <v>8.6</v>
       </c>
       <c r="I5" t="n">
-        <v>6.6</v>
+        <v>1000</v>
       </c>
       <c r="J5" t="n">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="K5" t="n">
-        <v>4.3</v>
+        <v>7.6</v>
       </c>
       <c r="L5" t="n">
-        <v>1.46</v>
+        <v>1.01</v>
       </c>
       <c r="M5" t="n">
-        <v>1.08</v>
+        <v>1.01</v>
       </c>
       <c r="N5" t="n">
-        <v>2.88</v>
+        <v>1.51</v>
       </c>
       <c r="O5" t="n">
-        <v>1.38</v>
+        <v>1.01</v>
       </c>
       <c r="P5" t="n">
-        <v>1.74</v>
+        <v>1.51</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.1</v>
+        <v>2.04</v>
       </c>
       <c r="R5" t="n">
-        <v>1.27</v>
+        <v>1.12</v>
       </c>
       <c r="S5" t="n">
-        <v>3.55</v>
+        <v>2.04</v>
       </c>
       <c r="T5" t="n">
-        <v>1.94</v>
+        <v>1.01</v>
       </c>
       <c r="U5" t="n">
-        <v>1.64</v>
+        <v>1.01</v>
       </c>
       <c r="V5" t="n">
-        <v>1.17</v>
+        <v>1.01</v>
       </c>
       <c r="W5" t="n">
-        <v>2.44</v>
+        <v>2.62</v>
       </c>
       <c r="X5" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="Y5" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="Z5" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AA5" t="n">
-        <v>240</v>
+        <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>8.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AC5" t="n">
-        <v>9.6</v>
+        <v>1000</v>
       </c>
       <c r="AD5" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AE5" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.4</v>
+        <v>1000</v>
       </c>
       <c r="AG5" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AH5" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AI5" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AJ5" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AK5" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AL5" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AM5" t="n">
-        <v>190</v>
+        <v>1000</v>
       </c>
       <c r="AN5" t="n">
         <v>1000</v>
       </c>
       <c r="AO5" t="n">
-        <v>190</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="6">
@@ -1198,121 +1198,121 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Shakhtar</t>
+          <t>Slovan Bratislava</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Rijeka</t>
+          <t>Hacken</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.92</v>
+        <v>2.28</v>
       </c>
       <c r="G6" t="n">
-        <v>1.95</v>
+        <v>2.42</v>
       </c>
       <c r="H6" t="n">
-        <v>4.4</v>
+        <v>3.15</v>
       </c>
       <c r="I6" t="n">
-        <v>4.6</v>
+        <v>3.4</v>
       </c>
       <c r="J6" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="K6" t="n">
         <v>3.8</v>
       </c>
-      <c r="K6" t="n">
-        <v>3.85</v>
-      </c>
       <c r="L6" t="n">
-        <v>1.43</v>
+        <v>1.39</v>
       </c>
       <c r="M6" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N6" t="n">
-        <v>3.65</v>
+        <v>3.95</v>
       </c>
       <c r="O6" t="n">
-        <v>1.32</v>
+        <v>1.27</v>
       </c>
       <c r="P6" t="n">
-        <v>1.96</v>
+        <v>2.04</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.95</v>
+        <v>1.86</v>
       </c>
       <c r="R6" t="n">
-        <v>1.35</v>
+        <v>1.41</v>
       </c>
       <c r="S6" t="n">
-        <v>3.35</v>
+        <v>3.05</v>
       </c>
       <c r="T6" t="n">
-        <v>1.81</v>
+        <v>1.66</v>
       </c>
       <c r="U6" t="n">
-        <v>2.04</v>
+        <v>2.26</v>
       </c>
       <c r="V6" t="n">
-        <v>1.27</v>
+        <v>1.41</v>
       </c>
       <c r="W6" t="n">
-        <v>2.04</v>
+        <v>1.7</v>
       </c>
       <c r="X6" t="n">
-        <v>14.5</v>
+        <v>17</v>
       </c>
       <c r="Y6" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>24</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>60</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>14</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>36</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>16</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH6" t="n">
         <v>17</v>
       </c>
-      <c r="Z6" t="n">
-        <v>40</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>110</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>60</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>12</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>22</v>
-      </c>
       <c r="AI6" t="n">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="AJ6" t="n">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="AK6" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="AL6" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AM6" t="n">
-        <v>120</v>
+        <v>85</v>
       </c>
       <c r="AN6" t="n">
-        <v>14.5</v>
+        <v>18</v>
       </c>
       <c r="AO6" t="n">
-        <v>65</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7">
@@ -1333,118 +1333,118 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>NK Celje</t>
+          <t>Crystal Palace</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Shelbourne</t>
+          <t>KuPS</t>
         </is>
       </c>
       <c r="F7" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="G7" t="n">
         <v>1.29</v>
       </c>
-      <c r="G7" t="n">
-        <v>1.32</v>
-      </c>
       <c r="H7" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="I7" t="n">
-        <v>14.5</v>
+        <v>16</v>
       </c>
       <c r="J7" t="n">
-        <v>6</v>
+        <v>6.4</v>
       </c>
       <c r="K7" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="L7" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="M7" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N7" t="n">
-        <v>5.1</v>
+        <v>5.6</v>
       </c>
       <c r="O7" t="n">
-        <v>1.21</v>
+        <v>1.17</v>
       </c>
       <c r="P7" t="n">
-        <v>2.38</v>
+        <v>2.78</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="R7" t="n">
-        <v>1.55</v>
+        <v>1.69</v>
       </c>
       <c r="S7" t="n">
-        <v>2.58</v>
+        <v>2.3</v>
       </c>
       <c r="T7" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="U7" t="n">
-        <v>1.74</v>
+        <v>1.71</v>
       </c>
       <c r="V7" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="W7" t="n">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="X7" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="Y7" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="Z7" t="n">
         <v>150</v>
       </c>
       <c r="AA7" t="n">
-        <v>1000</v>
+        <v>640</v>
       </c>
       <c r="AB7" t="n">
-        <v>9.6</v>
+        <v>13</v>
       </c>
       <c r="AC7" t="n">
-        <v>15.5</v>
+        <v>17</v>
       </c>
       <c r="AD7" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AE7" t="n">
-        <v>270</v>
+        <v>230</v>
       </c>
       <c r="AF7" t="n">
-        <v>8.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AH7" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="AI7" t="n">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="AJ7" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AK7" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AL7" t="n">
         <v>1000</v>
       </c>
       <c r="AM7" t="n">
-        <v>210</v>
+        <v>180</v>
       </c>
       <c r="AN7" t="n">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="AO7" t="n">
         <v>1000</v>
@@ -1468,121 +1468,121 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Zrinjski</t>
+          <t>AEK Larnaca</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Rapid Vienna</t>
+          <t>Shkendija</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.91</v>
+        <v>1.64</v>
       </c>
       <c r="G8" t="n">
-        <v>1.99</v>
+        <v>1.69</v>
       </c>
       <c r="H8" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="I8" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="J8" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="K8" t="n">
         <v>4.3</v>
       </c>
-      <c r="I8" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="J8" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="K8" t="n">
-        <v>3.85</v>
-      </c>
       <c r="L8" t="n">
-        <v>1.49</v>
+        <v>1.46</v>
       </c>
       <c r="M8" t="n">
         <v>1.08</v>
       </c>
       <c r="N8" t="n">
-        <v>2.72</v>
+        <v>2.88</v>
       </c>
       <c r="O8" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="P8" t="n">
-        <v>1.62</v>
+        <v>1.75</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.04</v>
+        <v>2.1</v>
       </c>
       <c r="R8" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="S8" t="n">
-        <v>4</v>
+        <v>3.55</v>
       </c>
       <c r="T8" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="U8" t="n">
-        <v>1.72</v>
+        <v>1.64</v>
       </c>
       <c r="V8" t="n">
-        <v>1.28</v>
+        <v>1.17</v>
       </c>
       <c r="W8" t="n">
-        <v>2</v>
+        <v>2.46</v>
       </c>
       <c r="X8" t="n">
-        <v>12.5</v>
+        <v>14</v>
       </c>
       <c r="Y8" t="n">
-        <v>14.5</v>
+        <v>20</v>
       </c>
       <c r="Z8" t="n">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="AA8" t="n">
+        <v>240</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>26</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>130</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>30</v>
+      </c>
+      <c r="AI8" t="n">
         <v>120</v>
       </c>
-      <c r="AB8" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>75</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>11</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>26</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>90</v>
-      </c>
       <c r="AJ8" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="AK8" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="AL8" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AM8" t="n">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="AN8" t="n">
         <v>1000</v>
       </c>
       <c r="AO8" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
     </row>
     <row r="9">
@@ -1603,121 +1603,121 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Omonia</t>
+          <t>Shakhtar</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Rakow Czestochowa</t>
+          <t>Rijeka</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.6</v>
+        <v>1.92</v>
       </c>
       <c r="G9" t="n">
-        <v>2.8</v>
+        <v>1.95</v>
       </c>
       <c r="H9" t="n">
-        <v>2.9</v>
+        <v>4.5</v>
       </c>
       <c r="I9" t="n">
-        <v>3.1</v>
+        <v>4.7</v>
       </c>
       <c r="J9" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="K9" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N9" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="S9" t="n">
         <v>3.35</v>
       </c>
-      <c r="K9" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="L9" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N9" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="P9" t="n">
+      <c r="T9" t="n">
         <v>1.81</v>
       </c>
-      <c r="Q9" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="S9" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="T9" t="n">
-        <v>1.82</v>
-      </c>
       <c r="U9" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="V9" t="n">
-        <v>1.47</v>
+        <v>1.27</v>
       </c>
       <c r="W9" t="n">
-        <v>1.56</v>
+        <v>2.04</v>
       </c>
       <c r="X9" t="n">
-        <v>11</v>
+        <v>14.5</v>
       </c>
       <c r="Y9" t="n">
-        <v>11.5</v>
+        <v>17</v>
       </c>
       <c r="Z9" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AA9" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AB9" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AC9" t="n">
         <v>9</v>
       </c>
       <c r="AD9" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AE9" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AF9" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AG9" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AH9" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AI9" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AJ9" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AK9" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AL9" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AM9" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AN9" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AO9" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10">
@@ -1738,107 +1738,107 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Shamrock Rovers</t>
+          <t>NK Celje</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Hamrun Spartans FC</t>
+          <t>Shelbourne</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.83</v>
+        <v>1.32</v>
       </c>
       <c r="G10" t="n">
-        <v>1.99</v>
+        <v>1.33</v>
       </c>
       <c r="H10" t="n">
-        <v>4.3</v>
+        <v>12</v>
       </c>
       <c r="I10" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="J10" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="K10" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N10" t="n">
         <v>5.1</v>
       </c>
-      <c r="J10" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="K10" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="L10" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N10" t="n">
-        <v>3.25</v>
-      </c>
       <c r="O10" t="n">
-        <v>1.36</v>
+        <v>1.21</v>
       </c>
       <c r="P10" t="n">
-        <v>1.79</v>
+        <v>2.38</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.9</v>
+        <v>1.64</v>
       </c>
       <c r="R10" t="n">
-        <v>1.25</v>
+        <v>1.55</v>
       </c>
       <c r="S10" t="n">
-        <v>3.3</v>
+        <v>2.64</v>
       </c>
       <c r="T10" t="n">
-        <v>1.88</v>
+        <v>2.18</v>
       </c>
       <c r="U10" t="n">
-        <v>1.94</v>
+        <v>1.73</v>
       </c>
       <c r="V10" t="n">
-        <v>1.24</v>
+        <v>1.08</v>
       </c>
       <c r="W10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="X10" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="Y10" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="Z10" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AA10" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AB10" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>270</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>200</v>
+      </c>
+      <c r="AJ10" t="n">
         <v>10.5</v>
       </c>
-      <c r="AC10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>1000</v>
-      </c>
       <c r="AK10" t="n">
         <v>1000</v>
       </c>
@@ -1846,10 +1846,10 @@
         <v>1000</v>
       </c>
       <c r="AM10" t="n">
-        <v>150</v>
+        <v>210</v>
       </c>
       <c r="AN10" t="n">
-        <v>1000</v>
+        <v>5.5</v>
       </c>
       <c r="AO10" t="n">
         <v>1000</v>
@@ -1873,121 +1873,121 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Sigma Olomouc</t>
+          <t>Zrinjski</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Lech Poznan</t>
+          <t>Rapid Vienna</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>3.35</v>
+        <v>1.82</v>
       </c>
       <c r="G11" t="n">
-        <v>3.6</v>
+        <v>1.97</v>
       </c>
       <c r="H11" t="n">
-        <v>2.74</v>
+        <v>4.3</v>
       </c>
       <c r="I11" t="n">
-        <v>2.92</v>
+        <v>4.7</v>
       </c>
       <c r="J11" t="n">
-        <v>2.8</v>
+        <v>3.8</v>
       </c>
       <c r="K11" t="n">
-        <v>2.86</v>
+        <v>4.5</v>
       </c>
       <c r="L11" t="n">
-        <v>1.53</v>
+        <v>1.49</v>
       </c>
       <c r="M11" t="n">
-        <v>1.13</v>
+        <v>1.08</v>
       </c>
       <c r="N11" t="n">
-        <v>1.02</v>
+        <v>2.98</v>
       </c>
       <c r="O11" t="n">
-        <v>1.46</v>
+        <v>1.42</v>
       </c>
       <c r="P11" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R11" t="n">
         <v>1.26</v>
       </c>
-      <c r="Q11" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="R11" t="n">
-        <v>1.18</v>
-      </c>
       <c r="S11" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="T11" t="n">
-        <v>1.86</v>
+        <v>2.06</v>
       </c>
       <c r="U11" t="n">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="V11" t="n">
-        <v>1.51</v>
+        <v>1.27</v>
       </c>
       <c r="W11" t="n">
-        <v>1.38</v>
+        <v>2.02</v>
       </c>
       <c r="X11" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>120</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AC11" t="n">
         <v>9.199999999999999</v>
       </c>
-      <c r="Y11" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>18</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>50</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>12</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>7.6</v>
-      </c>
       <c r="AD11" t="n">
-        <v>15.5</v>
+        <v>21</v>
       </c>
       <c r="AE11" t="n">
-        <v>46</v>
+        <v>80</v>
       </c>
       <c r="AF11" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>90</v>
+      </c>
+      <c r="AJ11" t="n">
         <v>23</v>
       </c>
-      <c r="AG11" t="n">
-        <v>18</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>28</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>80</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>70</v>
-      </c>
       <c r="AK11" t="n">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="AL11" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AM11" t="n">
-        <v>210</v>
+        <v>170</v>
       </c>
       <c r="AN11" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AO11" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="12">
@@ -2008,121 +2008,121 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Sparta Prague</t>
+          <t>Omonia</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Aberdeen</t>
+          <t>Rakow Czestochowa</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.23</v>
+        <v>2.58</v>
       </c>
       <c r="G12" t="n">
-        <v>1.26</v>
+        <v>2.8</v>
       </c>
       <c r="H12" t="n">
-        <v>12.5</v>
+        <v>2.92</v>
       </c>
       <c r="I12" t="n">
-        <v>19</v>
+        <v>3.1</v>
       </c>
       <c r="J12" t="n">
-        <v>6.6</v>
+        <v>3.35</v>
       </c>
       <c r="K12" t="n">
-        <v>7.8</v>
+        <v>3.45</v>
       </c>
       <c r="L12" t="n">
-        <v>1.27</v>
+        <v>1.46</v>
       </c>
       <c r="M12" t="n">
-        <v>1.03</v>
+        <v>1.08</v>
       </c>
       <c r="N12" t="n">
-        <v>6</v>
+        <v>3.25</v>
       </c>
       <c r="O12" t="n">
-        <v>1.17</v>
+        <v>1.37</v>
       </c>
       <c r="P12" t="n">
-        <v>2.62</v>
+        <v>1.81</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.53</v>
+        <v>2</v>
       </c>
       <c r="R12" t="n">
-        <v>1.68</v>
+        <v>1.3</v>
       </c>
       <c r="S12" t="n">
-        <v>2.3</v>
+        <v>3.65</v>
       </c>
       <c r="T12" t="n">
-        <v>2.26</v>
+        <v>1.82</v>
       </c>
       <c r="U12" t="n">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="V12" t="n">
-        <v>1.06</v>
+        <v>1.47</v>
       </c>
       <c r="W12" t="n">
-        <v>4.8</v>
+        <v>1.56</v>
       </c>
       <c r="X12" t="n">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="Y12" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>180</v>
+        <v>1000</v>
       </c>
       <c r="AA12" t="n">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="AB12" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AC12" t="n">
-        <v>16.5</v>
+        <v>9</v>
       </c>
       <c r="AD12" t="n">
         <v>1000</v>
       </c>
       <c r="AE12" t="n">
-        <v>340</v>
+        <v>1000</v>
       </c>
       <c r="AF12" t="n">
-        <v>8.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AG12" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AH12" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AI12" t="n">
-        <v>240</v>
+        <v>1000</v>
       </c>
       <c r="AJ12" t="n">
-        <v>9.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AK12" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AL12" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AM12" t="n">
-        <v>260</v>
+        <v>130</v>
       </c>
       <c r="AN12" t="n">
-        <v>4.2</v>
+        <v>1000</v>
       </c>
       <c r="AO12" t="n">
-        <v>410</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="13">
@@ -2143,121 +2143,121 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Dynamo Kiev</t>
+          <t>Sigma Olomouc</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>FC Noah</t>
+          <t>Lech Poznan</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.24</v>
+        <v>3.3</v>
       </c>
       <c r="G13" t="n">
-        <v>2.26</v>
+        <v>4</v>
       </c>
       <c r="H13" t="n">
-        <v>3.6</v>
+        <v>2.52</v>
       </c>
       <c r="I13" t="n">
-        <v>3.65</v>
+        <v>2.92</v>
       </c>
       <c r="J13" t="n">
-        <v>3.6</v>
+        <v>2.8</v>
       </c>
       <c r="K13" t="n">
-        <v>3.65</v>
+        <v>2.82</v>
       </c>
       <c r="L13" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="M13" t="n">
-        <v>1.07</v>
+        <v>1.13</v>
       </c>
       <c r="N13" t="n">
-        <v>3.65</v>
+        <v>2.64</v>
       </c>
       <c r="O13" t="n">
-        <v>1.32</v>
+        <v>1.47</v>
       </c>
       <c r="P13" t="n">
-        <v>1.91</v>
+        <v>1.26</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.96</v>
+        <v>1.47</v>
       </c>
       <c r="R13" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S13" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="T13" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="U13" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="V13" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="W13" t="n">
         <v>1.35</v>
       </c>
-      <c r="S13" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="T13" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="U13" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="V13" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="W13" t="n">
-        <v>1.8</v>
-      </c>
       <c r="X13" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>46</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AD13" t="n">
         <v>15</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>27</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>70</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>15.5</v>
       </c>
       <c r="AE13" t="n">
         <v>44</v>
       </c>
       <c r="AF13" t="n">
-        <v>14.5</v>
+        <v>23</v>
       </c>
       <c r="AG13" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="AH13" t="n">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="AI13" t="n">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="AJ13" t="n">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="AK13" t="n">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="AL13" t="n">
-        <v>38</v>
+        <v>90</v>
       </c>
       <c r="AM13" t="n">
-        <v>110</v>
+        <v>210</v>
       </c>
       <c r="AN13" t="n">
-        <v>18</v>
+        <v>75</v>
       </c>
       <c r="AO13" t="n">
-        <v>42</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14">
@@ -2278,121 +2278,121 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>AEK Athens</t>
+          <t>Sparta Prague</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Universitatea Craiova</t>
+          <t>Aberdeen</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.47</v>
+        <v>1.23</v>
       </c>
       <c r="G14" t="n">
-        <v>1.54</v>
+        <v>1.26</v>
       </c>
       <c r="H14" t="n">
-        <v>7.8</v>
+        <v>12.5</v>
       </c>
       <c r="I14" t="n">
-        <v>9.199999999999999</v>
+        <v>18</v>
       </c>
       <c r="J14" t="n">
-        <v>4.2</v>
+        <v>7</v>
       </c>
       <c r="K14" t="n">
-        <v>5.2</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="L14" t="n">
-        <v>1.41</v>
+        <v>1.27</v>
       </c>
       <c r="M14" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N14" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P14" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="S14" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="T14" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="U14" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="V14" t="n">
         <v>1.06</v>
       </c>
-      <c r="N14" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="P14" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="R14" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="S14" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="T14" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="U14" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="V14" t="n">
-        <v>1.12</v>
-      </c>
       <c r="W14" t="n">
-        <v>2.8</v>
+        <v>4.7</v>
       </c>
       <c r="X14" t="n">
-        <v>16.5</v>
+        <v>28</v>
       </c>
       <c r="Y14" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="Z14" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AA14" t="n">
-        <v>370</v>
+        <v>860</v>
       </c>
       <c r="AB14" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AC14" t="n">
-        <v>11</v>
+        <v>19.5</v>
       </c>
       <c r="AD14" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AE14" t="n">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="AF14" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>40</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ14" t="n">
         <v>9.800000000000001</v>
       </c>
-      <c r="AG14" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>160</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>14</v>
-      </c>
       <c r="AK14" t="n">
-        <v>19.5</v>
+        <v>13.5</v>
       </c>
       <c r="AL14" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="AM14" t="n">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="AN14" t="n">
-        <v>8</v>
+        <v>4.1</v>
       </c>
       <c r="AO14" t="n">
-        <v>1000</v>
+        <v>350</v>
       </c>
     </row>
     <row r="15">
@@ -2413,118 +2413,118 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Rayo Vallecano</t>
+          <t>Shamrock Rovers</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>KF Drita</t>
+          <t>Hamrun Spartans FC</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.19</v>
+        <v>1.79</v>
       </c>
       <c r="G15" t="n">
-        <v>1.2</v>
+        <v>1.94</v>
       </c>
       <c r="H15" t="n">
-        <v>22</v>
+        <v>4.4</v>
       </c>
       <c r="I15" t="n">
-        <v>30</v>
+        <v>5.2</v>
       </c>
       <c r="J15" t="n">
-        <v>8</v>
+        <v>3.65</v>
       </c>
       <c r="K15" t="n">
-        <v>9</v>
+        <v>4.3</v>
       </c>
       <c r="L15" t="n">
-        <v>1.25</v>
+        <v>1.45</v>
       </c>
       <c r="M15" t="n">
-        <v>1.03</v>
+        <v>1.07</v>
       </c>
       <c r="N15" t="n">
-        <v>6.2</v>
+        <v>3.25</v>
       </c>
       <c r="O15" t="n">
-        <v>1.16</v>
+        <v>1.36</v>
       </c>
       <c r="P15" t="n">
-        <v>2.72</v>
+        <v>1.82</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.5</v>
+        <v>1.9</v>
       </c>
       <c r="R15" t="n">
-        <v>1.75</v>
+        <v>1.26</v>
       </c>
       <c r="S15" t="n">
-        <v>2.24</v>
+        <v>3.3</v>
       </c>
       <c r="T15" t="n">
-        <v>2.4</v>
+        <v>1.88</v>
       </c>
       <c r="U15" t="n">
-        <v>1.61</v>
+        <v>1.94</v>
       </c>
       <c r="V15" t="n">
-        <v>1.04</v>
+        <v>1.23</v>
       </c>
       <c r="W15" t="n">
-        <v>6</v>
+        <v>2.06</v>
       </c>
       <c r="X15" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="Y15" t="n">
         <v>1000</v>
       </c>
       <c r="Z15" t="n">
-        <v>330</v>
+        <v>1000</v>
       </c>
       <c r="AA15" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AB15" t="n">
         <v>10.5</v>
       </c>
       <c r="AC15" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AD15" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AE15" t="n">
-        <v>650</v>
+        <v>1000</v>
       </c>
       <c r="AF15" t="n">
-        <v>7.8</v>
+        <v>1000</v>
       </c>
       <c r="AG15" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AH15" t="n">
         <v>1000</v>
       </c>
       <c r="AI15" t="n">
-        <v>430</v>
+        <v>1000</v>
       </c>
       <c r="AJ15" t="n">
-        <v>8.6</v>
+        <v>1000</v>
       </c>
       <c r="AK15" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AL15" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AM15" t="n">
-        <v>340</v>
+        <v>150</v>
       </c>
       <c r="AN15" t="n">
-        <v>3.5</v>
+        <v>1000</v>
       </c>
       <c r="AO15" t="n">
         <v>1000</v>
@@ -2548,121 +2548,121 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Lausanne</t>
+          <t>Dynamo Kiev</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Fiorentina</t>
+          <t>FC Noah</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>3.5</v>
+        <v>2.2</v>
       </c>
       <c r="G16" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="H16" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I16" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="J16" t="n">
         <v>3.55</v>
       </c>
-      <c r="H16" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="I16" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="J16" t="n">
-        <v>3.7</v>
-      </c>
       <c r="K16" t="n">
-        <v>3.8</v>
+        <v>3.65</v>
       </c>
       <c r="L16" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="M16" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N16" t="n">
-        <v>4.1</v>
+        <v>3.65</v>
       </c>
       <c r="O16" t="n">
-        <v>1.28</v>
+        <v>1.32</v>
       </c>
       <c r="P16" t="n">
-        <v>2.06</v>
+        <v>1.9</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.83</v>
+        <v>1.97</v>
       </c>
       <c r="R16" t="n">
-        <v>1.42</v>
+        <v>1.35</v>
       </c>
       <c r="S16" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="T16" t="n">
-        <v>1.69</v>
+        <v>1.77</v>
       </c>
       <c r="U16" t="n">
-        <v>2.26</v>
+        <v>2.1</v>
       </c>
       <c r="V16" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="W16" t="n">
         <v>1.79</v>
       </c>
-      <c r="W16" t="n">
-        <v>1.39</v>
-      </c>
       <c r="X16" t="n">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="Y16" t="n">
-        <v>11.5</v>
+        <v>14.5</v>
       </c>
       <c r="Z16" t="n">
+        <v>27</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>70</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AD16" t="n">
         <v>15.5</v>
       </c>
-      <c r="AA16" t="n">
-        <v>29</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>16</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AD16" t="n">
+      <c r="AE16" t="n">
+        <v>44</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AG16" t="n">
         <v>11</v>
       </c>
-      <c r="AE16" t="n">
-        <v>23</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>26</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>15.5</v>
-      </c>
       <c r="AH16" t="n">
-        <v>16.5</v>
+        <v>18</v>
       </c>
       <c r="AI16" t="n">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="AJ16" t="n">
-        <v>65</v>
+        <v>28</v>
       </c>
       <c r="AK16" t="n">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="AL16" t="n">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="AM16" t="n">
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="AN16" t="n">
-        <v>36</v>
+        <v>17.5</v>
       </c>
       <c r="AO16" t="n">
-        <v>16</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17">
@@ -2683,121 +2683,121 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Legia Warsaw</t>
+          <t>AEK Athens</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Lincoln Red Imps</t>
+          <t>Universitatea Craiova</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.29</v>
+        <v>1.43</v>
       </c>
       <c r="G17" t="n">
-        <v>1.31</v>
+        <v>1.52</v>
       </c>
       <c r="H17" t="n">
-        <v>11.5</v>
+        <v>7.8</v>
       </c>
       <c r="I17" t="n">
-        <v>14</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="J17" t="n">
-        <v>6.6</v>
+        <v>4.4</v>
       </c>
       <c r="K17" t="n">
-        <v>7.2</v>
+        <v>5.6</v>
       </c>
       <c r="L17" t="n">
-        <v>1.23</v>
+        <v>1.41</v>
       </c>
       <c r="M17" t="n">
-        <v>1.02</v>
+        <v>1.06</v>
       </c>
       <c r="N17" t="n">
-        <v>6.6</v>
+        <v>3.85</v>
       </c>
       <c r="O17" t="n">
-        <v>1.14</v>
+        <v>1.32</v>
       </c>
       <c r="P17" t="n">
-        <v>2.94</v>
+        <v>1.98</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.44</v>
+        <v>1.86</v>
       </c>
       <c r="R17" t="n">
-        <v>1.79</v>
+        <v>1.37</v>
       </c>
       <c r="S17" t="n">
-        <v>2.2</v>
+        <v>3.2</v>
       </c>
       <c r="T17" t="n">
-        <v>1.88</v>
+        <v>2.06</v>
       </c>
       <c r="U17" t="n">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="V17" t="n">
-        <v>1.07</v>
+        <v>1.12</v>
       </c>
       <c r="W17" t="n">
-        <v>4.2</v>
+        <v>2.88</v>
       </c>
       <c r="X17" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>28</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>370</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD17" t="n">
         <v>34</v>
       </c>
-      <c r="Y17" t="n">
-        <v>60</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>130</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>490</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>13</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>16</v>
-      </c>
-      <c r="AD17" t="n">
+      <c r="AE17" t="n">
+        <v>180</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>160</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AL17" t="n">
         <v>46</v>
       </c>
-      <c r="AE17" t="n">
-        <v>200</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>29</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>140</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>14</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>32</v>
-      </c>
       <c r="AM17" t="n">
-        <v>140</v>
+        <v>210</v>
       </c>
       <c r="AN17" t="n">
-        <v>3.85</v>
+        <v>8</v>
       </c>
       <c r="AO17" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="18">
@@ -2818,118 +2818,118 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Az Alkmaar</t>
+          <t>Rayo Vallecano</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Jagiellonia Bialystock</t>
+          <t>KF Drita</t>
         </is>
       </c>
       <c r="F18" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="G18" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="H18" t="n">
+        <v>22</v>
+      </c>
+      <c r="I18" t="n">
+        <v>29</v>
+      </c>
+      <c r="J18" t="n">
+        <v>8</v>
+      </c>
+      <c r="K18" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="L18" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N18" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="P18" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="S18" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="T18" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="U18" t="n">
         <v>1.61</v>
       </c>
-      <c r="G18" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="H18" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="I18" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="J18" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="K18" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="L18" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="M18" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N18" t="n">
-        <v>5</v>
-      </c>
-      <c r="O18" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="P18" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="R18" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="S18" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="T18" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="U18" t="n">
-        <v>2.18</v>
-      </c>
       <c r="V18" t="n">
-        <v>1.17</v>
+        <v>1.03</v>
       </c>
       <c r="W18" t="n">
-        <v>2.56</v>
+        <v>6</v>
       </c>
       <c r="X18" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="Y18" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="Z18" t="n">
+        <v>310</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>20</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>110</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>600</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>400</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>16</v>
+      </c>
+      <c r="AL18" t="n">
         <v>55</v>
       </c>
-      <c r="AA18" t="n">
-        <v>180</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>13</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>24</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>75</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AL18" t="n">
-        <v>29</v>
-      </c>
       <c r="AM18" t="n">
-        <v>100</v>
+        <v>340</v>
       </c>
       <c r="AN18" t="n">
-        <v>6.8</v>
+        <v>3.5</v>
       </c>
       <c r="AO18" t="n">
         <v>1000</v>
@@ -2953,121 +2953,121 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Strasbourg</t>
+          <t>Lausanne</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Breidablik</t>
+          <t>Fiorentina</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.23</v>
+        <v>3.5</v>
       </c>
       <c r="G19" t="n">
-        <v>1.26</v>
+        <v>3.55</v>
       </c>
       <c r="H19" t="n">
-        <v>13.5</v>
+        <v>2.24</v>
       </c>
       <c r="I19" t="n">
-        <v>17.5</v>
+        <v>2.26</v>
       </c>
       <c r="J19" t="n">
-        <v>7.4</v>
+        <v>3.7</v>
       </c>
       <c r="K19" t="n">
-        <v>8.800000000000001</v>
+        <v>3.75</v>
       </c>
       <c r="L19" t="n">
-        <v>1.21</v>
+        <v>1.38</v>
       </c>
       <c r="M19" t="n">
-        <v>1.02</v>
+        <v>1.06</v>
       </c>
       <c r="N19" t="n">
-        <v>8.199999999999999</v>
+        <v>4.1</v>
       </c>
       <c r="O19" t="n">
-        <v>1.12</v>
+        <v>1.28</v>
       </c>
       <c r="P19" t="n">
-        <v>3.3</v>
+        <v>2.06</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.37</v>
+        <v>1.83</v>
       </c>
       <c r="R19" t="n">
-        <v>1.96</v>
+        <v>1.42</v>
       </c>
       <c r="S19" t="n">
-        <v>1.9</v>
+        <v>3</v>
       </c>
       <c r="T19" t="n">
-        <v>1.9</v>
+        <v>1.69</v>
       </c>
       <c r="U19" t="n">
-        <v>2.06</v>
+        <v>2.26</v>
       </c>
       <c r="V19" t="n">
-        <v>1.07</v>
+        <v>1.79</v>
       </c>
       <c r="W19" t="n">
-        <v>4.9</v>
+        <v>1.39</v>
       </c>
       <c r="X19" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="Y19" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="Z19" t="n">
-        <v>170</v>
+        <v>15.5</v>
       </c>
       <c r="AA19" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AB19" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AC19" t="n">
-        <v>1000</v>
+        <v>8.6</v>
       </c>
       <c r="AD19" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AE19" t="n">
-        <v>230</v>
+        <v>23</v>
       </c>
       <c r="AF19" t="n">
-        <v>10.5</v>
+        <v>26</v>
       </c>
       <c r="AG19" t="n">
-        <v>13</v>
+        <v>15.5</v>
       </c>
       <c r="AH19" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AI19" t="n">
-        <v>140</v>
+        <v>36</v>
       </c>
       <c r="AJ19" t="n">
-        <v>11</v>
+        <v>65</v>
       </c>
       <c r="AK19" t="n">
-        <v>14.5</v>
+        <v>40</v>
       </c>
       <c r="AL19" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AM19" t="n">
-        <v>150</v>
+        <v>85</v>
       </c>
       <c r="AN19" t="n">
-        <v>3.55</v>
+        <v>36</v>
       </c>
       <c r="AO19" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20">
@@ -3088,120 +3088,525 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
+          <t>Legia Warsaw</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Lincoln Red Imps</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="G20" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="H20" t="n">
+        <v>11</v>
+      </c>
+      <c r="I20" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="J20" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="K20" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="L20" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N20" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="P20" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S20" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="T20" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="U20" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="V20" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="W20" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="X20" t="n">
+        <v>34</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>130</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>480</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>16</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>200</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>28</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>130</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>14</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>32</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>140</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>UEFA Europa Conference League</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>2025-12-18</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>17:00:00</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Az Alkmaar</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Jagiellonia Bialystock</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="G21" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+      <c r="I21" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="J21" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="K21" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="L21" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N21" t="n">
+        <v>5</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="P21" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="R21" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="S21" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="T21" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="U21" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="V21" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="W21" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="X21" t="n">
+        <v>26</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>26</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>55</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>180</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>24</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>75</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>100</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>UEFA Europa Conference League</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>2025-12-18</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>17:00:00</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Strasbourg</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Breidablik</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="H22" t="n">
+        <v>13</v>
+      </c>
+      <c r="I22" t="n">
+        <v>15</v>
+      </c>
+      <c r="J22" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="K22" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="L22" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N22" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="P22" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="R22" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S22" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="T22" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="U22" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="V22" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="W22" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="X22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>170</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>230</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>140</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>150</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>UEFA Europa Conference League</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>2025-12-18</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>17:00:00</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
           <t>Mainz</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>Samsunspor</t>
         </is>
       </c>
-      <c r="F20" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="G20" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="H20" t="n">
+      <c r="F23" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="G23" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="H23" t="n">
         <v>5.1</v>
       </c>
-      <c r="I20" t="n">
+      <c r="I23" t="n">
         <v>6</v>
       </c>
-      <c r="J20" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="K20" t="n">
+      <c r="J23" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="K23" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="L23" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N23" t="n">
         <v>4.8</v>
       </c>
-      <c r="L20" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="M20" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N20" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="O20" t="n">
+      <c r="O23" t="n">
         <v>1.23</v>
       </c>
-      <c r="P20" t="n">
+      <c r="P23" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="R23" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="S23" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="T23" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="U23" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V23" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="W23" t="n">
         <v>2.34</v>
       </c>
-      <c r="Q20" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="R20" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="S20" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="T20" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="U20" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="V20" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="W20" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="X20" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA20" t="n">
+      <c r="X23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA23" t="n">
         <v>150</v>
       </c>
-      <c r="AB20" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG20" t="n">
+      <c r="AB23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG23" t="n">
         <v>10</v>
       </c>
-      <c r="AH20" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ20" t="n">
+      <c r="AH23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ23" t="n">
         <v>20</v>
       </c>
-      <c r="AK20" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL20" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM20" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN20" t="n">
+      <c r="AK23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN23" t="n">
         <v>8</v>
       </c>
-      <c r="AO20" t="n">
+      <c r="AO23" t="n">
         <v>1000</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-18.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-18.xlsx
@@ -802,43 +802,43 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.64</v>
+        <v>2.7</v>
       </c>
       <c r="G3" t="n">
         <v>4.1</v>
       </c>
       <c r="H3" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="I3" t="n">
-        <v>2.96</v>
+        <v>2.8</v>
       </c>
       <c r="J3" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="K3" t="n">
-        <v>7.2</v>
+        <v>6.6</v>
       </c>
       <c r="L3" t="n">
-        <v>1.01</v>
+        <v>1.33</v>
       </c>
       <c r="M3" t="n">
         <v>1.01</v>
       </c>
       <c r="N3" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="O3" t="n">
         <v>1.01</v>
       </c>
       <c r="P3" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="Q3" t="n">
         <v>1.86</v>
       </c>
       <c r="R3" t="n">
-        <v>1.08</v>
+        <v>1.18</v>
       </c>
       <c r="S3" t="n">
         <v>1.86</v>
@@ -850,7 +850,7 @@
         <v>1.01</v>
       </c>
       <c r="V3" t="n">
-        <v>1.51</v>
+        <v>1.56</v>
       </c>
       <c r="W3" t="n">
         <v>1.32</v>
@@ -937,7 +937,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="G4" t="n">
         <v>3.15</v>
@@ -964,7 +964,7 @@
         <v>1.4</v>
       </c>
       <c r="O4" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="P4" t="n">
         <v>1.4</v>
@@ -1108,7 +1108,7 @@
         <v>2.04</v>
       </c>
       <c r="R5" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="S5" t="n">
         <v>2.04</v>
@@ -1231,7 +1231,7 @@
         <v>1.06</v>
       </c>
       <c r="N6" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="O6" t="n">
         <v>1.27</v>
@@ -1240,7 +1240,7 @@
         <v>2.04</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
       <c r="R6" t="n">
         <v>1.41</v>
@@ -1249,7 +1249,7 @@
         <v>3.05</v>
       </c>
       <c r="T6" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="U6" t="n">
         <v>2.26</v>
@@ -1348,25 +1348,25 @@
         <v>1.29</v>
       </c>
       <c r="H7" t="n">
-        <v>11.5</v>
+        <v>13.5</v>
       </c>
       <c r="I7" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="J7" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="K7" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="L7" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="M7" t="n">
         <v>1.03</v>
       </c>
       <c r="N7" t="n">
-        <v>5.6</v>
+        <v>6.2</v>
       </c>
       <c r="O7" t="n">
         <v>1.17</v>
@@ -1375,25 +1375,25 @@
         <v>2.78</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="R7" t="n">
-        <v>1.69</v>
+        <v>1.72</v>
       </c>
       <c r="S7" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="T7" t="n">
-        <v>2.22</v>
+        <v>2.18</v>
       </c>
       <c r="U7" t="n">
-        <v>1.71</v>
+        <v>1.74</v>
       </c>
       <c r="V7" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="W7" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="X7" t="n">
         <v>28</v>
@@ -1408,43 +1408,43 @@
         <v>640</v>
       </c>
       <c r="AB7" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="AC7" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AD7" t="n">
         <v>50</v>
       </c>
       <c r="AE7" t="n">
-        <v>230</v>
+        <v>290</v>
       </c>
       <c r="AF7" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AG7" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AH7" t="n">
         <v>34</v>
       </c>
       <c r="AI7" t="n">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="AJ7" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AK7" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AL7" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AM7" t="n">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="AN7" t="n">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="AO7" t="n">
         <v>1000</v>
@@ -1483,7 +1483,7 @@
         <v>1.69</v>
       </c>
       <c r="H8" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="I8" t="n">
         <v>6.6</v>
@@ -1492,7 +1492,7 @@
         <v>4.1</v>
       </c>
       <c r="K8" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="L8" t="n">
         <v>1.46</v>
@@ -1543,19 +1543,19 @@
         <v>240</v>
       </c>
       <c r="AB8" t="n">
-        <v>8.800000000000001</v>
+        <v>7.6</v>
       </c>
       <c r="AC8" t="n">
         <v>9.6</v>
       </c>
       <c r="AD8" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AE8" t="n">
         <v>130</v>
       </c>
       <c r="AF8" t="n">
-        <v>9.4</v>
+        <v>9</v>
       </c>
       <c r="AG8" t="n">
         <v>11.5</v>
@@ -1564,7 +1564,7 @@
         <v>30</v>
       </c>
       <c r="AI8" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AJ8" t="n">
         <v>17</v>
@@ -1621,7 +1621,7 @@
         <v>4.5</v>
       </c>
       <c r="I9" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="J9" t="n">
         <v>3.7</v>
@@ -1636,7 +1636,7 @@
         <v>1.07</v>
       </c>
       <c r="N9" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="O9" t="n">
         <v>1.32</v>
@@ -1696,7 +1696,7 @@
         <v>10.5</v>
       </c>
       <c r="AH9" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AI9" t="n">
         <v>65</v>
@@ -1780,13 +1780,13 @@
         <v>2.38</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="R10" t="n">
         <v>1.55</v>
       </c>
       <c r="S10" t="n">
-        <v>2.64</v>
+        <v>2.62</v>
       </c>
       <c r="T10" t="n">
         <v>2.18</v>
@@ -1882,7 +1882,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="G11" t="n">
         <v>1.97</v>
@@ -1897,7 +1897,7 @@
         <v>3.8</v>
       </c>
       <c r="K11" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="L11" t="n">
         <v>1.49</v>
@@ -1906,7 +1906,7 @@
         <v>1.08</v>
       </c>
       <c r="N11" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="O11" t="n">
         <v>1.42</v>
@@ -1921,13 +1921,13 @@
         <v>1.26</v>
       </c>
       <c r="S11" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="T11" t="n">
         <v>2.06</v>
       </c>
       <c r="U11" t="n">
-        <v>1.73</v>
+        <v>1.78</v>
       </c>
       <c r="V11" t="n">
         <v>1.27</v>
@@ -1942,7 +1942,7 @@
         <v>14.5</v>
       </c>
       <c r="Z11" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AA11" t="n">
         <v>120</v>
@@ -1957,13 +1957,13 @@
         <v>21</v>
       </c>
       <c r="AE11" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AF11" t="n">
         <v>11</v>
       </c>
       <c r="AG11" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AH11" t="n">
         <v>26</v>
@@ -2020,7 +2020,7 @@
         <v>2.58</v>
       </c>
       <c r="G12" t="n">
-        <v>2.8</v>
+        <v>2.78</v>
       </c>
       <c r="H12" t="n">
         <v>2.92</v>
@@ -2053,13 +2053,13 @@
         <v>2</v>
       </c>
       <c r="R12" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="S12" t="n">
         <v>3.65</v>
       </c>
       <c r="T12" t="n">
-        <v>1.82</v>
+        <v>1.69</v>
       </c>
       <c r="U12" t="n">
         <v>2</v>
@@ -2155,10 +2155,10 @@
         <v>3.3</v>
       </c>
       <c r="G13" t="n">
-        <v>4</v>
+        <v>3.65</v>
       </c>
       <c r="H13" t="n">
-        <v>2.52</v>
+        <v>2.72</v>
       </c>
       <c r="I13" t="n">
         <v>2.92</v>
@@ -2176,7 +2176,7 @@
         <v>1.13</v>
       </c>
       <c r="N13" t="n">
-        <v>2.64</v>
+        <v>1.56</v>
       </c>
       <c r="O13" t="n">
         <v>1.47</v>
@@ -2194,16 +2194,16 @@
         <v>3.9</v>
       </c>
       <c r="T13" t="n">
-        <v>1.86</v>
+        <v>1.89</v>
       </c>
       <c r="U13" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="V13" t="n">
         <v>1.52</v>
       </c>
       <c r="W13" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="X13" t="n">
         <v>9.199999999999999</v>
@@ -2293,13 +2293,13 @@
         <v>1.26</v>
       </c>
       <c r="H14" t="n">
-        <v>12.5</v>
+        <v>14</v>
       </c>
       <c r="I14" t="n">
         <v>18</v>
       </c>
       <c r="J14" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="K14" t="n">
         <v>8.199999999999999</v>
@@ -2323,7 +2323,7 @@
         <v>1.53</v>
       </c>
       <c r="R14" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="S14" t="n">
         <v>2.3</v>
@@ -2338,22 +2338,22 @@
         <v>1.06</v>
       </c>
       <c r="W14" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="X14" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Y14" t="n">
         <v>1000</v>
       </c>
       <c r="Z14" t="n">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="AA14" t="n">
-        <v>860</v>
+        <v>990</v>
       </c>
       <c r="AB14" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AC14" t="n">
         <v>19.5</v>
@@ -2377,7 +2377,7 @@
         <v>1000</v>
       </c>
       <c r="AJ14" t="n">
-        <v>9.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AK14" t="n">
         <v>13.5</v>
@@ -2386,13 +2386,13 @@
         <v>44</v>
       </c>
       <c r="AM14" t="n">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="AN14" t="n">
         <v>4.1</v>
       </c>
       <c r="AO14" t="n">
-        <v>350</v>
+        <v>410</v>
       </c>
     </row>
     <row r="15">
@@ -2422,22 +2422,22 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="G15" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="H15" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="I15" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="J15" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="K15" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="L15" t="n">
         <v>1.45</v>
@@ -2452,7 +2452,7 @@
         <v>1.36</v>
       </c>
       <c r="P15" t="n">
-        <v>1.82</v>
+        <v>1.76</v>
       </c>
       <c r="Q15" t="n">
         <v>1.9</v>
@@ -2461,19 +2461,19 @@
         <v>1.26</v>
       </c>
       <c r="S15" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="T15" t="n">
-        <v>1.88</v>
+        <v>1.92</v>
       </c>
       <c r="U15" t="n">
-        <v>1.94</v>
+        <v>1.8</v>
       </c>
       <c r="V15" t="n">
         <v>1.23</v>
       </c>
       <c r="W15" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="X15" t="n">
         <v>1000</v>
@@ -2488,7 +2488,7 @@
         <v>130</v>
       </c>
       <c r="AB15" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AC15" t="n">
         <v>1000</v>
@@ -2566,7 +2566,7 @@
         <v>3.6</v>
       </c>
       <c r="I16" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="J16" t="n">
         <v>3.55</v>
@@ -2605,7 +2605,7 @@
         <v>2.1</v>
       </c>
       <c r="V16" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="W16" t="n">
         <v>1.79</v>
@@ -2692,7 +2692,7 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
       <c r="G17" t="n">
         <v>1.52</v>
@@ -2707,7 +2707,7 @@
         <v>4.4</v>
       </c>
       <c r="K17" t="n">
-        <v>5.6</v>
+        <v>5.2</v>
       </c>
       <c r="L17" t="n">
         <v>1.41</v>
@@ -2716,7 +2716,7 @@
         <v>1.06</v>
       </c>
       <c r="N17" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="O17" t="n">
         <v>1.32</v>
@@ -2737,13 +2737,13 @@
         <v>2.06</v>
       </c>
       <c r="U17" t="n">
-        <v>1.67</v>
+        <v>1.78</v>
       </c>
       <c r="V17" t="n">
         <v>1.12</v>
       </c>
       <c r="W17" t="n">
-        <v>2.88</v>
+        <v>2.92</v>
       </c>
       <c r="X17" t="n">
         <v>16.5</v>
@@ -2770,7 +2770,7 @@
         <v>180</v>
       </c>
       <c r="AF17" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AG17" t="n">
         <v>10.5</v>
@@ -2782,13 +2782,13 @@
         <v>160</v>
       </c>
       <c r="AJ17" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AK17" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AL17" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AM17" t="n">
         <v>210</v>
@@ -2836,13 +2836,13 @@
         <v>22</v>
       </c>
       <c r="I18" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J18" t="n">
         <v>8</v>
       </c>
       <c r="K18" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="L18" t="n">
         <v>1.25</v>
@@ -2851,7 +2851,7 @@
         <v>1.03</v>
       </c>
       <c r="N18" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="O18" t="n">
         <v>1.16</v>
@@ -2866,7 +2866,7 @@
         <v>1.75</v>
       </c>
       <c r="S18" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="T18" t="n">
         <v>2.4</v>
@@ -2881,7 +2881,7 @@
         <v>6</v>
       </c>
       <c r="X18" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="Y18" t="n">
         <v>1000</v>
@@ -2992,7 +2992,7 @@
         <v>1.28</v>
       </c>
       <c r="P19" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="Q19" t="n">
         <v>1.83</v>
@@ -3001,7 +3001,7 @@
         <v>1.42</v>
       </c>
       <c r="S19" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="T19" t="n">
         <v>1.69</v>
@@ -3109,7 +3109,7 @@
         <v>13.5</v>
       </c>
       <c r="J20" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="K20" t="n">
         <v>7.4</v>
@@ -3133,10 +3133,10 @@
         <v>1.44</v>
       </c>
       <c r="R20" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="S20" t="n">
-        <v>2.2</v>
+        <v>2.08</v>
       </c>
       <c r="T20" t="n">
         <v>1.84</v>
@@ -3169,7 +3169,7 @@
         <v>16</v>
       </c>
       <c r="AD20" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AE20" t="n">
         <v>200</v>
@@ -3196,7 +3196,7 @@
         <v>32</v>
       </c>
       <c r="AM20" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AN20" t="n">
         <v>3.85</v>
@@ -3241,7 +3241,7 @@
         <v>6</v>
       </c>
       <c r="I21" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="J21" t="n">
         <v>4.4</v>
@@ -3373,7 +3373,7 @@
         <v>1.26</v>
       </c>
       <c r="H22" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="I22" t="n">
         <v>15</v>
@@ -3391,7 +3391,7 @@
         <v>1.02</v>
       </c>
       <c r="N22" t="n">
-        <v>8.199999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="O22" t="n">
         <v>1.12</v>
@@ -3403,16 +3403,16 @@
         <v>1.37</v>
       </c>
       <c r="R22" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="S22" t="n">
         <v>1.9</v>
       </c>
       <c r="T22" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="U22" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="V22" t="n">
         <v>1.07</v>
@@ -3433,7 +3433,7 @@
         <v>1000</v>
       </c>
       <c r="AB22" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AC22" t="n">
         <v>1000</v>
@@ -3460,7 +3460,7 @@
         <v>11</v>
       </c>
       <c r="AK22" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AL22" t="n">
         <v>1000</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="G23" t="n">
         <v>1.74</v>
@@ -3517,37 +3517,37 @@
         <v>4.2</v>
       </c>
       <c r="K23" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="L23" t="n">
         <v>1.34</v>
       </c>
       <c r="M23" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N23" t="n">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="O23" t="n">
         <v>1.23</v>
       </c>
       <c r="P23" t="n">
-        <v>2.32</v>
+        <v>2.24</v>
       </c>
       <c r="Q23" t="n">
         <v>1.63</v>
       </c>
       <c r="R23" t="n">
-        <v>1.52</v>
+        <v>1.49</v>
       </c>
       <c r="S23" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="T23" t="n">
-        <v>1.69</v>
+        <v>1.72</v>
       </c>
       <c r="U23" t="n">
-        <v>2.2</v>
+        <v>2.12</v>
       </c>
       <c r="V23" t="n">
         <v>1.2</v>
@@ -3592,7 +3592,7 @@
         <v>1000</v>
       </c>
       <c r="AJ23" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AK23" t="n">
         <v>1000</v>
@@ -3604,7 +3604,7 @@
         <v>1000</v>
       </c>
       <c r="AN23" t="n">
-        <v>8</v>
+        <v>9.6</v>
       </c>
       <c r="AO23" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-18.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-18.xlsx
@@ -1219,7 +1219,7 @@
         <v>3.4</v>
       </c>
       <c r="J6" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="K6" t="n">
         <v>3.8</v>
@@ -1258,7 +1258,7 @@
         <v>1.41</v>
       </c>
       <c r="W6" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="X6" t="n">
         <v>17</v>
@@ -1342,16 +1342,16 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="G7" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="H7" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="I7" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="J7" t="n">
         <v>6.2</v>
@@ -1360,13 +1360,13 @@
         <v>7</v>
       </c>
       <c r="L7" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="M7" t="n">
         <v>1.03</v>
       </c>
       <c r="N7" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="O7" t="n">
         <v>1.17</v>
@@ -1378,7 +1378,7 @@
         <v>1.54</v>
       </c>
       <c r="R7" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="S7" t="n">
         <v>2.28</v>
@@ -1393,7 +1393,7 @@
         <v>1.07</v>
       </c>
       <c r="W7" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="X7" t="n">
         <v>28</v>
@@ -1405,13 +1405,13 @@
         <v>150</v>
       </c>
       <c r="AA7" t="n">
-        <v>640</v>
+        <v>610</v>
       </c>
       <c r="AB7" t="n">
         <v>11.5</v>
       </c>
       <c r="AC7" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AD7" t="n">
         <v>50</v>
@@ -1420,7 +1420,7 @@
         <v>290</v>
       </c>
       <c r="AF7" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AG7" t="n">
         <v>16.5</v>
@@ -1435,7 +1435,7 @@
         <v>9.6</v>
       </c>
       <c r="AK7" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AL7" t="n">
         <v>55</v>
@@ -1444,7 +1444,7 @@
         <v>200</v>
       </c>
       <c r="AN7" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="AO7" t="n">
         <v>1000</v>
@@ -1516,7 +1516,7 @@
         <v>1.27</v>
       </c>
       <c r="S8" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="T8" t="n">
         <v>1.94</v>
@@ -1678,7 +1678,7 @@
         <v>110</v>
       </c>
       <c r="AB9" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="AC9" t="n">
         <v>9</v>
@@ -1765,7 +1765,7 @@
         <v>6.8</v>
       </c>
       <c r="L10" t="n">
-        <v>1.3</v>
+        <v>1.01</v>
       </c>
       <c r="M10" t="n">
         <v>1.04</v>
@@ -1780,13 +1780,13 @@
         <v>2.38</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="R10" t="n">
         <v>1.55</v>
       </c>
       <c r="S10" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="T10" t="n">
         <v>2.18</v>
@@ -1900,7 +1900,7 @@
         <v>4.4</v>
       </c>
       <c r="L11" t="n">
-        <v>1.49</v>
+        <v>1.01</v>
       </c>
       <c r="M11" t="n">
         <v>1.08</v>
@@ -2050,7 +2050,7 @@
         <v>1.81</v>
       </c>
       <c r="Q12" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="R12" t="n">
         <v>1.31</v>
@@ -2062,7 +2062,7 @@
         <v>1.69</v>
       </c>
       <c r="U12" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="V12" t="n">
         <v>1.47</v>
@@ -2086,7 +2086,7 @@
         <v>10.5</v>
       </c>
       <c r="AC12" t="n">
-        <v>9</v>
+        <v>1000</v>
       </c>
       <c r="AD12" t="n">
         <v>1000</v>
@@ -2176,7 +2176,7 @@
         <v>1.13</v>
       </c>
       <c r="N13" t="n">
-        <v>1.56</v>
+        <v>1.27</v>
       </c>
       <c r="O13" t="n">
         <v>1.47</v>
@@ -2194,10 +2194,10 @@
         <v>3.9</v>
       </c>
       <c r="T13" t="n">
-        <v>1.89</v>
+        <v>1.01</v>
       </c>
       <c r="U13" t="n">
-        <v>1.71</v>
+        <v>1.01</v>
       </c>
       <c r="V13" t="n">
         <v>1.52</v>
@@ -2305,7 +2305,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="L14" t="n">
-        <v>1.27</v>
+        <v>1.01</v>
       </c>
       <c r="M14" t="n">
         <v>1.03</v>
@@ -2320,10 +2320,10 @@
         <v>2.62</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.53</v>
+        <v>1.51</v>
       </c>
       <c r="R14" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="S14" t="n">
         <v>2.3</v>
@@ -2362,7 +2362,7 @@
         <v>1000</v>
       </c>
       <c r="AE14" t="n">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="AF14" t="n">
         <v>8.199999999999999</v>
@@ -2377,10 +2377,10 @@
         <v>1000</v>
       </c>
       <c r="AJ14" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AK14" t="n">
-        <v>13.5</v>
+        <v>17.5</v>
       </c>
       <c r="AL14" t="n">
         <v>44</v>
@@ -2428,7 +2428,7 @@
         <v>1.96</v>
       </c>
       <c r="H15" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="I15" t="n">
         <v>5.3</v>
@@ -2446,10 +2446,10 @@
         <v>1.07</v>
       </c>
       <c r="N15" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="O15" t="n">
-        <v>1.36</v>
+        <v>1.29</v>
       </c>
       <c r="P15" t="n">
         <v>1.76</v>
@@ -2566,16 +2566,16 @@
         <v>3.6</v>
       </c>
       <c r="I16" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="J16" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="K16" t="n">
         <v>3.65</v>
       </c>
       <c r="L16" t="n">
-        <v>1.4</v>
+        <v>1.01</v>
       </c>
       <c r="M16" t="n">
         <v>1.07</v>
@@ -2605,10 +2605,10 @@
         <v>2.1</v>
       </c>
       <c r="V16" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="W16" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="X16" t="n">
         <v>15</v>
@@ -2698,7 +2698,7 @@
         <v>1.52</v>
       </c>
       <c r="H17" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="I17" t="n">
         <v>9.199999999999999</v>
@@ -2710,7 +2710,7 @@
         <v>5.2</v>
       </c>
       <c r="L17" t="n">
-        <v>1.41</v>
+        <v>1.01</v>
       </c>
       <c r="M17" t="n">
         <v>1.06</v>
@@ -2755,19 +2755,19 @@
         <v>1000</v>
       </c>
       <c r="AA17" t="n">
-        <v>370</v>
+        <v>400</v>
       </c>
       <c r="AB17" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="AC17" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AD17" t="n">
         <v>34</v>
       </c>
       <c r="AE17" t="n">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="AF17" t="n">
         <v>9.4</v>
@@ -2776,7 +2776,7 @@
         <v>10.5</v>
       </c>
       <c r="AH17" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AI17" t="n">
         <v>160</v>
@@ -2791,7 +2791,7 @@
         <v>1000</v>
       </c>
       <c r="AM17" t="n">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="AN17" t="n">
         <v>8</v>
@@ -2962,10 +2962,10 @@
         </is>
       </c>
       <c r="F19" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="G19" t="n">
         <v>3.5</v>
-      </c>
-      <c r="G19" t="n">
-        <v>3.55</v>
       </c>
       <c r="H19" t="n">
         <v>2.24</v>
@@ -2974,7 +2974,7 @@
         <v>2.26</v>
       </c>
       <c r="J19" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="K19" t="n">
         <v>3.75</v>
@@ -3013,7 +3013,7 @@
         <v>1.79</v>
       </c>
       <c r="W19" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="X19" t="n">
         <v>16.5</v>
@@ -3025,7 +3025,7 @@
         <v>15.5</v>
       </c>
       <c r="AA19" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AB19" t="n">
         <v>16</v>
@@ -3100,19 +3100,19 @@
         <v>1.29</v>
       </c>
       <c r="G20" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="H20" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="I20" t="n">
         <v>13.5</v>
       </c>
       <c r="J20" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="K20" t="n">
-        <v>7.4</v>
+        <v>7</v>
       </c>
       <c r="L20" t="n">
         <v>1.23</v>
@@ -3136,7 +3136,7 @@
         <v>1.79</v>
       </c>
       <c r="S20" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="T20" t="n">
         <v>1.84</v>
@@ -3148,7 +3148,7 @@
         <v>1.08</v>
       </c>
       <c r="W20" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="X20" t="n">
         <v>34</v>
@@ -3169,7 +3169,7 @@
         <v>16</v>
       </c>
       <c r="AD20" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AE20" t="n">
         <v>200</v>
@@ -3196,7 +3196,7 @@
         <v>32</v>
       </c>
       <c r="AM20" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="AN20" t="n">
         <v>3.85</v>
@@ -3241,7 +3241,7 @@
         <v>6</v>
       </c>
       <c r="I21" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="J21" t="n">
         <v>4.4</v>
@@ -3280,7 +3280,7 @@
         <v>2.18</v>
       </c>
       <c r="V21" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="W21" t="n">
         <v>2.56</v>
@@ -3403,10 +3403,10 @@
         <v>1.37</v>
       </c>
       <c r="R22" t="n">
-        <v>1.94</v>
+        <v>1.97</v>
       </c>
       <c r="S22" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="T22" t="n">
         <v>1.88</v>
@@ -3433,7 +3433,7 @@
         <v>1000</v>
       </c>
       <c r="AB22" t="n">
-        <v>15</v>
+        <v>18.5</v>
       </c>
       <c r="AC22" t="n">
         <v>1000</v>
@@ -3532,7 +3532,7 @@
         <v>1.23</v>
       </c>
       <c r="P23" t="n">
-        <v>2.24</v>
+        <v>2.2</v>
       </c>
       <c r="Q23" t="n">
         <v>1.63</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-18.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-18.xlsx
@@ -706,7 +706,7 @@
         <v>1.21</v>
       </c>
       <c r="S2" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="T2" t="n">
         <v>1.01</v>
@@ -943,10 +943,10 @@
         <v>3.15</v>
       </c>
       <c r="H4" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="I4" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="J4" t="n">
         <v>2.26</v>
@@ -970,13 +970,13 @@
         <v>1.4</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.01</v>
+        <v>2.72</v>
       </c>
       <c r="R4" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="S4" t="n">
-        <v>1.01</v>
+        <v>2.72</v>
       </c>
       <c r="T4" t="n">
         <v>1.01</v>
@@ -1072,58 +1072,58 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="G5" t="n">
-        <v>1.61</v>
+        <v>1.59</v>
       </c>
       <c r="H5" t="n">
-        <v>8.6</v>
+        <v>1.04</v>
       </c>
       <c r="I5" t="n">
         <v>1000</v>
       </c>
       <c r="J5" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="K5" t="n">
-        <v>7.6</v>
+        <v>980</v>
       </c>
       <c r="L5" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N5" t="n">
         <v>1.01</v>
       </c>
-      <c r="M5" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N5" t="n">
+      <c r="O5" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="S5" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="T5" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="U5" t="n">
         <v>1.51</v>
       </c>
-      <c r="O5" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="P5" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="S5" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="T5" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="U5" t="n">
-        <v>1.01</v>
-      </c>
       <c r="V5" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="W5" t="n">
-        <v>2.62</v>
+        <v>2.68</v>
       </c>
       <c r="X5" t="n">
         <v>1000</v>
@@ -1231,40 +1231,40 @@
         <v>1.06</v>
       </c>
       <c r="N6" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="O6" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="P6" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="Q6" t="n">
         <v>1.84</v>
       </c>
       <c r="R6" t="n">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="S6" t="n">
         <v>3.05</v>
       </c>
       <c r="T6" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="U6" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="V6" t="n">
         <v>1.41</v>
       </c>
       <c r="W6" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="X6" t="n">
         <v>17</v>
       </c>
       <c r="Y6" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="Z6" t="n">
         <v>24</v>
@@ -1291,7 +1291,7 @@
         <v>11.5</v>
       </c>
       <c r="AH6" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AI6" t="n">
         <v>44</v>
@@ -1300,16 +1300,16 @@
         <v>32</v>
       </c>
       <c r="AK6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AL6" t="n">
         <v>36</v>
       </c>
       <c r="AM6" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AN6" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AO6" t="n">
         <v>32</v>
@@ -1348,16 +1348,16 @@
         <v>1.3</v>
       </c>
       <c r="H7" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="I7" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J7" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="K7" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="L7" t="n">
         <v>1.27</v>
@@ -1372,22 +1372,22 @@
         <v>1.17</v>
       </c>
       <c r="P7" t="n">
-        <v>2.78</v>
+        <v>2.76</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="R7" t="n">
-        <v>1.71</v>
+        <v>1.69</v>
       </c>
       <c r="S7" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="T7" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="U7" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="V7" t="n">
         <v>1.07</v>
@@ -1399,7 +1399,7 @@
         <v>28</v>
       </c>
       <c r="Y7" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="Z7" t="n">
         <v>150</v>
@@ -1417,10 +1417,10 @@
         <v>50</v>
       </c>
       <c r="AE7" t="n">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="AF7" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AG7" t="n">
         <v>16.5</v>
@@ -1429,10 +1429,10 @@
         <v>34</v>
       </c>
       <c r="AI7" t="n">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="AJ7" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AK7" t="n">
         <v>13.5</v>
@@ -1441,13 +1441,13 @@
         <v>55</v>
       </c>
       <c r="AM7" t="n">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="AN7" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="AO7" t="n">
-        <v>1000</v>
+        <v>390</v>
       </c>
     </row>
     <row r="8">
@@ -1501,19 +1501,19 @@
         <v>1.08</v>
       </c>
       <c r="N8" t="n">
-        <v>2.88</v>
+        <v>2.92</v>
       </c>
       <c r="O8" t="n">
         <v>1.38</v>
       </c>
       <c r="P8" t="n">
-        <v>1.75</v>
+        <v>1.79</v>
       </c>
       <c r="Q8" t="n">
         <v>2.1</v>
       </c>
       <c r="R8" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="S8" t="n">
         <v>3.6</v>
@@ -1531,7 +1531,7 @@
         <v>2.46</v>
       </c>
       <c r="X8" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Y8" t="n">
         <v>20</v>
@@ -1540,7 +1540,7 @@
         <v>55</v>
       </c>
       <c r="AA8" t="n">
-        <v>240</v>
+        <v>220</v>
       </c>
       <c r="AB8" t="n">
         <v>7.6</v>
@@ -1549,16 +1549,16 @@
         <v>9.6</v>
       </c>
       <c r="AD8" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AE8" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AF8" t="n">
         <v>9</v>
       </c>
       <c r="AG8" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AH8" t="n">
         <v>30</v>
@@ -1570,16 +1570,16 @@
         <v>17</v>
       </c>
       <c r="AK8" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AL8" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AM8" t="n">
         <v>190</v>
       </c>
       <c r="AN8" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AO8" t="n">
         <v>190</v>
@@ -1636,7 +1636,7 @@
         <v>1.07</v>
       </c>
       <c r="N9" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="O9" t="n">
         <v>1.32</v>
@@ -1648,16 +1648,16 @@
         <v>1.95</v>
       </c>
       <c r="R9" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="S9" t="n">
         <v>3.35</v>
       </c>
       <c r="T9" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="U9" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="V9" t="n">
         <v>1.27</v>
@@ -1675,7 +1675,7 @@
         <v>34</v>
       </c>
       <c r="AA9" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AB9" t="n">
         <v>9.4</v>
@@ -1696,7 +1696,7 @@
         <v>10.5</v>
       </c>
       <c r="AH9" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AI9" t="n">
         <v>65</v>
@@ -1711,7 +1711,7 @@
         <v>38</v>
       </c>
       <c r="AM9" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AN9" t="n">
         <v>14.5</v>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="G10" t="n">
         <v>1.33</v>
@@ -1756,16 +1756,16 @@
         <v>12</v>
       </c>
       <c r="I10" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="J10" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="K10" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="L10" t="n">
-        <v>1.01</v>
+        <v>1.3</v>
       </c>
       <c r="M10" t="n">
         <v>1.04</v>
@@ -1774,22 +1774,22 @@
         <v>5.1</v>
       </c>
       <c r="O10" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="P10" t="n">
-        <v>2.38</v>
+        <v>2.34</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="R10" t="n">
         <v>1.55</v>
       </c>
       <c r="S10" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="T10" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="U10" t="n">
         <v>1.73</v>
@@ -1813,7 +1813,7 @@
         <v>1000</v>
       </c>
       <c r="AB10" t="n">
-        <v>9.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC10" t="n">
         <v>1000</v>
@@ -1849,7 +1849,7 @@
         <v>210</v>
       </c>
       <c r="AN10" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="AO10" t="n">
         <v>1000</v>
@@ -1882,7 +1882,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.83</v>
+        <v>1.89</v>
       </c>
       <c r="G11" t="n">
         <v>1.97</v>
@@ -1891,22 +1891,22 @@
         <v>4.3</v>
       </c>
       <c r="I11" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="J11" t="n">
         <v>3.8</v>
       </c>
       <c r="K11" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="L11" t="n">
-        <v>1.01</v>
+        <v>1.5</v>
       </c>
       <c r="M11" t="n">
         <v>1.08</v>
       </c>
       <c r="N11" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="O11" t="n">
         <v>1.42</v>
@@ -1921,7 +1921,7 @@
         <v>1.26</v>
       </c>
       <c r="S11" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="T11" t="n">
         <v>2.06</v>
@@ -1936,25 +1936,25 @@
         <v>2.02</v>
       </c>
       <c r="X11" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Y11" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="Z11" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AA11" t="n">
         <v>120</v>
       </c>
       <c r="AB11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC11" t="n">
         <v>8.800000000000001</v>
       </c>
-      <c r="AC11" t="n">
-        <v>9.199999999999999</v>
-      </c>
       <c r="AD11" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AE11" t="n">
         <v>75</v>
@@ -2044,22 +2044,22 @@
         <v>3.25</v>
       </c>
       <c r="O12" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="P12" t="n">
         <v>1.81</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="R12" t="n">
         <v>1.31</v>
       </c>
       <c r="S12" t="n">
-        <v>3.65</v>
+        <v>3.9</v>
       </c>
       <c r="T12" t="n">
-        <v>1.69</v>
+        <v>1.84</v>
       </c>
       <c r="U12" t="n">
         <v>2.02</v>
@@ -2158,7 +2158,7 @@
         <v>3.65</v>
       </c>
       <c r="H13" t="n">
-        <v>2.72</v>
+        <v>2.68</v>
       </c>
       <c r="I13" t="n">
         <v>2.92</v>
@@ -2179,19 +2179,19 @@
         <v>1.27</v>
       </c>
       <c r="O13" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="P13" t="n">
         <v>1.26</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="R13" t="n">
         <v>1.18</v>
       </c>
       <c r="S13" t="n">
-        <v>3.9</v>
+        <v>2.44</v>
       </c>
       <c r="T13" t="n">
         <v>1.01</v>
@@ -2209,10 +2209,10 @@
         <v>9.199999999999999</v>
       </c>
       <c r="Y13" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="Z13" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AA13" t="n">
         <v>46</v>
@@ -2296,43 +2296,43 @@
         <v>14</v>
       </c>
       <c r="I14" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="J14" t="n">
         <v>7.2</v>
       </c>
       <c r="K14" t="n">
-        <v>8.199999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="L14" t="n">
-        <v>1.01</v>
+        <v>1.27</v>
       </c>
       <c r="M14" t="n">
         <v>1.03</v>
       </c>
       <c r="N14" t="n">
-        <v>5.9</v>
+        <v>6.2</v>
       </c>
       <c r="O14" t="n">
         <v>1.17</v>
       </c>
       <c r="P14" t="n">
-        <v>2.62</v>
+        <v>2.7</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="R14" t="n">
         <v>1.68</v>
       </c>
       <c r="S14" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="T14" t="n">
         <v>2.26</v>
       </c>
       <c r="U14" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="V14" t="n">
         <v>1.06</v>
@@ -2341,7 +2341,7 @@
         <v>4.8</v>
       </c>
       <c r="X14" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="Y14" t="n">
         <v>1000</v>
@@ -2350,19 +2350,19 @@
         <v>180</v>
       </c>
       <c r="AA14" t="n">
-        <v>990</v>
+        <v>970</v>
       </c>
       <c r="AB14" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AC14" t="n">
         <v>19.5</v>
       </c>
       <c r="AD14" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AE14" t="n">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="AF14" t="n">
         <v>8.199999999999999</v>
@@ -2374,25 +2374,25 @@
         <v>40</v>
       </c>
       <c r="AI14" t="n">
-        <v>1000</v>
+        <v>220</v>
       </c>
       <c r="AJ14" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AK14" t="n">
-        <v>17.5</v>
+        <v>13.5</v>
       </c>
       <c r="AL14" t="n">
         <v>44</v>
       </c>
       <c r="AM14" t="n">
-        <v>240</v>
+        <v>220</v>
       </c>
       <c r="AN14" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="AO14" t="n">
-        <v>410</v>
+        <v>360</v>
       </c>
     </row>
     <row r="15">
@@ -2422,22 +2422,22 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="G15" t="n">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="H15" t="n">
         <v>4.4</v>
       </c>
       <c r="I15" t="n">
-        <v>5.3</v>
+        <v>5</v>
       </c>
       <c r="J15" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="K15" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L15" t="n">
         <v>1.45</v>
@@ -2446,31 +2446,31 @@
         <v>1.07</v>
       </c>
       <c r="N15" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="O15" t="n">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="P15" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="R15" t="n">
         <v>1.26</v>
       </c>
       <c r="S15" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="T15" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="U15" t="n">
-        <v>1.8</v>
+        <v>1.89</v>
       </c>
       <c r="V15" t="n">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="W15" t="n">
         <v>2.04</v>
@@ -2488,7 +2488,7 @@
         <v>130</v>
       </c>
       <c r="AB15" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC15" t="n">
         <v>1000</v>
@@ -2569,25 +2569,25 @@
         <v>3.7</v>
       </c>
       <c r="J16" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="K16" t="n">
         <v>3.65</v>
       </c>
       <c r="L16" t="n">
-        <v>1.01</v>
+        <v>1.43</v>
       </c>
       <c r="M16" t="n">
         <v>1.07</v>
       </c>
       <c r="N16" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="O16" t="n">
         <v>1.32</v>
       </c>
       <c r="P16" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="Q16" t="n">
         <v>1.97</v>
@@ -2602,7 +2602,7 @@
         <v>1.77</v>
       </c>
       <c r="U16" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="V16" t="n">
         <v>1.37</v>
@@ -2614,7 +2614,7 @@
         <v>15</v>
       </c>
       <c r="Y16" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="Z16" t="n">
         <v>27</v>
@@ -2641,7 +2641,7 @@
         <v>11</v>
       </c>
       <c r="AH16" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AI16" t="n">
         <v>55</v>
@@ -2653,16 +2653,16 @@
         <v>24</v>
       </c>
       <c r="AL16" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AM16" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AN16" t="n">
         <v>17.5</v>
       </c>
       <c r="AO16" t="n">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17">
@@ -2695,34 +2695,34 @@
         <v>1.45</v>
       </c>
       <c r="G17" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="H17" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="I17" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="J17" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="K17" t="n">
         <v>5.2</v>
       </c>
       <c r="L17" t="n">
-        <v>1.01</v>
+        <v>1.41</v>
       </c>
       <c r="M17" t="n">
         <v>1.06</v>
       </c>
       <c r="N17" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="O17" t="n">
         <v>1.32</v>
       </c>
       <c r="P17" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="Q17" t="n">
         <v>1.86</v>
@@ -2743,7 +2743,7 @@
         <v>1.12</v>
       </c>
       <c r="W17" t="n">
-        <v>2.92</v>
+        <v>2.96</v>
       </c>
       <c r="X17" t="n">
         <v>16.5</v>
@@ -2755,7 +2755,7 @@
         <v>1000</v>
       </c>
       <c r="AA17" t="n">
-        <v>400</v>
+        <v>380</v>
       </c>
       <c r="AB17" t="n">
         <v>9.800000000000001</v>
@@ -2767,7 +2767,7 @@
         <v>34</v>
       </c>
       <c r="AE17" t="n">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="AF17" t="n">
         <v>9.4</v>
@@ -2776,7 +2776,7 @@
         <v>10.5</v>
       </c>
       <c r="AH17" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AI17" t="n">
         <v>160</v>
@@ -2785,16 +2785,16 @@
         <v>14</v>
       </c>
       <c r="AK17" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AL17" t="n">
         <v>1000</v>
       </c>
       <c r="AM17" t="n">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="AN17" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AO17" t="n">
         <v>1000</v>
@@ -2839,7 +2839,7 @@
         <v>28</v>
       </c>
       <c r="J18" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="K18" t="n">
         <v>9.4</v>
@@ -2860,16 +2860,16 @@
         <v>2.72</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="R18" t="n">
         <v>1.75</v>
       </c>
       <c r="S18" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="T18" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="U18" t="n">
         <v>1.61</v>
@@ -2887,7 +2887,7 @@
         <v>1000</v>
       </c>
       <c r="Z18" t="n">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="AA18" t="n">
         <v>1000</v>
@@ -2974,13 +2974,13 @@
         <v>2.26</v>
       </c>
       <c r="J19" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="K19" t="n">
         <v>3.75</v>
       </c>
       <c r="L19" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="M19" t="n">
         <v>1.06</v>
@@ -3016,7 +3016,7 @@
         <v>1.4</v>
       </c>
       <c r="X19" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="Y19" t="n">
         <v>11.5</v>
@@ -3028,7 +3028,7 @@
         <v>29</v>
       </c>
       <c r="AB19" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AC19" t="n">
         <v>8.6</v>
@@ -3061,13 +3061,13 @@
         <v>48</v>
       </c>
       <c r="AM19" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AN19" t="n">
         <v>36</v>
       </c>
       <c r="AO19" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="20">
@@ -3121,25 +3121,25 @@
         <v>1.02</v>
       </c>
       <c r="N20" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="O20" t="n">
         <v>1.14</v>
       </c>
       <c r="P20" t="n">
-        <v>2.94</v>
+        <v>3.05</v>
       </c>
       <c r="Q20" t="n">
         <v>1.44</v>
       </c>
       <c r="R20" t="n">
-        <v>1.79</v>
+        <v>1.82</v>
       </c>
       <c r="S20" t="n">
         <v>2.1</v>
       </c>
       <c r="T20" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="U20" t="n">
         <v>2.04</v>
@@ -3154,7 +3154,7 @@
         <v>34</v>
       </c>
       <c r="Y20" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="Z20" t="n">
         <v>130</v>
@@ -3163,16 +3163,16 @@
         <v>480</v>
       </c>
       <c r="AB20" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AC20" t="n">
         <v>15.5</v>
       </c>
-      <c r="AC20" t="n">
-        <v>16</v>
-      </c>
       <c r="AD20" t="n">
         <v>1000</v>
       </c>
       <c r="AE20" t="n">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="AF20" t="n">
         <v>9.800000000000001</v>
@@ -3181,25 +3181,25 @@
         <v>11.5</v>
       </c>
       <c r="AH20" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AI20" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AJ20" t="n">
-        <v>11.5</v>
+        <v>13.5</v>
       </c>
       <c r="AK20" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AL20" t="n">
         <v>32</v>
       </c>
       <c r="AM20" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="AN20" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="AO20" t="n">
         <v>170</v>
@@ -3235,16 +3235,16 @@
         <v>1.61</v>
       </c>
       <c r="G21" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="H21" t="n">
         <v>6</v>
       </c>
       <c r="I21" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="J21" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="K21" t="n">
         <v>4.8</v>
@@ -3262,28 +3262,28 @@
         <v>1.21</v>
       </c>
       <c r="P21" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.59</v>
+        <v>1.61</v>
       </c>
       <c r="R21" t="n">
         <v>1.57</v>
       </c>
       <c r="S21" t="n">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="T21" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="U21" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="V21" t="n">
         <v>1.19</v>
       </c>
       <c r="W21" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="X21" t="n">
         <v>26</v>
@@ -3307,7 +3307,7 @@
         <v>24</v>
       </c>
       <c r="AE21" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="AF21" t="n">
         <v>11.5</v>
@@ -3319,7 +3319,7 @@
         <v>19.5</v>
       </c>
       <c r="AI21" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AJ21" t="n">
         <v>16.5</v>
@@ -3334,7 +3334,7 @@
         <v>100</v>
       </c>
       <c r="AN21" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="AO21" t="n">
         <v>1000</v>
@@ -3367,10 +3367,10 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="G22" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="H22" t="n">
         <v>13.5</v>
@@ -3379,10 +3379,10 @@
         <v>15</v>
       </c>
       <c r="J22" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="K22" t="n">
-        <v>8.4</v>
+        <v>8</v>
       </c>
       <c r="L22" t="n">
         <v>1.21</v>
@@ -3391,25 +3391,25 @@
         <v>1.02</v>
       </c>
       <c r="N22" t="n">
-        <v>7.8</v>
+        <v>8.6</v>
       </c>
       <c r="O22" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="P22" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="Q22" t="n">
         <v>1.37</v>
       </c>
       <c r="R22" t="n">
-        <v>1.97</v>
+        <v>1.94</v>
       </c>
       <c r="S22" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="T22" t="n">
         <v>1.89</v>
-      </c>
-      <c r="T22" t="n">
-        <v>1.88</v>
       </c>
       <c r="U22" t="n">
         <v>2.04</v>
@@ -3433,7 +3433,7 @@
         <v>1000</v>
       </c>
       <c r="AB22" t="n">
-        <v>18.5</v>
+        <v>16</v>
       </c>
       <c r="AC22" t="n">
         <v>1000</v>
@@ -3445,7 +3445,7 @@
         <v>230</v>
       </c>
       <c r="AF22" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AG22" t="n">
         <v>13</v>
@@ -3466,10 +3466,10 @@
         <v>1000</v>
       </c>
       <c r="AM22" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AN22" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="AO22" t="n">
         <v>1000</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="G23" t="n">
         <v>1.74</v>
@@ -3511,10 +3511,10 @@
         <v>5.1</v>
       </c>
       <c r="I23" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="J23" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="K23" t="n">
         <v>4.8</v>
@@ -3529,10 +3529,10 @@
         <v>4.5</v>
       </c>
       <c r="O23" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="P23" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="Q23" t="n">
         <v>1.63</v>
@@ -3541,19 +3541,19 @@
         <v>1.49</v>
       </c>
       <c r="S23" t="n">
-        <v>2.66</v>
+        <v>2.72</v>
       </c>
       <c r="T23" t="n">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="U23" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="V23" t="n">
         <v>1.2</v>
       </c>
       <c r="W23" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="X23" t="n">
         <v>1000</v>
@@ -3571,7 +3571,7 @@
         <v>1000</v>
       </c>
       <c r="AC23" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="AD23" t="n">
         <v>1000</v>
@@ -3586,7 +3586,7 @@
         <v>10</v>
       </c>
       <c r="AH23" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AI23" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-18.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-18.xlsx
@@ -823,13 +823,13 @@
         <v>1.33</v>
       </c>
       <c r="M3" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="N3" t="n">
         <v>1.7</v>
       </c>
       <c r="O3" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="P3" t="n">
         <v>1.7</v>
@@ -841,7 +841,7 @@
         <v>1.18</v>
       </c>
       <c r="S3" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="T3" t="n">
         <v>1.01</v>
@@ -937,109 +937,109 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="G4" t="n">
-        <v>3.15</v>
+        <v>2.8</v>
       </c>
       <c r="H4" t="n">
-        <v>3.35</v>
+        <v>3.55</v>
       </c>
       <c r="I4" t="n">
-        <v>5.8</v>
+        <v>4.7</v>
       </c>
       <c r="J4" t="n">
-        <v>2.26</v>
+        <v>2.46</v>
       </c>
       <c r="K4" t="n">
-        <v>3.95</v>
+        <v>3.1</v>
       </c>
       <c r="L4" t="n">
         <v>1.01</v>
       </c>
       <c r="M4" t="n">
-        <v>1.01</v>
+        <v>1.14</v>
       </c>
       <c r="N4" t="n">
-        <v>1.4</v>
+        <v>2.2</v>
       </c>
       <c r="O4" t="n">
-        <v>1.01</v>
+        <v>1.66</v>
       </c>
       <c r="P4" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.72</v>
+        <v>3</v>
       </c>
       <c r="R4" t="n">
         <v>1.13</v>
       </c>
       <c r="S4" t="n">
-        <v>2.72</v>
+        <v>6</v>
       </c>
       <c r="T4" t="n">
-        <v>1.01</v>
+        <v>2.3</v>
       </c>
       <c r="U4" t="n">
-        <v>1.01</v>
+        <v>1.62</v>
       </c>
       <c r="V4" t="n">
-        <v>1.21</v>
+        <v>1.3</v>
       </c>
       <c r="W4" t="n">
-        <v>1.46</v>
+        <v>1.58</v>
       </c>
       <c r="X4" t="n">
-        <v>1000</v>
+        <v>8.4</v>
       </c>
       <c r="Y4" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="Z4" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AA4" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AB4" t="n">
-        <v>1000</v>
+        <v>7</v>
       </c>
       <c r="AC4" t="n">
-        <v>1000</v>
+        <v>7.4</v>
       </c>
       <c r="AD4" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AE4" t="n">
         <v>1000</v>
       </c>
       <c r="AF4" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AG4" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AH4" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AI4" t="n">
         <v>1000</v>
       </c>
       <c r="AJ4" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AK4" t="n">
         <v>1000</v>
       </c>
       <c r="AL4" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AM4" t="n">
         <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AO4" t="n">
         <v>1000</v>
@@ -1072,64 +1072,64 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.34</v>
+        <v>1.41</v>
       </c>
       <c r="G5" t="n">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="H5" t="n">
-        <v>1.04</v>
+        <v>9</v>
       </c>
       <c r="I5" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="J5" t="n">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="K5" t="n">
-        <v>980</v>
+        <v>4.8</v>
       </c>
       <c r="L5" t="n">
-        <v>1.4</v>
+        <v>1.46</v>
       </c>
       <c r="M5" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N5" t="n">
-        <v>1.01</v>
+        <v>2.88</v>
       </c>
       <c r="O5" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="P5" t="n">
-        <v>1.52</v>
+        <v>1.63</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.08</v>
+        <v>2.28</v>
       </c>
       <c r="R5" t="n">
-        <v>1.16</v>
+        <v>1.23</v>
       </c>
       <c r="S5" t="n">
-        <v>3.45</v>
+        <v>3.95</v>
       </c>
       <c r="T5" t="n">
         <v>2.56</v>
       </c>
       <c r="U5" t="n">
-        <v>1.51</v>
+        <v>1.53</v>
       </c>
       <c r="V5" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="W5" t="n">
-        <v>2.68</v>
+        <v>2.96</v>
       </c>
       <c r="X5" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="Y5" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="Z5" t="n">
         <v>1000</v>
@@ -1138,34 +1138,34 @@
         <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>1000</v>
+        <v>6.8</v>
       </c>
       <c r="AC5" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AD5" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AE5" t="n">
         <v>1000</v>
       </c>
       <c r="AF5" t="n">
-        <v>1000</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AG5" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AH5" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AI5" t="n">
         <v>1000</v>
       </c>
       <c r="AJ5" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AK5" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AL5" t="n">
         <v>1000</v>
@@ -1174,7 +1174,7 @@
         <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AO5" t="n">
         <v>1000</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="G6" t="n">
         <v>2.42</v>
@@ -1216,10 +1216,10 @@
         <v>3.15</v>
       </c>
       <c r="I6" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="J6" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="K6" t="n">
         <v>3.8</v>
@@ -1234,28 +1234,28 @@
         <v>4.1</v>
       </c>
       <c r="O6" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="P6" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.84</v>
+        <v>1.78</v>
       </c>
       <c r="R6" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="S6" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="T6" t="n">
         <v>1.67</v>
       </c>
       <c r="U6" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="V6" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="W6" t="n">
         <v>1.7</v>
@@ -1270,7 +1270,7 @@
         <v>24</v>
       </c>
       <c r="AA6" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AB6" t="n">
         <v>12</v>
@@ -1312,7 +1312,7 @@
         <v>17.5</v>
       </c>
       <c r="AO6" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7">
@@ -1342,22 +1342,22 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="G7" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="H7" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I7" t="n">
         <v>15</v>
       </c>
       <c r="J7" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="K7" t="n">
         <v>6.4</v>
-      </c>
-      <c r="K7" t="n">
-        <v>6.8</v>
       </c>
       <c r="L7" t="n">
         <v>1.27</v>
@@ -1381,73 +1381,73 @@
         <v>1.69</v>
       </c>
       <c r="S7" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="T7" t="n">
-        <v>2.2</v>
+        <v>2.08</v>
       </c>
       <c r="U7" t="n">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="V7" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="W7" t="n">
-        <v>4.3</v>
+        <v>4</v>
       </c>
       <c r="X7" t="n">
         <v>28</v>
       </c>
       <c r="Y7" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="Z7" t="n">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="AA7" t="n">
-        <v>610</v>
+        <v>510</v>
       </c>
       <c r="AB7" t="n">
-        <v>11.5</v>
+        <v>13.5</v>
       </c>
       <c r="AC7" t="n">
         <v>15</v>
       </c>
       <c r="AD7" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AE7" t="n">
-        <v>280</v>
+        <v>240</v>
       </c>
       <c r="AF7" t="n">
         <v>8.4</v>
       </c>
       <c r="AG7" t="n">
-        <v>16.5</v>
+        <v>14</v>
       </c>
       <c r="AH7" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AI7" t="n">
-        <v>210</v>
+        <v>170</v>
       </c>
       <c r="AJ7" t="n">
-        <v>9.4</v>
+        <v>10</v>
       </c>
       <c r="AK7" t="n">
-        <v>13.5</v>
+        <v>15</v>
       </c>
       <c r="AL7" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AM7" t="n">
-        <v>210</v>
+        <v>170</v>
       </c>
       <c r="AN7" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="AO7" t="n">
-        <v>390</v>
+        <v>320</v>
       </c>
     </row>
     <row r="8">
@@ -1480,10 +1480,10 @@
         <v>1.64</v>
       </c>
       <c r="G8" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="H8" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="I8" t="n">
         <v>6.6</v>
@@ -1510,7 +1510,7 @@
         <v>1.79</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="R8" t="n">
         <v>1.28</v>
@@ -1519,16 +1519,16 @@
         <v>3.6</v>
       </c>
       <c r="T8" t="n">
-        <v>1.94</v>
+        <v>2.12</v>
       </c>
       <c r="U8" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="V8" t="n">
         <v>1.17</v>
       </c>
       <c r="W8" t="n">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="X8" t="n">
         <v>13</v>
@@ -1564,22 +1564,22 @@
         <v>30</v>
       </c>
       <c r="AI8" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AJ8" t="n">
-        <v>17</v>
+        <v>15.5</v>
       </c>
       <c r="AK8" t="n">
         <v>1000</v>
       </c>
       <c r="AL8" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AM8" t="n">
         <v>190</v>
       </c>
       <c r="AN8" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AO8" t="n">
         <v>190</v>
@@ -1612,7 +1612,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="G9" t="n">
         <v>1.95</v>
@@ -1636,7 +1636,7 @@
         <v>1.07</v>
       </c>
       <c r="N9" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="O9" t="n">
         <v>1.32</v>
@@ -1654,10 +1654,10 @@
         <v>3.35</v>
       </c>
       <c r="T9" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="U9" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="V9" t="n">
         <v>1.27</v>
@@ -1765,7 +1765,7 @@
         <v>6.6</v>
       </c>
       <c r="L10" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="M10" t="n">
         <v>1.04</v>
@@ -1786,7 +1786,7 @@
         <v>1.55</v>
       </c>
       <c r="S10" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="T10" t="n">
         <v>2.2</v>
@@ -1882,22 +1882,22 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="G11" t="n">
-        <v>1.97</v>
+        <v>1.99</v>
       </c>
       <c r="H11" t="n">
         <v>4.3</v>
       </c>
       <c r="I11" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="J11" t="n">
         <v>3.8</v>
       </c>
       <c r="K11" t="n">
-        <v>4.2</v>
+        <v>3.95</v>
       </c>
       <c r="L11" t="n">
         <v>1.5</v>
@@ -1930,10 +1930,10 @@
         <v>1.78</v>
       </c>
       <c r="V11" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="W11" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="X11" t="n">
         <v>12</v>
@@ -1945,7 +1945,7 @@
         <v>32</v>
       </c>
       <c r="AA11" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AB11" t="n">
         <v>1000</v>
@@ -1954,16 +1954,16 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AD11" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="AE11" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AF11" t="n">
         <v>11</v>
       </c>
       <c r="AG11" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AH11" t="n">
         <v>26</v>
@@ -2050,13 +2050,13 @@
         <v>1.81</v>
       </c>
       <c r="Q12" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="R12" t="n">
         <v>1.31</v>
       </c>
       <c r="S12" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="T12" t="n">
         <v>1.84</v>
@@ -2152,22 +2152,22 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="G13" t="n">
         <v>3.65</v>
       </c>
       <c r="H13" t="n">
-        <v>2.68</v>
+        <v>2.64</v>
       </c>
       <c r="I13" t="n">
-        <v>2.92</v>
+        <v>2.88</v>
       </c>
       <c r="J13" t="n">
-        <v>2.8</v>
+        <v>2.84</v>
       </c>
       <c r="K13" t="n">
-        <v>2.82</v>
+        <v>2.88</v>
       </c>
       <c r="L13" t="n">
         <v>1.55</v>
@@ -2176,7 +2176,7 @@
         <v>1.13</v>
       </c>
       <c r="N13" t="n">
-        <v>1.27</v>
+        <v>1.31</v>
       </c>
       <c r="O13" t="n">
         <v>1.48</v>
@@ -2200,7 +2200,7 @@
         <v>1.01</v>
       </c>
       <c r="V13" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="W13" t="n">
         <v>1.37</v>
@@ -2230,10 +2230,10 @@
         <v>44</v>
       </c>
       <c r="AF13" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AG13" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AH13" t="n">
         <v>28</v>
@@ -2245,7 +2245,7 @@
         <v>70</v>
       </c>
       <c r="AK13" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AL13" t="n">
         <v>90</v>
@@ -2254,7 +2254,7 @@
         <v>210</v>
       </c>
       <c r="AN13" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AO13" t="n">
         <v>50</v>
@@ -2299,13 +2299,13 @@
         <v>17.5</v>
       </c>
       <c r="J14" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="K14" t="n">
-        <v>7.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="L14" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="M14" t="n">
         <v>1.03</v>
@@ -2320,13 +2320,13 @@
         <v>2.7</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="R14" t="n">
         <v>1.68</v>
       </c>
       <c r="S14" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="T14" t="n">
         <v>2.26</v>
@@ -2341,7 +2341,7 @@
         <v>4.8</v>
       </c>
       <c r="X14" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="Y14" t="n">
         <v>1000</v>
@@ -2428,7 +2428,7 @@
         <v>1.95</v>
       </c>
       <c r="H15" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="I15" t="n">
         <v>5</v>
@@ -2446,22 +2446,22 @@
         <v>1.07</v>
       </c>
       <c r="N15" t="n">
-        <v>3.25</v>
+        <v>3.45</v>
       </c>
       <c r="O15" t="n">
         <v>1.36</v>
       </c>
       <c r="P15" t="n">
-        <v>1.77</v>
+        <v>1.79</v>
       </c>
       <c r="Q15" t="n">
         <v>1.95</v>
       </c>
       <c r="R15" t="n">
-        <v>1.26</v>
+        <v>1.29</v>
       </c>
       <c r="S15" t="n">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="T15" t="n">
         <v>1.93</v>
@@ -2569,7 +2569,7 @@
         <v>3.7</v>
       </c>
       <c r="J16" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="K16" t="n">
         <v>3.65</v>
@@ -2581,13 +2581,13 @@
         <v>1.07</v>
       </c>
       <c r="N16" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="O16" t="n">
         <v>1.32</v>
       </c>
       <c r="P16" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="Q16" t="n">
         <v>1.97</v>
@@ -2656,7 +2656,7 @@
         <v>40</v>
       </c>
       <c r="AM16" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AN16" t="n">
         <v>17.5</v>
@@ -2770,7 +2770,7 @@
         <v>180</v>
       </c>
       <c r="AF17" t="n">
-        <v>9.4</v>
+        <v>8.4</v>
       </c>
       <c r="AG17" t="n">
         <v>10.5</v>
@@ -2836,7 +2836,7 @@
         <v>22</v>
       </c>
       <c r="I18" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J18" t="n">
         <v>8.199999999999999</v>
@@ -2869,7 +2869,7 @@
         <v>2.24</v>
       </c>
       <c r="T18" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="U18" t="n">
         <v>1.61</v>
@@ -3058,16 +3058,16 @@
         <v>40</v>
       </c>
       <c r="AL19" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AM19" t="n">
         <v>80</v>
       </c>
       <c r="AN19" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AO19" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20">
@@ -3106,7 +3106,7 @@
         <v>11.5</v>
       </c>
       <c r="I20" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="J20" t="n">
         <v>6.2</v>
@@ -3121,7 +3121,7 @@
         <v>1.02</v>
       </c>
       <c r="N20" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="O20" t="n">
         <v>1.14</v>
@@ -3172,7 +3172,7 @@
         <v>1000</v>
       </c>
       <c r="AE20" t="n">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="AF20" t="n">
         <v>9.800000000000001</v>
@@ -3187,7 +3187,7 @@
         <v>120</v>
       </c>
       <c r="AJ20" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="AK20" t="n">
         <v>13</v>
@@ -3256,13 +3256,13 @@
         <v>1.04</v>
       </c>
       <c r="N21" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="O21" t="n">
         <v>1.21</v>
       </c>
       <c r="P21" t="n">
-        <v>2.44</v>
+        <v>2.4</v>
       </c>
       <c r="Q21" t="n">
         <v>1.61</v>
@@ -3271,10 +3271,10 @@
         <v>1.57</v>
       </c>
       <c r="S21" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="T21" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="U21" t="n">
         <v>2.2</v>
@@ -3319,7 +3319,7 @@
         <v>19.5</v>
       </c>
       <c r="AI21" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AJ21" t="n">
         <v>16.5</v>
@@ -3334,10 +3334,10 @@
         <v>100</v>
       </c>
       <c r="AN21" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="AO21" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
     </row>
     <row r="22">
@@ -3382,16 +3382,16 @@
         <v>7.6</v>
       </c>
       <c r="K22" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="L22" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="M22" t="n">
         <v>1.02</v>
       </c>
       <c r="N22" t="n">
-        <v>8.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="O22" t="n">
         <v>1.11</v>
@@ -3403,10 +3403,10 @@
         <v>1.37</v>
       </c>
       <c r="R22" t="n">
-        <v>1.94</v>
+        <v>1.97</v>
       </c>
       <c r="S22" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="T22" t="n">
         <v>1.89</v>
@@ -3502,22 +3502,22 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="G23" t="n">
         <v>1.74</v>
       </c>
       <c r="H23" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="I23" t="n">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="J23" t="n">
         <v>4.1</v>
       </c>
       <c r="K23" t="n">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="L23" t="n">
         <v>1.34</v>
@@ -3541,7 +3541,7 @@
         <v>1.49</v>
       </c>
       <c r="S23" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="T23" t="n">
         <v>1.74</v>
@@ -3553,7 +3553,7 @@
         <v>1.2</v>
       </c>
       <c r="W23" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="X23" t="n">
         <v>1000</v>
@@ -3571,7 +3571,7 @@
         <v>1000</v>
       </c>
       <c r="AC23" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="AD23" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-18.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-18.xlsx
@@ -679,7 +679,7 @@
         <v>1000</v>
       </c>
       <c r="J2" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K2" t="n">
         <v>1000</v>
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.7</v>
+        <v>2.66</v>
       </c>
       <c r="G3" t="n">
         <v>4.1</v>
@@ -811,13 +811,13 @@
         <v>2.1</v>
       </c>
       <c r="I3" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="J3" t="n">
         <v>3.05</v>
       </c>
       <c r="K3" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="L3" t="n">
         <v>1.33</v>
@@ -826,22 +826,22 @@
         <v>1.07</v>
       </c>
       <c r="N3" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="O3" t="n">
         <v>1.07</v>
       </c>
       <c r="P3" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
       <c r="R3" t="n">
         <v>1.18</v>
       </c>
       <c r="S3" t="n">
-        <v>1.87</v>
+        <v>1.84</v>
       </c>
       <c r="T3" t="n">
         <v>1.01</v>
@@ -850,7 +850,7 @@
         <v>1.01</v>
       </c>
       <c r="V3" t="n">
-        <v>1.56</v>
+        <v>1.54</v>
       </c>
       <c r="W3" t="n">
         <v>1.32</v>
@@ -937,19 +937,19 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.38</v>
+        <v>2.32</v>
       </c>
       <c r="G4" t="n">
-        <v>2.8</v>
+        <v>2.58</v>
       </c>
       <c r="H4" t="n">
-        <v>3.55</v>
+        <v>3.7</v>
       </c>
       <c r="I4" t="n">
         <v>4.7</v>
       </c>
       <c r="J4" t="n">
-        <v>2.46</v>
+        <v>2.74</v>
       </c>
       <c r="K4" t="n">
         <v>3.1</v>
@@ -961,43 +961,43 @@
         <v>1.14</v>
       </c>
       <c r="N4" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="O4" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="P4" t="n">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="Q4" t="n">
         <v>3</v>
       </c>
       <c r="R4" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="S4" t="n">
         <v>6</v>
       </c>
       <c r="T4" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="U4" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="V4" t="n">
         <v>1.3</v>
       </c>
       <c r="W4" t="n">
-        <v>1.58</v>
+        <v>1.64</v>
       </c>
       <c r="X4" t="n">
         <v>8.4</v>
       </c>
       <c r="Y4" t="n">
-        <v>9.6</v>
+        <v>11.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AA4" t="n">
         <v>120</v>
@@ -1009,7 +1009,7 @@
         <v>7.4</v>
       </c>
       <c r="AD4" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AE4" t="n">
         <v>1000</v>
@@ -1033,13 +1033,13 @@
         <v>1000</v>
       </c>
       <c r="AL4" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AM4" t="n">
         <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AO4" t="n">
         <v>1000</v>
@@ -1090,7 +1090,7 @@
         <v>4.8</v>
       </c>
       <c r="L5" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="M5" t="n">
         <v>1.09</v>
@@ -1099,7 +1099,7 @@
         <v>2.88</v>
       </c>
       <c r="O5" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="P5" t="n">
         <v>1.63</v>
@@ -1216,10 +1216,10 @@
         <v>3.15</v>
       </c>
       <c r="I6" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="J6" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="K6" t="n">
         <v>3.8</v>
@@ -1237,13 +1237,13 @@
         <v>1.27</v>
       </c>
       <c r="P6" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="Q6" t="n">
         <v>1.78</v>
       </c>
       <c r="R6" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="S6" t="n">
         <v>3</v>
@@ -1255,10 +1255,10 @@
         <v>2.26</v>
       </c>
       <c r="V6" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="W6" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="X6" t="n">
         <v>17</v>
@@ -1285,7 +1285,7 @@
         <v>36</v>
       </c>
       <c r="AF6" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AG6" t="n">
         <v>11.5</v>
@@ -1345,13 +1345,13 @@
         <v>1.31</v>
       </c>
       <c r="G7" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="H7" t="n">
         <v>12</v>
       </c>
       <c r="I7" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="J7" t="n">
         <v>6.2</v>
@@ -1372,31 +1372,31 @@
         <v>1.17</v>
       </c>
       <c r="P7" t="n">
-        <v>2.76</v>
+        <v>2.62</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.56</v>
+        <v>1.54</v>
       </c>
       <c r="R7" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="S7" t="n">
         <v>2.32</v>
       </c>
       <c r="T7" t="n">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="U7" t="n">
-        <v>1.83</v>
+        <v>1.76</v>
       </c>
       <c r="V7" t="n">
         <v>1.08</v>
       </c>
       <c r="W7" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="X7" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Y7" t="n">
         <v>48</v>
@@ -1405,49 +1405,49 @@
         <v>130</v>
       </c>
       <c r="AA7" t="n">
-        <v>510</v>
+        <v>580</v>
       </c>
       <c r="AB7" t="n">
-        <v>13.5</v>
+        <v>16</v>
       </c>
       <c r="AC7" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AD7" t="n">
         <v>46</v>
       </c>
       <c r="AE7" t="n">
-        <v>240</v>
+        <v>270</v>
       </c>
       <c r="AF7" t="n">
         <v>8.4</v>
       </c>
       <c r="AG7" t="n">
-        <v>14</v>
+        <v>16.5</v>
       </c>
       <c r="AH7" t="n">
         <v>32</v>
       </c>
       <c r="AI7" t="n">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="AJ7" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AK7" t="n">
-        <v>15</v>
+        <v>18.5</v>
       </c>
       <c r="AL7" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AM7" t="n">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="AN7" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="AO7" t="n">
-        <v>320</v>
+        <v>370</v>
       </c>
     </row>
     <row r="8">
@@ -1489,7 +1489,7 @@
         <v>6.6</v>
       </c>
       <c r="J8" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="K8" t="n">
         <v>4.2</v>
@@ -1501,7 +1501,7 @@
         <v>1.08</v>
       </c>
       <c r="N8" t="n">
-        <v>2.92</v>
+        <v>2.94</v>
       </c>
       <c r="O8" t="n">
         <v>1.38</v>
@@ -1510,7 +1510,7 @@
         <v>1.79</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.08</v>
+        <v>1.94</v>
       </c>
       <c r="R8" t="n">
         <v>1.28</v>
@@ -1528,7 +1528,7 @@
         <v>1.17</v>
       </c>
       <c r="W8" t="n">
-        <v>2.5</v>
+        <v>2.46</v>
       </c>
       <c r="X8" t="n">
         <v>13</v>
@@ -1564,7 +1564,7 @@
         <v>30</v>
       </c>
       <c r="AI8" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AJ8" t="n">
         <v>15.5</v>
@@ -1612,10 +1612,10 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.93</v>
+        <v>1.96</v>
       </c>
       <c r="G9" t="n">
-        <v>1.95</v>
+        <v>1.97</v>
       </c>
       <c r="H9" t="n">
         <v>4.5</v>
@@ -1627,16 +1627,16 @@
         <v>3.7</v>
       </c>
       <c r="K9" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="L9" t="n">
-        <v>1.43</v>
+        <v>1.41</v>
       </c>
       <c r="M9" t="n">
         <v>1.07</v>
       </c>
       <c r="N9" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="O9" t="n">
         <v>1.32</v>
@@ -1648,28 +1648,28 @@
         <v>1.95</v>
       </c>
       <c r="R9" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="S9" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="T9" t="n">
         <v>1.83</v>
       </c>
       <c r="U9" t="n">
-        <v>2.08</v>
+        <v>2.04</v>
       </c>
       <c r="V9" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="W9" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="X9" t="n">
         <v>14.5</v>
       </c>
       <c r="Y9" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="Z9" t="n">
         <v>34</v>
@@ -1756,22 +1756,22 @@
         <v>12</v>
       </c>
       <c r="I10" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="J10" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="K10" t="n">
         <v>6.6</v>
       </c>
       <c r="L10" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="M10" t="n">
         <v>1.04</v>
       </c>
       <c r="N10" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="O10" t="n">
         <v>1.22</v>
@@ -1789,7 +1789,7 @@
         <v>2.64</v>
       </c>
       <c r="T10" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="U10" t="n">
         <v>1.73</v>
@@ -1801,10 +1801,10 @@
         <v>4</v>
       </c>
       <c r="X10" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="Y10" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="Z10" t="n">
         <v>150</v>
@@ -1813,7 +1813,7 @@
         <v>1000</v>
       </c>
       <c r="AB10" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AC10" t="n">
         <v>1000</v>
@@ -1825,7 +1825,7 @@
         <v>270</v>
       </c>
       <c r="AF10" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AG10" t="n">
         <v>12</v>
@@ -1849,7 +1849,7 @@
         <v>210</v>
       </c>
       <c r="AN10" t="n">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="AO10" t="n">
         <v>1000</v>
@@ -1882,16 +1882,16 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="G11" t="n">
-        <v>1.99</v>
+        <v>1.97</v>
       </c>
       <c r="H11" t="n">
         <v>4.3</v>
       </c>
       <c r="I11" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="J11" t="n">
         <v>3.8</v>
@@ -1906,7 +1906,7 @@
         <v>1.08</v>
       </c>
       <c r="N11" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="O11" t="n">
         <v>1.42</v>
@@ -1930,10 +1930,10 @@
         <v>1.78</v>
       </c>
       <c r="V11" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="W11" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="X11" t="n">
         <v>12</v>
@@ -1942,10 +1942,10 @@
         <v>1000</v>
       </c>
       <c r="Z11" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AA11" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AB11" t="n">
         <v>1000</v>
@@ -1954,22 +1954,22 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AD11" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AE11" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AF11" t="n">
         <v>11</v>
       </c>
       <c r="AG11" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AH11" t="n">
         <v>26</v>
       </c>
       <c r="AI11" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AJ11" t="n">
         <v>23</v>
@@ -1987,7 +1987,7 @@
         <v>1000</v>
       </c>
       <c r="AO11" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12">
@@ -2017,7 +2017,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="G12" t="n">
         <v>2.78</v>
@@ -2029,16 +2029,16 @@
         <v>3.1</v>
       </c>
       <c r="J12" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="K12" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="L12" t="n">
         <v>1.46</v>
       </c>
       <c r="M12" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N12" t="n">
         <v>3.25</v>
@@ -2050,7 +2050,7 @@
         <v>1.81</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="R12" t="n">
         <v>1.31</v>
@@ -2116,7 +2116,7 @@
         <v>1000</v>
       </c>
       <c r="AM12" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AN12" t="n">
         <v>1000</v>
@@ -2155,13 +2155,13 @@
         <v>3.25</v>
       </c>
       <c r="G13" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="H13" t="n">
-        <v>2.64</v>
+        <v>2.6</v>
       </c>
       <c r="I13" t="n">
-        <v>2.88</v>
+        <v>2.86</v>
       </c>
       <c r="J13" t="n">
         <v>2.84</v>
@@ -2176,7 +2176,7 @@
         <v>1.13</v>
       </c>
       <c r="N13" t="n">
-        <v>1.31</v>
+        <v>1.35</v>
       </c>
       <c r="O13" t="n">
         <v>1.48</v>
@@ -2185,10 +2185,10 @@
         <v>1.26</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="R13" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="S13" t="n">
         <v>2.44</v>
@@ -2203,7 +2203,7 @@
         <v>1.53</v>
       </c>
       <c r="W13" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="X13" t="n">
         <v>9.199999999999999</v>
@@ -2212,7 +2212,7 @@
         <v>10.5</v>
       </c>
       <c r="Z13" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AA13" t="n">
         <v>46</v>
@@ -2254,7 +2254,7 @@
         <v>210</v>
       </c>
       <c r="AN13" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AO13" t="n">
         <v>50</v>
@@ -2293,7 +2293,7 @@
         <v>1.26</v>
       </c>
       <c r="H14" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="I14" t="n">
         <v>17.5</v>
@@ -2305,7 +2305,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="L14" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="M14" t="n">
         <v>1.03</v>
@@ -2320,13 +2320,13 @@
         <v>2.7</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="R14" t="n">
         <v>1.68</v>
       </c>
       <c r="S14" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="T14" t="n">
         <v>2.26</v>
@@ -2377,7 +2377,7 @@
         <v>220</v>
       </c>
       <c r="AJ14" t="n">
-        <v>9.199999999999999</v>
+        <v>10.5</v>
       </c>
       <c r="AK14" t="n">
         <v>13.5</v>
@@ -2422,22 +2422,22 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="G15" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="H15" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="I15" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="J15" t="n">
-        <v>3.65</v>
+        <v>3.45</v>
       </c>
       <c r="K15" t="n">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="L15" t="n">
         <v>1.45</v>
@@ -2446,16 +2446,16 @@
         <v>1.07</v>
       </c>
       <c r="N15" t="n">
-        <v>3.45</v>
+        <v>3.3</v>
       </c>
       <c r="O15" t="n">
         <v>1.36</v>
       </c>
       <c r="P15" t="n">
-        <v>1.79</v>
+        <v>1.74</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.95</v>
+        <v>2.02</v>
       </c>
       <c r="R15" t="n">
         <v>1.29</v>
@@ -2464,19 +2464,19 @@
         <v>3.7</v>
       </c>
       <c r="T15" t="n">
-        <v>1.93</v>
+        <v>1.79</v>
       </c>
       <c r="U15" t="n">
-        <v>1.89</v>
+        <v>1.92</v>
       </c>
       <c r="V15" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="W15" t="n">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="X15" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="Y15" t="n">
         <v>1000</v>
@@ -2491,7 +2491,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AC15" t="n">
-        <v>1000</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD15" t="n">
         <v>1000</v>
@@ -2503,7 +2503,7 @@
         <v>1000</v>
       </c>
       <c r="AG15" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AH15" t="n">
         <v>1000</v>
@@ -2557,7 +2557,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="G16" t="n">
         <v>2.26</v>
@@ -2587,22 +2587,22 @@
         <v>1.32</v>
       </c>
       <c r="P16" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="Q16" t="n">
         <v>1.97</v>
       </c>
       <c r="R16" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="S16" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="T16" t="n">
         <v>1.77</v>
       </c>
       <c r="U16" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="V16" t="n">
         <v>1.37</v>
@@ -2641,13 +2641,13 @@
         <v>11</v>
       </c>
       <c r="AH16" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AI16" t="n">
         <v>55</v>
       </c>
       <c r="AJ16" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AK16" t="n">
         <v>24</v>
@@ -2656,13 +2656,13 @@
         <v>40</v>
       </c>
       <c r="AM16" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AN16" t="n">
         <v>17.5</v>
       </c>
       <c r="AO16" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17">
@@ -2692,16 +2692,16 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.45</v>
+        <v>1.43</v>
       </c>
       <c r="G17" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="H17" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="I17" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="J17" t="n">
         <v>4.5</v>
@@ -2722,10 +2722,10 @@
         <v>1.32</v>
       </c>
       <c r="P17" t="n">
-        <v>2.02</v>
+        <v>1.99</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.86</v>
+        <v>1.89</v>
       </c>
       <c r="R17" t="n">
         <v>1.37</v>
@@ -2755,22 +2755,22 @@
         <v>1000</v>
       </c>
       <c r="AA17" t="n">
-        <v>380</v>
+        <v>390</v>
       </c>
       <c r="AB17" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="AC17" t="n">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="AD17" t="n">
         <v>34</v>
       </c>
       <c r="AE17" t="n">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="AF17" t="n">
-        <v>8.4</v>
+        <v>9.4</v>
       </c>
       <c r="AG17" t="n">
         <v>10.5</v>
@@ -2794,7 +2794,7 @@
         <v>210</v>
       </c>
       <c r="AN17" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AO17" t="n">
         <v>1000</v>
@@ -2830,7 +2830,7 @@
         <v>1.17</v>
       </c>
       <c r="G18" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="H18" t="n">
         <v>22</v>
@@ -2857,7 +2857,7 @@
         <v>1.16</v>
       </c>
       <c r="P18" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="Q18" t="n">
         <v>1.52</v>
@@ -2965,10 +2965,10 @@
         <v>3.45</v>
       </c>
       <c r="G19" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="H19" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="I19" t="n">
         <v>2.26</v>
@@ -3013,10 +3013,10 @@
         <v>1.79</v>
       </c>
       <c r="W19" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="X19" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="Y19" t="n">
         <v>11.5</v>
@@ -3097,7 +3097,7 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="G20" t="n">
         <v>1.32</v>
@@ -3106,7 +3106,7 @@
         <v>11.5</v>
       </c>
       <c r="I20" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J20" t="n">
         <v>6.2</v>
@@ -3121,25 +3121,25 @@
         <v>1.02</v>
       </c>
       <c r="N20" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="O20" t="n">
         <v>1.14</v>
       </c>
       <c r="P20" t="n">
-        <v>3.05</v>
+        <v>2.9</v>
       </c>
       <c r="Q20" t="n">
         <v>1.44</v>
       </c>
       <c r="R20" t="n">
-        <v>1.82</v>
+        <v>1.76</v>
       </c>
       <c r="S20" t="n">
-        <v>2.1</v>
+        <v>2.16</v>
       </c>
       <c r="T20" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="U20" t="n">
         <v>2.04</v>
@@ -3160,7 +3160,7 @@
         <v>130</v>
       </c>
       <c r="AA20" t="n">
-        <v>480</v>
+        <v>490</v>
       </c>
       <c r="AB20" t="n">
         <v>14.5</v>
@@ -3169,25 +3169,25 @@
         <v>15.5</v>
       </c>
       <c r="AD20" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AE20" t="n">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="AF20" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="AG20" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AH20" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AI20" t="n">
         <v>120</v>
       </c>
       <c r="AJ20" t="n">
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="AK20" t="n">
         <v>13</v>
@@ -3199,7 +3199,7 @@
         <v>120</v>
       </c>
       <c r="AN20" t="n">
-        <v>3.75</v>
+        <v>3.95</v>
       </c>
       <c r="AO20" t="n">
         <v>170</v>
@@ -3244,7 +3244,7 @@
         <v>6.4</v>
       </c>
       <c r="J21" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="K21" t="n">
         <v>4.8</v>
@@ -3256,7 +3256,7 @@
         <v>1.04</v>
       </c>
       <c r="N21" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="O21" t="n">
         <v>1.21</v>
@@ -3265,7 +3265,7 @@
         <v>2.4</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.61</v>
+        <v>1.59</v>
       </c>
       <c r="R21" t="n">
         <v>1.57</v>
@@ -3274,7 +3274,7 @@
         <v>2.52</v>
       </c>
       <c r="T21" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="U21" t="n">
         <v>2.2</v>
@@ -3367,10 +3367,10 @@
         </is>
       </c>
       <c r="F22" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="G22" t="n">
         <v>1.24</v>
-      </c>
-      <c r="G22" t="n">
-        <v>1.25</v>
       </c>
       <c r="H22" t="n">
         <v>13.5</v>
@@ -3382,10 +3382,10 @@
         <v>7.6</v>
       </c>
       <c r="K22" t="n">
-        <v>8.199999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="L22" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="M22" t="n">
         <v>1.02</v>
@@ -3406,10 +3406,10 @@
         <v>1.97</v>
       </c>
       <c r="S22" t="n">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="T22" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="U22" t="n">
         <v>2.04</v>
@@ -3469,7 +3469,7 @@
         <v>140</v>
       </c>
       <c r="AN22" t="n">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="AO22" t="n">
         <v>1000</v>
@@ -3502,13 +3502,13 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="G23" t="n">
         <v>1.74</v>
       </c>
       <c r="H23" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="I23" t="n">
         <v>6</v>
@@ -3535,7 +3535,7 @@
         <v>2.22</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.63</v>
+        <v>1.66</v>
       </c>
       <c r="R23" t="n">
         <v>1.49</v>
@@ -3547,13 +3547,13 @@
         <v>1.74</v>
       </c>
       <c r="U23" t="n">
-        <v>2.16</v>
+        <v>2.12</v>
       </c>
       <c r="V23" t="n">
         <v>1.2</v>
       </c>
       <c r="W23" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="X23" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-18.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-18.xlsx
@@ -802,22 +802,22 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.66</v>
+        <v>2.84</v>
       </c>
       <c r="G3" t="n">
         <v>4.1</v>
       </c>
       <c r="H3" t="n">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
       <c r="I3" t="n">
         <v>2.82</v>
       </c>
       <c r="J3" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="K3" t="n">
-        <v>6.8</v>
+        <v>6.2</v>
       </c>
       <c r="L3" t="n">
         <v>1.33</v>
@@ -826,22 +826,22 @@
         <v>1.07</v>
       </c>
       <c r="N3" t="n">
-        <v>1.69</v>
+        <v>3.2</v>
       </c>
       <c r="O3" t="n">
-        <v>1.07</v>
+        <v>1.28</v>
       </c>
       <c r="P3" t="n">
-        <v>1.69</v>
+        <v>1.78</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="R3" t="n">
-        <v>1.18</v>
+        <v>1.27</v>
       </c>
       <c r="S3" t="n">
-        <v>1.84</v>
+        <v>3.2</v>
       </c>
       <c r="T3" t="n">
         <v>1.01</v>
@@ -850,7 +850,7 @@
         <v>1.01</v>
       </c>
       <c r="V3" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="W3" t="n">
         <v>1.32</v>
@@ -940,22 +940,22 @@
         <v>2.32</v>
       </c>
       <c r="G4" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="H4" t="n">
         <v>3.7</v>
       </c>
       <c r="I4" t="n">
-        <v>4.7</v>
+        <v>4.4</v>
       </c>
       <c r="J4" t="n">
         <v>2.74</v>
       </c>
       <c r="K4" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="L4" t="n">
-        <v>1.01</v>
+        <v>1.56</v>
       </c>
       <c r="M4" t="n">
         <v>1.14</v>
@@ -964,10 +964,10 @@
         <v>2.22</v>
       </c>
       <c r="O4" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="P4" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="Q4" t="n">
         <v>3</v>
@@ -976,10 +976,10 @@
         <v>1.14</v>
       </c>
       <c r="S4" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="T4" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="U4" t="n">
         <v>1.63</v>
@@ -988,7 +988,7 @@
         <v>1.3</v>
       </c>
       <c r="W4" t="n">
-        <v>1.64</v>
+        <v>1.62</v>
       </c>
       <c r="X4" t="n">
         <v>8.4</v>
@@ -997,40 +997,40 @@
         <v>11.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AA4" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AB4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AC4" t="n">
-        <v>7.4</v>
+        <v>8.6</v>
       </c>
       <c r="AD4" t="n">
         <v>23</v>
       </c>
       <c r="AE4" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AF4" t="n">
-        <v>15</v>
+        <v>16.5</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AH4" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AI4" t="n">
         <v>1000</v>
       </c>
       <c r="AJ4" t="n">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="AK4" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AL4" t="n">
         <v>100</v>
@@ -1075,16 +1075,16 @@
         <v>1.41</v>
       </c>
       <c r="G5" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="H5" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I5" t="n">
-        <v>13.5</v>
+        <v>15</v>
       </c>
       <c r="J5" t="n">
-        <v>4</v>
+        <v>3.7</v>
       </c>
       <c r="K5" t="n">
         <v>4.8</v>
@@ -1102,25 +1102,25 @@
         <v>1.44</v>
       </c>
       <c r="P5" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="R5" t="n">
         <v>1.23</v>
       </c>
       <c r="S5" t="n">
-        <v>3.95</v>
+        <v>4.4</v>
       </c>
       <c r="T5" t="n">
-        <v>2.56</v>
+        <v>2.5</v>
       </c>
       <c r="U5" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="V5" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="W5" t="n">
         <v>2.96</v>
@@ -1150,7 +1150,7 @@
         <v>1000</v>
       </c>
       <c r="AF5" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AG5" t="n">
         <v>13.5</v>
@@ -1162,7 +1162,7 @@
         <v>1000</v>
       </c>
       <c r="AJ5" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AK5" t="n">
         <v>25</v>
@@ -1174,7 +1174,7 @@
         <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AO5" t="n">
         <v>1000</v>
@@ -1210,70 +1210,70 @@
         <v>2.32</v>
       </c>
       <c r="G6" t="n">
-        <v>2.42</v>
+        <v>2.38</v>
       </c>
       <c r="H6" t="n">
         <v>3.15</v>
       </c>
       <c r="I6" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="J6" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="K6" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="L6" t="n">
-        <v>1.39</v>
+        <v>1.35</v>
       </c>
       <c r="M6" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N6" t="n">
-        <v>4.1</v>
+        <v>4.6</v>
       </c>
       <c r="O6" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="P6" t="n">
-        <v>2.16</v>
+        <v>2.26</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.78</v>
+        <v>1.72</v>
       </c>
       <c r="R6" t="n">
-        <v>1.43</v>
+        <v>1.47</v>
       </c>
       <c r="S6" t="n">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="T6" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="U6" t="n">
-        <v>2.26</v>
+        <v>2.4</v>
       </c>
       <c r="V6" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="W6" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="X6" t="n">
-        <v>17</v>
+        <v>19.5</v>
       </c>
       <c r="Y6" t="n">
-        <v>14.5</v>
+        <v>16.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AA6" t="n">
         <v>55</v>
       </c>
       <c r="AB6" t="n">
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="AC6" t="n">
         <v>8.800000000000001</v>
@@ -1285,16 +1285,16 @@
         <v>36</v>
       </c>
       <c r="AF6" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AG6" t="n">
         <v>11.5</v>
       </c>
       <c r="AH6" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AI6" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AJ6" t="n">
         <v>32</v>
@@ -1303,16 +1303,16 @@
         <v>24</v>
       </c>
       <c r="AL6" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AM6" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AN6" t="n">
-        <v>17.5</v>
+        <v>15.5</v>
       </c>
       <c r="AO6" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7">
@@ -1342,19 +1342,19 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="G7" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="H7" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="I7" t="n">
         <v>13.5</v>
       </c>
       <c r="J7" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="K7" t="n">
         <v>6.4</v>
@@ -1366,64 +1366,64 @@
         <v>1.03</v>
       </c>
       <c r="N7" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="O7" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="P7" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="Q7" t="n">
         <v>1.54</v>
       </c>
       <c r="R7" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="S7" t="n">
-        <v>2.32</v>
+        <v>2.26</v>
       </c>
       <c r="T7" t="n">
         <v>2.14</v>
       </c>
       <c r="U7" t="n">
-        <v>1.76</v>
+        <v>1.79</v>
       </c>
       <c r="V7" t="n">
         <v>1.08</v>
       </c>
       <c r="W7" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="X7" t="n">
         <v>26</v>
       </c>
       <c r="Y7" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="Z7" t="n">
-        <v>130</v>
+        <v>160</v>
       </c>
       <c r="AA7" t="n">
-        <v>580</v>
+        <v>510</v>
       </c>
       <c r="AB7" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AC7" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="AE7" t="n">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="AF7" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="AG7" t="n">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="AH7" t="n">
         <v>32</v>
@@ -1435,7 +1435,7 @@
         <v>9</v>
       </c>
       <c r="AK7" t="n">
-        <v>18.5</v>
+        <v>16</v>
       </c>
       <c r="AL7" t="n">
         <v>60</v>
@@ -1444,10 +1444,10 @@
         <v>190</v>
       </c>
       <c r="AN7" t="n">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="AO7" t="n">
-        <v>370</v>
+        <v>390</v>
       </c>
     </row>
     <row r="8">
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.64</v>
+        <v>1.61</v>
       </c>
       <c r="G8" t="n">
-        <v>1.68</v>
+        <v>1.66</v>
       </c>
       <c r="H8" t="n">
         <v>6.2</v>
       </c>
       <c r="I8" t="n">
-        <v>6.6</v>
+        <v>7.6</v>
       </c>
       <c r="J8" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="K8" t="n">
-        <v>4.2</v>
+        <v>4.6</v>
       </c>
       <c r="L8" t="n">
         <v>1.46</v>
@@ -1501,40 +1501,40 @@
         <v>1.08</v>
       </c>
       <c r="N8" t="n">
-        <v>2.94</v>
+        <v>3.25</v>
       </c>
       <c r="O8" t="n">
         <v>1.38</v>
       </c>
       <c r="P8" t="n">
-        <v>1.79</v>
+        <v>1.77</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.94</v>
+        <v>2.02</v>
       </c>
       <c r="R8" t="n">
         <v>1.28</v>
       </c>
       <c r="S8" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="T8" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="U8" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="V8" t="n">
         <v>1.17</v>
       </c>
       <c r="W8" t="n">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="X8" t="n">
         <v>13</v>
       </c>
       <c r="Y8" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="Z8" t="n">
         <v>55</v>
@@ -1549,7 +1549,7 @@
         <v>9.6</v>
       </c>
       <c r="AD8" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AE8" t="n">
         <v>120</v>
@@ -1561,7 +1561,7 @@
         <v>10.5</v>
       </c>
       <c r="AH8" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AI8" t="n">
         <v>130</v>
@@ -1579,7 +1579,7 @@
         <v>190</v>
       </c>
       <c r="AN8" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AO8" t="n">
         <v>190</v>
@@ -1747,109 +1747,109 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="G10" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="H10" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="I10" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="J10" t="n">
-        <v>5.9</v>
+        <v>6.2</v>
       </c>
       <c r="K10" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="L10" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="M10" t="n">
         <v>1.04</v>
       </c>
       <c r="N10" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P10" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="S10" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="T10" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="U10" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="V10" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="W10" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="X10" t="n">
+        <v>28</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>48</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>170</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>60</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>310</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>40</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>220</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>17</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>55</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>250</v>
+      </c>
+      <c r="AN10" t="n">
         <v>5</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P10" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="R10" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="S10" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="T10" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="U10" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="V10" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="W10" t="n">
-        <v>4</v>
-      </c>
-      <c r="X10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>150</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>9</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>270</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>8</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>200</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>210</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>5.2</v>
       </c>
       <c r="AO10" t="n">
         <v>1000</v>
@@ -1882,7 +1882,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="G11" t="n">
         <v>1.97</v>
@@ -1891,13 +1891,13 @@
         <v>4.3</v>
       </c>
       <c r="I11" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="J11" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="K11" t="n">
-        <v>3.95</v>
+        <v>4.3</v>
       </c>
       <c r="L11" t="n">
         <v>1.5</v>
@@ -1912,25 +1912,25 @@
         <v>1.42</v>
       </c>
       <c r="P11" t="n">
-        <v>1.71</v>
+        <v>1.69</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="R11" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="S11" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="T11" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="U11" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="V11" t="n">
         <v>1.26</v>
-      </c>
-      <c r="S11" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="T11" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="U11" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="V11" t="n">
-        <v>1.27</v>
       </c>
       <c r="W11" t="n">
         <v>2.02</v>
@@ -1939,37 +1939,37 @@
         <v>12</v>
       </c>
       <c r="Y11" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="Z11" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AA11" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AB11" t="n">
         <v>1000</v>
       </c>
       <c r="AC11" t="n">
-        <v>8.800000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="AD11" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AE11" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AF11" t="n">
         <v>11</v>
       </c>
       <c r="AG11" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AH11" t="n">
         <v>26</v>
       </c>
       <c r="AI11" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AJ11" t="n">
         <v>23</v>
@@ -1978,7 +1978,7 @@
         <v>24</v>
       </c>
       <c r="AL11" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AM11" t="n">
         <v>170</v>
@@ -1987,7 +1987,7 @@
         <v>1000</v>
       </c>
       <c r="AO11" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12">
@@ -2020,31 +2020,31 @@
         <v>2.6</v>
       </c>
       <c r="G12" t="n">
-        <v>2.78</v>
+        <v>2.74</v>
       </c>
       <c r="H12" t="n">
         <v>2.92</v>
       </c>
       <c r="I12" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="J12" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="K12" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="L12" t="n">
         <v>1.46</v>
       </c>
       <c r="M12" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="N12" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="O12" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="P12" t="n">
         <v>1.81</v>
@@ -2056,58 +2056,58 @@
         <v>1.31</v>
       </c>
       <c r="S12" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="T12" t="n">
-        <v>1.84</v>
+        <v>1.8</v>
       </c>
       <c r="U12" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="V12" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="W12" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="X12" t="n">
         <v>11</v>
       </c>
       <c r="Y12" t="n">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="Z12" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AA12" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AB12" t="n">
-        <v>10.5</v>
+        <v>13</v>
       </c>
       <c r="AC12" t="n">
-        <v>1000</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD12" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AE12" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AF12" t="n">
         <v>1000</v>
       </c>
       <c r="AG12" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AH12" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AI12" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AJ12" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AK12" t="n">
         <v>1000</v>
@@ -2119,10 +2119,10 @@
         <v>120</v>
       </c>
       <c r="AN12" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AO12" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13">
@@ -2152,37 +2152,37 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="G13" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="H13" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="I13" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="J13" t="n">
         <v>2.86</v>
       </c>
-      <c r="J13" t="n">
-        <v>2.84</v>
-      </c>
       <c r="K13" t="n">
-        <v>2.88</v>
+        <v>3.05</v>
       </c>
       <c r="L13" t="n">
         <v>1.55</v>
       </c>
       <c r="M13" t="n">
-        <v>1.13</v>
+        <v>1.09</v>
       </c>
       <c r="N13" t="n">
-        <v>1.35</v>
+        <v>1.58</v>
       </c>
       <c r="O13" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="P13" t="n">
-        <v>1.26</v>
+        <v>1.57</v>
       </c>
       <c r="Q13" t="n">
         <v>1.5</v>
@@ -2194,19 +2194,19 @@
         <v>2.44</v>
       </c>
       <c r="T13" t="n">
-        <v>1.01</v>
+        <v>1.89</v>
       </c>
       <c r="U13" t="n">
-        <v>1.01</v>
+        <v>1.71</v>
       </c>
       <c r="V13" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="W13" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="X13" t="n">
-        <v>9.199999999999999</v>
+        <v>10.5</v>
       </c>
       <c r="Y13" t="n">
         <v>10.5</v>
@@ -2227,7 +2227,7 @@
         <v>15</v>
       </c>
       <c r="AE13" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AF13" t="n">
         <v>22</v>
@@ -2236,10 +2236,10 @@
         <v>17.5</v>
       </c>
       <c r="AH13" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AI13" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AJ13" t="n">
         <v>70</v>
@@ -2251,13 +2251,13 @@
         <v>90</v>
       </c>
       <c r="AM13" t="n">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="AN13" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AO13" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14">
@@ -2287,22 +2287,22 @@
         </is>
       </c>
       <c r="F14" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="G14" t="n">
         <v>1.23</v>
       </c>
-      <c r="G14" t="n">
-        <v>1.26</v>
-      </c>
       <c r="H14" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="I14" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="J14" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="K14" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="L14" t="n">
         <v>1.27</v>
@@ -2314,85 +2314,85 @@
         <v>6.2</v>
       </c>
       <c r="O14" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="P14" t="n">
-        <v>2.7</v>
+        <v>2.74</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.54</v>
+        <v>1.49</v>
       </c>
       <c r="R14" t="n">
-        <v>1.68</v>
+        <v>1.72</v>
       </c>
       <c r="S14" t="n">
-        <v>2.32</v>
+        <v>2.2</v>
       </c>
       <c r="T14" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="U14" t="n">
-        <v>1.72</v>
+        <v>1.67</v>
       </c>
       <c r="V14" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="W14" t="n">
-        <v>4.8</v>
+        <v>5.2</v>
       </c>
       <c r="X14" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="Y14" t="n">
         <v>1000</v>
       </c>
       <c r="Z14" t="n">
-        <v>180</v>
+        <v>220</v>
       </c>
       <c r="AA14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>980</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>270</v>
+      </c>
+      <c r="AJ14" t="n">
         <v>970</v>
       </c>
-      <c r="AB14" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>980</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>300</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>40</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>220</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>10.5</v>
-      </c>
       <c r="AK14" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AL14" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AM14" t="n">
-        <v>220</v>
+        <v>290</v>
       </c>
       <c r="AN14" t="n">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="AO14" t="n">
-        <v>360</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="15">
@@ -2422,22 +2422,22 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="G15" t="n">
         <v>2</v>
       </c>
       <c r="H15" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="I15" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="J15" t="n">
-        <v>3.45</v>
+        <v>3.65</v>
       </c>
       <c r="K15" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="L15" t="n">
         <v>1.45</v>
@@ -2452,22 +2452,22 @@
         <v>1.36</v>
       </c>
       <c r="P15" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="R15" t="n">
         <v>1.29</v>
       </c>
       <c r="S15" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="T15" t="n">
-        <v>1.79</v>
+        <v>1.89</v>
       </c>
       <c r="U15" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="V15" t="n">
         <v>1.26</v>
@@ -2485,13 +2485,13 @@
         <v>1000</v>
       </c>
       <c r="AA15" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="AB15" t="n">
-        <v>9.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC15" t="n">
-        <v>8.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AD15" t="n">
         <v>1000</v>
@@ -2500,10 +2500,10 @@
         <v>1000</v>
       </c>
       <c r="AF15" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AG15" t="n">
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="AH15" t="n">
         <v>1000</v>
@@ -2521,7 +2521,7 @@
         <v>1000</v>
       </c>
       <c r="AM15" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="AN15" t="n">
         <v>1000</v>
@@ -2557,10 +2557,10 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="G16" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="H16" t="n">
         <v>3.6</v>
@@ -2569,37 +2569,37 @@
         <v>3.7</v>
       </c>
       <c r="J16" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="K16" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="L16" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="M16" t="n">
         <v>1.07</v>
       </c>
       <c r="N16" t="n">
-        <v>3.8</v>
+        <v>3.65</v>
       </c>
       <c r="O16" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="P16" t="n">
-        <v>1.96</v>
+        <v>1.91</v>
       </c>
       <c r="Q16" t="n">
         <v>1.97</v>
       </c>
       <c r="R16" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="S16" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="T16" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="U16" t="n">
         <v>2.12</v>
@@ -2608,13 +2608,13 @@
         <v>1.37</v>
       </c>
       <c r="W16" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="X16" t="n">
         <v>15</v>
       </c>
       <c r="Y16" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="Z16" t="n">
         <v>27</v>
@@ -2659,10 +2659,10 @@
         <v>100</v>
       </c>
       <c r="AN16" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="AO16" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17">
@@ -2692,22 +2692,22 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.43</v>
+        <v>1.47</v>
       </c>
       <c r="G17" t="n">
         <v>1.49</v>
       </c>
       <c r="H17" t="n">
-        <v>8</v>
+        <v>8.4</v>
       </c>
       <c r="I17" t="n">
-        <v>9.4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="J17" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="K17" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="L17" t="n">
         <v>1.41</v>
@@ -2716,82 +2716,82 @@
         <v>1.06</v>
       </c>
       <c r="N17" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="O17" t="n">
         <v>1.32</v>
       </c>
       <c r="P17" t="n">
-        <v>1.99</v>
+        <v>1.96</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="R17" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="S17" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="T17" t="n">
         <v>2.06</v>
       </c>
       <c r="U17" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="V17" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="W17" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="X17" t="n">
-        <v>16.5</v>
+        <v>19</v>
       </c>
       <c r="Y17" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Z17" t="n">
         <v>1000</v>
       </c>
       <c r="AA17" t="n">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="AB17" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AC17" t="n">
         <v>13</v>
       </c>
       <c r="AD17" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="AE17" t="n">
         <v>190</v>
       </c>
       <c r="AF17" t="n">
-        <v>9.4</v>
+        <v>8.4</v>
       </c>
       <c r="AG17" t="n">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="AH17" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AI17" t="n">
         <v>160</v>
       </c>
       <c r="AJ17" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AK17" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AL17" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AM17" t="n">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="AN17" t="n">
         <v>8</v>
@@ -2830,7 +2830,7 @@
         <v>1.17</v>
       </c>
       <c r="G18" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="H18" t="n">
         <v>22</v>
@@ -2839,7 +2839,7 @@
         <v>29</v>
       </c>
       <c r="J18" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="K18" t="n">
         <v>9.4</v>
@@ -2857,19 +2857,19 @@
         <v>1.16</v>
       </c>
       <c r="P18" t="n">
-        <v>2.74</v>
+        <v>2.8</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="R18" t="n">
         <v>1.75</v>
       </c>
       <c r="S18" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="T18" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="U18" t="n">
         <v>1.61</v>
@@ -2881,28 +2881,28 @@
         <v>6</v>
       </c>
       <c r="X18" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="Y18" t="n">
         <v>1000</v>
       </c>
       <c r="Z18" t="n">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="AA18" t="n">
         <v>1000</v>
       </c>
       <c r="AB18" t="n">
-        <v>10.5</v>
+        <v>12.5</v>
       </c>
       <c r="AC18" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AD18" t="n">
         <v>110</v>
       </c>
       <c r="AE18" t="n">
-        <v>600</v>
+        <v>610</v>
       </c>
       <c r="AF18" t="n">
         <v>7.8</v>
@@ -2911,25 +2911,25 @@
         <v>14</v>
       </c>
       <c r="AH18" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AI18" t="n">
         <v>400</v>
       </c>
       <c r="AJ18" t="n">
-        <v>8.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AK18" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AL18" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AM18" t="n">
-        <v>340</v>
+        <v>360</v>
       </c>
       <c r="AN18" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="AO18" t="n">
         <v>1000</v>
@@ -2962,16 +2962,16 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="G19" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="H19" t="n">
         <v>2.22</v>
       </c>
       <c r="I19" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="J19" t="n">
         <v>3.7</v>
@@ -2980,7 +2980,7 @@
         <v>3.75</v>
       </c>
       <c r="L19" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="M19" t="n">
         <v>1.06</v>
@@ -2992,7 +2992,7 @@
         <v>1.28</v>
       </c>
       <c r="P19" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="Q19" t="n">
         <v>1.83</v>
@@ -3010,13 +3010,13 @@
         <v>2.26</v>
       </c>
       <c r="V19" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="W19" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="X19" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="Y19" t="n">
         <v>11.5</v>
@@ -3028,7 +3028,7 @@
         <v>29</v>
       </c>
       <c r="AB19" t="n">
-        <v>15.5</v>
+        <v>18</v>
       </c>
       <c r="AC19" t="n">
         <v>8.6</v>
@@ -3043,10 +3043,10 @@
         <v>26</v>
       </c>
       <c r="AG19" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AH19" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AI19" t="n">
         <v>36</v>
@@ -3058,10 +3058,10 @@
         <v>40</v>
       </c>
       <c r="AL19" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AM19" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AN19" t="n">
         <v>34</v>
@@ -3100,7 +3100,7 @@
         <v>1.28</v>
       </c>
       <c r="G20" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="H20" t="n">
         <v>11.5</v>
@@ -3115,25 +3115,25 @@
         <v>7</v>
       </c>
       <c r="L20" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="M20" t="n">
         <v>1.02</v>
       </c>
       <c r="N20" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="O20" t="n">
         <v>1.14</v>
       </c>
       <c r="P20" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="Q20" t="n">
         <v>1.44</v>
       </c>
       <c r="R20" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="S20" t="n">
         <v>2.16</v>
@@ -3142,10 +3142,10 @@
         <v>1.84</v>
       </c>
       <c r="U20" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="V20" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="W20" t="n">
         <v>4.1</v>
@@ -3157,19 +3157,19 @@
         <v>60</v>
       </c>
       <c r="Z20" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="AA20" t="n">
-        <v>490</v>
+        <v>610</v>
       </c>
       <c r="AB20" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="AC20" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AD20" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AE20" t="n">
         <v>190</v>
@@ -3181,13 +3181,13 @@
         <v>11</v>
       </c>
       <c r="AH20" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AI20" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="AJ20" t="n">
-        <v>13.5</v>
+        <v>11.5</v>
       </c>
       <c r="AK20" t="n">
         <v>13</v>
@@ -3196,7 +3196,7 @@
         <v>32</v>
       </c>
       <c r="AM20" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="AN20" t="n">
         <v>3.95</v>
@@ -3238,16 +3238,16 @@
         <v>1.63</v>
       </c>
       <c r="H21" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="I21" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="J21" t="n">
         <v>4.4</v>
       </c>
       <c r="K21" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="L21" t="n">
         <v>1.31</v>
@@ -3259,85 +3259,85 @@
         <v>5</v>
       </c>
       <c r="O21" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="P21" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="R21" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="S21" t="n">
-        <v>2.52</v>
+        <v>2.46</v>
       </c>
       <c r="T21" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="U21" t="n">
-        <v>2.2</v>
+        <v>2.16</v>
       </c>
       <c r="V21" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="W21" t="n">
         <v>2.58</v>
       </c>
       <c r="X21" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Y21" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Z21" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AA21" t="n">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="AB21" t="n">
         <v>13</v>
       </c>
       <c r="AC21" t="n">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="AD21" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="AE21" t="n">
         <v>90</v>
       </c>
       <c r="AF21" t="n">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="AG21" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH21" t="n">
-        <v>19.5</v>
+        <v>22</v>
       </c>
       <c r="AI21" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AJ21" t="n">
-        <v>16.5</v>
+        <v>18.5</v>
       </c>
       <c r="AK21" t="n">
-        <v>15.5</v>
+        <v>18.5</v>
       </c>
       <c r="AL21" t="n">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="AM21" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AN21" t="n">
         <v>6.8</v>
       </c>
       <c r="AO21" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="22">
@@ -3370,10 +3370,10 @@
         <v>1.23</v>
       </c>
       <c r="G22" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="H22" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="I22" t="n">
         <v>15</v>
@@ -3391,25 +3391,25 @@
         <v>1.02</v>
       </c>
       <c r="N22" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="O22" t="n">
         <v>1.11</v>
       </c>
       <c r="P22" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="R22" t="n">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="S22" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="T22" t="n">
         <v>1.87</v>
-      </c>
-      <c r="T22" t="n">
-        <v>1.9</v>
       </c>
       <c r="U22" t="n">
         <v>2.04</v>
@@ -3421,7 +3421,7 @@
         <v>4.8</v>
       </c>
       <c r="X22" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="Y22" t="n">
         <v>1000</v>
@@ -3430,19 +3430,19 @@
         <v>170</v>
       </c>
       <c r="AA22" t="n">
-        <v>1000</v>
+        <v>550</v>
       </c>
       <c r="AB22" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AC22" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AD22" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AE22" t="n">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="AF22" t="n">
         <v>11</v>
@@ -3454,19 +3454,19 @@
         <v>1000</v>
       </c>
       <c r="AI22" t="n">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="AJ22" t="n">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="AK22" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AL22" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AM22" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="AN22" t="n">
         <v>3.25</v>
@@ -3502,103 +3502,103 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="G23" t="n">
         <v>1.74</v>
       </c>
       <c r="H23" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="I23" t="n">
         <v>6</v>
       </c>
       <c r="J23" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="K23" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="L23" t="n">
-        <v>1.34</v>
+        <v>1.32</v>
       </c>
       <c r="M23" t="n">
         <v>1.05</v>
       </c>
       <c r="N23" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="O23" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="P23" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
       <c r="R23" t="n">
         <v>1.49</v>
       </c>
       <c r="S23" t="n">
-        <v>2.7</v>
+        <v>2.68</v>
       </c>
       <c r="T23" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="U23" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="V23" t="n">
         <v>1.2</v>
       </c>
       <c r="W23" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="X23" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="Y23" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Z23" t="n">
         <v>1000</v>
       </c>
       <c r="AA23" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="AB23" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AC23" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AD23" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AE23" t="n">
         <v>1000</v>
       </c>
       <c r="AF23" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AG23" t="n">
         <v>10</v>
       </c>
       <c r="AH23" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AI23" t="n">
         <v>1000</v>
       </c>
       <c r="AJ23" t="n">
+        <v>20</v>
+      </c>
+      <c r="AK23" t="n">
         <v>21</v>
       </c>
-      <c r="AK23" t="n">
-        <v>1000</v>
-      </c>
       <c r="AL23" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AM23" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-18.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-18.xlsx
@@ -802,22 +802,22 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.84</v>
+        <v>2.88</v>
       </c>
       <c r="G3" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="H3" t="n">
         <v>2.06</v>
       </c>
       <c r="I3" t="n">
-        <v>2.82</v>
+        <v>2.78</v>
       </c>
       <c r="J3" t="n">
         <v>3.1</v>
       </c>
       <c r="K3" t="n">
-        <v>6.2</v>
+        <v>5.9</v>
       </c>
       <c r="L3" t="n">
         <v>1.33</v>
@@ -832,7 +832,7 @@
         <v>1.28</v>
       </c>
       <c r="P3" t="n">
-        <v>1.78</v>
+        <v>1.72</v>
       </c>
       <c r="Q3" t="n">
         <v>1.83</v>
@@ -850,7 +850,7 @@
         <v>1.01</v>
       </c>
       <c r="V3" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="W3" t="n">
         <v>1.32</v>
@@ -940,7 +940,7 @@
         <v>2.32</v>
       </c>
       <c r="G4" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="H4" t="n">
         <v>3.7</v>
@@ -967,7 +967,7 @@
         <v>1.66</v>
       </c>
       <c r="P4" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="Q4" t="n">
         <v>3</v>
@@ -1114,13 +1114,13 @@
         <v>4.4</v>
       </c>
       <c r="T5" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="U5" t="n">
         <v>1.52</v>
       </c>
       <c r="V5" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="W5" t="n">
         <v>2.96</v>
@@ -1243,16 +1243,16 @@
         <v>1.72</v>
       </c>
       <c r="R6" t="n">
-        <v>1.47</v>
+        <v>1.49</v>
       </c>
       <c r="S6" t="n">
         <v>2.8</v>
       </c>
       <c r="T6" t="n">
-        <v>1.63</v>
+        <v>1.61</v>
       </c>
       <c r="U6" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="V6" t="n">
         <v>1.44</v>
@@ -1282,7 +1282,7 @@
         <v>14</v>
       </c>
       <c r="AE6" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AF6" t="n">
         <v>21</v>
@@ -1342,22 +1342,22 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="G7" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="H7" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="I7" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="J7" t="n">
         <v>6</v>
       </c>
       <c r="K7" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="L7" t="n">
         <v>1.27</v>
@@ -1366,28 +1366,28 @@
         <v>1.03</v>
       </c>
       <c r="N7" t="n">
-        <v>6.2</v>
+        <v>5.9</v>
       </c>
       <c r="O7" t="n">
-        <v>1.16</v>
+        <v>1.18</v>
       </c>
       <c r="P7" t="n">
-        <v>2.64</v>
+        <v>2.54</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="R7" t="n">
-        <v>1.71</v>
+        <v>1.66</v>
       </c>
       <c r="S7" t="n">
-        <v>2.26</v>
+        <v>2.44</v>
       </c>
       <c r="T7" t="n">
-        <v>2.14</v>
+        <v>2.06</v>
       </c>
       <c r="U7" t="n">
-        <v>1.79</v>
+        <v>1.83</v>
       </c>
       <c r="V7" t="n">
         <v>1.08</v>
@@ -1396,58 +1396,58 @@
         <v>4</v>
       </c>
       <c r="X7" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Y7" t="n">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="Z7" t="n">
-        <v>160</v>
+        <v>130</v>
       </c>
       <c r="AA7" t="n">
         <v>510</v>
       </c>
       <c r="AB7" t="n">
-        <v>16.5</v>
+        <v>14.5</v>
       </c>
       <c r="AC7" t="n">
-        <v>16.5</v>
+        <v>14.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="AE7" t="n">
-        <v>280</v>
+        <v>210</v>
       </c>
       <c r="AF7" t="n">
         <v>8.6</v>
       </c>
       <c r="AG7" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AH7" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AI7" t="n">
-        <v>190</v>
+        <v>160</v>
       </c>
       <c r="AJ7" t="n">
-        <v>9</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AK7" t="n">
         <v>16</v>
       </c>
       <c r="AL7" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AM7" t="n">
-        <v>190</v>
+        <v>160</v>
       </c>
       <c r="AN7" t="n">
-        <v>3.9</v>
+        <v>4.4</v>
       </c>
       <c r="AO7" t="n">
-        <v>390</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="8">
@@ -1621,10 +1621,10 @@
         <v>4.5</v>
       </c>
       <c r="I9" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="J9" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="K9" t="n">
         <v>3.75</v>
@@ -1660,7 +1660,7 @@
         <v>2.04</v>
       </c>
       <c r="V9" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="W9" t="n">
         <v>2.02</v>
@@ -1678,7 +1678,7 @@
         <v>100</v>
       </c>
       <c r="AB9" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AC9" t="n">
         <v>9</v>
@@ -1693,7 +1693,7 @@
         <v>12</v>
       </c>
       <c r="AG9" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AH9" t="n">
         <v>1000</v>
@@ -1774,40 +1774,40 @@
         <v>5.5</v>
       </c>
       <c r="O10" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="P10" t="n">
-        <v>2.42</v>
+        <v>2.48</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="R10" t="n">
-        <v>1.58</v>
+        <v>1.61</v>
       </c>
       <c r="S10" t="n">
-        <v>2.48</v>
+        <v>2.44</v>
       </c>
       <c r="T10" t="n">
-        <v>2.24</v>
+        <v>2.2</v>
       </c>
       <c r="U10" t="n">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="V10" t="n">
         <v>1.07</v>
       </c>
       <c r="W10" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="X10" t="n">
         <v>28</v>
       </c>
       <c r="Y10" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="Z10" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="AA10" t="n">
         <v>1000</v>
@@ -1816,13 +1816,13 @@
         <v>11</v>
       </c>
       <c r="AC10" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AD10" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AE10" t="n">
-        <v>310</v>
+        <v>290</v>
       </c>
       <c r="AF10" t="n">
         <v>7.8</v>
@@ -1831,10 +1831,10 @@
         <v>14</v>
       </c>
       <c r="AH10" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AI10" t="n">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="AJ10" t="n">
         <v>9.4</v>
@@ -1846,7 +1846,7 @@
         <v>55</v>
       </c>
       <c r="AM10" t="n">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="AN10" t="n">
         <v>5</v>
@@ -1882,31 +1882,31 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.87</v>
+        <v>1.93</v>
       </c>
       <c r="G11" t="n">
-        <v>1.97</v>
+        <v>1.99</v>
       </c>
       <c r="H11" t="n">
         <v>4.3</v>
       </c>
       <c r="I11" t="n">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="J11" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="K11" t="n">
-        <v>4.3</v>
+        <v>3.95</v>
       </c>
       <c r="L11" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="M11" t="n">
         <v>1.08</v>
       </c>
       <c r="N11" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="O11" t="n">
         <v>1.42</v>
@@ -1924,16 +1924,16 @@
         <v>4.1</v>
       </c>
       <c r="T11" t="n">
-        <v>2.04</v>
+        <v>1.98</v>
       </c>
       <c r="U11" t="n">
-        <v>1.76</v>
+        <v>1.8</v>
       </c>
       <c r="V11" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="W11" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="X11" t="n">
         <v>12</v>
@@ -1942,22 +1942,22 @@
         <v>15.5</v>
       </c>
       <c r="Z11" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AA11" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AB11" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC11" t="n">
         <v>8.4</v>
       </c>
       <c r="AD11" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AE11" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AF11" t="n">
         <v>11</v>
@@ -1969,13 +1969,13 @@
         <v>26</v>
       </c>
       <c r="AI11" t="n">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="AJ11" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AK11" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AL11" t="n">
         <v>50</v>
@@ -1984,7 +1984,7 @@
         <v>170</v>
       </c>
       <c r="AN11" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AO11" t="n">
         <v>110</v>
@@ -2152,25 +2152,25 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>3.2</v>
+        <v>3.55</v>
       </c>
       <c r="G13" t="n">
         <v>3.6</v>
       </c>
       <c r="H13" t="n">
-        <v>2.7</v>
+        <v>2.74</v>
       </c>
       <c r="I13" t="n">
-        <v>2.84</v>
+        <v>2.82</v>
       </c>
       <c r="J13" t="n">
-        <v>2.86</v>
+        <v>2.76</v>
       </c>
       <c r="K13" t="n">
-        <v>3.05</v>
+        <v>2.78</v>
       </c>
       <c r="L13" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="M13" t="n">
         <v>1.09</v>
@@ -2179,28 +2179,28 @@
         <v>1.58</v>
       </c>
       <c r="O13" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="P13" t="n">
-        <v>1.57</v>
+        <v>1.26</v>
       </c>
       <c r="Q13" t="n">
         <v>1.5</v>
       </c>
       <c r="R13" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="S13" t="n">
         <v>2.44</v>
       </c>
       <c r="T13" t="n">
-        <v>1.89</v>
+        <v>1.01</v>
       </c>
       <c r="U13" t="n">
-        <v>1.71</v>
+        <v>1.01</v>
       </c>
       <c r="V13" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="W13" t="n">
         <v>1.38</v>
@@ -2209,13 +2209,13 @@
         <v>10.5</v>
       </c>
       <c r="Y13" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="Z13" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AA13" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AB13" t="n">
         <v>12</v>
@@ -2224,10 +2224,10 @@
         <v>7.4</v>
       </c>
       <c r="AD13" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AE13" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AF13" t="n">
         <v>22</v>
@@ -2239,7 +2239,7 @@
         <v>27</v>
       </c>
       <c r="AI13" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AJ13" t="n">
         <v>70</v>
@@ -2248,16 +2248,16 @@
         <v>55</v>
       </c>
       <c r="AL13" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AM13" t="n">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="AN13" t="n">
         <v>70</v>
       </c>
       <c r="AO13" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14">
@@ -2293,19 +2293,19 @@
         <v>1.23</v>
       </c>
       <c r="H14" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="I14" t="n">
-        <v>18</v>
+        <v>19.5</v>
       </c>
       <c r="J14" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="K14" t="n">
-        <v>8.4</v>
+        <v>8</v>
       </c>
       <c r="L14" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="M14" t="n">
         <v>1.03</v>
@@ -2317,28 +2317,28 @@
         <v>1.16</v>
       </c>
       <c r="P14" t="n">
-        <v>2.74</v>
+        <v>2.72</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.49</v>
+        <v>1.51</v>
       </c>
       <c r="R14" t="n">
-        <v>1.72</v>
+        <v>1.69</v>
       </c>
       <c r="S14" t="n">
-        <v>2.2</v>
+        <v>2.26</v>
       </c>
       <c r="T14" t="n">
         <v>2.28</v>
       </c>
       <c r="U14" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="V14" t="n">
         <v>1.05</v>
       </c>
       <c r="W14" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="X14" t="n">
         <v>1000</v>
@@ -2347,7 +2347,7 @@
         <v>1000</v>
       </c>
       <c r="Z14" t="n">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="AA14" t="n">
         <v>1000</v>
@@ -2356,7 +2356,7 @@
         <v>1000</v>
       </c>
       <c r="AC14" t="n">
-        <v>980</v>
+        <v>22</v>
       </c>
       <c r="AD14" t="n">
         <v>1000</v>
@@ -2368,13 +2368,13 @@
         <v>8</v>
       </c>
       <c r="AG14" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AH14" t="n">
         <v>1000</v>
       </c>
       <c r="AI14" t="n">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="AJ14" t="n">
         <v>970</v>
@@ -2386,10 +2386,10 @@
         <v>1000</v>
       </c>
       <c r="AM14" t="n">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="AN14" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="AO14" t="n">
         <v>1000</v>
@@ -2422,7 +2422,7 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.89</v>
+        <v>1.86</v>
       </c>
       <c r="G15" t="n">
         <v>2</v>
@@ -2437,37 +2437,37 @@
         <v>3.65</v>
       </c>
       <c r="K15" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="L15" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="M15" t="n">
         <v>1.07</v>
       </c>
       <c r="N15" t="n">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="O15" t="n">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="P15" t="n">
-        <v>1.75</v>
+        <v>1.96</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.06</v>
+        <v>1.95</v>
       </c>
       <c r="R15" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="S15" t="n">
-        <v>3.75</v>
+        <v>3.35</v>
       </c>
       <c r="T15" t="n">
-        <v>1.89</v>
+        <v>1.83</v>
       </c>
       <c r="U15" t="n">
-        <v>1.9</v>
+        <v>1.96</v>
       </c>
       <c r="V15" t="n">
         <v>1.26</v>
@@ -2485,10 +2485,10 @@
         <v>1000</v>
       </c>
       <c r="AA15" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AB15" t="n">
-        <v>9.199999999999999</v>
+        <v>11</v>
       </c>
       <c r="AC15" t="n">
         <v>1000</v>
@@ -2521,7 +2521,7 @@
         <v>1000</v>
       </c>
       <c r="AM15" t="n">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="AN15" t="n">
         <v>1000</v>
@@ -2557,16 +2557,16 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="G16" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="H16" t="n">
-        <v>3.6</v>
+        <v>3.45</v>
       </c>
       <c r="I16" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="J16" t="n">
         <v>3.65</v>
@@ -2575,7 +2575,7 @@
         <v>3.75</v>
       </c>
       <c r="L16" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="M16" t="n">
         <v>1.07</v>
@@ -2584,7 +2584,7 @@
         <v>3.65</v>
       </c>
       <c r="O16" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="P16" t="n">
         <v>1.91</v>
@@ -2605,10 +2605,10 @@
         <v>2.12</v>
       </c>
       <c r="V16" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="W16" t="n">
-        <v>1.81</v>
+        <v>1.79</v>
       </c>
       <c r="X16" t="n">
         <v>15</v>
@@ -2647,10 +2647,10 @@
         <v>55</v>
       </c>
       <c r="AJ16" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AK16" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AL16" t="n">
         <v>40</v>
@@ -2662,7 +2662,7 @@
         <v>18.5</v>
       </c>
       <c r="AO16" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17">
@@ -2698,16 +2698,16 @@
         <v>1.49</v>
       </c>
       <c r="H17" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="I17" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="J17" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="K17" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="L17" t="n">
         <v>1.41</v>
@@ -2722,7 +2722,7 @@
         <v>1.32</v>
       </c>
       <c r="P17" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="Q17" t="n">
         <v>1.9</v>
@@ -2734,10 +2734,10 @@
         <v>3.25</v>
       </c>
       <c r="T17" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="U17" t="n">
-        <v>1.79</v>
+        <v>1.76</v>
       </c>
       <c r="V17" t="n">
         <v>1.11</v>
@@ -2746,7 +2746,7 @@
         <v>3</v>
       </c>
       <c r="X17" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="Y17" t="n">
         <v>26</v>
@@ -2764,7 +2764,7 @@
         <v>13</v>
       </c>
       <c r="AD17" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="AE17" t="n">
         <v>190</v>
@@ -2773,13 +2773,13 @@
         <v>8.4</v>
       </c>
       <c r="AG17" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH17" t="n">
         <v>34</v>
       </c>
       <c r="AI17" t="n">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="AJ17" t="n">
         <v>15</v>
@@ -2827,7 +2827,7 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="G18" t="n">
         <v>1.2</v>
@@ -2836,13 +2836,13 @@
         <v>22</v>
       </c>
       <c r="I18" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J18" t="n">
         <v>8</v>
       </c>
       <c r="K18" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="L18" t="n">
         <v>1.25</v>
@@ -2857,7 +2857,7 @@
         <v>1.16</v>
       </c>
       <c r="P18" t="n">
-        <v>2.8</v>
+        <v>2.76</v>
       </c>
       <c r="Q18" t="n">
         <v>1.5</v>
@@ -2926,10 +2926,10 @@
         <v>65</v>
       </c>
       <c r="AM18" t="n">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="AN18" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="AO18" t="n">
         <v>1000</v>
@@ -2974,7 +2974,7 @@
         <v>2.24</v>
       </c>
       <c r="J19" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="K19" t="n">
         <v>3.75</v>
@@ -3016,7 +3016,7 @@
         <v>1.38</v>
       </c>
       <c r="X19" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="Y19" t="n">
         <v>11.5</v>
@@ -3028,7 +3028,7 @@
         <v>29</v>
       </c>
       <c r="AB19" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AC19" t="n">
         <v>8.6</v>
@@ -3058,7 +3058,7 @@
         <v>40</v>
       </c>
       <c r="AL19" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AM19" t="n">
         <v>85</v>
@@ -3100,16 +3100,16 @@
         <v>1.28</v>
       </c>
       <c r="G20" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="H20" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="I20" t="n">
         <v>14</v>
       </c>
       <c r="J20" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="K20" t="n">
         <v>7</v>
@@ -3133,7 +3133,7 @@
         <v>1.44</v>
       </c>
       <c r="R20" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="S20" t="n">
         <v>2.16</v>
@@ -3142,7 +3142,7 @@
         <v>1.84</v>
       </c>
       <c r="U20" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="V20" t="n">
         <v>1.07</v>
@@ -3166,13 +3166,13 @@
         <v>13</v>
       </c>
       <c r="AC20" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AD20" t="n">
         <v>46</v>
       </c>
       <c r="AE20" t="n">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="AF20" t="n">
         <v>9.800000000000001</v>
@@ -3199,7 +3199,7 @@
         <v>160</v>
       </c>
       <c r="AN20" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="AO20" t="n">
         <v>170</v>
@@ -3238,16 +3238,16 @@
         <v>1.63</v>
       </c>
       <c r="H21" t="n">
-        <v>5.8</v>
+        <v>6.2</v>
       </c>
       <c r="I21" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="J21" t="n">
         <v>4.4</v>
       </c>
       <c r="K21" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="L21" t="n">
         <v>1.31</v>
@@ -3280,7 +3280,7 @@
         <v>2.16</v>
       </c>
       <c r="V21" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="W21" t="n">
         <v>2.58</v>
@@ -3370,7 +3370,7 @@
         <v>1.23</v>
       </c>
       <c r="G22" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="H22" t="n">
         <v>13</v>
@@ -3382,7 +3382,7 @@
         <v>7.6</v>
       </c>
       <c r="K22" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="L22" t="n">
         <v>1.21</v>
@@ -3397,13 +3397,13 @@
         <v>1.11</v>
       </c>
       <c r="P22" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="Q22" t="n">
         <v>1.36</v>
       </c>
       <c r="R22" t="n">
-        <v>1.96</v>
+        <v>1.99</v>
       </c>
       <c r="S22" t="n">
         <v>1.9</v>
@@ -3436,7 +3436,7 @@
         <v>15.5</v>
       </c>
       <c r="AC22" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AD22" t="n">
         <v>55</v>
@@ -3454,7 +3454,7 @@
         <v>1000</v>
       </c>
       <c r="AI22" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AJ22" t="n">
         <v>12.5</v>
@@ -3502,64 +3502,64 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="G23" t="n">
-        <v>1.74</v>
+        <v>1.71</v>
       </c>
       <c r="H23" t="n">
         <v>5.2</v>
       </c>
       <c r="I23" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="J23" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="K23" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="L23" t="n">
         <v>1.32</v>
       </c>
       <c r="M23" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N23" t="n">
-        <v>4.6</v>
+        <v>5</v>
       </c>
       <c r="O23" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="P23" t="n">
-        <v>2.24</v>
+        <v>2.38</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.68</v>
+        <v>1.65</v>
       </c>
       <c r="R23" t="n">
-        <v>1.49</v>
+        <v>1.54</v>
       </c>
       <c r="S23" t="n">
-        <v>2.68</v>
+        <v>2.66</v>
       </c>
       <c r="T23" t="n">
-        <v>1.73</v>
+        <v>1.71</v>
       </c>
       <c r="U23" t="n">
-        <v>2.14</v>
+        <v>2.22</v>
       </c>
       <c r="V23" t="n">
         <v>1.2</v>
       </c>
       <c r="W23" t="n">
-        <v>2.34</v>
+        <v>2.42</v>
       </c>
       <c r="X23" t="n">
         <v>25</v>
       </c>
       <c r="Y23" t="n">
-        <v>980</v>
+        <v>27</v>
       </c>
       <c r="Z23" t="n">
         <v>1000</v>
@@ -3580,7 +3580,7 @@
         <v>1000</v>
       </c>
       <c r="AF23" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AG23" t="n">
         <v>10</v>
@@ -3595,7 +3595,7 @@
         <v>20</v>
       </c>
       <c r="AK23" t="n">
-        <v>21</v>
+        <v>18.5</v>
       </c>
       <c r="AL23" t="n">
         <v>38</v>
@@ -3604,7 +3604,7 @@
         <v>1000</v>
       </c>
       <c r="AN23" t="n">
-        <v>9.6</v>
+        <v>8.6</v>
       </c>
       <c r="AO23" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-18.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-18.xlsx
@@ -805,7 +805,7 @@
         <v>2.88</v>
       </c>
       <c r="G3" t="n">
-        <v>4.2</v>
+        <v>3.95</v>
       </c>
       <c r="H3" t="n">
         <v>2.06</v>
@@ -832,7 +832,7 @@
         <v>1.28</v>
       </c>
       <c r="P3" t="n">
-        <v>1.72</v>
+        <v>1.78</v>
       </c>
       <c r="Q3" t="n">
         <v>1.83</v>
@@ -841,7 +841,7 @@
         <v>1.27</v>
       </c>
       <c r="S3" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="T3" t="n">
         <v>1.01</v>
@@ -853,7 +853,7 @@
         <v>1.56</v>
       </c>
       <c r="W3" t="n">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="X3" t="n">
         <v>1000</v>
@@ -937,25 +937,25 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.32</v>
+        <v>2.54</v>
       </c>
       <c r="G4" t="n">
-        <v>2.6</v>
+        <v>2.88</v>
       </c>
       <c r="H4" t="n">
-        <v>3.7</v>
+        <v>3.3</v>
       </c>
       <c r="I4" t="n">
-        <v>4.4</v>
+        <v>3.8</v>
       </c>
       <c r="J4" t="n">
-        <v>2.74</v>
+        <v>2.7</v>
       </c>
       <c r="K4" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="L4" t="n">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="M4" t="n">
         <v>1.14</v>
@@ -979,40 +979,40 @@
         <v>5.9</v>
       </c>
       <c r="T4" t="n">
-        <v>2.3</v>
+        <v>2.26</v>
       </c>
       <c r="U4" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="V4" t="n">
-        <v>1.3</v>
+        <v>1.35</v>
       </c>
       <c r="W4" t="n">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
       <c r="X4" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>24</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>100</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AC4" t="n">
         <v>8.4</v>
       </c>
-      <c r="Y4" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>28</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>130</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>8</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>8.6</v>
-      </c>
       <c r="AD4" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AE4" t="n">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="AF4" t="n">
         <v>16.5</v>
@@ -1024,7 +1024,7 @@
         <v>34</v>
       </c>
       <c r="AI4" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AJ4" t="n">
         <v>48</v>
@@ -1042,7 +1042,7 @@
         <v>60</v>
       </c>
       <c r="AO4" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5">
@@ -1072,22 +1072,22 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="G5" t="n">
-        <v>1.51</v>
+        <v>1.53</v>
       </c>
       <c r="H5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I5" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J5" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="K5" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="L5" t="n">
         <v>1.47</v>
@@ -1105,7 +1105,7 @@
         <v>1.64</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="R5" t="n">
         <v>1.23</v>
@@ -1114,16 +1114,16 @@
         <v>4.4</v>
       </c>
       <c r="T5" t="n">
-        <v>2.52</v>
+        <v>2.58</v>
       </c>
       <c r="U5" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="V5" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="W5" t="n">
-        <v>2.96</v>
+        <v>3.05</v>
       </c>
       <c r="X5" t="n">
         <v>13.5</v>
@@ -1150,7 +1150,7 @@
         <v>1000</v>
       </c>
       <c r="AF5" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AG5" t="n">
         <v>13.5</v>
@@ -1162,7 +1162,7 @@
         <v>1000</v>
       </c>
       <c r="AJ5" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AK5" t="n">
         <v>25</v>
@@ -1174,7 +1174,7 @@
         <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AO5" t="n">
         <v>1000</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="G6" t="n">
         <v>2.38</v>
@@ -1216,7 +1216,7 @@
         <v>3.15</v>
       </c>
       <c r="I6" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="J6" t="n">
         <v>3.8</v>
@@ -1240,13 +1240,13 @@
         <v>2.26</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="R6" t="n">
         <v>1.49</v>
       </c>
       <c r="S6" t="n">
-        <v>2.8</v>
+        <v>2.78</v>
       </c>
       <c r="T6" t="n">
         <v>1.61</v>
@@ -1342,100 +1342,100 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="G7" t="n">
-        <v>1.34</v>
+        <v>1.37</v>
       </c>
       <c r="H7" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="I7" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="J7" t="n">
-        <v>6</v>
+        <v>5.7</v>
       </c>
       <c r="K7" t="n">
-        <v>6.2</v>
+        <v>5.9</v>
       </c>
       <c r="L7" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="M7" t="n">
         <v>1.03</v>
       </c>
       <c r="N7" t="n">
-        <v>5.9</v>
+        <v>5.7</v>
       </c>
       <c r="O7" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="P7" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.56</v>
+        <v>1.59</v>
       </c>
       <c r="R7" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="S7" t="n">
-        <v>2.44</v>
+        <v>2.38</v>
       </c>
       <c r="T7" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="U7" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="V7" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="W7" t="n">
-        <v>4</v>
+        <v>3.65</v>
       </c>
       <c r="X7" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Y7" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="Z7" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AA7" t="n">
-        <v>510</v>
+        <v>420</v>
       </c>
       <c r="AB7" t="n">
-        <v>14.5</v>
+        <v>16</v>
       </c>
       <c r="AC7" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="AE7" t="n">
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="AF7" t="n">
-        <v>8.6</v>
+        <v>8</v>
       </c>
       <c r="AG7" t="n">
-        <v>14.5</v>
+        <v>16</v>
       </c>
       <c r="AH7" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AI7" t="n">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="AJ7" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AK7" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AL7" t="n">
         <v>55</v>
@@ -1444,7 +1444,7 @@
         <v>160</v>
       </c>
       <c r="AN7" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="AO7" t="n">
         <v>1000</v>
@@ -1477,10 +1477,10 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="G8" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="H8" t="n">
         <v>6.2</v>
@@ -1525,10 +1525,10 @@
         <v>1.74</v>
       </c>
       <c r="V8" t="n">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="W8" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="X8" t="n">
         <v>13</v>
@@ -1540,7 +1540,7 @@
         <v>55</v>
       </c>
       <c r="AA8" t="n">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="AB8" t="n">
         <v>7.6</v>
@@ -1549,10 +1549,10 @@
         <v>9.6</v>
       </c>
       <c r="AD8" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AE8" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AF8" t="n">
         <v>9</v>
@@ -1564,7 +1564,7 @@
         <v>28</v>
       </c>
       <c r="AI8" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="AJ8" t="n">
         <v>15.5</v>
@@ -1573,10 +1573,10 @@
         <v>1000</v>
       </c>
       <c r="AL8" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AM8" t="n">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="AN8" t="n">
         <v>12.5</v>
@@ -1612,7 +1612,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.96</v>
+        <v>1.94</v>
       </c>
       <c r="G9" t="n">
         <v>1.97</v>
@@ -1669,7 +1669,7 @@
         <v>14.5</v>
       </c>
       <c r="Y9" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="Z9" t="n">
         <v>34</v>
@@ -1693,7 +1693,7 @@
         <v>12</v>
       </c>
       <c r="AG9" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AH9" t="n">
         <v>1000</v>
@@ -1747,109 +1747,109 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="G10" t="n">
-        <v>1.31</v>
+        <v>1.27</v>
       </c>
       <c r="H10" t="n">
-        <v>12.5</v>
+        <v>14</v>
       </c>
       <c r="I10" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="J10" t="n">
-        <v>6.2</v>
+        <v>7.2</v>
       </c>
       <c r="K10" t="n">
-        <v>7</v>
+        <v>7.8</v>
       </c>
       <c r="L10" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="M10" t="n">
         <v>1.04</v>
       </c>
       <c r="N10" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="O10" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="P10" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="Q10" t="n">
         <v>1.59</v>
       </c>
       <c r="R10" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="S10" t="n">
         <v>2.44</v>
       </c>
       <c r="T10" t="n">
-        <v>2.2</v>
+        <v>2.28</v>
       </c>
       <c r="U10" t="n">
         <v>1.73</v>
       </c>
       <c r="V10" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="W10" t="n">
-        <v>4.2</v>
+        <v>4.6</v>
       </c>
       <c r="X10" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="Y10" t="n">
         <v>1000</v>
       </c>
       <c r="Z10" t="n">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="AA10" t="n">
         <v>1000</v>
       </c>
       <c r="AB10" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AC10" t="n">
-        <v>17.5</v>
+        <v>970</v>
       </c>
       <c r="AD10" t="n">
         <v>1000</v>
       </c>
       <c r="AE10" t="n">
-        <v>290</v>
+        <v>330</v>
       </c>
       <c r="AF10" t="n">
-        <v>7.8</v>
+        <v>7.4</v>
       </c>
       <c r="AG10" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="AH10" t="n">
         <v>1000</v>
       </c>
       <c r="AI10" t="n">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="AJ10" t="n">
-        <v>9.4</v>
+        <v>10</v>
       </c>
       <c r="AK10" t="n">
         <v>17</v>
       </c>
       <c r="AL10" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AM10" t="n">
-        <v>240</v>
+        <v>270</v>
       </c>
       <c r="AN10" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="AO10" t="n">
         <v>1000</v>
@@ -1882,7 +1882,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="G11" t="n">
         <v>1.99</v>
@@ -1894,10 +1894,10 @@
         <v>4.5</v>
       </c>
       <c r="J11" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="K11" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="L11" t="n">
         <v>1.49</v>
@@ -1954,7 +1954,7 @@
         <v>8.4</v>
       </c>
       <c r="AD11" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AE11" t="n">
         <v>75</v>
@@ -1966,7 +1966,7 @@
         <v>11</v>
       </c>
       <c r="AH11" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AI11" t="n">
         <v>95</v>
@@ -1984,7 +1984,7 @@
         <v>170</v>
       </c>
       <c r="AN11" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AO11" t="n">
         <v>110</v>
@@ -2020,7 +2020,7 @@
         <v>2.6</v>
       </c>
       <c r="G12" t="n">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="H12" t="n">
         <v>2.92</v>
@@ -2038,28 +2038,28 @@
         <v>1.46</v>
       </c>
       <c r="M12" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N12" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="O12" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="P12" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.02</v>
+        <v>2.08</v>
       </c>
       <c r="R12" t="n">
         <v>1.31</v>
       </c>
       <c r="S12" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="T12" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="U12" t="n">
         <v>2.04</v>
@@ -2083,7 +2083,7 @@
         <v>60</v>
       </c>
       <c r="AB12" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AC12" t="n">
         <v>8.199999999999999</v>
@@ -2098,7 +2098,7 @@
         <v>1000</v>
       </c>
       <c r="AG12" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AH12" t="n">
         <v>21</v>
@@ -2155,19 +2155,19 @@
         <v>3.55</v>
       </c>
       <c r="G13" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="H13" t="n">
-        <v>2.74</v>
+        <v>2.64</v>
       </c>
       <c r="I13" t="n">
-        <v>2.82</v>
+        <v>2.76</v>
       </c>
       <c r="J13" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="K13" t="n">
-        <v>2.78</v>
+        <v>2.86</v>
       </c>
       <c r="L13" t="n">
         <v>1.54</v>
@@ -2176,34 +2176,34 @@
         <v>1.09</v>
       </c>
       <c r="N13" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="O13" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="P13" t="n">
-        <v>1.26</v>
+        <v>1.61</v>
       </c>
       <c r="Q13" t="n">
         <v>1.5</v>
       </c>
       <c r="R13" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="S13" t="n">
         <v>2.44</v>
       </c>
       <c r="T13" t="n">
-        <v>1.01</v>
+        <v>1.89</v>
       </c>
       <c r="U13" t="n">
-        <v>1.01</v>
+        <v>1.73</v>
       </c>
       <c r="V13" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="W13" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="X13" t="n">
         <v>10.5</v>
@@ -2236,7 +2236,7 @@
         <v>17.5</v>
       </c>
       <c r="AH13" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AI13" t="n">
         <v>70</v>
@@ -2251,13 +2251,13 @@
         <v>85</v>
       </c>
       <c r="AM13" t="n">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="AN13" t="n">
         <v>70</v>
       </c>
       <c r="AO13" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14">
@@ -2287,16 +2287,16 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="G14" t="n">
         <v>1.23</v>
       </c>
       <c r="H14" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="I14" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="J14" t="n">
         <v>7.4</v>
@@ -2311,19 +2311,19 @@
         <v>1.03</v>
       </c>
       <c r="N14" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="O14" t="n">
         <v>1.16</v>
       </c>
       <c r="P14" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="Q14" t="n">
         <v>1.51</v>
       </c>
       <c r="R14" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="S14" t="n">
         <v>2.26</v>
@@ -2347,7 +2347,7 @@
         <v>1000</v>
       </c>
       <c r="Z14" t="n">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="AA14" t="n">
         <v>1000</v>
@@ -2365,16 +2365,16 @@
         <v>1000</v>
       </c>
       <c r="AF14" t="n">
-        <v>8</v>
+        <v>8.6</v>
       </c>
       <c r="AG14" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AH14" t="n">
         <v>1000</v>
       </c>
       <c r="AI14" t="n">
-        <v>250</v>
+        <v>280</v>
       </c>
       <c r="AJ14" t="n">
         <v>970</v>
@@ -2386,10 +2386,10 @@
         <v>1000</v>
       </c>
       <c r="AM14" t="n">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="AN14" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="AO14" t="n">
         <v>1000</v>
@@ -2422,34 +2422,34 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="G15" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="H15" t="n">
-        <v>4.1</v>
+        <v>4.8</v>
       </c>
       <c r="I15" t="n">
-        <v>4.9</v>
+        <v>5.6</v>
       </c>
       <c r="J15" t="n">
         <v>3.65</v>
       </c>
       <c r="K15" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L15" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="M15" t="n">
         <v>1.07</v>
       </c>
       <c r="N15" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="O15" t="n">
-        <v>1.34</v>
+        <v>1.32</v>
       </c>
       <c r="P15" t="n">
         <v>1.96</v>
@@ -2458,28 +2458,28 @@
         <v>1.95</v>
       </c>
       <c r="R15" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="S15" t="n">
-        <v>3.35</v>
+        <v>3.2</v>
       </c>
       <c r="T15" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="U15" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="V15" t="n">
-        <v>1.26</v>
+        <v>1.23</v>
       </c>
       <c r="W15" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="X15" t="n">
         <v>16</v>
       </c>
       <c r="Y15" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="Z15" t="n">
         <v>1000</v>
@@ -2488,7 +2488,7 @@
         <v>130</v>
       </c>
       <c r="AB15" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AC15" t="n">
         <v>1000</v>
@@ -2500,11 +2500,11 @@
         <v>1000</v>
       </c>
       <c r="AF15" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AG15" t="n">
         <v>13</v>
       </c>
-      <c r="AG15" t="n">
-        <v>13.5</v>
-      </c>
       <c r="AH15" t="n">
         <v>1000</v>
       </c>
@@ -2521,7 +2521,7 @@
         <v>1000</v>
       </c>
       <c r="AM15" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AN15" t="n">
         <v>1000</v>
@@ -2557,31 +2557,31 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="G16" t="n">
-        <v>2.26</v>
+        <v>2.32</v>
       </c>
       <c r="H16" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="I16" t="n">
         <v>3.65</v>
       </c>
       <c r="J16" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="K16" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="L16" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="M16" t="n">
         <v>1.07</v>
       </c>
       <c r="N16" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="O16" t="n">
         <v>1.32</v>
@@ -2596,31 +2596,31 @@
         <v>1.35</v>
       </c>
       <c r="S16" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="T16" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="U16" t="n">
         <v>2.12</v>
       </c>
       <c r="V16" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="W16" t="n">
-        <v>1.79</v>
+        <v>1.75</v>
       </c>
       <c r="X16" t="n">
         <v>15</v>
       </c>
       <c r="Y16" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="Z16" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AA16" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AB16" t="n">
         <v>10.5</v>
@@ -2632,13 +2632,13 @@
         <v>15.5</v>
       </c>
       <c r="AE16" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AF16" t="n">
         <v>14.5</v>
       </c>
       <c r="AG16" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH16" t="n">
         <v>18</v>
@@ -2647,7 +2647,7 @@
         <v>55</v>
       </c>
       <c r="AJ16" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AK16" t="n">
         <v>25</v>
@@ -2659,10 +2659,10 @@
         <v>100</v>
       </c>
       <c r="AN16" t="n">
-        <v>18.5</v>
+        <v>23</v>
       </c>
       <c r="AO16" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17">
@@ -2692,10 +2692,10 @@
         </is>
       </c>
       <c r="F17" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="G17" t="n">
         <v>1.47</v>
-      </c>
-      <c r="G17" t="n">
-        <v>1.49</v>
       </c>
       <c r="H17" t="n">
         <v>8.199999999999999</v>
@@ -2704,7 +2704,7 @@
         <v>9.6</v>
       </c>
       <c r="J17" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="K17" t="n">
         <v>5</v>
@@ -2716,34 +2716,34 @@
         <v>1.06</v>
       </c>
       <c r="N17" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="O17" t="n">
         <v>1.32</v>
       </c>
       <c r="P17" t="n">
-        <v>1.98</v>
+        <v>1.96</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="R17" t="n">
         <v>1.36</v>
       </c>
       <c r="S17" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="T17" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="U17" t="n">
         <v>1.76</v>
       </c>
       <c r="V17" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="W17" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="X17" t="n">
         <v>18.5</v>
@@ -2761,7 +2761,7 @@
         <v>10</v>
       </c>
       <c r="AC17" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="AD17" t="n">
         <v>36</v>
@@ -2857,7 +2857,7 @@
         <v>1.16</v>
       </c>
       <c r="P18" t="n">
-        <v>2.76</v>
+        <v>2.74</v>
       </c>
       <c r="Q18" t="n">
         <v>1.5</v>
@@ -2872,7 +2872,7 @@
         <v>2.42</v>
       </c>
       <c r="U18" t="n">
-        <v>1.61</v>
+        <v>1.63</v>
       </c>
       <c r="V18" t="n">
         <v>1.03</v>
@@ -2920,7 +2920,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AK18" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AL18" t="n">
         <v>65</v>
@@ -2962,16 +2962,16 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="G19" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="H19" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="I19" t="n">
         <v>2.22</v>
-      </c>
-      <c r="I19" t="n">
-        <v>2.24</v>
       </c>
       <c r="J19" t="n">
         <v>3.65</v>
@@ -3004,16 +3004,16 @@
         <v>3.05</v>
       </c>
       <c r="T19" t="n">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
       <c r="U19" t="n">
         <v>2.26</v>
       </c>
       <c r="V19" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="W19" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="X19" t="n">
         <v>16.5</v>
@@ -3043,13 +3043,13 @@
         <v>26</v>
       </c>
       <c r="AG19" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AH19" t="n">
         <v>17</v>
       </c>
       <c r="AI19" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AJ19" t="n">
         <v>65</v>
@@ -3058,7 +3058,7 @@
         <v>40</v>
       </c>
       <c r="AL19" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AM19" t="n">
         <v>85</v>
@@ -3097,7 +3097,7 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="G20" t="n">
         <v>1.32</v>
@@ -3112,7 +3112,7 @@
         <v>6.4</v>
       </c>
       <c r="K20" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="L20" t="n">
         <v>1.24</v>
@@ -3142,10 +3142,10 @@
         <v>1.84</v>
       </c>
       <c r="U20" t="n">
-        <v>2.06</v>
+        <v>2.02</v>
       </c>
       <c r="V20" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="W20" t="n">
         <v>4.1</v>
@@ -3169,10 +3169,10 @@
         <v>15.5</v>
       </c>
       <c r="AD20" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AE20" t="n">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="AF20" t="n">
         <v>9.800000000000001</v>
@@ -3181,7 +3181,7 @@
         <v>11</v>
       </c>
       <c r="AH20" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AI20" t="n">
         <v>160</v>
@@ -3232,13 +3232,13 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.61</v>
+        <v>1.58</v>
       </c>
       <c r="G21" t="n">
         <v>1.63</v>
       </c>
       <c r="H21" t="n">
-        <v>6.2</v>
+        <v>5.8</v>
       </c>
       <c r="I21" t="n">
         <v>6.8</v>
@@ -3247,7 +3247,7 @@
         <v>4.4</v>
       </c>
       <c r="K21" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="L21" t="n">
         <v>1.31</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="G22" t="n">
         <v>1.26</v>
@@ -3376,13 +3376,13 @@
         <v>13</v>
       </c>
       <c r="I22" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="J22" t="n">
         <v>7.6</v>
       </c>
       <c r="K22" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="L22" t="n">
         <v>1.21</v>
@@ -3403,10 +3403,10 @@
         <v>1.36</v>
       </c>
       <c r="R22" t="n">
-        <v>1.99</v>
+        <v>1.97</v>
       </c>
       <c r="S22" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="T22" t="n">
         <v>1.87</v>
@@ -3439,7 +3439,7 @@
         <v>21</v>
       </c>
       <c r="AD22" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AE22" t="n">
         <v>220</v>
@@ -3502,22 +3502,22 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.63</v>
+        <v>1.65</v>
       </c>
       <c r="G23" t="n">
-        <v>1.71</v>
+        <v>1.66</v>
       </c>
       <c r="H23" t="n">
-        <v>5.2</v>
+        <v>5.6</v>
       </c>
       <c r="I23" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="J23" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="K23" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="L23" t="n">
         <v>1.32</v>
@@ -3529,22 +3529,22 @@
         <v>5</v>
       </c>
       <c r="O23" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="P23" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="Q23" t="n">
         <v>1.65</v>
       </c>
       <c r="R23" t="n">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="S23" t="n">
-        <v>2.66</v>
+        <v>2.52</v>
       </c>
       <c r="T23" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="U23" t="n">
         <v>2.22</v>
@@ -3553,58 +3553,58 @@
         <v>1.2</v>
       </c>
       <c r="W23" t="n">
-        <v>2.42</v>
+        <v>2.5</v>
       </c>
       <c r="X23" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="Y23" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="Z23" t="n">
         <v>1000</v>
       </c>
       <c r="AA23" t="n">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="AB23" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AC23" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AD23" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AE23" t="n">
         <v>1000</v>
       </c>
       <c r="AF23" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AG23" t="n">
         <v>10</v>
       </c>
       <c r="AH23" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AI23" t="n">
         <v>1000</v>
       </c>
       <c r="AJ23" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AK23" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AL23" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AM23" t="n">
         <v>1000</v>
       </c>
       <c r="AN23" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AO23" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-18.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-18.xlsx
@@ -667,22 +667,22 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="G2" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="H2" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="I2" t="n">
-        <v>1000</v>
+        <v>870</v>
       </c>
       <c r="J2" t="n">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="K2" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="L2" t="n">
         <v>1.01</v>
@@ -709,16 +709,16 @@
         <v>1.31</v>
       </c>
       <c r="T2" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="U2" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="V2" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="W2" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="X2" t="n">
         <v>1000</v>
@@ -814,7 +814,7 @@
         <v>2.78</v>
       </c>
       <c r="J3" t="n">
-        <v>3.1</v>
+        <v>2.58</v>
       </c>
       <c r="K3" t="n">
         <v>5.9</v>
@@ -832,7 +832,7 @@
         <v>1.28</v>
       </c>
       <c r="P3" t="n">
-        <v>1.78</v>
+        <v>1.72</v>
       </c>
       <c r="Q3" t="n">
         <v>1.83</v>
@@ -844,10 +844,10 @@
         <v>3.15</v>
       </c>
       <c r="T3" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="U3" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="V3" t="n">
         <v>1.56</v>
@@ -937,34 +937,34 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.54</v>
+        <v>2.26</v>
       </c>
       <c r="G4" t="n">
-        <v>2.88</v>
+        <v>2.56</v>
       </c>
       <c r="H4" t="n">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="I4" t="n">
-        <v>3.8</v>
+        <v>4.4</v>
       </c>
       <c r="J4" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="K4" t="n">
         <v>3.1</v>
       </c>
       <c r="L4" t="n">
-        <v>1.65</v>
+        <v>1.55</v>
       </c>
       <c r="M4" t="n">
         <v>1.14</v>
       </c>
       <c r="N4" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="O4" t="n">
-        <v>1.66</v>
+        <v>1.64</v>
       </c>
       <c r="P4" t="n">
         <v>1.41</v>
@@ -979,16 +979,16 @@
         <v>5.9</v>
       </c>
       <c r="T4" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="U4" t="n">
         <v>1.64</v>
       </c>
       <c r="V4" t="n">
-        <v>1.35</v>
+        <v>1.3</v>
       </c>
       <c r="W4" t="n">
-        <v>1.53</v>
+        <v>1.62</v>
       </c>
       <c r="X4" t="n">
         <v>7.2</v>
@@ -997,10 +997,10 @@
         <v>10.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="AA4" t="n">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="AB4" t="n">
         <v>7.4</v>
@@ -1015,10 +1015,10 @@
         <v>80</v>
       </c>
       <c r="AF4" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AH4" t="n">
         <v>34</v>
@@ -1027,7 +1027,7 @@
         <v>130</v>
       </c>
       <c r="AJ4" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AK4" t="n">
         <v>50</v>
@@ -1072,58 +1072,58 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.39</v>
+        <v>1.36</v>
       </c>
       <c r="G5" t="n">
-        <v>1.53</v>
+        <v>1.47</v>
       </c>
       <c r="H5" t="n">
         <v>11</v>
       </c>
       <c r="I5" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="J5" t="n">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="K5" t="n">
         <v>5</v>
       </c>
       <c r="L5" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="M5" t="n">
         <v>1.09</v>
       </c>
       <c r="N5" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="O5" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="P5" t="n">
-        <v>1.64</v>
+        <v>1.68</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.28</v>
+        <v>2.16</v>
       </c>
       <c r="R5" t="n">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="S5" t="n">
-        <v>4.4</v>
+        <v>3.75</v>
       </c>
       <c r="T5" t="n">
-        <v>2.58</v>
+        <v>2.5</v>
       </c>
       <c r="U5" t="n">
-        <v>1.51</v>
+        <v>1.53</v>
       </c>
       <c r="V5" t="n">
         <v>1.07</v>
       </c>
       <c r="W5" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="X5" t="n">
         <v>13.5</v>
@@ -1144,7 +1144,7 @@
         <v>13</v>
       </c>
       <c r="AD5" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AE5" t="n">
         <v>1000</v>
@@ -1156,7 +1156,7 @@
         <v>13.5</v>
       </c>
       <c r="AH5" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AI5" t="n">
         <v>1000</v>
@@ -1165,7 +1165,7 @@
         <v>14</v>
       </c>
       <c r="AK5" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AL5" t="n">
         <v>1000</v>
@@ -1174,7 +1174,7 @@
         <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AO5" t="n">
         <v>1000</v>
@@ -1207,46 +1207,46 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.3</v>
+        <v>2.16</v>
       </c>
       <c r="G6" t="n">
-        <v>2.38</v>
+        <v>2.24</v>
       </c>
       <c r="H6" t="n">
-        <v>3.15</v>
+        <v>3.4</v>
       </c>
       <c r="I6" t="n">
-        <v>3.35</v>
+        <v>3.55</v>
       </c>
       <c r="J6" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="K6" t="n">
-        <v>3.85</v>
+        <v>4.1</v>
       </c>
       <c r="L6" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="M6" t="n">
         <v>1.05</v>
       </c>
       <c r="N6" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="O6" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="P6" t="n">
         <v>2.26</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.73</v>
+        <v>1.71</v>
       </c>
       <c r="R6" t="n">
         <v>1.49</v>
       </c>
       <c r="S6" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="T6" t="n">
         <v>1.61</v>
@@ -1255,64 +1255,64 @@
         <v>2.42</v>
       </c>
       <c r="V6" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="W6" t="n">
-        <v>1.72</v>
+        <v>1.81</v>
       </c>
       <c r="X6" t="n">
         <v>19.5</v>
       </c>
       <c r="Y6" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="Z6" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AA6" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AB6" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AC6" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="AD6" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AE6" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AF6" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AG6" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AH6" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AI6" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AJ6" t="n">
+        <v>28</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>22</v>
+      </c>
+      <c r="AL6" t="n">
         <v>32</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>24</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>34</v>
       </c>
       <c r="AM6" t="n">
         <v>70</v>
       </c>
       <c r="AN6" t="n">
-        <v>15.5</v>
+        <v>13.5</v>
       </c>
       <c r="AO6" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7">
@@ -1351,7 +1351,7 @@
         <v>10.5</v>
       </c>
       <c r="I7" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="J7" t="n">
         <v>5.7</v>
@@ -1366,49 +1366,49 @@
         <v>1.03</v>
       </c>
       <c r="N7" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="O7" t="n">
         <v>1.19</v>
       </c>
       <c r="P7" t="n">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="R7" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="S7" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="T7" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="U7" t="n">
-        <v>1.84</v>
+        <v>1.81</v>
       </c>
       <c r="V7" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="W7" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="X7" t="n">
         <v>24</v>
       </c>
       <c r="Y7" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="Z7" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AA7" t="n">
         <v>420</v>
       </c>
       <c r="AB7" t="n">
-        <v>16</v>
+        <v>13.5</v>
       </c>
       <c r="AC7" t="n">
         <v>13.5</v>
@@ -1417,34 +1417,34 @@
         <v>38</v>
       </c>
       <c r="AE7" t="n">
-        <v>190</v>
+        <v>220</v>
       </c>
       <c r="AF7" t="n">
         <v>8</v>
       </c>
       <c r="AG7" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AH7" t="n">
         <v>27</v>
       </c>
       <c r="AI7" t="n">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="AJ7" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="AK7" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AL7" t="n">
         <v>55</v>
       </c>
       <c r="AM7" t="n">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="AN7" t="n">
-        <v>4.5</v>
+        <v>5.2</v>
       </c>
       <c r="AO7" t="n">
         <v>1000</v>
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="G8" t="n">
-        <v>1.65</v>
+        <v>1.69</v>
       </c>
       <c r="H8" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="I8" t="n">
-        <v>7.6</v>
+        <v>6.8</v>
       </c>
       <c r="J8" t="n">
+        <v>4</v>
+      </c>
+      <c r="K8" t="n">
         <v>4.1</v>
-      </c>
-      <c r="K8" t="n">
-        <v>4.6</v>
       </c>
       <c r="L8" t="n">
         <v>1.46</v>
@@ -1522,25 +1522,25 @@
         <v>2.1</v>
       </c>
       <c r="U8" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="V8" t="n">
-        <v>1.15</v>
+        <v>1.17</v>
       </c>
       <c r="W8" t="n">
-        <v>2.52</v>
+        <v>2.46</v>
       </c>
       <c r="X8" t="n">
         <v>13</v>
       </c>
       <c r="Y8" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="Z8" t="n">
         <v>55</v>
       </c>
       <c r="AA8" t="n">
-        <v>250</v>
+        <v>230</v>
       </c>
       <c r="AB8" t="n">
         <v>7.6</v>
@@ -1549,7 +1549,7 @@
         <v>9.6</v>
       </c>
       <c r="AD8" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AE8" t="n">
         <v>130</v>
@@ -1564,13 +1564,13 @@
         <v>28</v>
       </c>
       <c r="AI8" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AJ8" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AK8" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AL8" t="n">
         <v>48</v>
@@ -1579,10 +1579,10 @@
         <v>200</v>
       </c>
       <c r="AN8" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AO8" t="n">
-        <v>190</v>
+        <v>180</v>
       </c>
     </row>
     <row r="9">
@@ -1624,10 +1624,10 @@
         <v>4.7</v>
       </c>
       <c r="J9" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="K9" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="L9" t="n">
         <v>1.41</v>
@@ -1666,7 +1666,7 @@
         <v>2.02</v>
       </c>
       <c r="X9" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="Y9" t="n">
         <v>1000</v>
@@ -1681,7 +1681,7 @@
         <v>9.6</v>
       </c>
       <c r="AC9" t="n">
-        <v>9</v>
+        <v>8.6</v>
       </c>
       <c r="AD9" t="n">
         <v>18</v>
@@ -1693,7 +1693,7 @@
         <v>12</v>
       </c>
       <c r="AG9" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AH9" t="n">
         <v>1000</v>
@@ -1714,10 +1714,10 @@
         <v>110</v>
       </c>
       <c r="AN9" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AO9" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10">
@@ -1753,16 +1753,16 @@
         <v>1.27</v>
       </c>
       <c r="H10" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="I10" t="n">
         <v>16</v>
       </c>
       <c r="J10" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="K10" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="L10" t="n">
         <v>1.29</v>
@@ -1789,70 +1789,70 @@
         <v>2.44</v>
       </c>
       <c r="T10" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="U10" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="V10" t="n">
         <v>1.06</v>
       </c>
       <c r="W10" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="X10" t="n">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="Y10" t="n">
         <v>1000</v>
       </c>
       <c r="Z10" t="n">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="AA10" t="n">
-        <v>1000</v>
+        <v>840</v>
       </c>
       <c r="AB10" t="n">
         <v>13</v>
       </c>
       <c r="AC10" t="n">
-        <v>970</v>
+        <v>16</v>
       </c>
       <c r="AD10" t="n">
         <v>1000</v>
       </c>
       <c r="AE10" t="n">
-        <v>330</v>
+        <v>290</v>
       </c>
       <c r="AF10" t="n">
         <v>7.4</v>
       </c>
       <c r="AG10" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AH10" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AI10" t="n">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="AJ10" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AK10" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AL10" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AM10" t="n">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="AN10" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="AO10" t="n">
-        <v>1000</v>
+        <v>370</v>
       </c>
     </row>
     <row r="11">
@@ -1885,22 +1885,22 @@
         <v>1.94</v>
       </c>
       <c r="G11" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="H11" t="n">
         <v>4.3</v>
       </c>
       <c r="I11" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="J11" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="K11" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="L11" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="M11" t="n">
         <v>1.08</v>
@@ -1909,7 +1909,7 @@
         <v>3.05</v>
       </c>
       <c r="O11" t="n">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
       <c r="P11" t="n">
         <v>1.69</v>
@@ -1927,13 +1927,13 @@
         <v>1.98</v>
       </c>
       <c r="U11" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="V11" t="n">
         <v>1.28</v>
       </c>
       <c r="W11" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="X11" t="n">
         <v>12</v>
@@ -1948,16 +1948,16 @@
         <v>120</v>
       </c>
       <c r="AB11" t="n">
-        <v>9.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="AC11" t="n">
         <v>8.4</v>
       </c>
       <c r="AD11" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AE11" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AF11" t="n">
         <v>11</v>
@@ -1969,25 +1969,25 @@
         <v>24</v>
       </c>
       <c r="AI11" t="n">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="AJ11" t="n">
         <v>1000</v>
       </c>
       <c r="AK11" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AL11" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AM11" t="n">
         <v>170</v>
       </c>
       <c r="AN11" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AO11" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12">
@@ -2020,7 +2020,7 @@
         <v>2.6</v>
       </c>
       <c r="G12" t="n">
-        <v>2.76</v>
+        <v>2.74</v>
       </c>
       <c r="H12" t="n">
         <v>2.92</v>
@@ -2050,7 +2050,7 @@
         <v>1.8</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="R12" t="n">
         <v>1.31</v>
@@ -2059,7 +2059,7 @@
         <v>3.7</v>
       </c>
       <c r="T12" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="U12" t="n">
         <v>2.04</v>
@@ -2074,55 +2074,55 @@
         <v>11</v>
       </c>
       <c r="Y12" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>50</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD12" t="n">
         <v>13</v>
       </c>
-      <c r="Z12" t="n">
-        <v>22</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>60</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>13.5</v>
-      </c>
       <c r="AE12" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AF12" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AG12" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AH12" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI12" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AJ12" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AK12" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AL12" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AM12" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AN12" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AO12" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13">
@@ -2152,31 +2152,31 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="G13" t="n">
         <v>3.8</v>
       </c>
       <c r="H13" t="n">
-        <v>2.64</v>
+        <v>2.6</v>
       </c>
       <c r="I13" t="n">
-        <v>2.76</v>
+        <v>2.7</v>
       </c>
       <c r="J13" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="K13" t="n">
-        <v>2.86</v>
+        <v>2.84</v>
       </c>
       <c r="L13" t="n">
         <v>1.54</v>
       </c>
       <c r="M13" t="n">
-        <v>1.09</v>
+        <v>1.06</v>
       </c>
       <c r="N13" t="n">
-        <v>1.62</v>
+        <v>2.3</v>
       </c>
       <c r="O13" t="n">
         <v>1.47</v>
@@ -2185,37 +2185,37 @@
         <v>1.61</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.5</v>
+        <v>1.68</v>
       </c>
       <c r="R13" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="S13" t="n">
-        <v>2.44</v>
+        <v>3.9</v>
       </c>
       <c r="T13" t="n">
-        <v>1.89</v>
+        <v>1.92</v>
       </c>
       <c r="U13" t="n">
         <v>1.73</v>
       </c>
       <c r="V13" t="n">
-        <v>1.57</v>
+        <v>1.59</v>
       </c>
       <c r="W13" t="n">
         <v>1.35</v>
       </c>
       <c r="X13" t="n">
-        <v>10.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Y13" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="Z13" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AA13" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AB13" t="n">
         <v>12</v>
@@ -2227,7 +2227,7 @@
         <v>14.5</v>
       </c>
       <c r="AE13" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AF13" t="n">
         <v>22</v>
@@ -2254,7 +2254,7 @@
         <v>180</v>
       </c>
       <c r="AN13" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AO13" t="n">
         <v>40</v>
@@ -2293,10 +2293,10 @@
         <v>1.23</v>
       </c>
       <c r="H14" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="I14" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="J14" t="n">
         <v>7.4</v>
@@ -2323,7 +2323,7 @@
         <v>1.51</v>
       </c>
       <c r="R14" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="S14" t="n">
         <v>2.26</v>
@@ -2347,7 +2347,7 @@
         <v>1000</v>
       </c>
       <c r="Z14" t="n">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="AA14" t="n">
         <v>1000</v>
@@ -2374,19 +2374,19 @@
         <v>1000</v>
       </c>
       <c r="AI14" t="n">
+        <v>260</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM14" t="n">
         <v>280</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>970</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>290</v>
       </c>
       <c r="AN14" t="n">
         <v>3.65</v>
@@ -2422,22 +2422,22 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.87</v>
+        <v>1.92</v>
       </c>
       <c r="G15" t="n">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="H15" t="n">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="I15" t="n">
-        <v>5.6</v>
+        <v>4.9</v>
       </c>
       <c r="J15" t="n">
         <v>3.65</v>
       </c>
       <c r="K15" t="n">
-        <v>4.1</v>
+        <v>3.75</v>
       </c>
       <c r="L15" t="n">
         <v>1.42</v>
@@ -2446,7 +2446,7 @@
         <v>1.07</v>
       </c>
       <c r="N15" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="O15" t="n">
         <v>1.32</v>
@@ -2455,79 +2455,79 @@
         <v>1.96</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="R15" t="n">
         <v>1.35</v>
       </c>
       <c r="S15" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="T15" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="U15" t="n">
-        <v>1.98</v>
+        <v>2.06</v>
       </c>
       <c r="V15" t="n">
-        <v>1.23</v>
+        <v>1.26</v>
       </c>
       <c r="W15" t="n">
         <v>2.06</v>
       </c>
       <c r="X15" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="Y15" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>36</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>120</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>70</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH15" t="n">
         <v>20</v>
       </c>
-      <c r="Z15" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>130</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>1000</v>
-      </c>
       <c r="AI15" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AJ15" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AK15" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AL15" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AM15" t="n">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="AN15" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AO15" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16">
@@ -2557,16 +2557,16 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.24</v>
+        <v>2.34</v>
       </c>
       <c r="G16" t="n">
-        <v>2.32</v>
+        <v>2.4</v>
       </c>
       <c r="H16" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="I16" t="n">
-        <v>3.65</v>
+        <v>3.35</v>
       </c>
       <c r="J16" t="n">
         <v>3.6</v>
@@ -2581,40 +2581,40 @@
         <v>1.07</v>
       </c>
       <c r="N16" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="O16" t="n">
         <v>1.32</v>
       </c>
       <c r="P16" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="Q16" t="n">
         <v>1.97</v>
       </c>
       <c r="R16" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="S16" t="n">
-        <v>3.3</v>
+        <v>3.05</v>
       </c>
       <c r="T16" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="U16" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="V16" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="W16" t="n">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="X16" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Y16" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="Z16" t="n">
         <v>25</v>
@@ -2623,46 +2623,46 @@
         <v>65</v>
       </c>
       <c r="AB16" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AC16" t="n">
         <v>8.4</v>
       </c>
       <c r="AD16" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AE16" t="n">
         <v>42</v>
       </c>
       <c r="AF16" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AG16" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AH16" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AI16" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AJ16" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AK16" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AL16" t="n">
         <v>40</v>
       </c>
       <c r="AM16" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AN16" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AO16" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17">
@@ -2716,7 +2716,7 @@
         <v>1.06</v>
       </c>
       <c r="N17" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="O17" t="n">
         <v>1.32</v>
@@ -2725,7 +2725,7 @@
         <v>1.96</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="R17" t="n">
         <v>1.36</v>
@@ -2734,7 +2734,7 @@
         <v>3.3</v>
       </c>
       <c r="T17" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="U17" t="n">
         <v>1.76</v>
@@ -2758,13 +2758,13 @@
         <v>400</v>
       </c>
       <c r="AB17" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC17" t="n">
         <v>11.5</v>
       </c>
       <c r="AD17" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AE17" t="n">
         <v>190</v>
@@ -2827,13 +2827,13 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="G18" t="n">
         <v>1.2</v>
       </c>
       <c r="H18" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I18" t="n">
         <v>28</v>
@@ -2842,7 +2842,7 @@
         <v>8</v>
       </c>
       <c r="K18" t="n">
-        <v>9.199999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="L18" t="n">
         <v>1.25</v>
@@ -2857,7 +2857,7 @@
         <v>1.16</v>
       </c>
       <c r="P18" t="n">
-        <v>2.74</v>
+        <v>2.8</v>
       </c>
       <c r="Q18" t="n">
         <v>1.5</v>
@@ -2881,7 +2881,7 @@
         <v>6</v>
       </c>
       <c r="X18" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Y18" t="n">
         <v>1000</v>
@@ -2962,22 +2962,22 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="G19" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="H19" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="I19" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="J19" t="n">
         <v>3.7</v>
       </c>
-      <c r="H19" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="I19" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="J19" t="n">
-        <v>3.65</v>
-      </c>
       <c r="K19" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="L19" t="n">
         <v>1.38</v>
@@ -2995,7 +2995,7 @@
         <v>2.06</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="R19" t="n">
         <v>1.42</v>
@@ -3004,19 +3004,19 @@
         <v>3.05</v>
       </c>
       <c r="T19" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="U19" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="V19" t="n">
-        <v>1.81</v>
+        <v>1.79</v>
       </c>
       <c r="W19" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="X19" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="Y19" t="n">
         <v>11.5</v>
@@ -3028,7 +3028,7 @@
         <v>29</v>
       </c>
       <c r="AB19" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AC19" t="n">
         <v>8.6</v>
@@ -3037,28 +3037,28 @@
         <v>11</v>
       </c>
       <c r="AE19" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AF19" t="n">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="AG19" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AH19" t="n">
         <v>17</v>
       </c>
       <c r="AI19" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AJ19" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AK19" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AL19" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AM19" t="n">
         <v>85</v>
@@ -3067,7 +3067,7 @@
         <v>34</v>
       </c>
       <c r="AO19" t="n">
-        <v>16</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="20">
@@ -3097,7 +3097,7 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="G20" t="n">
         <v>1.32</v>
@@ -3106,13 +3106,13 @@
         <v>12</v>
       </c>
       <c r="I20" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="J20" t="n">
         <v>6.4</v>
       </c>
       <c r="K20" t="n">
-        <v>7.2</v>
+        <v>6.8</v>
       </c>
       <c r="L20" t="n">
         <v>1.24</v>
@@ -3139,13 +3139,13 @@
         <v>2.16</v>
       </c>
       <c r="T20" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="U20" t="n">
         <v>2.02</v>
       </c>
       <c r="V20" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="W20" t="n">
         <v>4.1</v>
@@ -3169,22 +3169,22 @@
         <v>15.5</v>
       </c>
       <c r="AD20" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AE20" t="n">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="AF20" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="AG20" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH20" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AI20" t="n">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="AJ20" t="n">
         <v>11.5</v>
@@ -3202,7 +3202,7 @@
         <v>3.9</v>
       </c>
       <c r="AO20" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="21">
@@ -3232,19 +3232,19 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.58</v>
+        <v>1.56</v>
       </c>
       <c r="G21" t="n">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="H21" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="I21" t="n">
         <v>6.8</v>
       </c>
       <c r="J21" t="n">
-        <v>4.4</v>
+        <v>4.7</v>
       </c>
       <c r="K21" t="n">
         <v>4.9</v>
@@ -3274,16 +3274,16 @@
         <v>2.46</v>
       </c>
       <c r="T21" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="U21" t="n">
         <v>2.16</v>
       </c>
       <c r="V21" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="W21" t="n">
-        <v>2.58</v>
+        <v>2.68</v>
       </c>
       <c r="X21" t="n">
         <v>29</v>
@@ -3373,10 +3373,10 @@
         <v>1.26</v>
       </c>
       <c r="H22" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="I22" t="n">
-        <v>15.5</v>
+        <v>14</v>
       </c>
       <c r="J22" t="n">
         <v>7.6</v>
@@ -3394,7 +3394,7 @@
         <v>8</v>
       </c>
       <c r="O22" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="P22" t="n">
         <v>3.35</v>
@@ -3403,10 +3403,10 @@
         <v>1.36</v>
       </c>
       <c r="R22" t="n">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="S22" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="T22" t="n">
         <v>1.87</v>
@@ -3415,7 +3415,7 @@
         <v>2.04</v>
       </c>
       <c r="V22" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="W22" t="n">
         <v>4.8</v>
@@ -3427,16 +3427,16 @@
         <v>1000</v>
       </c>
       <c r="Z22" t="n">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="AA22" t="n">
         <v>550</v>
       </c>
       <c r="AB22" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AC22" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AD22" t="n">
         <v>1000</v>
@@ -3451,7 +3451,7 @@
         <v>13</v>
       </c>
       <c r="AH22" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AI22" t="n">
         <v>150</v>
@@ -3463,13 +3463,13 @@
         <v>14</v>
       </c>
       <c r="AL22" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AM22" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="AN22" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="AO22" t="n">
         <v>1000</v>
@@ -3502,22 +3502,22 @@
         </is>
       </c>
       <c r="F23" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="G23" t="n">
         <v>1.65</v>
-      </c>
-      <c r="G23" t="n">
-        <v>1.66</v>
       </c>
       <c r="H23" t="n">
         <v>5.6</v>
       </c>
       <c r="I23" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="J23" t="n">
-        <v>4.4</v>
+        <v>4.7</v>
       </c>
       <c r="K23" t="n">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="L23" t="n">
         <v>1.32</v>
@@ -3526,7 +3526,7 @@
         <v>1.04</v>
       </c>
       <c r="N23" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="O23" t="n">
         <v>1.21</v>
@@ -3535,7 +3535,7 @@
         <v>2.4</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="R23" t="n">
         <v>1.56</v>
@@ -3544,19 +3544,19 @@
         <v>2.52</v>
       </c>
       <c r="T23" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="U23" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="V23" t="n">
         <v>1.2</v>
       </c>
       <c r="W23" t="n">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="X23" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Y23" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-18.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-18.xlsx
@@ -679,28 +679,28 @@
         <v>870</v>
       </c>
       <c r="J2" t="n">
-        <v>1.06</v>
+        <v>3.55</v>
       </c>
       <c r="K2" t="n">
         <v>500</v>
       </c>
       <c r="L2" t="n">
-        <v>1.01</v>
+        <v>1.25</v>
       </c>
       <c r="M2" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="N2" t="n">
-        <v>1.26</v>
+        <v>1.1</v>
       </c>
       <c r="O2" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="P2" t="n">
         <v>1.25</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.02</v>
+        <v>1.3</v>
       </c>
       <c r="R2" t="n">
         <v>1.21</v>
@@ -805,19 +805,19 @@
         <v>2.88</v>
       </c>
       <c r="G3" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="H3" t="n">
         <v>2.06</v>
       </c>
       <c r="I3" t="n">
-        <v>2.78</v>
+        <v>2.7</v>
       </c>
       <c r="J3" t="n">
-        <v>2.58</v>
+        <v>3.05</v>
       </c>
       <c r="K3" t="n">
-        <v>5.9</v>
+        <v>5</v>
       </c>
       <c r="L3" t="n">
         <v>1.33</v>
@@ -832,7 +832,7 @@
         <v>1.28</v>
       </c>
       <c r="P3" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="Q3" t="n">
         <v>1.83</v>
@@ -841,19 +841,19 @@
         <v>1.27</v>
       </c>
       <c r="S3" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="T3" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="U3" t="n">
         <v>1.04</v>
       </c>
       <c r="V3" t="n">
-        <v>1.56</v>
+        <v>1.59</v>
       </c>
       <c r="W3" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="X3" t="n">
         <v>1000</v>
@@ -937,22 +937,22 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.26</v>
+        <v>2.06</v>
       </c>
       <c r="G4" t="n">
-        <v>2.56</v>
+        <v>2.28</v>
       </c>
       <c r="H4" t="n">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="I4" t="n">
-        <v>4.4</v>
+        <v>5.2</v>
       </c>
       <c r="J4" t="n">
-        <v>2.6</v>
+        <v>2.82</v>
       </c>
       <c r="K4" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="L4" t="n">
         <v>1.55</v>
@@ -961,88 +961,88 @@
         <v>1.14</v>
       </c>
       <c r="N4" t="n">
-        <v>2.26</v>
+        <v>2.2</v>
       </c>
       <c r="O4" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="P4" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="Q4" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="R4" t="n">
         <v>1.14</v>
       </c>
       <c r="S4" t="n">
-        <v>5.9</v>
+        <v>6.4</v>
       </c>
       <c r="T4" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="U4" t="n">
-        <v>1.64</v>
+        <v>1.59</v>
       </c>
       <c r="V4" t="n">
-        <v>1.3</v>
+        <v>1.23</v>
       </c>
       <c r="W4" t="n">
-        <v>1.62</v>
+        <v>1.78</v>
       </c>
       <c r="X4" t="n">
-        <v>7.2</v>
+        <v>8.6</v>
       </c>
       <c r="Y4" t="n">
-        <v>10.5</v>
+        <v>13</v>
       </c>
       <c r="Z4" t="n">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="AA4" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AB4" t="n">
         <v>7.4</v>
       </c>
       <c r="AC4" t="n">
-        <v>8.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD4" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="AE4" t="n">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="AF4" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AG4" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AH4" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AI4" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AJ4" t="n">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="AK4" t="n">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AL4" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AM4" t="n">
         <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="AO4" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="5">
@@ -1072,61 +1072,61 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="G5" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="H5" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="I5" t="n">
-        <v>15.5</v>
+        <v>13</v>
       </c>
       <c r="J5" t="n">
-        <v>4.2</v>
+        <v>4.6</v>
       </c>
       <c r="K5" t="n">
-        <v>5</v>
+        <v>5.4</v>
       </c>
       <c r="L5" t="n">
-        <v>1.44</v>
+        <v>1.33</v>
       </c>
       <c r="M5" t="n">
-        <v>1.09</v>
+        <v>1.07</v>
       </c>
       <c r="N5" t="n">
-        <v>3</v>
+        <v>3.45</v>
       </c>
       <c r="O5" t="n">
-        <v>1.41</v>
+        <v>1.32</v>
       </c>
       <c r="P5" t="n">
-        <v>1.68</v>
+        <v>1.86</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.16</v>
+        <v>1.95</v>
       </c>
       <c r="R5" t="n">
-        <v>1.25</v>
+        <v>1.32</v>
       </c>
       <c r="S5" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="T5" t="n">
-        <v>2.5</v>
+        <v>2.32</v>
       </c>
       <c r="U5" t="n">
-        <v>1.53</v>
+        <v>1.62</v>
       </c>
       <c r="V5" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="W5" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="X5" t="n">
-        <v>13.5</v>
+        <v>17.5</v>
       </c>
       <c r="Y5" t="n">
         <v>30</v>
@@ -1153,7 +1153,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="AG5" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AH5" t="n">
         <v>1000</v>
@@ -1162,10 +1162,10 @@
         <v>1000</v>
       </c>
       <c r="AJ5" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AK5" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AL5" t="n">
         <v>1000</v>
@@ -1174,7 +1174,7 @@
         <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>12</v>
+        <v>9.4</v>
       </c>
       <c r="AO5" t="n">
         <v>1000</v>
@@ -1207,22 +1207,22 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="G6" t="n">
-        <v>2.24</v>
+        <v>2.32</v>
       </c>
       <c r="H6" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="I6" t="n">
-        <v>3.55</v>
+        <v>3.35</v>
       </c>
       <c r="J6" t="n">
         <v>3.9</v>
       </c>
       <c r="K6" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="L6" t="n">
         <v>1.36</v>
@@ -1237,16 +1237,16 @@
         <v>1.24</v>
       </c>
       <c r="P6" t="n">
-        <v>2.26</v>
+        <v>2.3</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="R6" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="S6" t="n">
-        <v>2.8</v>
+        <v>2.76</v>
       </c>
       <c r="T6" t="n">
         <v>1.61</v>
@@ -1255,22 +1255,22 @@
         <v>2.42</v>
       </c>
       <c r="V6" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="W6" t="n">
-        <v>1.81</v>
+        <v>1.77</v>
       </c>
       <c r="X6" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="Y6" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AA6" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AB6" t="n">
         <v>13</v>
@@ -1279,10 +1279,10 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AD6" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AE6" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AF6" t="n">
         <v>19.5</v>
@@ -1291,13 +1291,13 @@
         <v>11</v>
       </c>
       <c r="AH6" t="n">
-        <v>15.5</v>
+        <v>19.5</v>
       </c>
       <c r="AI6" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AJ6" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AK6" t="n">
         <v>22</v>
@@ -1312,7 +1312,7 @@
         <v>13.5</v>
       </c>
       <c r="AO6" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7">
@@ -1342,109 +1342,109 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="G7" t="n">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="H7" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="I7" t="n">
         <v>12</v>
       </c>
       <c r="J7" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="K7" t="n">
+        <v>6</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N7" t="n">
         <v>5.7</v>
       </c>
-      <c r="K7" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="L7" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N7" t="n">
-        <v>5.8</v>
-      </c>
       <c r="O7" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="P7" t="n">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.6</v>
+        <v>1.58</v>
       </c>
       <c r="R7" t="n">
-        <v>1.66</v>
+        <v>1.63</v>
       </c>
       <c r="S7" t="n">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="T7" t="n">
         <v>2.06</v>
       </c>
       <c r="U7" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="V7" t="n">
         <v>1.09</v>
       </c>
       <c r="W7" t="n">
-        <v>3.7</v>
+        <v>3.85</v>
       </c>
       <c r="X7" t="n">
         <v>24</v>
       </c>
       <c r="Y7" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="Z7" t="n">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="AA7" t="n">
         <v>420</v>
       </c>
       <c r="AB7" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AC7" t="n">
         <v>13.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="AE7" t="n">
-        <v>220</v>
+        <v>160</v>
       </c>
       <c r="AF7" t="n">
-        <v>8</v>
+        <v>8.4</v>
       </c>
       <c r="AG7" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AH7" t="n">
         <v>27</v>
       </c>
       <c r="AI7" t="n">
-        <v>160</v>
+        <v>130</v>
       </c>
       <c r="AJ7" t="n">
-        <v>9.6</v>
+        <v>10.5</v>
       </c>
       <c r="AK7" t="n">
         <v>14.5</v>
       </c>
       <c r="AL7" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AM7" t="n">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="AN7" t="n">
-        <v>5.2</v>
+        <v>1000</v>
       </c>
       <c r="AO7" t="n">
         <v>1000</v>
@@ -1477,88 +1477,88 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="G8" t="n">
         <v>1.69</v>
       </c>
       <c r="H8" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="I8" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="J8" t="n">
         <v>4</v>
       </c>
       <c r="K8" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="L8" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="M8" t="n">
         <v>1.08</v>
       </c>
       <c r="N8" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="O8" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="P8" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.02</v>
+        <v>2.14</v>
       </c>
       <c r="R8" t="n">
         <v>1.28</v>
       </c>
       <c r="S8" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="T8" t="n">
-        <v>2.1</v>
+        <v>2.16</v>
       </c>
       <c r="U8" t="n">
-        <v>1.73</v>
+        <v>1.76</v>
       </c>
       <c r="V8" t="n">
         <v>1.17</v>
       </c>
       <c r="W8" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="X8" t="n">
         <v>13</v>
       </c>
       <c r="Y8" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="Z8" t="n">
         <v>55</v>
       </c>
       <c r="AA8" t="n">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="AB8" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="AC8" t="n">
         <v>9.6</v>
       </c>
       <c r="AD8" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AE8" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AF8" t="n">
         <v>9</v>
       </c>
       <c r="AG8" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AH8" t="n">
         <v>28</v>
@@ -1570,13 +1570,13 @@
         <v>16</v>
       </c>
       <c r="AK8" t="n">
-        <v>19.5</v>
+        <v>23</v>
       </c>
       <c r="AL8" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AM8" t="n">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="AN8" t="n">
         <v>1000</v>
@@ -1615,19 +1615,19 @@
         <v>1.94</v>
       </c>
       <c r="G9" t="n">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="H9" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="I9" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="J9" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="K9" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="L9" t="n">
         <v>1.41</v>
@@ -1636,7 +1636,7 @@
         <v>1.07</v>
       </c>
       <c r="N9" t="n">
-        <v>3.65</v>
+        <v>3.85</v>
       </c>
       <c r="O9" t="n">
         <v>1.32</v>
@@ -1645,7 +1645,7 @@
         <v>1.96</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="R9" t="n">
         <v>1.35</v>
@@ -1660,16 +1660,16 @@
         <v>2.04</v>
       </c>
       <c r="V9" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="W9" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="X9" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="Y9" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="Z9" t="n">
         <v>34</v>
@@ -1678,7 +1678,7 @@
         <v>100</v>
       </c>
       <c r="AB9" t="n">
-        <v>9.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC9" t="n">
         <v>8.6</v>
@@ -1699,7 +1699,7 @@
         <v>1000</v>
       </c>
       <c r="AI9" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AJ9" t="n">
         <v>23</v>
@@ -1714,10 +1714,10 @@
         <v>110</v>
       </c>
       <c r="AN9" t="n">
-        <v>14</v>
+        <v>980</v>
       </c>
       <c r="AO9" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="10">
@@ -1750,10 +1750,10 @@
         <v>1.25</v>
       </c>
       <c r="G10" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="H10" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="I10" t="n">
         <v>16</v>
@@ -1786,7 +1786,7 @@
         <v>1.62</v>
       </c>
       <c r="S10" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="T10" t="n">
         <v>2.3</v>
@@ -1795,10 +1795,10 @@
         <v>1.67</v>
       </c>
       <c r="V10" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="W10" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="X10" t="n">
         <v>26</v>
@@ -1819,7 +1819,7 @@
         <v>16</v>
       </c>
       <c r="AD10" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AE10" t="n">
         <v>290</v>
@@ -1828,16 +1828,16 @@
         <v>7.4</v>
       </c>
       <c r="AG10" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH10" t="n">
         <v>38</v>
       </c>
       <c r="AI10" t="n">
-        <v>240</v>
+        <v>210</v>
       </c>
       <c r="AJ10" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AK10" t="n">
         <v>14</v>
@@ -1849,7 +1849,7 @@
         <v>250</v>
       </c>
       <c r="AN10" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="AO10" t="n">
         <v>370</v>
@@ -1882,112 +1882,112 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="G11" t="n">
-        <v>1.98</v>
+        <v>1.96</v>
       </c>
       <c r="H11" t="n">
         <v>4.3</v>
       </c>
       <c r="I11" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="J11" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="K11" t="n">
-        <v>3.95</v>
+        <v>3.85</v>
       </c>
       <c r="L11" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="M11" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N11" t="n">
-        <v>3.05</v>
+        <v>2.98</v>
       </c>
       <c r="O11" t="n">
-        <v>1.39</v>
+        <v>1.42</v>
       </c>
       <c r="P11" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="Q11" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="R11" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="S11" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="T11" t="n">
         <v>1.98</v>
       </c>
       <c r="U11" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="V11" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="W11" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="X11" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="Y11" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="Z11" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AA11" t="n">
         <v>120</v>
       </c>
       <c r="AB11" t="n">
-        <v>9.4</v>
+        <v>8</v>
       </c>
       <c r="AC11" t="n">
-        <v>8.4</v>
+        <v>8</v>
       </c>
       <c r="AD11" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AE11" t="n">
         <v>1000</v>
       </c>
       <c r="AF11" t="n">
-        <v>11</v>
+        <v>13.5</v>
       </c>
       <c r="AG11" t="n">
         <v>11</v>
       </c>
       <c r="AH11" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AI11" t="n">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="AJ11" t="n">
         <v>1000</v>
       </c>
       <c r="AK11" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AL11" t="n">
         <v>48</v>
       </c>
       <c r="AM11" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="AN11" t="n">
-        <v>18.5</v>
+        <v>20</v>
       </c>
       <c r="AO11" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12">
@@ -2017,22 +2017,22 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.6</v>
+        <v>2.72</v>
       </c>
       <c r="G12" t="n">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="H12" t="n">
-        <v>2.92</v>
+        <v>2.96</v>
       </c>
       <c r="I12" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="J12" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="K12" t="n">
         <v>3.4</v>
-      </c>
-      <c r="K12" t="n">
-        <v>3.45</v>
       </c>
       <c r="L12" t="n">
         <v>1.46</v>
@@ -2044,37 +2044,37 @@
         <v>3.25</v>
       </c>
       <c r="O12" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="P12" t="n">
         <v>1.8</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="R12" t="n">
         <v>1.31</v>
       </c>
       <c r="S12" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="T12" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="U12" t="n">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="V12" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="W12" t="n">
         <v>1.57</v>
       </c>
       <c r="X12" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Y12" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="Z12" t="n">
         <v>19.5</v>
@@ -2083,7 +2083,7 @@
         <v>50</v>
       </c>
       <c r="AB12" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AC12" t="n">
         <v>8</v>
@@ -2092,16 +2092,16 @@
         <v>13</v>
       </c>
       <c r="AE12" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="AF12" t="n">
         <v>17.5</v>
       </c>
       <c r="AG12" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AH12" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AI12" t="n">
         <v>55</v>
@@ -2122,7 +2122,7 @@
         <v>30</v>
       </c>
       <c r="AO12" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13">
@@ -2152,31 +2152,31 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="G13" t="n">
-        <v>3.8</v>
+        <v>3.65</v>
       </c>
       <c r="H13" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="I13" t="n">
-        <v>2.7</v>
+        <v>2.74</v>
       </c>
       <c r="J13" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="K13" t="n">
         <v>2.84</v>
       </c>
       <c r="L13" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="M13" t="n">
         <v>1.06</v>
       </c>
       <c r="N13" t="n">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="O13" t="n">
         <v>1.47</v>
@@ -2185,37 +2185,37 @@
         <v>1.61</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.68</v>
+        <v>2.44</v>
       </c>
       <c r="R13" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="S13" t="n">
-        <v>3.9</v>
+        <v>4.7</v>
       </c>
       <c r="T13" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="U13" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="V13" t="n">
-        <v>1.59</v>
+        <v>1.57</v>
       </c>
       <c r="W13" t="n">
-        <v>1.35</v>
+        <v>1.38</v>
       </c>
       <c r="X13" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="Y13" t="n">
-        <v>9.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Z13" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AA13" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AB13" t="n">
         <v>12</v>
@@ -2224,7 +2224,7 @@
         <v>7.4</v>
       </c>
       <c r="AD13" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AE13" t="n">
         <v>38</v>
@@ -2233,13 +2233,13 @@
         <v>22</v>
       </c>
       <c r="AG13" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AH13" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AI13" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AJ13" t="n">
         <v>70</v>
@@ -2248,7 +2248,7 @@
         <v>55</v>
       </c>
       <c r="AL13" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AM13" t="n">
         <v>180</v>
@@ -2287,7 +2287,7 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="G14" t="n">
         <v>1.23</v>
@@ -2302,7 +2302,7 @@
         <v>7.4</v>
       </c>
       <c r="K14" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="L14" t="n">
         <v>1.25</v>
@@ -2347,7 +2347,7 @@
         <v>1000</v>
       </c>
       <c r="Z14" t="n">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="AA14" t="n">
         <v>1000</v>
@@ -2422,22 +2422,22 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="G15" t="n">
         <v>1.93</v>
       </c>
       <c r="H15" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="I15" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="J15" t="n">
         <v>3.65</v>
       </c>
       <c r="K15" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="L15" t="n">
         <v>1.42</v>
@@ -2446,7 +2446,7 @@
         <v>1.07</v>
       </c>
       <c r="N15" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="O15" t="n">
         <v>1.32</v>
@@ -2461,16 +2461,16 @@
         <v>1.35</v>
       </c>
       <c r="S15" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="T15" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="U15" t="n">
-        <v>2.06</v>
+        <v>2.02</v>
       </c>
       <c r="V15" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="W15" t="n">
         <v>2.06</v>
@@ -2488,10 +2488,10 @@
         <v>120</v>
       </c>
       <c r="AB15" t="n">
-        <v>9.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="AC15" t="n">
-        <v>9.6</v>
+        <v>10.5</v>
       </c>
       <c r="AD15" t="n">
         <v>21</v>
@@ -2503,7 +2503,7 @@
         <v>11.5</v>
       </c>
       <c r="AG15" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AH15" t="n">
         <v>20</v>
@@ -2515,7 +2515,7 @@
         <v>22</v>
       </c>
       <c r="AK15" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AL15" t="n">
         <v>40</v>
@@ -2524,7 +2524,7 @@
         <v>110</v>
       </c>
       <c r="AN15" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="AO15" t="n">
         <v>75</v>
@@ -2557,7 +2557,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.34</v>
+        <v>2.38</v>
       </c>
       <c r="G16" t="n">
         <v>2.4</v>
@@ -2566,7 +2566,7 @@
         <v>3.25</v>
       </c>
       <c r="I16" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="J16" t="n">
         <v>3.6</v>
@@ -2575,7 +2575,7 @@
         <v>3.7</v>
       </c>
       <c r="L16" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="M16" t="n">
         <v>1.07</v>
@@ -2593,19 +2593,19 @@
         <v>1.97</v>
       </c>
       <c r="R16" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="S16" t="n">
-        <v>3.05</v>
+        <v>3.4</v>
       </c>
       <c r="T16" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="U16" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="V16" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="W16" t="n">
         <v>1.71</v>
@@ -2614,13 +2614,13 @@
         <v>14</v>
       </c>
       <c r="Y16" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="Z16" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AA16" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AB16" t="n">
         <v>11</v>
@@ -2632,28 +2632,28 @@
         <v>14.5</v>
       </c>
       <c r="AE16" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AF16" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AG16" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="AH16" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AI16" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AJ16" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AK16" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AL16" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AM16" t="n">
         <v>95</v>
@@ -2662,7 +2662,7 @@
         <v>21</v>
       </c>
       <c r="AO16" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17">
@@ -2695,10 +2695,10 @@
         <v>1.46</v>
       </c>
       <c r="G17" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="H17" t="n">
-        <v>8.199999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="I17" t="n">
         <v>9.6</v>
@@ -2707,7 +2707,7 @@
         <v>4.6</v>
       </c>
       <c r="K17" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="L17" t="n">
         <v>1.41</v>
@@ -2731,7 +2731,7 @@
         <v>1.36</v>
       </c>
       <c r="S17" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="T17" t="n">
         <v>2.12</v>
@@ -2743,61 +2743,61 @@
         <v>1.12</v>
       </c>
       <c r="W17" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="X17" t="n">
-        <v>18.5</v>
+        <v>16</v>
       </c>
       <c r="Y17" t="n">
         <v>26</v>
       </c>
       <c r="Z17" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AA17" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="AB17" t="n">
-        <v>9.800000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="AC17" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AD17" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AE17" t="n">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="AF17" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AG17" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AH17" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="AI17" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="AJ17" t="n">
         <v>15</v>
       </c>
       <c r="AK17" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AL17" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AM17" t="n">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="AN17" t="n">
         <v>8</v>
       </c>
       <c r="AO17" t="n">
-        <v>1000</v>
+        <v>270</v>
       </c>
     </row>
     <row r="18">
@@ -2839,10 +2839,10 @@
         <v>28</v>
       </c>
       <c r="J18" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="K18" t="n">
-        <v>8.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="L18" t="n">
         <v>1.25</v>
@@ -2857,13 +2857,13 @@
         <v>1.16</v>
       </c>
       <c r="P18" t="n">
-        <v>2.8</v>
+        <v>2.76</v>
       </c>
       <c r="Q18" t="n">
         <v>1.5</v>
       </c>
       <c r="R18" t="n">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="S18" t="n">
         <v>2.22</v>
@@ -2896,7 +2896,7 @@
         <v>12.5</v>
       </c>
       <c r="AC18" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AD18" t="n">
         <v>110</v>
@@ -2911,7 +2911,7 @@
         <v>14</v>
       </c>
       <c r="AH18" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AI18" t="n">
         <v>400</v>
@@ -2962,22 +2962,22 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="G19" t="n">
-        <v>3.45</v>
+        <v>3.75</v>
       </c>
       <c r="H19" t="n">
-        <v>2.22</v>
+        <v>2.16</v>
       </c>
       <c r="I19" t="n">
-        <v>2.26</v>
+        <v>2.18</v>
       </c>
       <c r="J19" t="n">
         <v>3.7</v>
       </c>
       <c r="K19" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="L19" t="n">
         <v>1.38</v>
@@ -2995,7 +2995,7 @@
         <v>2.06</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="R19" t="n">
         <v>1.42</v>
@@ -3007,13 +3007,13 @@
         <v>1.7</v>
       </c>
       <c r="U19" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="V19" t="n">
-        <v>1.79</v>
+        <v>1.84</v>
       </c>
       <c r="W19" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="X19" t="n">
         <v>16</v>
@@ -3022,13 +3022,13 @@
         <v>11.5</v>
       </c>
       <c r="Z19" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AA19" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AB19" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AC19" t="n">
         <v>8.6</v>
@@ -3037,37 +3037,37 @@
         <v>11</v>
       </c>
       <c r="AE19" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AF19" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="AG19" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AH19" t="n">
         <v>17</v>
       </c>
       <c r="AI19" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AJ19" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AK19" t="n">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AL19" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AM19" t="n">
         <v>85</v>
       </c>
       <c r="AN19" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="AO19" t="n">
-        <v>17.5</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="20">
@@ -3100,13 +3100,13 @@
         <v>1.28</v>
       </c>
       <c r="G20" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="H20" t="n">
         <v>12</v>
       </c>
       <c r="I20" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="J20" t="n">
         <v>6.4</v>
@@ -3136,10 +3136,10 @@
         <v>1.78</v>
       </c>
       <c r="S20" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="T20" t="n">
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
       <c r="U20" t="n">
         <v>2.02</v>
@@ -3148,7 +3148,7 @@
         <v>1.07</v>
       </c>
       <c r="W20" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="X20" t="n">
         <v>34</v>
@@ -3181,13 +3181,13 @@
         <v>12</v>
       </c>
       <c r="AH20" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AI20" t="n">
         <v>140</v>
       </c>
       <c r="AJ20" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AK20" t="n">
         <v>13</v>
@@ -3202,7 +3202,7 @@
         <v>3.9</v>
       </c>
       <c r="AO20" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
     </row>
     <row r="21">
@@ -3235,10 +3235,10 @@
         <v>1.56</v>
       </c>
       <c r="G21" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="H21" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="I21" t="n">
         <v>6.8</v>
@@ -3271,19 +3271,19 @@
         <v>1.58</v>
       </c>
       <c r="S21" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="T21" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="U21" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="V21" t="n">
         <v>1.18</v>
       </c>
       <c r="W21" t="n">
-        <v>2.68</v>
+        <v>2.72</v>
       </c>
       <c r="X21" t="n">
         <v>29</v>
@@ -3373,16 +3373,16 @@
         <v>1.26</v>
       </c>
       <c r="H22" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="I22" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J22" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="K22" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="L22" t="n">
         <v>1.21</v>
@@ -3403,19 +3403,19 @@
         <v>1.36</v>
       </c>
       <c r="R22" t="n">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="S22" t="n">
-        <v>1.92</v>
+        <v>2.04</v>
       </c>
       <c r="T22" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="U22" t="n">
         <v>2.04</v>
       </c>
       <c r="V22" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="W22" t="n">
         <v>4.8</v>
@@ -3436,7 +3436,7 @@
         <v>15</v>
       </c>
       <c r="AC22" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AD22" t="n">
         <v>1000</v>
@@ -3445,13 +3445,13 @@
         <v>220</v>
       </c>
       <c r="AF22" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AG22" t="n">
         <v>13</v>
       </c>
       <c r="AH22" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AI22" t="n">
         <v>150</v>
@@ -3466,10 +3466,10 @@
         <v>40</v>
       </c>
       <c r="AM22" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AN22" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="AO22" t="n">
         <v>1000</v>
@@ -3502,61 +3502,61 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="G23" t="n">
-        <v>1.65</v>
+        <v>1.69</v>
       </c>
       <c r="H23" t="n">
-        <v>5.6</v>
+        <v>5.2</v>
       </c>
       <c r="I23" t="n">
-        <v>6.2</v>
+        <v>5.9</v>
       </c>
       <c r="J23" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="K23" t="n">
         <v>4.7</v>
-      </c>
-      <c r="K23" t="n">
-        <v>5</v>
       </c>
       <c r="L23" t="n">
         <v>1.32</v>
       </c>
       <c r="M23" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N23" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="O23" t="n">
         <v>1.21</v>
       </c>
       <c r="P23" t="n">
-        <v>2.4</v>
+        <v>2.34</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.62</v>
+        <v>1.66</v>
       </c>
       <c r="R23" t="n">
-        <v>1.56</v>
+        <v>1.54</v>
       </c>
       <c r="S23" t="n">
-        <v>2.52</v>
+        <v>2.62</v>
       </c>
       <c r="T23" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="U23" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="V23" t="n">
         <v>1.2</v>
       </c>
       <c r="W23" t="n">
-        <v>2.54</v>
+        <v>2.42</v>
       </c>
       <c r="X23" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="Y23" t="n">
         <v>1000</v>
@@ -3571,7 +3571,7 @@
         <v>1000</v>
       </c>
       <c r="AC23" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AD23" t="n">
         <v>1000</v>
@@ -3580,7 +3580,7 @@
         <v>1000</v>
       </c>
       <c r="AF23" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AG23" t="n">
         <v>10</v>
@@ -3604,7 +3604,7 @@
         <v>1000</v>
       </c>
       <c r="AN23" t="n">
-        <v>8.4</v>
+        <v>7.6</v>
       </c>
       <c r="AO23" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-18.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-18.xlsx
@@ -667,22 +667,22 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="G2" t="n">
-        <v>44</v>
+        <v>2.48</v>
       </c>
       <c r="H2" t="n">
         <v>1.01</v>
       </c>
       <c r="I2" t="n">
-        <v>870</v>
+        <v>110</v>
       </c>
       <c r="J2" t="n">
         <v>3.55</v>
       </c>
       <c r="K2" t="n">
-        <v>500</v>
+        <v>44</v>
       </c>
       <c r="L2" t="n">
         <v>1.25</v>
@@ -715,7 +715,7 @@
         <v>1.04</v>
       </c>
       <c r="V2" t="n">
-        <v>1.02</v>
+        <v>1.14</v>
       </c>
       <c r="W2" t="n">
         <v>1.02</v>
@@ -805,7 +805,7 @@
         <v>2.88</v>
       </c>
       <c r="G3" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="H3" t="n">
         <v>2.06</v>
@@ -823,10 +823,10 @@
         <v>1.33</v>
       </c>
       <c r="M3" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N3" t="n">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="O3" t="n">
         <v>1.28</v>
@@ -838,10 +838,10 @@
         <v>1.83</v>
       </c>
       <c r="R3" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="S3" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="T3" t="n">
         <v>1.05</v>
@@ -853,7 +853,7 @@
         <v>1.59</v>
       </c>
       <c r="W3" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="X3" t="n">
         <v>1000</v>
@@ -937,16 +937,16 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="G4" t="n">
-        <v>2.28</v>
+        <v>2.44</v>
       </c>
       <c r="H4" t="n">
         <v>4.2</v>
       </c>
       <c r="I4" t="n">
-        <v>5.2</v>
+        <v>4.8</v>
       </c>
       <c r="J4" t="n">
         <v>2.82</v>
@@ -970,7 +970,7 @@
         <v>1.4</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="R4" t="n">
         <v>1.14</v>
@@ -985,34 +985,34 @@
         <v>1.59</v>
       </c>
       <c r="V4" t="n">
-        <v>1.23</v>
+        <v>1.27</v>
       </c>
       <c r="W4" t="n">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="X4" t="n">
         <v>8.6</v>
       </c>
       <c r="Y4" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="AA4" t="n">
         <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AC4" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="AD4" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="AE4" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AF4" t="n">
         <v>14</v>
@@ -1075,7 +1075,7 @@
         <v>1.37</v>
       </c>
       <c r="G5" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="H5" t="n">
         <v>10.5</v>
@@ -1087,46 +1087,46 @@
         <v>4.6</v>
       </c>
       <c r="K5" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="L5" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="M5" t="n">
         <v>1.07</v>
       </c>
       <c r="N5" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="O5" t="n">
-        <v>1.32</v>
+        <v>1.38</v>
       </c>
       <c r="P5" t="n">
-        <v>1.86</v>
+        <v>1.81</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.95</v>
+        <v>2.02</v>
       </c>
       <c r="R5" t="n">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="S5" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="T5" t="n">
         <v>2.32</v>
       </c>
       <c r="U5" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="V5" t="n">
         <v>1.08</v>
       </c>
       <c r="W5" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="X5" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="Y5" t="n">
         <v>30</v>
@@ -1150,7 +1150,7 @@
         <v>1000</v>
       </c>
       <c r="AF5" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AG5" t="n">
         <v>13</v>
@@ -1207,112 +1207,112 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="G6" t="n">
-        <v>2.32</v>
+        <v>2.44</v>
       </c>
       <c r="H6" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="I6" t="n">
-        <v>3.35</v>
+        <v>3.05</v>
       </c>
       <c r="J6" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="K6" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="L6" t="n">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="M6" t="n">
         <v>1.05</v>
       </c>
       <c r="N6" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="O6" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="P6" t="n">
-        <v>2.3</v>
+        <v>2.24</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="R6" t="n">
         <v>1.5</v>
       </c>
       <c r="S6" t="n">
-        <v>2.76</v>
+        <v>2.82</v>
       </c>
       <c r="T6" t="n">
-        <v>1.61</v>
+        <v>1.65</v>
       </c>
       <c r="U6" t="n">
-        <v>2.42</v>
+        <v>2.38</v>
       </c>
       <c r="V6" t="n">
-        <v>1.42</v>
+        <v>1.48</v>
       </c>
       <c r="W6" t="n">
-        <v>1.77</v>
+        <v>1.69</v>
       </c>
       <c r="X6" t="n">
-        <v>21</v>
+        <v>18.5</v>
       </c>
       <c r="Y6" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AA6" t="n">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="AB6" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AC6" t="n">
-        <v>8.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AD6" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AE6" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AF6" t="n">
         <v>19.5</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH6" t="n">
-        <v>19.5</v>
+        <v>17.5</v>
       </c>
       <c r="AI6" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AJ6" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AK6" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AL6" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AM6" t="n">
         <v>70</v>
       </c>
       <c r="AN6" t="n">
-        <v>13.5</v>
+        <v>15.5</v>
       </c>
       <c r="AO6" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7">
@@ -1342,112 +1342,112 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.34</v>
+        <v>1.3</v>
       </c>
       <c r="G7" t="n">
-        <v>1.35</v>
+        <v>1.31</v>
       </c>
       <c r="H7" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="I7" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="J7" t="n">
-        <v>5.9</v>
+        <v>6.8</v>
       </c>
       <c r="K7" t="n">
-        <v>6</v>
+        <v>7.2</v>
       </c>
       <c r="L7" t="n">
         <v>1.28</v>
       </c>
       <c r="M7" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N7" t="n">
-        <v>5.7</v>
+        <v>6</v>
       </c>
       <c r="O7" t="n">
         <v>1.18</v>
       </c>
       <c r="P7" t="n">
-        <v>2.64</v>
+        <v>2.7</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="R7" t="n">
-        <v>1.63</v>
+        <v>1.65</v>
       </c>
       <c r="S7" t="n">
-        <v>2.42</v>
+        <v>2.38</v>
       </c>
       <c r="T7" t="n">
         <v>2.06</v>
       </c>
       <c r="U7" t="n">
-        <v>1.83</v>
+        <v>1.86</v>
       </c>
       <c r="V7" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="W7" t="n">
-        <v>3.85</v>
+        <v>4.2</v>
       </c>
       <c r="X7" t="n">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="Y7" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="Z7" t="n">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="AA7" t="n">
-        <v>420</v>
+        <v>560</v>
       </c>
       <c r="AB7" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AC7" t="n">
-        <v>13.5</v>
+        <v>15.5</v>
       </c>
       <c r="AD7" t="n">
         <v>44</v>
       </c>
       <c r="AE7" t="n">
-        <v>160</v>
+        <v>210</v>
       </c>
       <c r="AF7" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="AG7" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AH7" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AI7" t="n">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="AJ7" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AK7" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AL7" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AM7" t="n">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="AN7" t="n">
-        <v>1000</v>
+        <v>4.4</v>
       </c>
       <c r="AO7" t="n">
-        <v>1000</v>
+        <v>280</v>
       </c>
     </row>
     <row r="8">
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.65</v>
+        <v>1.69</v>
       </c>
       <c r="G8" t="n">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
       <c r="H8" t="n">
-        <v>6.2</v>
+        <v>5.9</v>
       </c>
       <c r="I8" t="n">
-        <v>7</v>
+        <v>6.4</v>
       </c>
       <c r="J8" t="n">
         <v>4</v>
       </c>
       <c r="K8" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="L8" t="n">
         <v>1.47</v>
@@ -1501,13 +1501,13 @@
         <v>1.08</v>
       </c>
       <c r="N8" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="O8" t="n">
         <v>1.39</v>
       </c>
       <c r="P8" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="Q8" t="n">
         <v>2.14</v>
@@ -1519,16 +1519,16 @@
         <v>3.75</v>
       </c>
       <c r="T8" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="U8" t="n">
         <v>1.76</v>
       </c>
       <c r="V8" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="W8" t="n">
-        <v>2.44</v>
+        <v>2.4</v>
       </c>
       <c r="X8" t="n">
         <v>13</v>
@@ -1537,16 +1537,16 @@
         <v>1000</v>
       </c>
       <c r="Z8" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AA8" t="n">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="AB8" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AC8" t="n">
-        <v>9.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD8" t="n">
         <v>26</v>
@@ -1564,13 +1564,13 @@
         <v>28</v>
       </c>
       <c r="AI8" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AJ8" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AK8" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AL8" t="n">
         <v>1000</v>
@@ -1579,7 +1579,7 @@
         <v>190</v>
       </c>
       <c r="AN8" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AO8" t="n">
         <v>180</v>
@@ -1612,22 +1612,22 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.94</v>
+        <v>1.97</v>
       </c>
       <c r="G9" t="n">
-        <v>1.96</v>
+        <v>1.99</v>
       </c>
       <c r="H9" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="I9" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="J9" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="K9" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="L9" t="n">
         <v>1.41</v>
@@ -1636,7 +1636,7 @@
         <v>1.07</v>
       </c>
       <c r="N9" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="O9" t="n">
         <v>1.32</v>
@@ -1645,7 +1645,7 @@
         <v>1.96</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="R9" t="n">
         <v>1.35</v>
@@ -1654,22 +1654,22 @@
         <v>3.4</v>
       </c>
       <c r="T9" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="U9" t="n">
         <v>2.04</v>
       </c>
       <c r="V9" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="W9" t="n">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="X9" t="n">
         <v>14</v>
       </c>
       <c r="Y9" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="Z9" t="n">
         <v>34</v>
@@ -1699,7 +1699,7 @@
         <v>1000</v>
       </c>
       <c r="AI9" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AJ9" t="n">
         <v>23</v>
@@ -1714,7 +1714,7 @@
         <v>110</v>
       </c>
       <c r="AN9" t="n">
-        <v>980</v>
+        <v>14</v>
       </c>
       <c r="AO9" t="n">
         <v>1000</v>
@@ -1747,70 +1747,70 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="G10" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="H10" t="n">
-        <v>13</v>
+        <v>14.5</v>
       </c>
       <c r="I10" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J10" t="n">
         <v>7</v>
       </c>
       <c r="K10" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="L10" t="n">
         <v>1.29</v>
       </c>
       <c r="M10" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N10" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="O10" t="n">
         <v>1.18</v>
       </c>
       <c r="P10" t="n">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="R10" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="S10" t="n">
-        <v>2.46</v>
+        <v>2.4</v>
       </c>
       <c r="T10" t="n">
         <v>2.3</v>
       </c>
       <c r="U10" t="n">
-        <v>1.67</v>
+        <v>1.69</v>
       </c>
       <c r="V10" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="W10" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="X10" t="n">
         <v>26</v>
       </c>
       <c r="Y10" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="Z10" t="n">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="AA10" t="n">
-        <v>840</v>
+        <v>990</v>
       </c>
       <c r="AB10" t="n">
         <v>13</v>
@@ -1819,40 +1819,40 @@
         <v>16</v>
       </c>
       <c r="AD10" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AE10" t="n">
-        <v>290</v>
+        <v>310</v>
       </c>
       <c r="AF10" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AG10" t="n">
         <v>13</v>
       </c>
       <c r="AH10" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AI10" t="n">
         <v>210</v>
       </c>
       <c r="AJ10" t="n">
-        <v>10</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AK10" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AL10" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AM10" t="n">
         <v>250</v>
       </c>
       <c r="AN10" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="AO10" t="n">
-        <v>370</v>
+        <v>430</v>
       </c>
     </row>
     <row r="11">
@@ -1882,10 +1882,10 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="G11" t="n">
-        <v>1.96</v>
+        <v>1.94</v>
       </c>
       <c r="H11" t="n">
         <v>4.3</v>
@@ -1894,52 +1894,52 @@
         <v>4.7</v>
       </c>
       <c r="J11" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="K11" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="L11" t="n">
         <v>1.49</v>
       </c>
       <c r="M11" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="N11" t="n">
-        <v>2.98</v>
+        <v>3.05</v>
       </c>
       <c r="O11" t="n">
         <v>1.42</v>
       </c>
       <c r="P11" t="n">
-        <v>1.68</v>
+        <v>1.72</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="R11" t="n">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="S11" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="T11" t="n">
-        <v>1.98</v>
+        <v>2.04</v>
       </c>
       <c r="U11" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="V11" t="n">
         <v>1.27</v>
       </c>
       <c r="W11" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="X11" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="Y11" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="Z11" t="n">
         <v>34</v>
@@ -1948,34 +1948,34 @@
         <v>120</v>
       </c>
       <c r="AB11" t="n">
-        <v>8</v>
+        <v>7.4</v>
       </c>
       <c r="AC11" t="n">
         <v>8</v>
       </c>
       <c r="AD11" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AE11" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AF11" t="n">
-        <v>13.5</v>
+        <v>11</v>
       </c>
       <c r="AG11" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AH11" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI11" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AJ11" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AK11" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AL11" t="n">
         <v>48</v>
@@ -1984,10 +1984,10 @@
         <v>160</v>
       </c>
       <c r="AN11" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AO11" t="n">
-        <v>95</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12">
@@ -2017,25 +2017,25 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.72</v>
+        <v>2.76</v>
       </c>
       <c r="G12" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="H12" t="n">
-        <v>2.96</v>
+        <v>2.86</v>
       </c>
       <c r="I12" t="n">
-        <v>3</v>
+        <v>2.92</v>
       </c>
       <c r="J12" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="K12" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="L12" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="M12" t="n">
         <v>1.09</v>
@@ -2059,16 +2059,16 @@
         <v>3.9</v>
       </c>
       <c r="T12" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="U12" t="n">
         <v>2</v>
       </c>
       <c r="V12" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="W12" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="X12" t="n">
         <v>12</v>
@@ -2086,7 +2086,7 @@
         <v>10.5</v>
       </c>
       <c r="AC12" t="n">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="AD12" t="n">
         <v>13</v>
@@ -2104,13 +2104,13 @@
         <v>19</v>
       </c>
       <c r="AI12" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AJ12" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="AK12" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AL12" t="n">
         <v>48</v>
@@ -2122,7 +2122,7 @@
         <v>30</v>
       </c>
       <c r="AO12" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="13">
@@ -2152,31 +2152,31 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>3.5</v>
+        <v>3.35</v>
       </c>
       <c r="G13" t="n">
-        <v>3.65</v>
+        <v>3.45</v>
       </c>
       <c r="H13" t="n">
-        <v>2.7</v>
+        <v>2.64</v>
       </c>
       <c r="I13" t="n">
-        <v>2.74</v>
+        <v>2.68</v>
       </c>
       <c r="J13" t="n">
-        <v>2.82</v>
+        <v>3</v>
       </c>
       <c r="K13" t="n">
-        <v>2.84</v>
+        <v>3.05</v>
       </c>
       <c r="L13" t="n">
         <v>1.55</v>
       </c>
       <c r="M13" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N13" t="n">
-        <v>2.5</v>
+        <v>2.46</v>
       </c>
       <c r="O13" t="n">
         <v>1.47</v>
@@ -2185,46 +2185,46 @@
         <v>1.61</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.44</v>
+        <v>1.69</v>
       </c>
       <c r="R13" t="n">
         <v>1.19</v>
       </c>
       <c r="S13" t="n">
-        <v>4.7</v>
+        <v>4.1</v>
       </c>
       <c r="T13" t="n">
-        <v>1.94</v>
+        <v>1.81</v>
       </c>
       <c r="U13" t="n">
-        <v>1.75</v>
+        <v>1.04</v>
       </c>
       <c r="V13" t="n">
-        <v>1.57</v>
+        <v>1.59</v>
       </c>
       <c r="W13" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="X13" t="n">
-        <v>9.199999999999999</v>
+        <v>15</v>
       </c>
       <c r="Y13" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="Z13" t="n">
         <v>1000</v>
       </c>
       <c r="AA13" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AB13" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AC13" t="n">
         <v>7.4</v>
       </c>
       <c r="AD13" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AE13" t="n">
         <v>38</v>
@@ -2233,19 +2233,19 @@
         <v>22</v>
       </c>
       <c r="AG13" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AH13" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AI13" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AJ13" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AK13" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AL13" t="n">
         <v>80</v>
@@ -2254,7 +2254,7 @@
         <v>180</v>
       </c>
       <c r="AN13" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AO13" t="n">
         <v>40</v>
@@ -2290,13 +2290,13 @@
         <v>1.21</v>
       </c>
       <c r="G14" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="H14" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="I14" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="J14" t="n">
         <v>7.4</v>
@@ -2311,34 +2311,34 @@
         <v>1.03</v>
       </c>
       <c r="N14" t="n">
-        <v>6</v>
+        <v>6.4</v>
       </c>
       <c r="O14" t="n">
         <v>1.16</v>
       </c>
       <c r="P14" t="n">
-        <v>2.74</v>
+        <v>2.8</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.51</v>
+        <v>1.48</v>
       </c>
       <c r="R14" t="n">
-        <v>1.69</v>
+        <v>1.74</v>
       </c>
       <c r="S14" t="n">
-        <v>2.26</v>
+        <v>2.2</v>
       </c>
       <c r="T14" t="n">
         <v>2.28</v>
       </c>
       <c r="U14" t="n">
-        <v>1.68</v>
+        <v>1.71</v>
       </c>
       <c r="V14" t="n">
         <v>1.05</v>
       </c>
       <c r="W14" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="X14" t="n">
         <v>1000</v>
@@ -2347,13 +2347,13 @@
         <v>1000</v>
       </c>
       <c r="Z14" t="n">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="AA14" t="n">
         <v>1000</v>
       </c>
       <c r="AB14" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AC14" t="n">
         <v>22</v>
@@ -2365,31 +2365,31 @@
         <v>1000</v>
       </c>
       <c r="AF14" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AG14" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH14" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AI14" t="n">
         <v>260</v>
       </c>
       <c r="AJ14" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="AK14" t="n">
         <v>1000</v>
       </c>
       <c r="AL14" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AM14" t="n">
         <v>280</v>
       </c>
       <c r="AN14" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="AO14" t="n">
         <v>1000</v>
@@ -2422,19 +2422,19 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="G15" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="H15" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="I15" t="n">
         <v>5</v>
       </c>
       <c r="J15" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="K15" t="n">
         <v>3.8</v>
@@ -2455,7 +2455,7 @@
         <v>1.96</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="R15" t="n">
         <v>1.35</v>
@@ -2464,10 +2464,10 @@
         <v>3.5</v>
       </c>
       <c r="T15" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="U15" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="V15" t="n">
         <v>1.25</v>
@@ -2479,7 +2479,7 @@
         <v>14</v>
       </c>
       <c r="Y15" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="Z15" t="n">
         <v>36</v>
@@ -2488,13 +2488,13 @@
         <v>120</v>
       </c>
       <c r="AB15" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC15" t="n">
         <v>10.5</v>
       </c>
       <c r="AD15" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AE15" t="n">
         <v>70</v>
@@ -2506,7 +2506,7 @@
         <v>10.5</v>
       </c>
       <c r="AH15" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AI15" t="n">
         <v>75</v>
@@ -2515,7 +2515,7 @@
         <v>22</v>
       </c>
       <c r="AK15" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AL15" t="n">
         <v>40</v>
@@ -2524,10 +2524,10 @@
         <v>110</v>
       </c>
       <c r="AN15" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AO15" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="16">
@@ -2557,64 +2557,64 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="G16" t="n">
-        <v>2.4</v>
+        <v>2.46</v>
       </c>
       <c r="H16" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I16" t="n">
         <v>3.25</v>
       </c>
-      <c r="I16" t="n">
-        <v>3.3</v>
-      </c>
       <c r="J16" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="K16" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="L16" t="n">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="M16" t="n">
         <v>1.07</v>
       </c>
       <c r="N16" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="O16" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="P16" t="n">
-        <v>1.9</v>
+        <v>1.86</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.97</v>
+        <v>2.04</v>
       </c>
       <c r="R16" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="S16" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="T16" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="U16" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="V16" t="n">
         <v>1.44</v>
       </c>
       <c r="W16" t="n">
-        <v>1.71</v>
+        <v>1.68</v>
       </c>
       <c r="X16" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="Y16" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Z16" t="n">
         <v>23</v>
@@ -2626,25 +2626,25 @@
         <v>11</v>
       </c>
       <c r="AC16" t="n">
-        <v>8.4</v>
+        <v>7.8</v>
       </c>
       <c r="AD16" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AE16" t="n">
         <v>40</v>
       </c>
       <c r="AF16" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AG16" t="n">
         <v>12.5</v>
       </c>
       <c r="AH16" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AI16" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AJ16" t="n">
         <v>34</v>
@@ -2653,16 +2653,16 @@
         <v>27</v>
       </c>
       <c r="AL16" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AM16" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AN16" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AO16" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17">
@@ -2692,25 +2692,25 @@
         </is>
       </c>
       <c r="F17" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="G17" t="n">
         <v>1.46</v>
-      </c>
-      <c r="G17" t="n">
-        <v>1.48</v>
       </c>
       <c r="H17" t="n">
         <v>8.6</v>
       </c>
       <c r="I17" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="J17" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="K17" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="L17" t="n">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="M17" t="n">
         <v>1.06</v>
@@ -2719,31 +2719,31 @@
         <v>3.9</v>
       </c>
       <c r="O17" t="n">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="P17" t="n">
-        <v>1.96</v>
+        <v>1.94</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="R17" t="n">
         <v>1.36</v>
       </c>
       <c r="S17" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="T17" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="U17" t="n">
-        <v>1.76</v>
+        <v>1.73</v>
       </c>
       <c r="V17" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="W17" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="X17" t="n">
         <v>16</v>
@@ -2755,28 +2755,28 @@
         <v>80</v>
       </c>
       <c r="AA17" t="n">
-        <v>350</v>
+        <v>360</v>
       </c>
       <c r="AB17" t="n">
-        <v>8.4</v>
+        <v>10</v>
       </c>
       <c r="AC17" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="AD17" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AE17" t="n">
         <v>180</v>
       </c>
       <c r="AF17" t="n">
-        <v>8.199999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="AG17" t="n">
         <v>10.5</v>
       </c>
       <c r="AH17" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="AI17" t="n">
         <v>160</v>
@@ -2797,7 +2797,7 @@
         <v>8</v>
       </c>
       <c r="AO17" t="n">
-        <v>270</v>
+        <v>260</v>
       </c>
     </row>
     <row r="18">
@@ -2827,7 +2827,7 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="G18" t="n">
         <v>1.2</v>
@@ -2836,7 +2836,7 @@
         <v>23</v>
       </c>
       <c r="I18" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J18" t="n">
         <v>7.8</v>
@@ -2854,31 +2854,31 @@
         <v>6</v>
       </c>
       <c r="O18" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="P18" t="n">
-        <v>2.76</v>
+        <v>2.7</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="R18" t="n">
         <v>1.71</v>
       </c>
       <c r="S18" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="T18" t="n">
         <v>2.42</v>
       </c>
       <c r="U18" t="n">
-        <v>1.63</v>
+        <v>1.61</v>
       </c>
       <c r="V18" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="W18" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="X18" t="n">
         <v>36</v>
@@ -2908,7 +2908,7 @@
         <v>7.8</v>
       </c>
       <c r="AG18" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AH18" t="n">
         <v>1000</v>
@@ -2962,22 +2962,22 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="G19" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="H19" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="I19" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="J19" t="n">
         <v>3.75</v>
       </c>
-      <c r="H19" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="I19" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="J19" t="n">
-        <v>3.7</v>
-      </c>
       <c r="K19" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="L19" t="n">
         <v>1.38</v>
@@ -2992,7 +2992,7 @@
         <v>1.28</v>
       </c>
       <c r="P19" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="Q19" t="n">
         <v>1.82</v>
@@ -3001,7 +3001,7 @@
         <v>1.42</v>
       </c>
       <c r="S19" t="n">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
       <c r="T19" t="n">
         <v>1.7</v>
@@ -3010,64 +3010,64 @@
         <v>2.22</v>
       </c>
       <c r="V19" t="n">
-        <v>1.84</v>
+        <v>1.9</v>
       </c>
       <c r="W19" t="n">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="X19" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="Y19" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="Z19" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AA19" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AB19" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AC19" t="n">
         <v>8.6</v>
       </c>
       <c r="AD19" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AE19" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AF19" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AG19" t="n">
         <v>15.5</v>
       </c>
       <c r="AH19" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AI19" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="AJ19" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AK19" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AL19" t="n">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="AM19" t="n">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="AN19" t="n">
         <v>38</v>
       </c>
       <c r="AO19" t="n">
-        <v>15.5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20">
@@ -3097,16 +3097,16 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.28</v>
+        <v>1.31</v>
       </c>
       <c r="G20" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="H20" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="I20" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="J20" t="n">
         <v>6.4</v>
@@ -3121,76 +3121,76 @@
         <v>1.02</v>
       </c>
       <c r="N20" t="n">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
       <c r="O20" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="P20" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="R20" t="n">
         <v>1.78</v>
       </c>
       <c r="S20" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="T20" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="U20" t="n">
-        <v>2.02</v>
+        <v>2.08</v>
       </c>
       <c r="V20" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="W20" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="X20" t="n">
         <v>34</v>
       </c>
       <c r="Y20" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="Z20" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AA20" t="n">
-        <v>610</v>
+        <v>430</v>
       </c>
       <c r="AB20" t="n">
         <v>13</v>
       </c>
       <c r="AC20" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AD20" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AE20" t="n">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="AF20" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="AG20" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AH20" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AI20" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AJ20" t="n">
         <v>11</v>
       </c>
       <c r="AK20" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AL20" t="n">
         <v>32</v>
@@ -3199,10 +3199,10 @@
         <v>160</v>
       </c>
       <c r="AN20" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="AO20" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
     </row>
     <row r="21">
@@ -3232,19 +3232,19 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="G21" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="H21" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="I21" t="n">
         <v>6.8</v>
       </c>
       <c r="J21" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="K21" t="n">
         <v>4.9</v>
@@ -3256,85 +3256,85 @@
         <v>1.04</v>
       </c>
       <c r="N21" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="O21" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="P21" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="R21" t="n">
         <v>1.58</v>
       </c>
       <c r="S21" t="n">
-        <v>2.48</v>
+        <v>2.52</v>
       </c>
       <c r="T21" t="n">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="U21" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="V21" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="W21" t="n">
-        <v>2.72</v>
+        <v>2.68</v>
       </c>
       <c r="X21" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="Y21" t="n">
         <v>30</v>
       </c>
       <c r="Z21" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AA21" t="n">
         <v>190</v>
       </c>
       <c r="AB21" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="AC21" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AD21" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AE21" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AF21" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AG21" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="AH21" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI21" t="n">
         <v>80</v>
       </c>
       <c r="AJ21" t="n">
-        <v>18.5</v>
+        <v>15.5</v>
       </c>
       <c r="AK21" t="n">
-        <v>18.5</v>
+        <v>15</v>
       </c>
       <c r="AL21" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AM21" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AN21" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="AO21" t="n">
         <v>85</v>
@@ -3367,28 +3367,28 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="G22" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="H22" t="n">
         <v>13.5</v>
       </c>
       <c r="I22" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="J22" t="n">
         <v>7.4</v>
       </c>
       <c r="K22" t="n">
-        <v>8.4</v>
+        <v>7.6</v>
       </c>
       <c r="L22" t="n">
         <v>1.21</v>
       </c>
       <c r="M22" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N22" t="n">
         <v>8</v>
@@ -3397,19 +3397,19 @@
         <v>1.12</v>
       </c>
       <c r="P22" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="R22" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="S22" t="n">
-        <v>2.04</v>
+        <v>1.98</v>
       </c>
       <c r="T22" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="U22" t="n">
         <v>2.04</v>
@@ -3418,61 +3418,61 @@
         <v>1.07</v>
       </c>
       <c r="W22" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="X22" t="n">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="Y22" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="Z22" t="n">
         <v>150</v>
       </c>
       <c r="AA22" t="n">
-        <v>550</v>
+        <v>540</v>
       </c>
       <c r="AB22" t="n">
         <v>15</v>
       </c>
       <c r="AC22" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AD22" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AE22" t="n">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="AF22" t="n">
         <v>10.5</v>
       </c>
       <c r="AG22" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="AH22" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AI22" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AJ22" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AK22" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AL22" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="AM22" t="n">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="AN22" t="n">
         <v>3.25</v>
       </c>
       <c r="AO22" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
     </row>
     <row r="23">
@@ -3508,7 +3508,7 @@
         <v>1.69</v>
       </c>
       <c r="H23" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="I23" t="n">
         <v>5.9</v>
@@ -3520,13 +3520,13 @@
         <v>4.7</v>
       </c>
       <c r="L23" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="M23" t="n">
         <v>1.05</v>
       </c>
       <c r="N23" t="n">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="O23" t="n">
         <v>1.21</v>
@@ -3541,19 +3541,19 @@
         <v>1.54</v>
       </c>
       <c r="S23" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="T23" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="U23" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="V23" t="n">
         <v>1.2</v>
       </c>
       <c r="W23" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="X23" t="n">
         <v>25</v>
@@ -3565,16 +3565,16 @@
         <v>1000</v>
       </c>
       <c r="AA23" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="AB23" t="n">
         <v>1000</v>
       </c>
       <c r="AC23" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AD23" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AE23" t="n">
         <v>1000</v>
@@ -3604,7 +3604,7 @@
         <v>1000</v>
       </c>
       <c r="AN23" t="n">
-        <v>7.6</v>
+        <v>1000</v>
       </c>
       <c r="AO23" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-18.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-18.xlsx
@@ -667,58 +667,58 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.06</v>
+        <v>1.92</v>
       </c>
       <c r="G2" t="n">
-        <v>2.48</v>
+        <v>2.1</v>
       </c>
       <c r="H2" t="n">
-        <v>1.01</v>
+        <v>3.75</v>
       </c>
       <c r="I2" t="n">
-        <v>110</v>
+        <v>5.2</v>
       </c>
       <c r="J2" t="n">
-        <v>3.55</v>
+        <v>3.35</v>
       </c>
       <c r="K2" t="n">
-        <v>44</v>
+        <v>4.1</v>
       </c>
       <c r="L2" t="n">
-        <v>1.25</v>
+        <v>1.4</v>
       </c>
       <c r="M2" t="n">
-        <v>1.03</v>
+        <v>1.07</v>
       </c>
       <c r="N2" t="n">
-        <v>1.1</v>
+        <v>3</v>
       </c>
       <c r="O2" t="n">
-        <v>1.03</v>
+        <v>1.33</v>
       </c>
       <c r="P2" t="n">
-        <v>1.25</v>
+        <v>1.74</v>
       </c>
       <c r="Q2" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="R2" t="n">
         <v>1.3</v>
       </c>
-      <c r="R2" t="n">
-        <v>1.21</v>
-      </c>
       <c r="S2" t="n">
-        <v>1.31</v>
+        <v>3.25</v>
       </c>
       <c r="T2" t="n">
-        <v>1.04</v>
+        <v>1.81</v>
       </c>
       <c r="U2" t="n">
-        <v>1.04</v>
+        <v>1.95</v>
       </c>
       <c r="V2" t="n">
-        <v>1.14</v>
+        <v>1.24</v>
       </c>
       <c r="W2" t="n">
-        <v>1.02</v>
+        <v>1.9</v>
       </c>
       <c r="X2" t="n">
         <v>1000</v>
@@ -733,10 +733,10 @@
         <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AC2" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AD2" t="n">
         <v>1000</v>
@@ -769,7 +769,7 @@
         <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AO2" t="n">
         <v>1000</v>
@@ -802,25 +802,25 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.88</v>
+        <v>2.92</v>
       </c>
       <c r="G3" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="H3" t="n">
         <v>2.06</v>
       </c>
       <c r="I3" t="n">
-        <v>2.7</v>
+        <v>2.62</v>
       </c>
       <c r="J3" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="K3" t="n">
         <v>5</v>
       </c>
       <c r="L3" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="M3" t="n">
         <v>1.05</v>
@@ -832,7 +832,7 @@
         <v>1.28</v>
       </c>
       <c r="P3" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="Q3" t="n">
         <v>1.83</v>
@@ -850,7 +850,7 @@
         <v>1.04</v>
       </c>
       <c r="V3" t="n">
-        <v>1.59</v>
+        <v>1.61</v>
       </c>
       <c r="W3" t="n">
         <v>1.33</v>
@@ -871,7 +871,7 @@
         <v>1000</v>
       </c>
       <c r="AC3" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AD3" t="n">
         <v>1000</v>
@@ -940,19 +940,19 @@
         <v>2.12</v>
       </c>
       <c r="G4" t="n">
-        <v>2.44</v>
+        <v>2.36</v>
       </c>
       <c r="H4" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="I4" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="J4" t="n">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="K4" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="L4" t="n">
         <v>1.55</v>
@@ -985,16 +985,16 @@
         <v>1.59</v>
       </c>
       <c r="V4" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="W4" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="X4" t="n">
-        <v>8.6</v>
+        <v>7.6</v>
       </c>
       <c r="Y4" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="Z4" t="n">
         <v>34</v>
@@ -1003,10 +1003,10 @@
         <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>7.6</v>
+        <v>6.8</v>
       </c>
       <c r="AC4" t="n">
-        <v>8.800000000000001</v>
+        <v>7.8</v>
       </c>
       <c r="AD4" t="n">
         <v>23</v>
@@ -1021,7 +1021,7 @@
         <v>15</v>
       </c>
       <c r="AH4" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AI4" t="n">
         <v>1000</v>
@@ -1030,7 +1030,7 @@
         <v>36</v>
       </c>
       <c r="AK4" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AL4" t="n">
         <v>95</v>
@@ -1096,7 +1096,7 @@
         <v>1.07</v>
       </c>
       <c r="N5" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="O5" t="n">
         <v>1.38</v>
@@ -1111,7 +1111,7 @@
         <v>1.3</v>
       </c>
       <c r="S5" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="T5" t="n">
         <v>2.32</v>
@@ -1123,7 +1123,7 @@
         <v>1.08</v>
       </c>
       <c r="W5" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="X5" t="n">
         <v>17</v>
@@ -1144,7 +1144,7 @@
         <v>13</v>
       </c>
       <c r="AD5" t="n">
-        <v>1000</v>
+        <v>350</v>
       </c>
       <c r="AE5" t="n">
         <v>1000</v>
@@ -1153,10 +1153,10 @@
         <v>8</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="AH5" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AI5" t="n">
         <v>1000</v>
@@ -1168,7 +1168,7 @@
         <v>21</v>
       </c>
       <c r="AL5" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="AM5" t="n">
         <v>1000</v>
@@ -1234,19 +1234,19 @@
         <v>4.6</v>
       </c>
       <c r="O6" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="P6" t="n">
         <v>2.24</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.73</v>
+        <v>1.71</v>
       </c>
       <c r="R6" t="n">
         <v>1.5</v>
       </c>
       <c r="S6" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="T6" t="n">
         <v>1.65</v>
@@ -1261,7 +1261,7 @@
         <v>1.69</v>
       </c>
       <c r="X6" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="Y6" t="n">
         <v>15.5</v>
@@ -1276,16 +1276,16 @@
         <v>13.5</v>
       </c>
       <c r="AC6" t="n">
-        <v>9.6</v>
+        <v>9</v>
       </c>
       <c r="AD6" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AE6" t="n">
         <v>32</v>
       </c>
       <c r="AF6" t="n">
-        <v>19.5</v>
+        <v>17.5</v>
       </c>
       <c r="AG6" t="n">
         <v>12</v>
@@ -1297,13 +1297,13 @@
         <v>38</v>
       </c>
       <c r="AJ6" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AK6" t="n">
         <v>25</v>
       </c>
       <c r="AL6" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AM6" t="n">
         <v>70</v>
@@ -1345,109 +1345,109 @@
         <v>1.3</v>
       </c>
       <c r="G7" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="H7" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I7" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="J7" t="n">
-        <v>6.8</v>
+        <v>6.2</v>
       </c>
       <c r="K7" t="n">
-        <v>7.2</v>
+        <v>6.6</v>
       </c>
       <c r="L7" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="M7" t="n">
         <v>1.03</v>
       </c>
       <c r="N7" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="O7" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P7" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="Q7" t="n">
         <v>1.54</v>
       </c>
       <c r="R7" t="n">
-        <v>1.65</v>
+        <v>1.68</v>
       </c>
       <c r="S7" t="n">
-        <v>2.38</v>
+        <v>2.32</v>
       </c>
       <c r="T7" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="U7" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="V7" t="n">
         <v>1.08</v>
       </c>
       <c r="W7" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="X7" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="Y7" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="Z7" t="n">
         <v>130</v>
       </c>
       <c r="AA7" t="n">
-        <v>560</v>
+        <v>540</v>
       </c>
       <c r="AB7" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AC7" t="n">
-        <v>15.5</v>
+        <v>17</v>
       </c>
       <c r="AD7" t="n">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="AE7" t="n">
         <v>210</v>
       </c>
       <c r="AF7" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH7" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AI7" t="n">
         <v>150</v>
       </c>
       <c r="AJ7" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AK7" t="n">
         <v>14</v>
       </c>
       <c r="AL7" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AM7" t="n">
         <v>170</v>
       </c>
       <c r="AN7" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="AO7" t="n">
-        <v>280</v>
+        <v>270</v>
       </c>
     </row>
     <row r="8">
@@ -1480,19 +1480,19 @@
         <v>1.69</v>
       </c>
       <c r="G8" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="H8" t="n">
         <v>5.9</v>
       </c>
       <c r="I8" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="J8" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="K8" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L8" t="n">
         <v>1.47</v>
@@ -1507,34 +1507,34 @@
         <v>1.39</v>
       </c>
       <c r="P8" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="Q8" t="n">
         <v>2.14</v>
       </c>
       <c r="R8" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="S8" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="T8" t="n">
         <v>2.14</v>
       </c>
       <c r="U8" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="V8" t="n">
         <v>1.18</v>
       </c>
       <c r="W8" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="X8" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y8" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="Z8" t="n">
         <v>48</v>
@@ -1558,31 +1558,31 @@
         <v>9</v>
       </c>
       <c r="AG8" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AH8" t="n">
         <v>28</v>
       </c>
       <c r="AI8" t="n">
-        <v>120</v>
+        <v>290</v>
       </c>
       <c r="AJ8" t="n">
         <v>16.5</v>
       </c>
       <c r="AK8" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AL8" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AM8" t="n">
         <v>190</v>
       </c>
       <c r="AN8" t="n">
-        <v>14.5</v>
+        <v>29</v>
       </c>
       <c r="AO8" t="n">
-        <v>180</v>
+        <v>170</v>
       </c>
     </row>
     <row r="9">
@@ -1621,16 +1621,16 @@
         <v>4.5</v>
       </c>
       <c r="I9" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="J9" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="K9" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="L9" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="M9" t="n">
         <v>1.07</v>
@@ -1642,7 +1642,7 @@
         <v>1.32</v>
       </c>
       <c r="P9" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="Q9" t="n">
         <v>1.97</v>
@@ -1678,7 +1678,7 @@
         <v>100</v>
       </c>
       <c r="AB9" t="n">
-        <v>9.199999999999999</v>
+        <v>10.5</v>
       </c>
       <c r="AC9" t="n">
         <v>8.6</v>
@@ -1696,7 +1696,7 @@
         <v>10.5</v>
       </c>
       <c r="AH9" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AI9" t="n">
         <v>65</v>
@@ -1747,19 +1747,19 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="G10" t="n">
         <v>1.27</v>
       </c>
       <c r="H10" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="I10" t="n">
         <v>17</v>
       </c>
       <c r="J10" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="K10" t="n">
         <v>7.4</v>
@@ -1771,7 +1771,7 @@
         <v>1.03</v>
       </c>
       <c r="N10" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="O10" t="n">
         <v>1.18</v>
@@ -1783,19 +1783,19 @@
         <v>1.6</v>
       </c>
       <c r="R10" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="S10" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="T10" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="U10" t="n">
         <v>1.69</v>
       </c>
       <c r="V10" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="W10" t="n">
         <v>4.7</v>
@@ -1810,10 +1810,10 @@
         <v>170</v>
       </c>
       <c r="AA10" t="n">
-        <v>990</v>
+        <v>840</v>
       </c>
       <c r="AB10" t="n">
-        <v>13</v>
+        <v>10.5</v>
       </c>
       <c r="AC10" t="n">
         <v>16</v>
@@ -1831,28 +1831,28 @@
         <v>13</v>
       </c>
       <c r="AH10" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AI10" t="n">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="AJ10" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AK10" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AL10" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AM10" t="n">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="AN10" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="AO10" t="n">
-        <v>430</v>
+        <v>360</v>
       </c>
     </row>
     <row r="11">
@@ -1882,7 +1882,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="G11" t="n">
         <v>1.94</v>
@@ -1891,13 +1891,13 @@
         <v>4.3</v>
       </c>
       <c r="I11" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="J11" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="K11" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="L11" t="n">
         <v>1.49</v>
@@ -1906,7 +1906,7 @@
         <v>1.08</v>
       </c>
       <c r="N11" t="n">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
       <c r="O11" t="n">
         <v>1.42</v>
@@ -1921,22 +1921,22 @@
         <v>1.26</v>
       </c>
       <c r="S11" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="T11" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="U11" t="n">
-        <v>1.84</v>
+        <v>1.81</v>
       </c>
       <c r="V11" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="W11" t="n">
         <v>2.06</v>
       </c>
       <c r="X11" t="n">
-        <v>13.5</v>
+        <v>21</v>
       </c>
       <c r="Y11" t="n">
         <v>14.5</v>
@@ -1951,13 +1951,13 @@
         <v>7.4</v>
       </c>
       <c r="AC11" t="n">
-        <v>8</v>
+        <v>9.6</v>
       </c>
       <c r="AD11" t="n">
         <v>1000</v>
       </c>
       <c r="AE11" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AF11" t="n">
         <v>11</v>
@@ -1975,7 +1975,7 @@
         <v>23</v>
       </c>
       <c r="AK11" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AL11" t="n">
         <v>48</v>
@@ -1984,10 +1984,10 @@
         <v>160</v>
       </c>
       <c r="AN11" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AO11" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12">
@@ -2017,19 +2017,19 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.76</v>
+        <v>2.8</v>
       </c>
       <c r="G12" t="n">
-        <v>2.78</v>
+        <v>2.9</v>
       </c>
       <c r="H12" t="n">
-        <v>2.86</v>
+        <v>2.74</v>
       </c>
       <c r="I12" t="n">
-        <v>2.92</v>
+        <v>2.84</v>
       </c>
       <c r="J12" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="K12" t="n">
         <v>3.45</v>
@@ -2038,19 +2038,19 @@
         <v>1.45</v>
       </c>
       <c r="M12" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="N12" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="O12" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="P12" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="R12" t="n">
         <v>1.31</v>
@@ -2059,67 +2059,67 @@
         <v>3.9</v>
       </c>
       <c r="T12" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="U12" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="V12" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="W12" t="n">
         <v>1.52</v>
-      </c>
-      <c r="W12" t="n">
-        <v>1.56</v>
       </c>
       <c r="X12" t="n">
         <v>12</v>
       </c>
       <c r="Y12" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>44</v>
+      </c>
+      <c r="AB12" t="n">
         <v>11.5</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>50</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>10.5</v>
       </c>
       <c r="AC12" t="n">
         <v>7.6</v>
       </c>
       <c r="AD12" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AE12" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AF12" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AG12" t="n">
         <v>13</v>
       </c>
       <c r="AH12" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AI12" t="n">
+        <v>260</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>36</v>
+      </c>
+      <c r="AL12" t="n">
         <v>50</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>42</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>48</v>
       </c>
       <c r="AM12" t="n">
         <v>110</v>
       </c>
       <c r="AN12" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="AO12" t="n">
         <v>1000</v>
@@ -2152,13 +2152,13 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="G13" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="H13" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="I13" t="n">
         <v>2.68</v>
@@ -2167,16 +2167,16 @@
         <v>3</v>
       </c>
       <c r="K13" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="L13" t="n">
         <v>1.55</v>
       </c>
       <c r="M13" t="n">
-        <v>1.07</v>
+        <v>1.13</v>
       </c>
       <c r="N13" t="n">
-        <v>2.46</v>
+        <v>2.6</v>
       </c>
       <c r="O13" t="n">
         <v>1.47</v>
@@ -2185,40 +2185,40 @@
         <v>1.61</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.69</v>
+        <v>2.44</v>
       </c>
       <c r="R13" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="S13" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="T13" t="n">
-        <v>1.81</v>
+        <v>1.84</v>
       </c>
       <c r="U13" t="n">
-        <v>1.04</v>
+        <v>1.83</v>
       </c>
       <c r="V13" t="n">
         <v>1.59</v>
       </c>
       <c r="W13" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="X13" t="n">
-        <v>15</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Y13" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Z13" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AA13" t="n">
         <v>1000</v>
       </c>
       <c r="AB13" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AC13" t="n">
         <v>7.4</v>
@@ -2239,7 +2239,7 @@
         <v>22</v>
       </c>
       <c r="AI13" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AJ13" t="n">
         <v>65</v>
@@ -2290,16 +2290,16 @@
         <v>1.21</v>
       </c>
       <c r="G14" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="H14" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="I14" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="J14" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="K14" t="n">
         <v>8.199999999999999</v>
@@ -2311,7 +2311,7 @@
         <v>1.03</v>
       </c>
       <c r="N14" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="O14" t="n">
         <v>1.16</v>
@@ -2320,13 +2320,13 @@
         <v>2.8</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.48</v>
+        <v>1.52</v>
       </c>
       <c r="R14" t="n">
         <v>1.74</v>
       </c>
       <c r="S14" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="T14" t="n">
         <v>2.28</v>
@@ -2347,16 +2347,16 @@
         <v>1000</v>
       </c>
       <c r="Z14" t="n">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="AA14" t="n">
         <v>1000</v>
       </c>
       <c r="AB14" t="n">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="AC14" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AD14" t="n">
         <v>1000</v>
@@ -2371,25 +2371,25 @@
         <v>13</v>
       </c>
       <c r="AH14" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AI14" t="n">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="AJ14" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AK14" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AL14" t="n">
         <v>55</v>
       </c>
       <c r="AM14" t="n">
-        <v>280</v>
+        <v>260</v>
       </c>
       <c r="AN14" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="AO14" t="n">
         <v>1000</v>
@@ -2422,10 +2422,10 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="G15" t="n">
-        <v>1.94</v>
+        <v>1.97</v>
       </c>
       <c r="H15" t="n">
         <v>4.6</v>
@@ -2434,13 +2434,13 @@
         <v>5</v>
       </c>
       <c r="J15" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="K15" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="L15" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="M15" t="n">
         <v>1.07</v>
@@ -2458,13 +2458,13 @@
         <v>2.02</v>
       </c>
       <c r="R15" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="S15" t="n">
         <v>3.5</v>
       </c>
       <c r="T15" t="n">
-        <v>1.81</v>
+        <v>1.84</v>
       </c>
       <c r="U15" t="n">
         <v>2.04</v>
@@ -2473,13 +2473,13 @@
         <v>1.25</v>
       </c>
       <c r="W15" t="n">
-        <v>2.06</v>
+        <v>2.02</v>
       </c>
       <c r="X15" t="n">
         <v>14</v>
       </c>
       <c r="Y15" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="Z15" t="n">
         <v>36</v>
@@ -2488,13 +2488,13 @@
         <v>120</v>
       </c>
       <c r="AB15" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AC15" t="n">
         <v>10.5</v>
       </c>
       <c r="AD15" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AE15" t="n">
         <v>70</v>
@@ -2503,10 +2503,10 @@
         <v>11.5</v>
       </c>
       <c r="AG15" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AH15" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AI15" t="n">
         <v>75</v>
@@ -2527,7 +2527,7 @@
         <v>14</v>
       </c>
       <c r="AO15" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16">
@@ -2557,22 +2557,22 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="G16" t="n">
         <v>2.46</v>
       </c>
       <c r="H16" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I16" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="J16" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K16" t="n">
         <v>3.55</v>
-      </c>
-      <c r="K16" t="n">
-        <v>3.65</v>
       </c>
       <c r="L16" t="n">
         <v>1.43</v>
@@ -2581,52 +2581,52 @@
         <v>1.07</v>
       </c>
       <c r="N16" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="O16" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="P16" t="n">
-        <v>1.86</v>
+        <v>1.83</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.04</v>
+        <v>2.16</v>
       </c>
       <c r="R16" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="S16" t="n">
         <v>3.6</v>
       </c>
       <c r="T16" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="U16" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="V16" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="W16" t="n">
         <v>1.68</v>
       </c>
       <c r="X16" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="Y16" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Z16" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AA16" t="n">
         <v>60</v>
       </c>
       <c r="AB16" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AC16" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AD16" t="n">
         <v>14</v>
@@ -2638,7 +2638,7 @@
         <v>15</v>
       </c>
       <c r="AG16" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AH16" t="n">
         <v>19</v>
@@ -2650,19 +2650,19 @@
         <v>34</v>
       </c>
       <c r="AK16" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AL16" t="n">
         <v>44</v>
       </c>
       <c r="AM16" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AN16" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AO16" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="17">
@@ -2695,16 +2695,16 @@
         <v>1.45</v>
       </c>
       <c r="G17" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="H17" t="n">
         <v>8.6</v>
       </c>
       <c r="I17" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="J17" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="K17" t="n">
         <v>5</v>
@@ -2716,34 +2716,34 @@
         <v>1.06</v>
       </c>
       <c r="N17" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="O17" t="n">
         <v>1.3</v>
       </c>
       <c r="P17" t="n">
-        <v>1.94</v>
+        <v>1.97</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="R17" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="S17" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="T17" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="U17" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="V17" t="n">
         <v>1.11</v>
       </c>
       <c r="W17" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="X17" t="n">
         <v>16</v>
@@ -2761,7 +2761,7 @@
         <v>10</v>
       </c>
       <c r="AC17" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AD17" t="n">
         <v>36</v>
@@ -2773,10 +2773,10 @@
         <v>7.8</v>
       </c>
       <c r="AG17" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AH17" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="AI17" t="n">
         <v>160</v>
@@ -2788,10 +2788,10 @@
         <v>17</v>
       </c>
       <c r="AL17" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AM17" t="n">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="AN17" t="n">
         <v>8</v>
@@ -2830,19 +2830,19 @@
         <v>1.18</v>
       </c>
       <c r="G18" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="H18" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I18" t="n">
         <v>27</v>
       </c>
       <c r="J18" t="n">
-        <v>7.8</v>
+        <v>8.4</v>
       </c>
       <c r="K18" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="L18" t="n">
         <v>1.25</v>
@@ -2851,22 +2851,22 @@
         <v>1.03</v>
       </c>
       <c r="N18" t="n">
-        <v>6</v>
+        <v>6.4</v>
       </c>
       <c r="O18" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="P18" t="n">
-        <v>2.7</v>
+        <v>2.76</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="R18" t="n">
         <v>1.71</v>
       </c>
       <c r="S18" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="T18" t="n">
         <v>2.42</v>
@@ -2878,7 +2878,7 @@
         <v>1.04</v>
       </c>
       <c r="W18" t="n">
-        <v>5.8</v>
+        <v>6.2</v>
       </c>
       <c r="X18" t="n">
         <v>36</v>
@@ -2893,16 +2893,16 @@
         <v>1000</v>
       </c>
       <c r="AB18" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AC18" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AD18" t="n">
         <v>110</v>
       </c>
       <c r="AE18" t="n">
-        <v>610</v>
+        <v>640</v>
       </c>
       <c r="AF18" t="n">
         <v>7.8</v>
@@ -2920,16 +2920,16 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AK18" t="n">
-        <v>17.5</v>
+        <v>16</v>
       </c>
       <c r="AL18" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AM18" t="n">
         <v>350</v>
       </c>
       <c r="AN18" t="n">
-        <v>3.55</v>
+        <v>3.4</v>
       </c>
       <c r="AO18" t="n">
         <v>1000</v>
@@ -2962,10 +2962,10 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="G19" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="H19" t="n">
         <v>2.08</v>
@@ -2974,43 +2974,43 @@
         <v>2.1</v>
       </c>
       <c r="J19" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="K19" t="n">
         <v>3.85</v>
       </c>
       <c r="L19" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="M19" t="n">
         <v>1.06</v>
       </c>
       <c r="N19" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="O19" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="P19" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.82</v>
+        <v>1.84</v>
       </c>
       <c r="R19" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="S19" t="n">
-        <v>3.2</v>
+        <v>2.98</v>
       </c>
       <c r="T19" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="U19" t="n">
         <v>2.22</v>
       </c>
       <c r="V19" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="W19" t="n">
         <v>1.34</v>
@@ -3025,10 +3025,10 @@
         <v>13.5</v>
       </c>
       <c r="AA19" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AB19" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AC19" t="n">
         <v>8.6</v>
@@ -3040,7 +3040,7 @@
         <v>21</v>
       </c>
       <c r="AF19" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AG19" t="n">
         <v>15.5</v>
@@ -3061,13 +3061,13 @@
         <v>55</v>
       </c>
       <c r="AM19" t="n">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="AN19" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AO19" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20">
@@ -3097,7 +3097,7 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="G20" t="n">
         <v>1.32</v>
@@ -3109,40 +3109,40 @@
         <v>13.5</v>
       </c>
       <c r="J20" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="K20" t="n">
         <v>6.8</v>
       </c>
       <c r="L20" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="M20" t="n">
         <v>1.02</v>
       </c>
       <c r="N20" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="O20" t="n">
         <v>1.15</v>
       </c>
       <c r="P20" t="n">
-        <v>2.9</v>
+        <v>2.82</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.46</v>
+        <v>1.5</v>
       </c>
       <c r="R20" t="n">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="S20" t="n">
-        <v>2.16</v>
+        <v>2.28</v>
       </c>
       <c r="T20" t="n">
-        <v>1.86</v>
+        <v>1.88</v>
       </c>
       <c r="U20" t="n">
-        <v>2.08</v>
+        <v>1.96</v>
       </c>
       <c r="V20" t="n">
         <v>1.08</v>
@@ -3154,37 +3154,37 @@
         <v>34</v>
       </c>
       <c r="Y20" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="Z20" t="n">
         <v>130</v>
       </c>
       <c r="AA20" t="n">
-        <v>430</v>
+        <v>500</v>
       </c>
       <c r="AB20" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AC20" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AD20" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AE20" t="n">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="AF20" t="n">
-        <v>9.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="AG20" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AH20" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AI20" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="AJ20" t="n">
         <v>11</v>
@@ -3196,13 +3196,13 @@
         <v>32</v>
       </c>
       <c r="AM20" t="n">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="AN20" t="n">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="AO20" t="n">
-        <v>160</v>
+        <v>180</v>
       </c>
     </row>
     <row r="21">
@@ -3238,13 +3238,13 @@
         <v>1.59</v>
       </c>
       <c r="H21" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="I21" t="n">
         <v>6.8</v>
       </c>
       <c r="J21" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="K21" t="n">
         <v>4.9</v>
@@ -3262,7 +3262,7 @@
         <v>1.21</v>
       </c>
       <c r="P21" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="Q21" t="n">
         <v>1.61</v>
@@ -3274,7 +3274,7 @@
         <v>2.52</v>
       </c>
       <c r="T21" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="U21" t="n">
         <v>2.24</v>
@@ -3286,13 +3286,13 @@
         <v>2.68</v>
       </c>
       <c r="X21" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="Y21" t="n">
         <v>30</v>
       </c>
       <c r="Z21" t="n">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="AA21" t="n">
         <v>190</v>
@@ -3313,13 +3313,13 @@
         <v>11</v>
       </c>
       <c r="AG21" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH21" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI21" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AJ21" t="n">
         <v>15.5</v>
@@ -3328,16 +3328,16 @@
         <v>15</v>
       </c>
       <c r="AL21" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AM21" t="n">
         <v>100</v>
       </c>
       <c r="AN21" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="AO21" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="22">
@@ -3367,52 +3367,52 @@
         </is>
       </c>
       <c r="F22" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="G22" t="n">
         <v>1.26</v>
       </c>
-      <c r="G22" t="n">
-        <v>1.27</v>
-      </c>
       <c r="H22" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="I22" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="J22" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="K22" t="n">
-        <v>7.6</v>
+        <v>8.4</v>
       </c>
       <c r="L22" t="n">
         <v>1.21</v>
       </c>
       <c r="M22" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N22" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="O22" t="n">
         <v>1.12</v>
       </c>
       <c r="P22" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="Q22" t="n">
         <v>1.37</v>
       </c>
       <c r="R22" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S22" t="n">
         <v>1.94</v>
-      </c>
-      <c r="S22" t="n">
-        <v>1.98</v>
       </c>
       <c r="T22" t="n">
         <v>1.9</v>
       </c>
       <c r="U22" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="V22" t="n">
         <v>1.07</v>
@@ -3430,25 +3430,25 @@
         <v>150</v>
       </c>
       <c r="AA22" t="n">
-        <v>540</v>
+        <v>550</v>
       </c>
       <c r="AB22" t="n">
         <v>15</v>
       </c>
       <c r="AC22" t="n">
-        <v>17.5</v>
+        <v>23</v>
       </c>
       <c r="AD22" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AE22" t="n">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="AF22" t="n">
         <v>10.5</v>
       </c>
       <c r="AG22" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AH22" t="n">
         <v>30</v>
@@ -3457,7 +3457,7 @@
         <v>140</v>
       </c>
       <c r="AJ22" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AK22" t="n">
         <v>13.5</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="G23" t="n">
         <v>1.69</v>
@@ -3511,37 +3511,37 @@
         <v>5.4</v>
       </c>
       <c r="I23" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="J23" t="n">
         <v>4.4</v>
       </c>
       <c r="K23" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="L23" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="M23" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N23" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="O23" t="n">
         <v>1.21</v>
       </c>
       <c r="P23" t="n">
-        <v>2.34</v>
+        <v>2.38</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.66</v>
+        <v>1.64</v>
       </c>
       <c r="R23" t="n">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="S23" t="n">
-        <v>2.64</v>
+        <v>2.58</v>
       </c>
       <c r="T23" t="n">
         <v>1.74</v>
@@ -3550,25 +3550,25 @@
         <v>2.22</v>
       </c>
       <c r="V23" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="W23" t="n">
         <v>2.44</v>
       </c>
       <c r="X23" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="Y23" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="Z23" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AA23" t="n">
         <v>160</v>
       </c>
       <c r="AB23" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AC23" t="n">
         <v>10.5</v>
@@ -3577,37 +3577,37 @@
         <v>22</v>
       </c>
       <c r="AE23" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AF23" t="n">
         <v>11.5</v>
       </c>
       <c r="AG23" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH23" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AI23" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AJ23" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AK23" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AL23" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AM23" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AN23" t="n">
-        <v>1000</v>
+        <v>7.4</v>
       </c>
       <c r="AO23" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-18.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-18.xlsx
@@ -667,58 +667,58 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.92</v>
+        <v>1.89</v>
       </c>
       <c r="G2" t="n">
-        <v>2.1</v>
+        <v>2.04</v>
       </c>
       <c r="H2" t="n">
-        <v>3.75</v>
+        <v>4.3</v>
       </c>
       <c r="I2" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="J2" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="K2" t="n">
         <v>4.1</v>
       </c>
       <c r="L2" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="M2" t="n">
         <v>1.07</v>
       </c>
       <c r="N2" t="n">
-        <v>3</v>
+        <v>3.35</v>
       </c>
       <c r="O2" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="P2" t="n">
-        <v>1.74</v>
+        <v>1.81</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="R2" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="S2" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="T2" t="n">
         <v>1.81</v>
       </c>
       <c r="U2" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="V2" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="W2" t="n">
-        <v>1.9</v>
+        <v>1.97</v>
       </c>
       <c r="X2" t="n">
         <v>1000</v>
@@ -757,7 +757,7 @@
         <v>1000</v>
       </c>
       <c r="AJ2" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AK2" t="n">
         <v>1000</v>
@@ -769,7 +769,7 @@
         <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="AO2" t="n">
         <v>1000</v>
@@ -823,7 +823,7 @@
         <v>1.34</v>
       </c>
       <c r="M3" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N3" t="n">
         <v>3.35</v>
@@ -937,25 +937,25 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="G4" t="n">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="H4" t="n">
         <v>4</v>
       </c>
       <c r="I4" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="J4" t="n">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="K4" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="L4" t="n">
-        <v>1.55</v>
+        <v>1.63</v>
       </c>
       <c r="M4" t="n">
         <v>1.14</v>
@@ -985,7 +985,7 @@
         <v>1.59</v>
       </c>
       <c r="V4" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="W4" t="n">
         <v>1.73</v>
@@ -1072,61 +1072,61 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="G5" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="H5" t="n">
         <v>10.5</v>
       </c>
       <c r="I5" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="J5" t="n">
-        <v>4.6</v>
+        <v>4.3</v>
       </c>
       <c r="K5" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="L5" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N5" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="O5" t="n">
         <v>1.4</v>
       </c>
-      <c r="M5" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N5" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.38</v>
-      </c>
       <c r="P5" t="n">
-        <v>1.81</v>
+        <v>1.72</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.02</v>
+        <v>2.16</v>
       </c>
       <c r="R5" t="n">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="S5" t="n">
-        <v>3.65</v>
+        <v>4.1</v>
       </c>
       <c r="T5" t="n">
-        <v>2.32</v>
+        <v>2.46</v>
       </c>
       <c r="U5" t="n">
-        <v>1.61</v>
+        <v>1.55</v>
       </c>
       <c r="V5" t="n">
         <v>1.08</v>
       </c>
       <c r="W5" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="X5" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="Y5" t="n">
         <v>30</v>
@@ -1174,7 +1174,7 @@
         <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>9.4</v>
+        <v>10</v>
       </c>
       <c r="AO5" t="n">
         <v>1000</v>
@@ -1237,7 +1237,7 @@
         <v>1.24</v>
       </c>
       <c r="P6" t="n">
-        <v>2.24</v>
+        <v>2.3</v>
       </c>
       <c r="Q6" t="n">
         <v>1.71</v>
@@ -1246,7 +1246,7 @@
         <v>1.5</v>
       </c>
       <c r="S6" t="n">
-        <v>2.8</v>
+        <v>2.78</v>
       </c>
       <c r="T6" t="n">
         <v>1.65</v>
@@ -1309,10 +1309,10 @@
         <v>70</v>
       </c>
       <c r="AN6" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AO6" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7">
@@ -1345,7 +1345,7 @@
         <v>1.3</v>
       </c>
       <c r="G7" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="H7" t="n">
         <v>12</v>
@@ -1354,13 +1354,13 @@
         <v>13</v>
       </c>
       <c r="J7" t="n">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
       <c r="K7" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="L7" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="M7" t="n">
         <v>1.03</v>
@@ -1369,16 +1369,16 @@
         <v>6.2</v>
       </c>
       <c r="O7" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="P7" t="n">
         <v>2.72</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="R7" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="S7" t="n">
         <v>2.32</v>
@@ -1387,13 +1387,13 @@
         <v>2.04</v>
       </c>
       <c r="U7" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="V7" t="n">
         <v>1.08</v>
       </c>
       <c r="W7" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="X7" t="n">
         <v>36</v>
@@ -1414,7 +1414,7 @@
         <v>17</v>
       </c>
       <c r="AD7" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AE7" t="n">
         <v>210</v>
@@ -1432,7 +1432,7 @@
         <v>150</v>
       </c>
       <c r="AJ7" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AK7" t="n">
         <v>14</v>
@@ -1480,7 +1480,7 @@
         <v>1.69</v>
       </c>
       <c r="G8" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="H8" t="n">
         <v>5.9</v>
@@ -1507,7 +1507,7 @@
         <v>1.39</v>
       </c>
       <c r="P8" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="Q8" t="n">
         <v>2.14</v>
@@ -1516,7 +1516,7 @@
         <v>1.27</v>
       </c>
       <c r="S8" t="n">
-        <v>3.85</v>
+        <v>3.5</v>
       </c>
       <c r="T8" t="n">
         <v>2.14</v>
@@ -1528,7 +1528,7 @@
         <v>1.18</v>
       </c>
       <c r="W8" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="X8" t="n">
         <v>12</v>
@@ -1546,7 +1546,7 @@
         <v>7.6</v>
       </c>
       <c r="AC8" t="n">
-        <v>9.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD8" t="n">
         <v>26</v>
@@ -1555,7 +1555,7 @@
         <v>120</v>
       </c>
       <c r="AF8" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AG8" t="n">
         <v>20</v>
@@ -1564,22 +1564,22 @@
         <v>28</v>
       </c>
       <c r="AI8" t="n">
-        <v>290</v>
+        <v>120</v>
       </c>
       <c r="AJ8" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AK8" t="n">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="AL8" t="n">
-        <v>120</v>
+        <v>48</v>
       </c>
       <c r="AM8" t="n">
         <v>190</v>
       </c>
       <c r="AN8" t="n">
-        <v>29</v>
+        <v>13.5</v>
       </c>
       <c r="AO8" t="n">
         <v>170</v>
@@ -1612,22 +1612,22 @@
         </is>
       </c>
       <c r="F9" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="G9" t="n">
         <v>1.97</v>
-      </c>
-      <c r="G9" t="n">
-        <v>1.99</v>
       </c>
       <c r="H9" t="n">
         <v>4.5</v>
       </c>
       <c r="I9" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="J9" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="K9" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="L9" t="n">
         <v>1.42</v>
@@ -1645,7 +1645,7 @@
         <v>1.98</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="R9" t="n">
         <v>1.35</v>
@@ -1663,7 +1663,7 @@
         <v>1.27</v>
       </c>
       <c r="W9" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="X9" t="n">
         <v>14</v>
@@ -1681,7 +1681,7 @@
         <v>10.5</v>
       </c>
       <c r="AC9" t="n">
-        <v>8.6</v>
+        <v>9</v>
       </c>
       <c r="AD9" t="n">
         <v>18</v>
@@ -1750,16 +1750,16 @@
         <v>1.25</v>
       </c>
       <c r="G10" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="H10" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="I10" t="n">
         <v>17</v>
       </c>
       <c r="J10" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="K10" t="n">
         <v>7.4</v>
@@ -1795,10 +1795,10 @@
         <v>1.69</v>
       </c>
       <c r="V10" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="W10" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="X10" t="n">
         <v>26</v>
@@ -1813,7 +1813,7 @@
         <v>840</v>
       </c>
       <c r="AB10" t="n">
-        <v>10.5</v>
+        <v>13</v>
       </c>
       <c r="AC10" t="n">
         <v>16</v>
@@ -1837,7 +1837,7 @@
         <v>220</v>
       </c>
       <c r="AJ10" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AK10" t="n">
         <v>17</v>
@@ -1849,7 +1849,7 @@
         <v>240</v>
       </c>
       <c r="AN10" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="AO10" t="n">
         <v>360</v>
@@ -1888,7 +1888,7 @@
         <v>1.94</v>
       </c>
       <c r="H11" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="I11" t="n">
         <v>4.6</v>
@@ -1921,16 +1921,16 @@
         <v>1.26</v>
       </c>
       <c r="S11" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="T11" t="n">
-        <v>2.06</v>
+        <v>2.02</v>
       </c>
       <c r="U11" t="n">
         <v>1.81</v>
       </c>
       <c r="V11" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="W11" t="n">
         <v>2.06</v>
@@ -1948,7 +1948,7 @@
         <v>120</v>
       </c>
       <c r="AB11" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AC11" t="n">
         <v>9.6</v>
@@ -1960,7 +1960,7 @@
         <v>75</v>
       </c>
       <c r="AF11" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AG11" t="n">
         <v>10.5</v>
@@ -1975,7 +1975,7 @@
         <v>23</v>
       </c>
       <c r="AK11" t="n">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="AL11" t="n">
         <v>48</v>
@@ -1984,7 +1984,7 @@
         <v>160</v>
       </c>
       <c r="AN11" t="n">
-        <v>18.5</v>
+        <v>21</v>
       </c>
       <c r="AO11" t="n">
         <v>100</v>
@@ -2017,13 +2017,13 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="G12" t="n">
         <v>2.9</v>
       </c>
       <c r="H12" t="n">
-        <v>2.74</v>
+        <v>2.78</v>
       </c>
       <c r="I12" t="n">
         <v>2.84</v>
@@ -2032,13 +2032,13 @@
         <v>3.35</v>
       </c>
       <c r="K12" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="L12" t="n">
         <v>1.45</v>
       </c>
       <c r="M12" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N12" t="n">
         <v>3.35</v>
@@ -2047,19 +2047,19 @@
         <v>1.4</v>
       </c>
       <c r="P12" t="n">
-        <v>1.81</v>
+        <v>1.79</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.1</v>
+        <v>2.22</v>
       </c>
       <c r="R12" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="S12" t="n">
         <v>3.9</v>
       </c>
       <c r="T12" t="n">
-        <v>1.86</v>
+        <v>1.88</v>
       </c>
       <c r="U12" t="n">
         <v>2.02</v>
@@ -2083,7 +2083,7 @@
         <v>44</v>
       </c>
       <c r="AB12" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AC12" t="n">
         <v>7.6</v>
@@ -2104,10 +2104,10 @@
         <v>18.5</v>
       </c>
       <c r="AI12" t="n">
-        <v>260</v>
+        <v>1000</v>
       </c>
       <c r="AJ12" t="n">
-        <v>1000</v>
+        <v>280</v>
       </c>
       <c r="AK12" t="n">
         <v>36</v>
@@ -2119,7 +2119,7 @@
         <v>110</v>
       </c>
       <c r="AN12" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AO12" t="n">
         <v>1000</v>
@@ -2152,22 +2152,22 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="G13" t="n">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="H13" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="I13" t="n">
         <v>2.66</v>
       </c>
-      <c r="I13" t="n">
-        <v>2.68</v>
-      </c>
       <c r="J13" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="K13" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="L13" t="n">
         <v>1.55</v>
@@ -2176,40 +2176,40 @@
         <v>1.13</v>
       </c>
       <c r="N13" t="n">
-        <v>2.6</v>
+        <v>2.44</v>
       </c>
       <c r="O13" t="n">
         <v>1.47</v>
       </c>
       <c r="P13" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.44</v>
+        <v>2.04</v>
       </c>
       <c r="R13" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="S13" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="T13" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="U13" t="n">
-        <v>1.83</v>
+        <v>1.04</v>
       </c>
       <c r="V13" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="W13" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="X13" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="Y13" t="n">
-        <v>8.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="Z13" t="n">
         <v>29</v>
@@ -2230,7 +2230,7 @@
         <v>38</v>
       </c>
       <c r="AF13" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AG13" t="n">
         <v>15.5</v>
@@ -2287,19 +2287,19 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="G14" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="H14" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="I14" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="J14" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="K14" t="n">
         <v>8.199999999999999</v>
@@ -2332,7 +2332,7 @@
         <v>2.28</v>
       </c>
       <c r="U14" t="n">
-        <v>1.71</v>
+        <v>1.74</v>
       </c>
       <c r="V14" t="n">
         <v>1.05</v>
@@ -2347,7 +2347,7 @@
         <v>1000</v>
       </c>
       <c r="Z14" t="n">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="AA14" t="n">
         <v>1000</v>
@@ -2362,7 +2362,7 @@
         <v>1000</v>
       </c>
       <c r="AE14" t="n">
-        <v>1000</v>
+        <v>330</v>
       </c>
       <c r="AF14" t="n">
         <v>8.800000000000001</v>
@@ -2374,7 +2374,7 @@
         <v>1000</v>
       </c>
       <c r="AI14" t="n">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="AJ14" t="n">
         <v>9</v>
@@ -2383,13 +2383,13 @@
         <v>980</v>
       </c>
       <c r="AL14" t="n">
-        <v>55</v>
+        <v>170</v>
       </c>
       <c r="AM14" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="AN14" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="AO14" t="n">
         <v>1000</v>
@@ -2422,10 +2422,10 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="G15" t="n">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="H15" t="n">
         <v>4.6</v>
@@ -2437,19 +2437,19 @@
         <v>3.6</v>
       </c>
       <c r="K15" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="L15" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="M15" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N15" t="n">
         <v>3.8</v>
       </c>
       <c r="O15" t="n">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="P15" t="n">
         <v>1.96</v>
@@ -2467,16 +2467,16 @@
         <v>1.84</v>
       </c>
       <c r="U15" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="V15" t="n">
         <v>1.25</v>
       </c>
       <c r="W15" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="X15" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Y15" t="n">
         <v>16.5</v>
@@ -2488,7 +2488,7 @@
         <v>120</v>
       </c>
       <c r="AB15" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AC15" t="n">
         <v>10.5</v>
@@ -2497,7 +2497,7 @@
         <v>18.5</v>
       </c>
       <c r="AE15" t="n">
-        <v>70</v>
+        <v>170</v>
       </c>
       <c r="AF15" t="n">
         <v>11.5</v>
@@ -2527,7 +2527,7 @@
         <v>14</v>
       </c>
       <c r="AO15" t="n">
-        <v>65</v>
+        <v>270</v>
       </c>
     </row>
     <row r="16">
@@ -2557,16 +2557,16 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="G16" t="n">
         <v>2.46</v>
       </c>
       <c r="H16" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I16" t="n">
         <v>3.25</v>
-      </c>
-      <c r="I16" t="n">
-        <v>3.3</v>
       </c>
       <c r="J16" t="n">
         <v>3.5</v>
@@ -2581,13 +2581,13 @@
         <v>1.07</v>
       </c>
       <c r="N16" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="O16" t="n">
         <v>1.35</v>
       </c>
       <c r="P16" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="Q16" t="n">
         <v>2.16</v>
@@ -2599,13 +2599,13 @@
         <v>3.6</v>
       </c>
       <c r="T16" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="U16" t="n">
         <v>2.08</v>
       </c>
       <c r="V16" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="W16" t="n">
         <v>1.68</v>
@@ -2623,7 +2623,7 @@
         <v>60</v>
       </c>
       <c r="AB16" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AC16" t="n">
         <v>7.6</v>
@@ -2659,7 +2659,7 @@
         <v>110</v>
       </c>
       <c r="AN16" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AO16" t="n">
         <v>1000</v>
@@ -2710,7 +2710,7 @@
         <v>5</v>
       </c>
       <c r="L17" t="n">
-        <v>1.39</v>
+        <v>1.43</v>
       </c>
       <c r="M17" t="n">
         <v>1.06</v>
@@ -2725,13 +2725,13 @@
         <v>1.97</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="R17" t="n">
         <v>1.37</v>
       </c>
       <c r="S17" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="T17" t="n">
         <v>2.18</v>
@@ -2758,7 +2758,7 @@
         <v>360</v>
       </c>
       <c r="AB17" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AC17" t="n">
         <v>10.5</v>
@@ -2830,19 +2830,19 @@
         <v>1.18</v>
       </c>
       <c r="G18" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="H18" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="I18" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J18" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="K18" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="L18" t="n">
         <v>1.25</v>
@@ -2851,13 +2851,13 @@
         <v>1.03</v>
       </c>
       <c r="N18" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="O18" t="n">
         <v>1.16</v>
       </c>
       <c r="P18" t="n">
-        <v>2.76</v>
+        <v>2.74</v>
       </c>
       <c r="Q18" t="n">
         <v>1.51</v>
@@ -2878,7 +2878,7 @@
         <v>1.04</v>
       </c>
       <c r="W18" t="n">
-        <v>6.2</v>
+        <v>5.9</v>
       </c>
       <c r="X18" t="n">
         <v>36</v>
@@ -2887,7 +2887,7 @@
         <v>1000</v>
       </c>
       <c r="Z18" t="n">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="AA18" t="n">
         <v>1000</v>
@@ -2902,7 +2902,7 @@
         <v>110</v>
       </c>
       <c r="AE18" t="n">
-        <v>640</v>
+        <v>590</v>
       </c>
       <c r="AF18" t="n">
         <v>7.8</v>
@@ -2914,13 +2914,13 @@
         <v>1000</v>
       </c>
       <c r="AI18" t="n">
-        <v>400</v>
+        <v>380</v>
       </c>
       <c r="AJ18" t="n">
-        <v>9.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AK18" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AL18" t="n">
         <v>60</v>
@@ -2962,43 +2962,43 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="G19" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="H19" t="n">
         <v>2.08</v>
       </c>
       <c r="I19" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="J19" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="K19" t="n">
         <v>3.85</v>
       </c>
       <c r="L19" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="M19" t="n">
         <v>1.06</v>
       </c>
       <c r="N19" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="O19" t="n">
         <v>1.27</v>
       </c>
       <c r="P19" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="Q19" t="n">
         <v>1.84</v>
       </c>
       <c r="R19" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="S19" t="n">
         <v>2.98</v>
@@ -3007,16 +3007,16 @@
         <v>1.72</v>
       </c>
       <c r="U19" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="V19" t="n">
-        <v>1.91</v>
+        <v>1.89</v>
       </c>
       <c r="W19" t="n">
         <v>1.34</v>
       </c>
       <c r="X19" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Y19" t="n">
         <v>11</v>
@@ -3040,7 +3040,7 @@
         <v>21</v>
       </c>
       <c r="AF19" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AG19" t="n">
         <v>15.5</v>
@@ -3064,7 +3064,7 @@
         <v>85</v>
       </c>
       <c r="AN19" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AO19" t="n">
         <v>13</v>
@@ -3097,16 +3097,16 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="G20" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="H20" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="I20" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="J20" t="n">
         <v>6.2</v>
@@ -3124,31 +3124,31 @@
         <v>6.2</v>
       </c>
       <c r="O20" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="P20" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="R20" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="S20" t="n">
         <v>2.28</v>
       </c>
       <c r="T20" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="U20" t="n">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="V20" t="n">
         <v>1.08</v>
       </c>
       <c r="W20" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="X20" t="n">
         <v>34</v>
@@ -3157,22 +3157,22 @@
         <v>50</v>
       </c>
       <c r="Z20" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AA20" t="n">
         <v>500</v>
       </c>
       <c r="AB20" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AC20" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AD20" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AE20" t="n">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="AF20" t="n">
         <v>9.4</v>
@@ -3184,7 +3184,7 @@
         <v>29</v>
       </c>
       <c r="AI20" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AJ20" t="n">
         <v>11</v>
@@ -3196,13 +3196,13 @@
         <v>32</v>
       </c>
       <c r="AM20" t="n">
-        <v>140</v>
+        <v>430</v>
       </c>
       <c r="AN20" t="n">
         <v>4.3</v>
       </c>
       <c r="AO20" t="n">
-        <v>180</v>
+        <v>170</v>
       </c>
     </row>
     <row r="21">
@@ -3241,7 +3241,7 @@
         <v>6</v>
       </c>
       <c r="I21" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="J21" t="n">
         <v>4.7</v>
@@ -3337,7 +3337,7 @@
         <v>6.8</v>
       </c>
       <c r="AO21" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="22">
@@ -3370,7 +3370,7 @@
         <v>1.25</v>
       </c>
       <c r="G22" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="H22" t="n">
         <v>12.5</v>
@@ -3379,10 +3379,10 @@
         <v>14</v>
       </c>
       <c r="J22" t="n">
-        <v>7.6</v>
+        <v>7.2</v>
       </c>
       <c r="K22" t="n">
-        <v>8.4</v>
+        <v>7.8</v>
       </c>
       <c r="L22" t="n">
         <v>1.21</v>
@@ -3397,7 +3397,7 @@
         <v>1.12</v>
       </c>
       <c r="P22" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="Q22" t="n">
         <v>1.37</v>
@@ -3409,7 +3409,7 @@
         <v>1.94</v>
       </c>
       <c r="T22" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="U22" t="n">
         <v>2.06</v>
@@ -3418,10 +3418,10 @@
         <v>1.07</v>
       </c>
       <c r="W22" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="X22" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Y22" t="n">
         <v>70</v>
@@ -3457,19 +3457,19 @@
         <v>140</v>
       </c>
       <c r="AJ22" t="n">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="AK22" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AL22" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AM22" t="n">
         <v>130</v>
       </c>
       <c r="AN22" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="AO22" t="n">
         <v>160</v>
@@ -3511,7 +3511,7 @@
         <v>5.4</v>
       </c>
       <c r="I23" t="n">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="J23" t="n">
         <v>4.4</v>
@@ -3550,7 +3550,7 @@
         <v>2.22</v>
       </c>
       <c r="V23" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="W23" t="n">
         <v>2.44</v>
@@ -3559,16 +3559,16 @@
         <v>21</v>
       </c>
       <c r="Y23" t="n">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="Z23" t="n">
         <v>120</v>
       </c>
       <c r="AA23" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AB23" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="AC23" t="n">
         <v>10.5</v>
@@ -3577,7 +3577,7 @@
         <v>22</v>
       </c>
       <c r="AE23" t="n">
-        <v>170</v>
+        <v>70</v>
       </c>
       <c r="AF23" t="n">
         <v>11.5</v>
@@ -3595,7 +3595,7 @@
         <v>17</v>
       </c>
       <c r="AK23" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AL23" t="n">
         <v>30</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-18.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-18.xlsx
@@ -667,59 +667,59 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.89</v>
+        <v>1.83</v>
       </c>
       <c r="G2" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="H2" t="n">
-        <v>4.3</v>
+        <v>3.65</v>
       </c>
       <c r="I2" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="J2" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K2" t="n">
         <v>5.3</v>
       </c>
-      <c r="J2" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N2" t="n">
         <v>4.1</v>
       </c>
-      <c r="L2" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N2" t="n">
-        <v>3.35</v>
-      </c>
       <c r="O2" t="n">
-        <v>1.32</v>
+        <v>1.22</v>
       </c>
       <c r="P2" t="n">
-        <v>1.81</v>
+        <v>2.14</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.95</v>
+        <v>1.68</v>
       </c>
       <c r="R2" t="n">
-        <v>1.32</v>
+        <v>1.45</v>
       </c>
       <c r="S2" t="n">
-        <v>3.1</v>
+        <v>2.72</v>
       </c>
       <c r="T2" t="n">
-        <v>1.81</v>
+        <v>1.65</v>
       </c>
       <c r="U2" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V2" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="W2" t="n">
         <v>1.94</v>
       </c>
-      <c r="V2" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="W2" t="n">
-        <v>1.97</v>
-      </c>
       <c r="X2" t="n">
         <v>1000</v>
       </c>
@@ -733,7 +733,7 @@
         <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AC2" t="n">
         <v>42</v>
@@ -802,88 +802,88 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.92</v>
+        <v>3.25</v>
       </c>
       <c r="G3" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="H3" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="I3" t="n">
-        <v>2.62</v>
+        <v>2.36</v>
       </c>
       <c r="J3" t="n">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="K3" t="n">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="L3" t="n">
-        <v>1.34</v>
+        <v>1.43</v>
       </c>
       <c r="M3" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="N3" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="O3" t="n">
-        <v>1.28</v>
+        <v>1.33</v>
       </c>
       <c r="P3" t="n">
-        <v>1.76</v>
+        <v>1.87</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.83</v>
+        <v>1.98</v>
       </c>
       <c r="R3" t="n">
-        <v>1.28</v>
+        <v>1.33</v>
       </c>
       <c r="S3" t="n">
-        <v>3.15</v>
+        <v>3.4</v>
       </c>
       <c r="T3" t="n">
-        <v>1.05</v>
+        <v>1.73</v>
       </c>
       <c r="U3" t="n">
-        <v>1.04</v>
+        <v>2.12</v>
       </c>
       <c r="V3" t="n">
-        <v>1.61</v>
+        <v>1.74</v>
       </c>
       <c r="W3" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="X3" t="n">
         <v>1000</v>
       </c>
       <c r="Y3" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="Z3" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AA3" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AB3" t="n">
         <v>1000</v>
       </c>
       <c r="AC3" t="n">
-        <v>42</v>
+        <v>9.6</v>
       </c>
       <c r="AD3" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AE3" t="n">
         <v>1000</v>
       </c>
       <c r="AF3" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AG3" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AH3" t="n">
         <v>1000</v>
@@ -907,7 +907,7 @@
         <v>1000</v>
       </c>
       <c r="AO3" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4">
@@ -937,109 +937,109 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.16</v>
+        <v>2.06</v>
       </c>
       <c r="G4" t="n">
-        <v>2.42</v>
+        <v>2.18</v>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>4.6</v>
       </c>
       <c r="I4" t="n">
-        <v>5</v>
+        <v>5.3</v>
       </c>
       <c r="J4" t="n">
-        <v>2.86</v>
+        <v>2.98</v>
       </c>
       <c r="K4" t="n">
-        <v>3.1</v>
+        <v>3.35</v>
       </c>
       <c r="L4" t="n">
-        <v>1.63</v>
+        <v>1.66</v>
       </c>
       <c r="M4" t="n">
         <v>1.14</v>
       </c>
       <c r="N4" t="n">
-        <v>2.2</v>
+        <v>2.32</v>
       </c>
       <c r="O4" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="P4" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="R4" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="S4" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="T4" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="U4" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="V4" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="W4" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="X4" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>38</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB4" t="n">
         <v>6.4</v>
-      </c>
-      <c r="T4" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="U4" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="V4" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="W4" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="X4" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>34</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>6.8</v>
       </c>
       <c r="AC4" t="n">
         <v>7.8</v>
       </c>
       <c r="AD4" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AE4" t="n">
-        <v>120</v>
+        <v>290</v>
       </c>
       <c r="AF4" t="n">
-        <v>14</v>
+        <v>11.5</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>12.5</v>
       </c>
       <c r="AH4" t="n">
+        <v>30</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>28</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>240</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN4" t="n">
         <v>32</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>36</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>40</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>95</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>44</v>
       </c>
       <c r="AO4" t="n">
         <v>1000</v>
@@ -1072,64 +1072,64 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.39</v>
+        <v>1.36</v>
       </c>
       <c r="G5" t="n">
         <v>1.46</v>
       </c>
       <c r="H5" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="I5" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="J5" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="K5" t="n">
-        <v>5.1</v>
+        <v>5.6</v>
       </c>
       <c r="L5" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="M5" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="N5" t="n">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="O5" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="P5" t="n">
-        <v>1.72</v>
+        <v>1.87</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.16</v>
+        <v>1.92</v>
       </c>
       <c r="R5" t="n">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="S5" t="n">
-        <v>4.1</v>
+        <v>3.35</v>
       </c>
       <c r="T5" t="n">
-        <v>2.46</v>
+        <v>2.2</v>
       </c>
       <c r="U5" t="n">
-        <v>1.55</v>
+        <v>1.63</v>
       </c>
       <c r="V5" t="n">
         <v>1.08</v>
       </c>
       <c r="W5" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="X5" t="n">
-        <v>13</v>
+        <v>16.5</v>
       </c>
       <c r="Y5" t="n">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="Z5" t="n">
         <v>1000</v>
@@ -1138,10 +1138,10 @@
         <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>6.8</v>
+        <v>7.4</v>
       </c>
       <c r="AC5" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AD5" t="n">
         <v>350</v>
@@ -1153,7 +1153,7 @@
         <v>8</v>
       </c>
       <c r="AG5" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AH5" t="n">
         <v>95</v>
@@ -1165,7 +1165,7 @@
         <v>12</v>
       </c>
       <c r="AK5" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AL5" t="n">
         <v>400</v>
@@ -1174,7 +1174,7 @@
         <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AO5" t="n">
         <v>1000</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="G6" t="n">
         <v>2.44</v>
@@ -1231,7 +1231,7 @@
         <v>1.05</v>
       </c>
       <c r="N6" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="O6" t="n">
         <v>1.24</v>
@@ -1240,13 +1240,13 @@
         <v>2.3</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="R6" t="n">
         <v>1.5</v>
       </c>
       <c r="S6" t="n">
-        <v>2.78</v>
+        <v>2.84</v>
       </c>
       <c r="T6" t="n">
         <v>1.65</v>
@@ -1270,7 +1270,7 @@
         <v>23</v>
       </c>
       <c r="AA6" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AB6" t="n">
         <v>13.5</v>
@@ -1291,7 +1291,7 @@
         <v>12</v>
       </c>
       <c r="AH6" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AI6" t="n">
         <v>38</v>
@@ -1300,7 +1300,7 @@
         <v>32</v>
       </c>
       <c r="AK6" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AL6" t="n">
         <v>32</v>
@@ -1342,88 +1342,88 @@
         </is>
       </c>
       <c r="F7" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="G7" t="n">
         <v>1.3</v>
       </c>
-      <c r="G7" t="n">
-        <v>1.31</v>
-      </c>
       <c r="H7" t="n">
-        <v>12</v>
+        <v>14.5</v>
       </c>
       <c r="I7" t="n">
-        <v>13</v>
+        <v>15.5</v>
       </c>
       <c r="J7" t="n">
-        <v>6.6</v>
+        <v>6.2</v>
       </c>
       <c r="K7" t="n">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
       <c r="L7" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="M7" t="n">
         <v>1.03</v>
       </c>
       <c r="N7" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="O7" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P7" t="n">
         <v>2.72</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="R7" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="S7" t="n">
-        <v>2.32</v>
+        <v>2.36</v>
       </c>
       <c r="T7" t="n">
         <v>2.04</v>
       </c>
       <c r="U7" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="V7" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="W7" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="X7" t="n">
         <v>36</v>
       </c>
       <c r="Y7" t="n">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="Z7" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="AA7" t="n">
-        <v>540</v>
+        <v>660</v>
       </c>
       <c r="AB7" t="n">
         <v>12</v>
       </c>
       <c r="AC7" t="n">
-        <v>17</v>
+        <v>15.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="AE7" t="n">
-        <v>210</v>
+        <v>240</v>
       </c>
       <c r="AF7" t="n">
-        <v>8.4</v>
+        <v>8</v>
       </c>
       <c r="AG7" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH7" t="n">
         <v>32</v>
@@ -1432,19 +1432,19 @@
         <v>150</v>
       </c>
       <c r="AJ7" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="AK7" t="n">
         <v>14</v>
       </c>
       <c r="AL7" t="n">
-        <v>48</v>
+        <v>120</v>
       </c>
       <c r="AM7" t="n">
         <v>170</v>
       </c>
       <c r="AN7" t="n">
-        <v>4.2</v>
+        <v>3.95</v>
       </c>
       <c r="AO7" t="n">
         <v>270</v>
@@ -1480,16 +1480,16 @@
         <v>1.69</v>
       </c>
       <c r="G8" t="n">
-        <v>1.73</v>
+        <v>1.71</v>
       </c>
       <c r="H8" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="I8" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="J8" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="K8" t="n">
         <v>4.1</v>
@@ -1501,22 +1501,22 @@
         <v>1.08</v>
       </c>
       <c r="N8" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="O8" t="n">
         <v>1.39</v>
       </c>
       <c r="P8" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="R8" t="n">
         <v>1.27</v>
       </c>
       <c r="S8" t="n">
-        <v>3.5</v>
+        <v>4.1</v>
       </c>
       <c r="T8" t="n">
         <v>2.14</v>
@@ -1528,13 +1528,13 @@
         <v>1.18</v>
       </c>
       <c r="W8" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="X8" t="n">
         <v>12</v>
       </c>
       <c r="Y8" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="Z8" t="n">
         <v>48</v>
@@ -1543,13 +1543,13 @@
         <v>210</v>
       </c>
       <c r="AB8" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="AC8" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="AD8" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AE8" t="n">
         <v>120</v>
@@ -1558,7 +1558,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AG8" t="n">
-        <v>20</v>
+        <v>10.5</v>
       </c>
       <c r="AH8" t="n">
         <v>28</v>
@@ -1612,16 +1612,16 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="G9" t="n">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="H9" t="n">
         <v>4.5</v>
       </c>
       <c r="I9" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="J9" t="n">
         <v>3.7</v>
@@ -1633,10 +1633,10 @@
         <v>1.42</v>
       </c>
       <c r="M9" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N9" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="O9" t="n">
         <v>1.32</v>
@@ -1645,43 +1645,43 @@
         <v>1.98</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="R9" t="n">
         <v>1.35</v>
       </c>
       <c r="S9" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="T9" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="U9" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="V9" t="n">
         <v>1.27</v>
       </c>
       <c r="W9" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="X9" t="n">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="Y9" t="n">
-        <v>16.5</v>
+        <v>30</v>
       </c>
       <c r="Z9" t="n">
         <v>34</v>
       </c>
       <c r="AA9" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AB9" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC9" t="n">
-        <v>9</v>
+        <v>8.4</v>
       </c>
       <c r="AD9" t="n">
         <v>18</v>
@@ -1714,7 +1714,7 @@
         <v>110</v>
       </c>
       <c r="AN9" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AO9" t="n">
         <v>1000</v>
@@ -1750,19 +1750,19 @@
         <v>1.25</v>
       </c>
       <c r="G10" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="H10" t="n">
         <v>14.5</v>
       </c>
       <c r="I10" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J10" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="K10" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="L10" t="n">
         <v>1.29</v>
@@ -1786,7 +1786,7 @@
         <v>1.62</v>
       </c>
       <c r="S10" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="T10" t="n">
         <v>2.28</v>
@@ -1798,7 +1798,7 @@
         <v>1.06</v>
       </c>
       <c r="W10" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="X10" t="n">
         <v>26</v>
@@ -1828,7 +1828,7 @@
         <v>7.6</v>
       </c>
       <c r="AG10" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AH10" t="n">
         <v>150</v>
@@ -1882,25 +1882,25 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="G11" t="n">
         <v>1.94</v>
       </c>
       <c r="H11" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="I11" t="n">
         <v>4.6</v>
       </c>
       <c r="J11" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="K11" t="n">
         <v>4</v>
       </c>
       <c r="L11" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="M11" t="n">
         <v>1.08</v>
@@ -1936,7 +1936,7 @@
         <v>2.06</v>
       </c>
       <c r="X11" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="Y11" t="n">
         <v>14.5</v>
@@ -1951,7 +1951,7 @@
         <v>7.6</v>
       </c>
       <c r="AC11" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AD11" t="n">
         <v>1000</v>
@@ -1960,7 +1960,7 @@
         <v>75</v>
       </c>
       <c r="AF11" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AG11" t="n">
         <v>10.5</v>
@@ -1972,10 +1972,10 @@
         <v>90</v>
       </c>
       <c r="AJ11" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AK11" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AL11" t="n">
         <v>48</v>
@@ -1984,7 +1984,7 @@
         <v>160</v>
       </c>
       <c r="AN11" t="n">
-        <v>21</v>
+        <v>18.5</v>
       </c>
       <c r="AO11" t="n">
         <v>100</v>
@@ -2023,10 +2023,10 @@
         <v>2.9</v>
       </c>
       <c r="H12" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="I12" t="n">
-        <v>2.84</v>
+        <v>2.88</v>
       </c>
       <c r="J12" t="n">
         <v>3.35</v>
@@ -2035,7 +2035,7 @@
         <v>3.4</v>
       </c>
       <c r="L12" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="M12" t="n">
         <v>1.09</v>
@@ -2047,31 +2047,31 @@
         <v>1.4</v>
       </c>
       <c r="P12" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="Q12" t="n">
         <v>2.22</v>
       </c>
       <c r="R12" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="S12" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="T12" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="U12" t="n">
         <v>2.02</v>
       </c>
       <c r="V12" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="W12" t="n">
         <v>1.52</v>
       </c>
       <c r="X12" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="Y12" t="n">
         <v>10.5</v>
@@ -2080,10 +2080,10 @@
         <v>17.5</v>
       </c>
       <c r="AA12" t="n">
-        <v>44</v>
+        <v>130</v>
       </c>
       <c r="AB12" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AC12" t="n">
         <v>7.6</v>
@@ -2092,34 +2092,34 @@
         <v>12.5</v>
       </c>
       <c r="AE12" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AF12" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AG12" t="n">
         <v>13</v>
       </c>
       <c r="AH12" t="n">
-        <v>18.5</v>
+        <v>21</v>
       </c>
       <c r="AI12" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AJ12" t="n">
-        <v>280</v>
+        <v>46</v>
       </c>
       <c r="AK12" t="n">
         <v>36</v>
       </c>
       <c r="AL12" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AM12" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AN12" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AO12" t="n">
         <v>1000</v>
@@ -2152,16 +2152,16 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="G13" t="n">
-        <v>3.55</v>
+        <v>3.7</v>
       </c>
       <c r="H13" t="n">
-        <v>2.62</v>
+        <v>2.52</v>
       </c>
       <c r="I13" t="n">
-        <v>2.66</v>
+        <v>2.6</v>
       </c>
       <c r="J13" t="n">
         <v>2.98</v>
@@ -2170,43 +2170,43 @@
         <v>3.05</v>
       </c>
       <c r="L13" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="M13" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="N13" t="n">
-        <v>2.44</v>
+        <v>2.88</v>
       </c>
       <c r="O13" t="n">
         <v>1.47</v>
       </c>
       <c r="P13" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.04</v>
+        <v>2.48</v>
       </c>
       <c r="R13" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="S13" t="n">
-        <v>4.1</v>
+        <v>4.8</v>
       </c>
       <c r="T13" t="n">
-        <v>1.83</v>
+        <v>1.86</v>
       </c>
       <c r="U13" t="n">
         <v>1.04</v>
       </c>
       <c r="V13" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="W13" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="X13" t="n">
-        <v>9.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Y13" t="n">
         <v>1000</v>
@@ -2215,19 +2215,19 @@
         <v>29</v>
       </c>
       <c r="AA13" t="n">
-        <v>1000</v>
+        <v>420</v>
       </c>
       <c r="AB13" t="n">
-        <v>10.5</v>
+        <v>12.5</v>
       </c>
       <c r="AC13" t="n">
-        <v>7.4</v>
+        <v>7</v>
       </c>
       <c r="AD13" t="n">
         <v>12.5</v>
       </c>
       <c r="AE13" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AF13" t="n">
         <v>1000</v>
@@ -2239,7 +2239,7 @@
         <v>22</v>
       </c>
       <c r="AI13" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="AJ13" t="n">
         <v>65</v>
@@ -2248,16 +2248,16 @@
         <v>50</v>
       </c>
       <c r="AL13" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AM13" t="n">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="AN13" t="n">
         <v>1000</v>
       </c>
       <c r="AO13" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14">
@@ -2287,16 +2287,16 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="G14" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="H14" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="I14" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J14" t="n">
         <v>7.4</v>
@@ -2305,7 +2305,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="L14" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="M14" t="n">
         <v>1.03</v>
@@ -2323,25 +2323,25 @@
         <v>1.52</v>
       </c>
       <c r="R14" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="S14" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="T14" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="U14" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="V14" t="n">
         <v>1.05</v>
       </c>
       <c r="W14" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="X14" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="Y14" t="n">
         <v>1000</v>
@@ -2353,7 +2353,7 @@
         <v>1000</v>
       </c>
       <c r="AB14" t="n">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="AC14" t="n">
         <v>23</v>
@@ -2362,7 +2362,7 @@
         <v>1000</v>
       </c>
       <c r="AE14" t="n">
-        <v>330</v>
+        <v>340</v>
       </c>
       <c r="AF14" t="n">
         <v>8.800000000000001</v>
@@ -2374,19 +2374,19 @@
         <v>1000</v>
       </c>
       <c r="AI14" t="n">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="AJ14" t="n">
         <v>9</v>
       </c>
       <c r="AK14" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AL14" t="n">
         <v>170</v>
       </c>
       <c r="AM14" t="n">
-        <v>240</v>
+        <v>260</v>
       </c>
       <c r="AN14" t="n">
         <v>3.7</v>
@@ -2422,10 +2422,10 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="G15" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="H15" t="n">
         <v>4.6</v>
@@ -2434,7 +2434,7 @@
         <v>5</v>
       </c>
       <c r="J15" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="K15" t="n">
         <v>3.7</v>
@@ -2443,13 +2443,13 @@
         <v>1.44</v>
       </c>
       <c r="M15" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N15" t="n">
         <v>3.8</v>
       </c>
       <c r="O15" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="P15" t="n">
         <v>1.96</v>
@@ -2461,7 +2461,7 @@
         <v>1.34</v>
       </c>
       <c r="S15" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="T15" t="n">
         <v>1.84</v>
@@ -2473,7 +2473,7 @@
         <v>1.25</v>
       </c>
       <c r="W15" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="X15" t="n">
         <v>13</v>
@@ -2488,16 +2488,16 @@
         <v>120</v>
       </c>
       <c r="AB15" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AC15" t="n">
-        <v>10.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD15" t="n">
         <v>18.5</v>
       </c>
       <c r="AE15" t="n">
-        <v>170</v>
+        <v>330</v>
       </c>
       <c r="AF15" t="n">
         <v>11.5</v>
@@ -2557,13 +2557,13 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.44</v>
+        <v>2.48</v>
       </c>
       <c r="G16" t="n">
-        <v>2.46</v>
+        <v>2.52</v>
       </c>
       <c r="H16" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="I16" t="n">
         <v>3.25</v>
@@ -2575,13 +2575,13 @@
         <v>3.55</v>
       </c>
       <c r="L16" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="M16" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N16" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="O16" t="n">
         <v>1.35</v>
@@ -2590,28 +2590,28 @@
         <v>1.82</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.16</v>
+        <v>2.06</v>
       </c>
       <c r="R16" t="n">
         <v>1.32</v>
       </c>
       <c r="S16" t="n">
-        <v>3.6</v>
+        <v>3.95</v>
       </c>
       <c r="T16" t="n">
         <v>1.81</v>
       </c>
       <c r="U16" t="n">
-        <v>2.08</v>
+        <v>2.04</v>
       </c>
       <c r="V16" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="W16" t="n">
-        <v>1.68</v>
+        <v>1.65</v>
       </c>
       <c r="X16" t="n">
-        <v>12.5</v>
+        <v>14</v>
       </c>
       <c r="Y16" t="n">
         <v>12</v>
@@ -2626,19 +2626,19 @@
         <v>10.5</v>
       </c>
       <c r="AC16" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="AD16" t="n">
         <v>14</v>
       </c>
       <c r="AE16" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AF16" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AG16" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AH16" t="n">
         <v>19</v>
@@ -2647,7 +2647,7 @@
         <v>55</v>
       </c>
       <c r="AJ16" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AK16" t="n">
         <v>28</v>
@@ -2656,13 +2656,13 @@
         <v>44</v>
       </c>
       <c r="AM16" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AN16" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AO16" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17">
@@ -2698,10 +2698,10 @@
         <v>1.47</v>
       </c>
       <c r="H17" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="I17" t="n">
-        <v>9.6</v>
+        <v>10</v>
       </c>
       <c r="J17" t="n">
         <v>4.8</v>
@@ -2722,7 +2722,7 @@
         <v>1.3</v>
       </c>
       <c r="P17" t="n">
-        <v>1.97</v>
+        <v>1.99</v>
       </c>
       <c r="Q17" t="n">
         <v>1.92</v>
@@ -2731,7 +2731,7 @@
         <v>1.37</v>
       </c>
       <c r="S17" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="T17" t="n">
         <v>2.18</v>
@@ -2740,7 +2740,7 @@
         <v>1.75</v>
       </c>
       <c r="V17" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="W17" t="n">
         <v>3.1</v>
@@ -2752,13 +2752,13 @@
         <v>26</v>
       </c>
       <c r="Z17" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AA17" t="n">
         <v>360</v>
       </c>
       <c r="AB17" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AC17" t="n">
         <v>10.5</v>
@@ -2773,13 +2773,13 @@
         <v>7.8</v>
       </c>
       <c r="AG17" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AH17" t="n">
         <v>30</v>
       </c>
       <c r="AI17" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AJ17" t="n">
         <v>15</v>
@@ -2830,7 +2830,7 @@
         <v>1.18</v>
       </c>
       <c r="G18" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="H18" t="n">
         <v>20</v>
@@ -2839,16 +2839,16 @@
         <v>26</v>
       </c>
       <c r="J18" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="K18" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="L18" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="M18" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N18" t="n">
         <v>6.2</v>
@@ -2857,7 +2857,7 @@
         <v>1.16</v>
       </c>
       <c r="P18" t="n">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="Q18" t="n">
         <v>1.51</v>
@@ -2866,7 +2866,7 @@
         <v>1.71</v>
       </c>
       <c r="S18" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="T18" t="n">
         <v>2.42</v>
@@ -2878,7 +2878,7 @@
         <v>1.04</v>
       </c>
       <c r="W18" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="X18" t="n">
         <v>36</v>
@@ -2980,7 +2980,7 @@
         <v>3.85</v>
       </c>
       <c r="L19" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="M19" t="n">
         <v>1.06</v>
@@ -2995,19 +2995,19 @@
         <v>2.1</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="R19" t="n">
         <v>1.44</v>
       </c>
       <c r="S19" t="n">
-        <v>2.98</v>
+        <v>3.05</v>
       </c>
       <c r="T19" t="n">
         <v>1.72</v>
       </c>
       <c r="U19" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="V19" t="n">
         <v>1.89</v>
@@ -3016,7 +3016,7 @@
         <v>1.34</v>
       </c>
       <c r="X19" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="Y19" t="n">
         <v>11</v>
@@ -3028,7 +3028,7 @@
         <v>25</v>
       </c>
       <c r="AB19" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AC19" t="n">
         <v>8.6</v>
@@ -3067,7 +3067,7 @@
         <v>38</v>
       </c>
       <c r="AO19" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20">
@@ -3097,25 +3097,25 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="G20" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="H20" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I20" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="J20" t="n">
-        <v>6.2</v>
+        <v>5.9</v>
       </c>
       <c r="K20" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="L20" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="M20" t="n">
         <v>1.02</v>
@@ -3139,25 +3139,25 @@
         <v>2.28</v>
       </c>
       <c r="T20" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="U20" t="n">
         <v>2</v>
       </c>
       <c r="V20" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="W20" t="n">
-        <v>4</v>
+        <v>3.85</v>
       </c>
       <c r="X20" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="Y20" t="n">
         <v>50</v>
       </c>
       <c r="Z20" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AA20" t="n">
         <v>500</v>
@@ -3175,7 +3175,7 @@
         <v>170</v>
       </c>
       <c r="AF20" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AG20" t="n">
         <v>11</v>
@@ -3196,13 +3196,13 @@
         <v>32</v>
       </c>
       <c r="AM20" t="n">
-        <v>430</v>
+        <v>140</v>
       </c>
       <c r="AN20" t="n">
         <v>4.3</v>
       </c>
       <c r="AO20" t="n">
-        <v>170</v>
+        <v>180</v>
       </c>
     </row>
     <row r="21">
@@ -3232,16 +3232,16 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.57</v>
+        <v>1.59</v>
       </c>
       <c r="G21" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="H21" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="I21" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="J21" t="n">
         <v>4.7</v>
@@ -3256,34 +3256,34 @@
         <v>1.04</v>
       </c>
       <c r="N21" t="n">
-        <v>5.2</v>
+        <v>5.5</v>
       </c>
       <c r="O21" t="n">
         <v>1.21</v>
       </c>
       <c r="P21" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="R21" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="S21" t="n">
-        <v>2.52</v>
+        <v>2.58</v>
       </c>
       <c r="T21" t="n">
-        <v>1.73</v>
+        <v>1.71</v>
       </c>
       <c r="U21" t="n">
         <v>2.24</v>
       </c>
       <c r="V21" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="W21" t="n">
-        <v>2.68</v>
+        <v>2.66</v>
       </c>
       <c r="X21" t="n">
         <v>29</v>
@@ -3292,7 +3292,7 @@
         <v>30</v>
       </c>
       <c r="Z21" t="n">
-        <v>130</v>
+        <v>55</v>
       </c>
       <c r="AA21" t="n">
         <v>190</v>
@@ -3307,19 +3307,19 @@
         <v>27</v>
       </c>
       <c r="AE21" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AF21" t="n">
         <v>11</v>
       </c>
       <c r="AG21" t="n">
-        <v>9.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="AH21" t="n">
         <v>20</v>
       </c>
       <c r="AI21" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AJ21" t="n">
         <v>15.5</v>
@@ -3331,13 +3331,13 @@
         <v>29</v>
       </c>
       <c r="AM21" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AN21" t="n">
         <v>6.8</v>
       </c>
       <c r="AO21" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="22">
@@ -3376,16 +3376,16 @@
         <v>12.5</v>
       </c>
       <c r="I22" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="J22" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="K22" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="L22" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="M22" t="n">
         <v>1.02</v>
@@ -3397,7 +3397,7 @@
         <v>1.12</v>
       </c>
       <c r="P22" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="Q22" t="n">
         <v>1.37</v>
@@ -3406,10 +3406,10 @@
         <v>1.95</v>
       </c>
       <c r="S22" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="T22" t="n">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="U22" t="n">
         <v>2.06</v>
@@ -3418,7 +3418,7 @@
         <v>1.07</v>
       </c>
       <c r="W22" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="X22" t="n">
         <v>48</v>
@@ -3454,7 +3454,7 @@
         <v>30</v>
       </c>
       <c r="AI22" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AJ22" t="n">
         <v>12.5</v>
@@ -3469,7 +3469,7 @@
         <v>130</v>
       </c>
       <c r="AN22" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="AO22" t="n">
         <v>160</v>
@@ -3502,13 +3502,13 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="G23" t="n">
-        <v>1.69</v>
+        <v>1.67</v>
       </c>
       <c r="H23" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="I23" t="n">
         <v>6</v>
@@ -3520,7 +3520,7 @@
         <v>4.6</v>
       </c>
       <c r="L23" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="M23" t="n">
         <v>1.04</v>
@@ -3541,7 +3541,7 @@
         <v>1.56</v>
       </c>
       <c r="S23" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="T23" t="n">
         <v>1.74</v>
@@ -3553,22 +3553,22 @@
         <v>1.2</v>
       </c>
       <c r="W23" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="X23" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="Y23" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="Z23" t="n">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="AA23" t="n">
         <v>150</v>
       </c>
       <c r="AB23" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="AC23" t="n">
         <v>10.5</v>
@@ -3592,22 +3592,22 @@
         <v>65</v>
       </c>
       <c r="AJ23" t="n">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="AK23" t="n">
         <v>15.5</v>
       </c>
       <c r="AL23" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AM23" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AN23" t="n">
         <v>7.4</v>
       </c>
       <c r="AO23" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-18.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-18.xlsx
@@ -667,58 +667,58 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.83</v>
+        <v>1.89</v>
       </c>
       <c r="G2" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="H2" t="n">
-        <v>3.65</v>
+        <v>3.8</v>
       </c>
       <c r="I2" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="J2" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="K2" t="n">
-        <v>5.3</v>
+        <v>4.3</v>
       </c>
       <c r="L2" t="n">
-        <v>1.34</v>
+        <v>1.39</v>
       </c>
       <c r="M2" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N2" t="n">
-        <v>4.1</v>
+        <v>3.75</v>
       </c>
       <c r="O2" t="n">
-        <v>1.22</v>
+        <v>1.28</v>
       </c>
       <c r="P2" t="n">
-        <v>2.14</v>
+        <v>1.97</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.68</v>
+        <v>1.78</v>
       </c>
       <c r="R2" t="n">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="S2" t="n">
-        <v>2.72</v>
+        <v>3</v>
       </c>
       <c r="T2" t="n">
-        <v>1.65</v>
+        <v>1.8</v>
       </c>
       <c r="U2" t="n">
-        <v>2.2</v>
+        <v>2.06</v>
       </c>
       <c r="V2" t="n">
         <v>1.28</v>
       </c>
       <c r="W2" t="n">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="X2" t="n">
         <v>1000</v>
@@ -733,13 +733,13 @@
         <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AC2" t="n">
         <v>42</v>
       </c>
       <c r="AD2" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AE2" t="n">
         <v>1000</v>
@@ -748,7 +748,7 @@
         <v>1000</v>
       </c>
       <c r="AG2" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AH2" t="n">
         <v>1000</v>
@@ -805,19 +805,19 @@
         <v>3.25</v>
       </c>
       <c r="G3" t="n">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="H3" t="n">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="I3" t="n">
-        <v>2.36</v>
+        <v>2.28</v>
       </c>
       <c r="J3" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="K3" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L3" t="n">
         <v>1.43</v>
@@ -826,34 +826,34 @@
         <v>1.06</v>
       </c>
       <c r="N3" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="O3" t="n">
         <v>1.33</v>
       </c>
       <c r="P3" t="n">
-        <v>1.87</v>
+        <v>1.81</v>
       </c>
       <c r="Q3" t="n">
         <v>1.98</v>
       </c>
       <c r="R3" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="S3" t="n">
         <v>3.4</v>
       </c>
       <c r="T3" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="U3" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="V3" t="n">
-        <v>1.74</v>
+        <v>1.78</v>
       </c>
       <c r="W3" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="X3" t="n">
         <v>1000</v>
@@ -871,22 +871,22 @@
         <v>1000</v>
       </c>
       <c r="AC3" t="n">
-        <v>9.6</v>
+        <v>9</v>
       </c>
       <c r="AD3" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AE3" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AF3" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AG3" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AH3" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AI3" t="n">
         <v>1000</v>
@@ -907,7 +907,7 @@
         <v>1000</v>
       </c>
       <c r="AO3" t="n">
-        <v>85</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4">
@@ -937,37 +937,37 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="G4" t="n">
-        <v>2.18</v>
+        <v>2.28</v>
       </c>
       <c r="H4" t="n">
-        <v>4.6</v>
+        <v>4.2</v>
       </c>
       <c r="I4" t="n">
-        <v>5.3</v>
+        <v>5</v>
       </c>
       <c r="J4" t="n">
-        <v>2.98</v>
+        <v>2.96</v>
       </c>
       <c r="K4" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="L4" t="n">
         <v>1.66</v>
       </c>
       <c r="M4" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="N4" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="O4" t="n">
         <v>1.62</v>
       </c>
       <c r="P4" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="Q4" t="n">
         <v>2.88</v>
@@ -979,67 +979,67 @@
         <v>6.2</v>
       </c>
       <c r="T4" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="U4" t="n">
-        <v>1.61</v>
+        <v>1.04</v>
       </c>
       <c r="V4" t="n">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="W4" t="n">
-        <v>1.86</v>
+        <v>1.79</v>
       </c>
       <c r="X4" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="Y4" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AA4" t="n">
         <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="AC4" t="n">
         <v>7.8</v>
       </c>
       <c r="AD4" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AE4" t="n">
-        <v>290</v>
+        <v>330</v>
       </c>
       <c r="AF4" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AG4" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AH4" t="n">
         <v>30</v>
       </c>
       <c r="AI4" t="n">
-        <v>1000</v>
+        <v>440</v>
       </c>
       <c r="AJ4" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="AK4" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AL4" t="n">
-        <v>240</v>
+        <v>210</v>
       </c>
       <c r="AM4" t="n">
         <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="AO4" t="n">
         <v>1000</v>
@@ -1078,13 +1078,13 @@
         <v>1.46</v>
       </c>
       <c r="H5" t="n">
-        <v>10</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="I5" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="J5" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="K5" t="n">
         <v>5.6</v>
@@ -1096,28 +1096,28 @@
         <v>1.06</v>
       </c>
       <c r="N5" t="n">
-        <v>3.5</v>
+        <v>3.35</v>
       </c>
       <c r="O5" t="n">
         <v>1.37</v>
       </c>
       <c r="P5" t="n">
-        <v>1.87</v>
+        <v>1.84</v>
       </c>
       <c r="Q5" t="n">
         <v>1.92</v>
       </c>
       <c r="R5" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="S5" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="T5" t="n">
         <v>2.2</v>
       </c>
       <c r="U5" t="n">
-        <v>1.63</v>
+        <v>1.61</v>
       </c>
       <c r="V5" t="n">
         <v>1.08</v>
@@ -1126,10 +1126,10 @@
         <v>3.15</v>
       </c>
       <c r="X5" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="Y5" t="n">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="Z5" t="n">
         <v>1000</v>
@@ -1138,25 +1138,25 @@
         <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AC5" t="n">
         <v>12</v>
       </c>
       <c r="AD5" t="n">
-        <v>350</v>
+        <v>120</v>
       </c>
       <c r="AE5" t="n">
         <v>1000</v>
       </c>
       <c r="AF5" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AH5" t="n">
-        <v>95</v>
+        <v>36</v>
       </c>
       <c r="AI5" t="n">
         <v>1000</v>
@@ -1165,7 +1165,7 @@
         <v>12</v>
       </c>
       <c r="AK5" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AL5" t="n">
         <v>400</v>
@@ -1174,7 +1174,7 @@
         <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>8</v>
+        <v>8.4</v>
       </c>
       <c r="AO5" t="n">
         <v>1000</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="G6" t="n">
         <v>2.44</v>
@@ -1216,7 +1216,7 @@
         <v>3</v>
       </c>
       <c r="I6" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="J6" t="n">
         <v>3.85</v>
@@ -1270,7 +1270,7 @@
         <v>23</v>
       </c>
       <c r="AA6" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AB6" t="n">
         <v>13.5</v>
@@ -1312,7 +1312,7 @@
         <v>15</v>
       </c>
       <c r="AO6" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7">
@@ -1342,7 +1342,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="G7" t="n">
         <v>1.3</v>
@@ -1351,13 +1351,13 @@
         <v>14.5</v>
       </c>
       <c r="I7" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="J7" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="K7" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="L7" t="n">
         <v>1.27</v>
@@ -1366,7 +1366,7 @@
         <v>1.03</v>
       </c>
       <c r="N7" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="O7" t="n">
         <v>1.17</v>
@@ -1375,19 +1375,19 @@
         <v>2.72</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="R7" t="n">
         <v>1.7</v>
       </c>
       <c r="S7" t="n">
-        <v>2.36</v>
+        <v>2.3</v>
       </c>
       <c r="T7" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="U7" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="V7" t="n">
         <v>1.06</v>
@@ -1396,58 +1396,58 @@
         <v>4.3</v>
       </c>
       <c r="X7" t="n">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="Y7" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="Z7" t="n">
         <v>140</v>
       </c>
       <c r="AA7" t="n">
-        <v>660</v>
+        <v>620</v>
       </c>
       <c r="AB7" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AC7" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AD7" t="n">
         <v>55</v>
       </c>
       <c r="AE7" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="AF7" t="n">
-        <v>8</v>
+        <v>8.4</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AH7" t="n">
         <v>32</v>
       </c>
       <c r="AI7" t="n">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="AJ7" t="n">
         <v>9.6</v>
       </c>
       <c r="AK7" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AL7" t="n">
-        <v>120</v>
+        <v>42</v>
       </c>
       <c r="AM7" t="n">
         <v>170</v>
       </c>
       <c r="AN7" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="AO7" t="n">
-        <v>270</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="8">
@@ -1477,19 +1477,19 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="G8" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="H8" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="I8" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="J8" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="K8" t="n">
         <v>4.1</v>
@@ -1507,10 +1507,10 @@
         <v>1.39</v>
       </c>
       <c r="P8" t="n">
-        <v>1.74</v>
+        <v>1.81</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="R8" t="n">
         <v>1.27</v>
@@ -1519,16 +1519,16 @@
         <v>4.1</v>
       </c>
       <c r="T8" t="n">
-        <v>2.14</v>
+        <v>2.1</v>
       </c>
       <c r="U8" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="V8" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="W8" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="X8" t="n">
         <v>12</v>
@@ -1537,13 +1537,13 @@
         <v>40</v>
       </c>
       <c r="Z8" t="n">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="AA8" t="n">
         <v>210</v>
       </c>
       <c r="AB8" t="n">
-        <v>7.8</v>
+        <v>7.4</v>
       </c>
       <c r="AC8" t="n">
         <v>8.800000000000001</v>
@@ -1552,7 +1552,7 @@
         <v>25</v>
       </c>
       <c r="AE8" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AF8" t="n">
         <v>8.800000000000001</v>
@@ -1564,7 +1564,7 @@
         <v>28</v>
       </c>
       <c r="AI8" t="n">
-        <v>120</v>
+        <v>290</v>
       </c>
       <c r="AJ8" t="n">
         <v>16</v>
@@ -1573,13 +1573,13 @@
         <v>19</v>
       </c>
       <c r="AL8" t="n">
-        <v>48</v>
+        <v>120</v>
       </c>
       <c r="AM8" t="n">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="AN8" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AO8" t="n">
         <v>170</v>
@@ -1612,22 +1612,22 @@
         </is>
       </c>
       <c r="F9" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="G9" t="n">
         <v>1.95</v>
-      </c>
-      <c r="G9" t="n">
-        <v>1.96</v>
       </c>
       <c r="H9" t="n">
         <v>4.5</v>
       </c>
       <c r="I9" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="J9" t="n">
         <v>3.7</v>
       </c>
       <c r="K9" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="L9" t="n">
         <v>1.42</v>
@@ -1642,22 +1642,22 @@
         <v>1.32</v>
       </c>
       <c r="P9" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="Q9" t="n">
         <v>1.98</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1.97</v>
       </c>
       <c r="R9" t="n">
         <v>1.35</v>
       </c>
       <c r="S9" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="T9" t="n">
         <v>1.84</v>
       </c>
       <c r="U9" t="n">
-        <v>2.08</v>
+        <v>2.04</v>
       </c>
       <c r="V9" t="n">
         <v>1.27</v>
@@ -1666,10 +1666,10 @@
         <v>2.04</v>
       </c>
       <c r="X9" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="Y9" t="n">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="Z9" t="n">
         <v>34</v>
@@ -1678,7 +1678,7 @@
         <v>110</v>
       </c>
       <c r="AB9" t="n">
-        <v>9.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="AC9" t="n">
         <v>8.4</v>
@@ -1690,7 +1690,7 @@
         <v>60</v>
       </c>
       <c r="AF9" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AG9" t="n">
         <v>10.5</v>
@@ -1702,7 +1702,7 @@
         <v>65</v>
       </c>
       <c r="AJ9" t="n">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="AK9" t="n">
         <v>21</v>
@@ -1714,7 +1714,7 @@
         <v>110</v>
       </c>
       <c r="AN9" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AO9" t="n">
         <v>1000</v>
@@ -1747,13 +1747,13 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="G10" t="n">
         <v>1.27</v>
       </c>
       <c r="H10" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="I10" t="n">
         <v>18</v>
@@ -1777,13 +1777,13 @@
         <v>1.18</v>
       </c>
       <c r="P10" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="R10" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="S10" t="n">
         <v>2.46</v>
@@ -1792,7 +1792,7 @@
         <v>2.28</v>
       </c>
       <c r="U10" t="n">
-        <v>1.69</v>
+        <v>1.67</v>
       </c>
       <c r="V10" t="n">
         <v>1.06</v>
@@ -1810,10 +1810,10 @@
         <v>170</v>
       </c>
       <c r="AA10" t="n">
-        <v>840</v>
+        <v>990</v>
       </c>
       <c r="AB10" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="AC10" t="n">
         <v>16</v>
@@ -1822,16 +1822,16 @@
         <v>60</v>
       </c>
       <c r="AE10" t="n">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="AF10" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AG10" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AH10" t="n">
-        <v>150</v>
+        <v>40</v>
       </c>
       <c r="AI10" t="n">
         <v>220</v>
@@ -1840,10 +1840,10 @@
         <v>9.199999999999999</v>
       </c>
       <c r="AK10" t="n">
-        <v>17</v>
+        <v>14.5</v>
       </c>
       <c r="AL10" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AM10" t="n">
         <v>240</v>
@@ -1852,7 +1852,7 @@
         <v>4.1</v>
       </c>
       <c r="AO10" t="n">
-        <v>360</v>
+        <v>460</v>
       </c>
     </row>
     <row r="11">
@@ -1882,10 +1882,10 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.91</v>
+        <v>1.89</v>
       </c>
       <c r="G11" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="H11" t="n">
         <v>4.3</v>
@@ -1897,10 +1897,10 @@
         <v>3.8</v>
       </c>
       <c r="K11" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="L11" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="M11" t="n">
         <v>1.08</v>
@@ -1909,34 +1909,34 @@
         <v>3.2</v>
       </c>
       <c r="O11" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="P11" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="R11" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="S11" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="T11" t="n">
         <v>2.02</v>
       </c>
       <c r="U11" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="V11" t="n">
         <v>1.27</v>
       </c>
       <c r="W11" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="X11" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="Y11" t="n">
         <v>14.5</v>
@@ -1951,43 +1951,43 @@
         <v>7.6</v>
       </c>
       <c r="AC11" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD11" t="n">
         <v>1000</v>
       </c>
       <c r="AE11" t="n">
-        <v>75</v>
+        <v>200</v>
       </c>
       <c r="AF11" t="n">
         <v>11</v>
       </c>
       <c r="AG11" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AH11" t="n">
         <v>24</v>
       </c>
       <c r="AI11" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AJ11" t="n">
         <v>24</v>
       </c>
       <c r="AK11" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AL11" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="AM11" t="n">
-        <v>160</v>
+        <v>580</v>
       </c>
       <c r="AN11" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AO11" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12">
@@ -2017,13 +2017,13 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="G12" t="n">
         <v>2.9</v>
       </c>
       <c r="H12" t="n">
-        <v>2.8</v>
+        <v>2.78</v>
       </c>
       <c r="I12" t="n">
         <v>2.88</v>
@@ -2047,10 +2047,10 @@
         <v>1.4</v>
       </c>
       <c r="P12" t="n">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="R12" t="n">
         <v>1.29</v>
@@ -2059,19 +2059,19 @@
         <v>4</v>
       </c>
       <c r="T12" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="U12" t="n">
         <v>2.02</v>
       </c>
       <c r="V12" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="W12" t="n">
         <v>1.52</v>
       </c>
       <c r="X12" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="Y12" t="n">
         <v>10.5</v>
@@ -2080,19 +2080,19 @@
         <v>17.5</v>
       </c>
       <c r="AA12" t="n">
-        <v>130</v>
+        <v>44</v>
       </c>
       <c r="AB12" t="n">
         <v>10.5</v>
       </c>
       <c r="AC12" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AD12" t="n">
         <v>12.5</v>
       </c>
       <c r="AE12" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AF12" t="n">
         <v>17.5</v>
@@ -2101,10 +2101,10 @@
         <v>13</v>
       </c>
       <c r="AH12" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AI12" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AJ12" t="n">
         <v>46</v>
@@ -2122,7 +2122,7 @@
         <v>38</v>
       </c>
       <c r="AO12" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13">
@@ -2152,40 +2152,40 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="G13" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="H13" t="n">
-        <v>2.52</v>
+        <v>2.58</v>
       </c>
       <c r="I13" t="n">
         <v>2.6</v>
       </c>
       <c r="J13" t="n">
-        <v>2.98</v>
+        <v>2.92</v>
       </c>
       <c r="K13" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="L13" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="M13" t="n">
-        <v>1.12</v>
+        <v>1.14</v>
       </c>
       <c r="N13" t="n">
-        <v>2.88</v>
+        <v>2.84</v>
       </c>
       <c r="O13" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="P13" t="n">
-        <v>1.61</v>
+        <v>1.65</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.48</v>
+        <v>2.52</v>
       </c>
       <c r="R13" t="n">
         <v>1.22</v>
@@ -2194,7 +2194,7 @@
         <v>4.8</v>
       </c>
       <c r="T13" t="n">
-        <v>1.86</v>
+        <v>1.05</v>
       </c>
       <c r="U13" t="n">
         <v>1.04</v>
@@ -2203,28 +2203,28 @@
         <v>1.62</v>
       </c>
       <c r="W13" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="X13" t="n">
-        <v>8.800000000000001</v>
+        <v>8</v>
       </c>
       <c r="Y13" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="Z13" t="n">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="AA13" t="n">
         <v>420</v>
       </c>
       <c r="AB13" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AC13" t="n">
         <v>7</v>
       </c>
       <c r="AD13" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AE13" t="n">
         <v>36</v>
@@ -2236,13 +2236,13 @@
         <v>15.5</v>
       </c>
       <c r="AH13" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI13" t="n">
         <v>60</v>
       </c>
       <c r="AJ13" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AK13" t="n">
         <v>50</v>
@@ -2290,10 +2290,10 @@
         <v>1.21</v>
       </c>
       <c r="G14" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="H14" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="I14" t="n">
         <v>20</v>
@@ -2302,7 +2302,7 @@
         <v>7.4</v>
       </c>
       <c r="K14" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="L14" t="n">
         <v>1.26</v>
@@ -2317,7 +2317,7 @@
         <v>1.16</v>
       </c>
       <c r="P14" t="n">
-        <v>2.8</v>
+        <v>2.84</v>
       </c>
       <c r="Q14" t="n">
         <v>1.52</v>
@@ -2329,7 +2329,7 @@
         <v>2.24</v>
       </c>
       <c r="T14" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="U14" t="n">
         <v>1.73</v>
@@ -2338,10 +2338,10 @@
         <v>1.05</v>
       </c>
       <c r="W14" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="X14" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="Y14" t="n">
         <v>1000</v>
@@ -2356,13 +2356,13 @@
         <v>12</v>
       </c>
       <c r="AC14" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AD14" t="n">
         <v>1000</v>
       </c>
       <c r="AE14" t="n">
-        <v>340</v>
+        <v>300</v>
       </c>
       <c r="AF14" t="n">
         <v>8.800000000000001</v>
@@ -2377,19 +2377,19 @@
         <v>230</v>
       </c>
       <c r="AJ14" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AK14" t="n">
         <v>1000</v>
       </c>
       <c r="AL14" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AM14" t="n">
         <v>260</v>
       </c>
       <c r="AN14" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="AO14" t="n">
         <v>1000</v>
@@ -2422,16 +2422,16 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="G15" t="n">
-        <v>1.98</v>
+        <v>1.96</v>
       </c>
       <c r="H15" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="I15" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="J15" t="n">
         <v>3.55</v>
@@ -2443,37 +2443,37 @@
         <v>1.44</v>
       </c>
       <c r="M15" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N15" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="O15" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="P15" t="n">
-        <v>1.96</v>
+        <v>1.93</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="R15" t="n">
         <v>1.34</v>
       </c>
       <c r="S15" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="T15" t="n">
-        <v>1.84</v>
+        <v>1.89</v>
       </c>
       <c r="U15" t="n">
-        <v>2.02</v>
+        <v>1.99</v>
       </c>
       <c r="V15" t="n">
         <v>1.25</v>
       </c>
       <c r="W15" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="X15" t="n">
         <v>13</v>
@@ -2488,10 +2488,10 @@
         <v>120</v>
       </c>
       <c r="AB15" t="n">
-        <v>9.4</v>
+        <v>9</v>
       </c>
       <c r="AC15" t="n">
-        <v>8.800000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="AD15" t="n">
         <v>18.5</v>
@@ -2500,19 +2500,19 @@
         <v>330</v>
       </c>
       <c r="AF15" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AG15" t="n">
         <v>11</v>
       </c>
       <c r="AH15" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AI15" t="n">
         <v>75</v>
       </c>
       <c r="AJ15" t="n">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="AK15" t="n">
         <v>20</v>
@@ -2521,13 +2521,13 @@
         <v>40</v>
       </c>
       <c r="AM15" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AN15" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AO15" t="n">
-        <v>270</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="16">
@@ -2557,10 +2557,10 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="G16" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="H16" t="n">
         <v>3.15</v>
@@ -2569,10 +2569,10 @@
         <v>3.25</v>
       </c>
       <c r="J16" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="K16" t="n">
         <v>3.5</v>
-      </c>
-      <c r="K16" t="n">
-        <v>3.55</v>
       </c>
       <c r="L16" t="n">
         <v>1.44</v>
@@ -2584,13 +2584,13 @@
         <v>3.5</v>
       </c>
       <c r="O16" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="P16" t="n">
         <v>1.82</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="R16" t="n">
         <v>1.32</v>
@@ -2605,13 +2605,13 @@
         <v>2.04</v>
       </c>
       <c r="V16" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="W16" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="X16" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="Y16" t="n">
         <v>12</v>
@@ -2626,19 +2626,19 @@
         <v>10.5</v>
       </c>
       <c r="AC16" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AD16" t="n">
         <v>14</v>
       </c>
       <c r="AE16" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AF16" t="n">
         <v>15.5</v>
       </c>
       <c r="AG16" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="AH16" t="n">
         <v>19</v>
@@ -2650,19 +2650,19 @@
         <v>36</v>
       </c>
       <c r="AK16" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="AL16" t="n">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="AM16" t="n">
         <v>120</v>
       </c>
       <c r="AN16" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AO16" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17">
@@ -2692,10 +2692,10 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="G17" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="H17" t="n">
         <v>8.800000000000001</v>
@@ -2704,34 +2704,34 @@
         <v>10</v>
       </c>
       <c r="J17" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="K17" t="n">
         <v>5</v>
       </c>
       <c r="L17" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="M17" t="n">
         <v>1.06</v>
       </c>
       <c r="N17" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="O17" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P17" t="n">
-        <v>1.99</v>
+        <v>1.96</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="R17" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="S17" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="T17" t="n">
         <v>2.18</v>
@@ -2740,10 +2740,10 @@
         <v>1.75</v>
       </c>
       <c r="V17" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="W17" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="X17" t="n">
         <v>16</v>
@@ -2758,7 +2758,7 @@
         <v>360</v>
       </c>
       <c r="AB17" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AC17" t="n">
         <v>10.5</v>
@@ -2827,40 +2827,40 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="G18" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="H18" t="n">
         <v>20</v>
       </c>
       <c r="I18" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J18" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="K18" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="L18" t="n">
         <v>1.26</v>
       </c>
       <c r="M18" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N18" t="n">
         <v>6.2</v>
       </c>
       <c r="O18" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="P18" t="n">
-        <v>2.76</v>
+        <v>2.74</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="R18" t="n">
         <v>1.71</v>
@@ -2881,31 +2881,31 @@
         <v>6</v>
       </c>
       <c r="X18" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="Y18" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="Z18" t="n">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="AA18" t="n">
         <v>1000</v>
       </c>
       <c r="AB18" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AC18" t="n">
         <v>21</v>
       </c>
       <c r="AD18" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AE18" t="n">
-        <v>590</v>
+        <v>580</v>
       </c>
       <c r="AF18" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AG18" t="n">
         <v>13</v>
@@ -2914,22 +2914,22 @@
         <v>1000</v>
       </c>
       <c r="AI18" t="n">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="AJ18" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AK18" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AL18" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AM18" t="n">
         <v>350</v>
       </c>
       <c r="AN18" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="AO18" t="n">
         <v>1000</v>
@@ -2962,16 +2962,16 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>3.8</v>
+        <v>3.95</v>
       </c>
       <c r="G19" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="H19" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="I19" t="n">
         <v>2.08</v>
-      </c>
-      <c r="I19" t="n">
-        <v>2.12</v>
       </c>
       <c r="J19" t="n">
         <v>3.75</v>
@@ -2980,7 +2980,7 @@
         <v>3.85</v>
       </c>
       <c r="L19" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="M19" t="n">
         <v>1.06</v>
@@ -2998,25 +2998,25 @@
         <v>1.83</v>
       </c>
       <c r="R19" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="S19" t="n">
         <v>3.05</v>
       </c>
       <c r="T19" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="U19" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="V19" t="n">
-        <v>1.89</v>
+        <v>1.92</v>
       </c>
       <c r="W19" t="n">
-        <v>1.34</v>
+        <v>1.32</v>
       </c>
       <c r="X19" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="Y19" t="n">
         <v>11</v>
@@ -3025,10 +3025,10 @@
         <v>13.5</v>
       </c>
       <c r="AA19" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AB19" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AC19" t="n">
         <v>8.6</v>
@@ -3040,22 +3040,22 @@
         <v>21</v>
       </c>
       <c r="AF19" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AG19" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="AH19" t="n">
         <v>17.5</v>
       </c>
       <c r="AI19" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="AJ19" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AK19" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AL19" t="n">
         <v>55</v>
@@ -3064,10 +3064,10 @@
         <v>85</v>
       </c>
       <c r="AN19" t="n">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="AO19" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20">
@@ -3097,58 +3097,58 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="G20" t="n">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
       <c r="H20" t="n">
         <v>10</v>
       </c>
       <c r="I20" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="J20" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="K20" t="n">
-        <v>7</v>
+        <v>6.4</v>
       </c>
       <c r="L20" t="n">
         <v>1.27</v>
       </c>
       <c r="M20" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N20" t="n">
         <v>6.2</v>
       </c>
       <c r="O20" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="P20" t="n">
         <v>2.8</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.51</v>
+        <v>1.54</v>
       </c>
       <c r="R20" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="S20" t="n">
-        <v>2.28</v>
+        <v>2.34</v>
       </c>
       <c r="T20" t="n">
-        <v>1.91</v>
+        <v>1.88</v>
       </c>
       <c r="U20" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="V20" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="W20" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="X20" t="n">
         <v>30</v>
@@ -3160,22 +3160,22 @@
         <v>110</v>
       </c>
       <c r="AA20" t="n">
-        <v>500</v>
+        <v>360</v>
       </c>
       <c r="AB20" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AC20" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="AD20" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AE20" t="n">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="AF20" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AG20" t="n">
         <v>11</v>
@@ -3187,10 +3187,10 @@
         <v>130</v>
       </c>
       <c r="AJ20" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AK20" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AL20" t="n">
         <v>32</v>
@@ -3199,10 +3199,10 @@
         <v>140</v>
       </c>
       <c r="AN20" t="n">
-        <v>4.3</v>
+        <v>4.7</v>
       </c>
       <c r="AO20" t="n">
-        <v>180</v>
+        <v>140</v>
       </c>
     </row>
     <row r="21">
@@ -3232,25 +3232,25 @@
         </is>
       </c>
       <c r="F21" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="G21" t="n">
         <v>1.59</v>
       </c>
-      <c r="G21" t="n">
-        <v>1.6</v>
-      </c>
       <c r="H21" t="n">
-        <v>5.9</v>
+        <v>6.2</v>
       </c>
       <c r="I21" t="n">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="J21" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="K21" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="L21" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="M21" t="n">
         <v>1.04</v>
@@ -3262,52 +3262,52 @@
         <v>1.21</v>
       </c>
       <c r="P21" t="n">
-        <v>2.46</v>
+        <v>2.42</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.62</v>
+        <v>1.64</v>
       </c>
       <c r="R21" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="S21" t="n">
         <v>2.58</v>
       </c>
       <c r="T21" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="U21" t="n">
         <v>2.24</v>
       </c>
       <c r="V21" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="W21" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="X21" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="Y21" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="Z21" t="n">
-        <v>55</v>
+        <v>130</v>
       </c>
       <c r="AA21" t="n">
         <v>190</v>
       </c>
       <c r="AB21" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AC21" t="n">
         <v>11</v>
       </c>
       <c r="AD21" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AE21" t="n">
-        <v>75</v>
+        <v>210</v>
       </c>
       <c r="AF21" t="n">
         <v>11</v>
@@ -3316,10 +3316,10 @@
         <v>10.5</v>
       </c>
       <c r="AH21" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AI21" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AJ21" t="n">
         <v>15.5</v>
@@ -3328,16 +3328,16 @@
         <v>15</v>
       </c>
       <c r="AL21" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AM21" t="n">
-        <v>90</v>
+        <v>330</v>
       </c>
       <c r="AN21" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="AO21" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="22">
@@ -3370,19 +3370,19 @@
         <v>1.25</v>
       </c>
       <c r="G22" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="H22" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="I22" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="J22" t="n">
-        <v>7.4</v>
+        <v>7.8</v>
       </c>
       <c r="K22" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="L22" t="n">
         <v>1.22</v>
@@ -3391,40 +3391,40 @@
         <v>1.02</v>
       </c>
       <c r="N22" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="O22" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="P22" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.37</v>
+        <v>1.41</v>
       </c>
       <c r="R22" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="S22" t="n">
-        <v>1.95</v>
+        <v>1.97</v>
       </c>
       <c r="T22" t="n">
         <v>1.87</v>
       </c>
       <c r="U22" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="V22" t="n">
         <v>1.07</v>
       </c>
       <c r="W22" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="X22" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="Y22" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="Z22" t="n">
         <v>150</v>
@@ -3436,7 +3436,7 @@
         <v>15</v>
       </c>
       <c r="AC22" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="AD22" t="n">
         <v>48</v>
@@ -3457,10 +3457,10 @@
         <v>130</v>
       </c>
       <c r="AJ22" t="n">
-        <v>12.5</v>
+        <v>10.5</v>
       </c>
       <c r="AK22" t="n">
-        <v>12.5</v>
+        <v>14.5</v>
       </c>
       <c r="AL22" t="n">
         <v>29</v>
@@ -3472,7 +3472,7 @@
         <v>3.3</v>
       </c>
       <c r="AO22" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
     </row>
     <row r="23">
@@ -3502,19 +3502,19 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.63</v>
+        <v>1.66</v>
       </c>
       <c r="G23" t="n">
-        <v>1.67</v>
+        <v>1.71</v>
       </c>
       <c r="H23" t="n">
-        <v>5.5</v>
+        <v>5.1</v>
       </c>
       <c r="I23" t="n">
-        <v>6</v>
+        <v>5.6</v>
       </c>
       <c r="J23" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="K23" t="n">
         <v>4.6</v>
@@ -3532,40 +3532,40 @@
         <v>1.21</v>
       </c>
       <c r="P23" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="R23" t="n">
         <v>1.56</v>
       </c>
       <c r="S23" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="T23" t="n">
-        <v>1.74</v>
+        <v>1.72</v>
       </c>
       <c r="U23" t="n">
         <v>2.22</v>
       </c>
       <c r="V23" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="W23" t="n">
-        <v>2.46</v>
+        <v>2.4</v>
       </c>
       <c r="X23" t="n">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="Y23" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="Z23" t="n">
-        <v>240</v>
+        <v>46</v>
       </c>
       <c r="AA23" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AB23" t="n">
         <v>12</v>
@@ -3577,37 +3577,37 @@
         <v>22</v>
       </c>
       <c r="AE23" t="n">
-        <v>70</v>
+        <v>170</v>
       </c>
       <c r="AF23" t="n">
         <v>11.5</v>
       </c>
       <c r="AG23" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AH23" t="n">
         <v>19</v>
       </c>
       <c r="AI23" t="n">
-        <v>65</v>
+        <v>160</v>
       </c>
       <c r="AJ23" t="n">
-        <v>30</v>
+        <v>17.5</v>
       </c>
       <c r="AK23" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AL23" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="AM23" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AN23" t="n">
         <v>7.4</v>
       </c>
       <c r="AO23" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-18.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-18.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO23"/>
+  <dimension ref="A1:AO24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -667,67 +667,67 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.89</v>
+        <v>2.02</v>
       </c>
       <c r="G2" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="H2" t="n">
-        <v>3.8</v>
+        <v>3.45</v>
       </c>
       <c r="I2" t="n">
-        <v>4.7</v>
+        <v>3.95</v>
       </c>
       <c r="J2" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="K2" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="L2" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="M2" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N2" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="O2" t="n">
         <v>1.28</v>
       </c>
       <c r="P2" t="n">
-        <v>1.97</v>
+        <v>2.06</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="R2" t="n">
-        <v>1.4</v>
+        <v>1.45</v>
       </c>
       <c r="S2" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="T2" t="n">
-        <v>1.8</v>
+        <v>1.68</v>
       </c>
       <c r="U2" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="V2" t="n">
-        <v>1.28</v>
+        <v>1.34</v>
       </c>
       <c r="W2" t="n">
-        <v>1.92</v>
+        <v>1.89</v>
       </c>
       <c r="X2" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="Y2" t="n">
-        <v>1000</v>
+        <v>960</v>
       </c>
       <c r="Z2" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AA2" t="n">
         <v>1000</v>
@@ -736,31 +736,31 @@
         <v>29</v>
       </c>
       <c r="AC2" t="n">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="AD2" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AE2" t="n">
         <v>1000</v>
       </c>
       <c r="AF2" t="n">
-        <v>1000</v>
+        <v>960</v>
       </c>
       <c r="AG2" t="n">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="AH2" t="n">
         <v>1000</v>
       </c>
       <c r="AI2" t="n">
-        <v>1000</v>
+        <v>960</v>
       </c>
       <c r="AJ2" t="n">
-        <v>900</v>
+        <v>180</v>
       </c>
       <c r="AK2" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AL2" t="n">
         <v>1000</v>
@@ -802,61 +802,61 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="G3" t="n">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="H3" t="n">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="I3" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="J3" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K3" t="n">
-        <v>4.1</v>
+        <v>3.85</v>
       </c>
       <c r="L3" t="n">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="M3" t="n">
         <v>1.06</v>
       </c>
       <c r="N3" t="n">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="O3" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P3" t="n">
-        <v>1.81</v>
+        <v>1.98</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.98</v>
+        <v>1.9</v>
       </c>
       <c r="R3" t="n">
-        <v>1.32</v>
+        <v>1.37</v>
       </c>
       <c r="S3" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="T3" t="n">
-        <v>1.69</v>
+        <v>1.77</v>
       </c>
       <c r="U3" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="V3" t="n">
         <v>1.78</v>
       </c>
       <c r="W3" t="n">
-        <v>1.34</v>
+        <v>1.37</v>
       </c>
       <c r="X3" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="Y3" t="n">
         <v>18</v>
@@ -865,16 +865,16 @@
         <v>65</v>
       </c>
       <c r="AA3" t="n">
-        <v>900</v>
+        <v>140</v>
       </c>
       <c r="AB3" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AC3" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="AD3" t="n">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="AE3" t="n">
         <v>140</v>
@@ -889,7 +889,7 @@
         <v>60</v>
       </c>
       <c r="AI3" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AJ3" t="n">
         <v>1000</v>
@@ -901,13 +901,13 @@
         <v>1000</v>
       </c>
       <c r="AM3" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN3" t="n">
         <v>1000</v>
       </c>
       <c r="AO3" t="n">
-        <v>55</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4">
@@ -928,121 +928,121 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>ASO Chlef</t>
+          <t>MB Rouissat</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>MC Oran</t>
+          <t>MC Alger</t>
         </is>
       </c>
       <c r="F4" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="G4" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="I4" t="n">
         <v>2.1</v>
-      </c>
-      <c r="G4" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="H4" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="I4" t="n">
-        <v>5</v>
       </c>
       <c r="J4" t="n">
         <v>2.96</v>
       </c>
       <c r="K4" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="L4" t="n">
         <v>1.66</v>
       </c>
       <c r="M4" t="n">
-        <v>1.15</v>
+        <v>1.13</v>
       </c>
       <c r="N4" t="n">
-        <v>2.3</v>
+        <v>2.18</v>
       </c>
       <c r="O4" t="n">
-        <v>1.62</v>
+        <v>1.68</v>
       </c>
       <c r="P4" t="n">
-        <v>1.43</v>
+        <v>1.39</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.88</v>
+        <v>3.05</v>
       </c>
       <c r="R4" t="n">
-        <v>1.15</v>
+        <v>1.13</v>
       </c>
       <c r="S4" t="n">
-        <v>6.2</v>
+        <v>7</v>
       </c>
       <c r="T4" t="n">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="U4" t="n">
-        <v>1.04</v>
+        <v>1.54</v>
       </c>
       <c r="V4" t="n">
-        <v>1.25</v>
+        <v>1.91</v>
       </c>
       <c r="W4" t="n">
-        <v>1.79</v>
+        <v>1.19</v>
       </c>
       <c r="X4" t="n">
-        <v>7.8</v>
+        <v>8.4</v>
       </c>
       <c r="Y4" t="n">
-        <v>11.5</v>
+        <v>6.6</v>
       </c>
       <c r="Z4" t="n">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="AA4" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AB4" t="n">
-        <v>6.6</v>
+        <v>15</v>
       </c>
       <c r="AC4" t="n">
-        <v>7.8</v>
+        <v>9.4</v>
       </c>
       <c r="AD4" t="n">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="AE4" t="n">
-        <v>330</v>
+        <v>70</v>
       </c>
       <c r="AF4" t="n">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="AH4" t="n">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="AI4" t="n">
-        <v>440</v>
+        <v>260</v>
       </c>
       <c r="AJ4" t="n">
-        <v>32</v>
+        <v>260</v>
       </c>
       <c r="AK4" t="n">
-        <v>36</v>
+        <v>180</v>
       </c>
       <c r="AL4" t="n">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="AM4" t="n">
-        <v>1000</v>
+        <v>450</v>
       </c>
       <c r="AN4" t="n">
-        <v>36</v>
+        <v>370</v>
       </c>
       <c r="AO4" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5">
@@ -1058,123 +1058,123 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>13:00:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>USM Alger</t>
+          <t>ASO Chlef</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>ES Ben Aknoun</t>
+          <t>MC Oran</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.36</v>
+        <v>2</v>
       </c>
       <c r="G5" t="n">
-        <v>1.46</v>
+        <v>2.14</v>
       </c>
       <c r="H5" t="n">
-        <v>8.800000000000001</v>
+        <v>4.8</v>
       </c>
       <c r="I5" t="n">
-        <v>13.5</v>
+        <v>5.8</v>
       </c>
       <c r="J5" t="n">
-        <v>4.1</v>
+        <v>2.94</v>
       </c>
       <c r="K5" t="n">
-        <v>5.6</v>
+        <v>3.4</v>
       </c>
       <c r="L5" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="N5" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="P5" t="n">
         <v>1.41</v>
       </c>
-      <c r="M5" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N5" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="P5" t="n">
-        <v>1.84</v>
-      </c>
       <c r="Q5" t="n">
-        <v>1.92</v>
+        <v>2.92</v>
       </c>
       <c r="R5" t="n">
-        <v>1.32</v>
+        <v>1.14</v>
       </c>
       <c r="S5" t="n">
-        <v>3.3</v>
+        <v>6.6</v>
       </c>
       <c r="T5" t="n">
-        <v>2.2</v>
+        <v>2.42</v>
       </c>
       <c r="U5" t="n">
-        <v>1.61</v>
+        <v>1.63</v>
       </c>
       <c r="V5" t="n">
-        <v>1.08</v>
+        <v>1.22</v>
       </c>
       <c r="W5" t="n">
-        <v>3.15</v>
+        <v>1.87</v>
       </c>
       <c r="X5" t="n">
-        <v>15.5</v>
+        <v>7.8</v>
       </c>
       <c r="Y5" t="n">
-        <v>30</v>
+        <v>12.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AA5" t="n">
         <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>7.2</v>
+        <v>6.2</v>
       </c>
       <c r="AC5" t="n">
-        <v>12</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD5" t="n">
-        <v>120</v>
+        <v>26</v>
       </c>
       <c r="AE5" t="n">
         <v>1000</v>
       </c>
       <c r="AF5" t="n">
-        <v>7.8</v>
+        <v>10.5</v>
       </c>
       <c r="AG5" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="AH5" t="n">
+        <v>34</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>27</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>210</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN5" t="n">
         <v>36</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>400</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>8.4</v>
       </c>
       <c r="AO5" t="n">
         <v>1000</v>
@@ -1183,7 +1183,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UEFA Europa Conference League</t>
+          <t>Algerian Ligue 1</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,126 +1193,126 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Slovan Bratislava</t>
+          <t>USM Alger</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Hacken</t>
+          <t>ES Ben Aknoun</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.4</v>
+        <v>1.38</v>
       </c>
       <c r="G6" t="n">
-        <v>2.44</v>
+        <v>1.45</v>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="I6" t="n">
-        <v>3.1</v>
+        <v>13</v>
       </c>
       <c r="J6" t="n">
-        <v>3.85</v>
+        <v>4.5</v>
       </c>
       <c r="K6" t="n">
-        <v>3.95</v>
+        <v>5.6</v>
       </c>
       <c r="L6" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N6" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="R6" t="n">
         <v>1.34</v>
       </c>
-      <c r="M6" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N6" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="P6" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.5</v>
-      </c>
       <c r="S6" t="n">
-        <v>2.84</v>
+        <v>3.4</v>
       </c>
       <c r="T6" t="n">
-        <v>1.65</v>
+        <v>2.26</v>
       </c>
       <c r="U6" t="n">
-        <v>2.38</v>
+        <v>1.63</v>
       </c>
       <c r="V6" t="n">
-        <v>1.48</v>
+        <v>1.08</v>
       </c>
       <c r="W6" t="n">
-        <v>1.69</v>
+        <v>3.15</v>
       </c>
       <c r="X6" t="n">
-        <v>19</v>
+        <v>16.5</v>
       </c>
       <c r="Y6" t="n">
-        <v>15.5</v>
+        <v>75</v>
       </c>
       <c r="Z6" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AA6" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AB6" t="n">
-        <v>13.5</v>
+        <v>7.4</v>
       </c>
       <c r="AC6" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AD6" t="n">
-        <v>14</v>
+        <v>350</v>
       </c>
       <c r="AE6" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AF6" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>95</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AK6" t="n">
         <v>17.5</v>
       </c>
-      <c r="AG6" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>38</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>32</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>23</v>
-      </c>
       <c r="AL6" t="n">
-        <v>32</v>
+        <v>150</v>
       </c>
       <c r="AM6" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>15</v>
+        <v>8.4</v>
       </c>
       <c r="AO6" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="7">
@@ -1333,121 +1333,121 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Crystal Palace</t>
+          <t>Slovan Bratislava</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>KuPS</t>
+          <t>Hacken</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.28</v>
+        <v>2.66</v>
       </c>
       <c r="G7" t="n">
-        <v>1.3</v>
+        <v>2.7</v>
       </c>
       <c r="H7" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="I7" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="J7" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="K7" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N7" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="P7" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="S7" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="T7" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="U7" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="V7" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="W7" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="X7" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>20</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>40</v>
+      </c>
+      <c r="AB7" t="n">
         <v>14.5</v>
       </c>
-      <c r="I7" t="n">
-        <v>16</v>
-      </c>
-      <c r="J7" t="n">
-        <v>6</v>
-      </c>
-      <c r="K7" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="L7" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N7" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P7" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="S7" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="T7" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="U7" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="V7" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="W7" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="X7" t="n">
+      <c r="AC7" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AE7" t="n">
         <v>27</v>
       </c>
-      <c r="Y7" t="n">
-        <v>55</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>140</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>620</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>11</v>
-      </c>
-      <c r="AC7" t="n">
+      <c r="AF7" t="n">
+        <v>20</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH7" t="n">
         <v>15</v>
       </c>
-      <c r="AD7" t="n">
-        <v>55</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>300</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>32</v>
-      </c>
       <c r="AI7" t="n">
-        <v>180</v>
+        <v>34</v>
       </c>
       <c r="AJ7" t="n">
-        <v>9.6</v>
+        <v>40</v>
       </c>
       <c r="AK7" t="n">
-        <v>13.5</v>
+        <v>27</v>
       </c>
       <c r="AL7" t="n">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="AM7" t="n">
-        <v>170</v>
+        <v>65</v>
       </c>
       <c r="AN7" t="n">
-        <v>4</v>
+        <v>19.5</v>
       </c>
       <c r="AO7" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="8">
@@ -1468,121 +1468,121 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>AEK Larnaca</t>
+          <t>Crystal Palace</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Shkendija</t>
+          <t>KuPS</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.68</v>
+        <v>1.28</v>
       </c>
       <c r="G8" t="n">
-        <v>1.7</v>
+        <v>1.29</v>
       </c>
       <c r="H8" t="n">
-        <v>6.2</v>
+        <v>14.5</v>
       </c>
       <c r="I8" t="n">
-        <v>6.6</v>
+        <v>15.5</v>
       </c>
       <c r="J8" t="n">
-        <v>3.95</v>
+        <v>6.4</v>
       </c>
       <c r="K8" t="n">
-        <v>4.1</v>
+        <v>6.8</v>
       </c>
       <c r="L8" t="n">
-        <v>1.47</v>
+        <v>1.27</v>
       </c>
       <c r="M8" t="n">
-        <v>1.08</v>
+        <v>1.03</v>
       </c>
       <c r="N8" t="n">
-        <v>3.2</v>
+        <v>6.4</v>
       </c>
       <c r="O8" t="n">
-        <v>1.39</v>
+        <v>1.17</v>
       </c>
       <c r="P8" t="n">
-        <v>1.81</v>
+        <v>2.82</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.16</v>
+        <v>1.53</v>
       </c>
       <c r="R8" t="n">
-        <v>1.27</v>
+        <v>1.72</v>
       </c>
       <c r="S8" t="n">
-        <v>4.1</v>
+        <v>2.34</v>
       </c>
       <c r="T8" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="U8" t="n">
-        <v>1.76</v>
+        <v>1.82</v>
       </c>
       <c r="V8" t="n">
-        <v>1.17</v>
+        <v>1.06</v>
       </c>
       <c r="W8" t="n">
-        <v>2.42</v>
+        <v>4.4</v>
       </c>
       <c r="X8" t="n">
+        <v>27</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>55</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>150</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>620</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>55</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>300</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AG8" t="n">
         <v>12</v>
       </c>
-      <c r="Y8" t="n">
-        <v>40</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>55</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>210</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>25</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>110</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>10.5</v>
-      </c>
       <c r="AH8" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="AI8" t="n">
-        <v>290</v>
+        <v>190</v>
       </c>
       <c r="AJ8" t="n">
-        <v>16</v>
+        <v>9.6</v>
       </c>
       <c r="AK8" t="n">
-        <v>19</v>
+        <v>13.5</v>
       </c>
       <c r="AL8" t="n">
-        <v>120</v>
+        <v>42</v>
       </c>
       <c r="AM8" t="n">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="AN8" t="n">
-        <v>12.5</v>
+        <v>4</v>
       </c>
       <c r="AO8" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="9">
@@ -1603,121 +1603,121 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Shakhtar</t>
+          <t>AEK Larnaca</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Rijeka</t>
+          <t>Shkendija</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.93</v>
+        <v>1.65</v>
       </c>
       <c r="G9" t="n">
-        <v>1.95</v>
+        <v>1.66</v>
       </c>
       <c r="H9" t="n">
-        <v>4.5</v>
+        <v>6.4</v>
       </c>
       <c r="I9" t="n">
-        <v>4.7</v>
+        <v>6.8</v>
       </c>
       <c r="J9" t="n">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="K9" t="n">
-        <v>3.75</v>
+        <v>4.1</v>
       </c>
       <c r="L9" t="n">
-        <v>1.42</v>
+        <v>1.48</v>
       </c>
       <c r="M9" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N9" t="n">
-        <v>3.8</v>
+        <v>3.35</v>
       </c>
       <c r="O9" t="n">
-        <v>1.32</v>
+        <v>1.39</v>
       </c>
       <c r="P9" t="n">
-        <v>1.97</v>
+        <v>1.79</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.98</v>
+        <v>2.16</v>
       </c>
       <c r="R9" t="n">
-        <v>1.35</v>
+        <v>1.3</v>
       </c>
       <c r="S9" t="n">
-        <v>3.45</v>
+        <v>4.1</v>
       </c>
       <c r="T9" t="n">
-        <v>1.84</v>
+        <v>2.12</v>
       </c>
       <c r="U9" t="n">
-        <v>2.04</v>
+        <v>1.77</v>
       </c>
       <c r="V9" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="W9" t="n">
-        <v>2.04</v>
+        <v>2.5</v>
       </c>
       <c r="X9" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="Y9" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Z9" t="n">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="AA9" t="n">
-        <v>110</v>
+        <v>210</v>
       </c>
       <c r="AB9" t="n">
-        <v>9.4</v>
+        <v>7.2</v>
       </c>
       <c r="AC9" t="n">
-        <v>8.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD9" t="n">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="AE9" t="n">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="AF9" t="n">
-        <v>11.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AG9" t="n">
         <v>10.5</v>
       </c>
       <c r="AH9" t="n">
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="AI9" t="n">
-        <v>65</v>
+        <v>290</v>
       </c>
       <c r="AJ9" t="n">
-        <v>42</v>
+        <v>15.5</v>
       </c>
       <c r="AK9" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AL9" t="n">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="AM9" t="n">
-        <v>110</v>
+        <v>580</v>
       </c>
       <c r="AN9" t="n">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="AO9" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
     </row>
     <row r="10">
@@ -1738,121 +1738,121 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>NK Celje</t>
+          <t>Shakhtar</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Shelbourne</t>
+          <t>Rijeka</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.24</v>
+        <v>1.96</v>
       </c>
       <c r="G10" t="n">
-        <v>1.27</v>
+        <v>1.99</v>
       </c>
       <c r="H10" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="I10" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="J10" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K10" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N10" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="S10" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="T10" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="U10" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="V10" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="W10" t="n">
+        <v>2</v>
+      </c>
+      <c r="X10" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Y10" t="n">
         <v>15</v>
       </c>
-      <c r="I10" t="n">
-        <v>18</v>
-      </c>
-      <c r="J10" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="K10" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="L10" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N10" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="P10" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="R10" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="S10" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="T10" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="U10" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="V10" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="W10" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="X10" t="n">
-        <v>26</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>48</v>
-      </c>
       <c r="Z10" t="n">
-        <v>170</v>
+        <v>34</v>
       </c>
       <c r="AA10" t="n">
-        <v>990</v>
+        <v>130</v>
       </c>
       <c r="AB10" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>19</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>65</v>
+      </c>
+      <c r="AF10" t="n">
         <v>11.5</v>
       </c>
-      <c r="AC10" t="n">
-        <v>16</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>60</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>320</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>7.4</v>
-      </c>
       <c r="AG10" t="n">
-        <v>12.5</v>
+        <v>10.5</v>
       </c>
       <c r="AH10" t="n">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="AI10" t="n">
-        <v>220</v>
+        <v>160</v>
       </c>
       <c r="AJ10" t="n">
-        <v>9.199999999999999</v>
+        <v>42</v>
       </c>
       <c r="AK10" t="n">
-        <v>14.5</v>
+        <v>22</v>
       </c>
       <c r="AL10" t="n">
-        <v>48</v>
+        <v>95</v>
       </c>
       <c r="AM10" t="n">
-        <v>240</v>
+        <v>580</v>
       </c>
       <c r="AN10" t="n">
-        <v>4.1</v>
+        <v>16.5</v>
       </c>
       <c r="AO10" t="n">
-        <v>460</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11">
@@ -1873,121 +1873,121 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Zrinjski</t>
+          <t>NK Celje</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Rapid Vienna</t>
+          <t>Shelbourne</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.89</v>
+        <v>1.24</v>
       </c>
       <c r="G11" t="n">
-        <v>1.95</v>
+        <v>1.27</v>
       </c>
       <c r="H11" t="n">
-        <v>4.3</v>
+        <v>14</v>
       </c>
       <c r="I11" t="n">
-        <v>4.6</v>
+        <v>16.5</v>
       </c>
       <c r="J11" t="n">
-        <v>3.8</v>
+        <v>7</v>
       </c>
       <c r="K11" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="L11" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N11" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P11" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S11" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="T11" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="U11" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="V11" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="W11" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="X11" t="n">
+        <v>32</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>60</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>190</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>910</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>16</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>55</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>320</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>38</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>240</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>14</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>240</v>
+      </c>
+      <c r="AN11" t="n">
         <v>4.2</v>
       </c>
-      <c r="L11" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="M11" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N11" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="P11" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="R11" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="S11" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="T11" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="U11" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="V11" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="W11" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="X11" t="n">
-        <v>21</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>34</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>120</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>200</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>11</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>24</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>80</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>24</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>22</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>44</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>580</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>17.5</v>
-      </c>
       <c r="AO11" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="12">
@@ -2008,121 +2008,121 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Omonia</t>
+          <t>Zrinjski</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Rakow Czestochowa</t>
+          <t>Rapid Vienna</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.8</v>
+        <v>2</v>
       </c>
       <c r="G12" t="n">
-        <v>2.9</v>
+        <v>2.04</v>
       </c>
       <c r="H12" t="n">
-        <v>2.78</v>
+        <v>4</v>
       </c>
       <c r="I12" t="n">
-        <v>2.88</v>
+        <v>4.3</v>
       </c>
       <c r="J12" t="n">
-        <v>3.35</v>
+        <v>3.75</v>
       </c>
       <c r="K12" t="n">
-        <v>3.4</v>
+        <v>3.85</v>
       </c>
       <c r="L12" t="n">
-        <v>1.46</v>
+        <v>1.51</v>
       </c>
       <c r="M12" t="n">
         <v>1.09</v>
       </c>
       <c r="N12" t="n">
-        <v>3.35</v>
+        <v>3.2</v>
       </c>
       <c r="O12" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="P12" t="n">
-        <v>1.76</v>
+        <v>1.74</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="R12" t="n">
-        <v>1.29</v>
+        <v>1.26</v>
       </c>
       <c r="S12" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="T12" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="U12" t="n">
         <v>1.9</v>
       </c>
-      <c r="U12" t="n">
-        <v>2.02</v>
-      </c>
       <c r="V12" t="n">
-        <v>1.54</v>
+        <v>1.3</v>
       </c>
       <c r="W12" t="n">
-        <v>1.52</v>
+        <v>1.96</v>
       </c>
       <c r="X12" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Y12" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>100</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>65</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AG12" t="n">
         <v>10.5</v>
       </c>
-      <c r="Z12" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>44</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>34</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>13</v>
-      </c>
       <c r="AH12" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="AI12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>25</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>24</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>46</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>140</v>
+      </c>
+      <c r="AN12" t="n">
         <v>55</v>
       </c>
-      <c r="AJ12" t="n">
-        <v>46</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>36</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>55</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>120</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>38</v>
-      </c>
       <c r="AO12" t="n">
-        <v>32</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13">
@@ -2143,121 +2143,121 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Sigma Olomouc</t>
+          <t>Omonia</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Lech Poznan</t>
+          <t>Rakow Czestochowa</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>3.55</v>
+        <v>2.86</v>
       </c>
       <c r="G13" t="n">
-        <v>3.75</v>
+        <v>2.9</v>
       </c>
       <c r="H13" t="n">
-        <v>2.58</v>
+        <v>2.82</v>
       </c>
       <c r="I13" t="n">
-        <v>2.6</v>
+        <v>2.84</v>
       </c>
       <c r="J13" t="n">
-        <v>2.92</v>
+        <v>3.35</v>
       </c>
       <c r="K13" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="L13" t="n">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="M13" t="n">
-        <v>1.14</v>
+        <v>1.09</v>
       </c>
       <c r="N13" t="n">
-        <v>2.84</v>
+        <v>3.4</v>
       </c>
       <c r="O13" t="n">
-        <v>1.48</v>
+        <v>1.4</v>
       </c>
       <c r="P13" t="n">
-        <v>1.65</v>
+        <v>1.77</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.52</v>
+        <v>2.2</v>
       </c>
       <c r="R13" t="n">
-        <v>1.22</v>
+        <v>1.3</v>
       </c>
       <c r="S13" t="n">
-        <v>4.8</v>
+        <v>4.1</v>
       </c>
       <c r="T13" t="n">
-        <v>1.05</v>
+        <v>1.91</v>
       </c>
       <c r="U13" t="n">
-        <v>1.04</v>
+        <v>2.02</v>
       </c>
       <c r="V13" t="n">
-        <v>1.62</v>
+        <v>1.54</v>
       </c>
       <c r="W13" t="n">
-        <v>1.36</v>
+        <v>1.53</v>
       </c>
       <c r="X13" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="Y13" t="n">
-        <v>16.5</v>
+        <v>10</v>
       </c>
       <c r="Z13" t="n">
-        <v>60</v>
+        <v>17.5</v>
       </c>
       <c r="AA13" t="n">
-        <v>420</v>
+        <v>44</v>
       </c>
       <c r="AB13" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AC13" t="n">
-        <v>7</v>
+        <v>7.4</v>
       </c>
       <c r="AD13" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AE13" t="n">
+        <v>34</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>55</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>110</v>
+      </c>
+      <c r="AK13" t="n">
         <v>36</v>
       </c>
-      <c r="AF13" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>60</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>75</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>50</v>
-      </c>
       <c r="AL13" t="n">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="AM13" t="n">
-        <v>160</v>
+        <v>580</v>
       </c>
       <c r="AN13" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AO13" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14">
@@ -2278,121 +2278,121 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Sparta Prague</t>
+          <t>Sigma Olomouc</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Aberdeen</t>
+          <t>Lech Poznan</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.21</v>
+        <v>3.4</v>
       </c>
       <c r="G14" t="n">
-        <v>1.24</v>
+        <v>3.5</v>
       </c>
       <c r="H14" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="I14" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="J14" t="n">
+        <v>3</v>
+      </c>
+      <c r="K14" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="N14" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="P14" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="S14" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="T14" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="U14" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="V14" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="W14" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X14" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>95</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG14" t="n">
         <v>15.5</v>
       </c>
-      <c r="I14" t="n">
-        <v>20</v>
-      </c>
-      <c r="J14" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="K14" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="L14" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="M14" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N14" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="P14" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="R14" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="S14" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="T14" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="U14" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="V14" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="W14" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="X14" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>200</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>12</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>300</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>13</v>
-      </c>
       <c r="AH14" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AI14" t="n">
-        <v>230</v>
+        <v>60</v>
       </c>
       <c r="AJ14" t="n">
-        <v>9.199999999999999</v>
+        <v>70</v>
       </c>
       <c r="AK14" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AL14" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AM14" t="n">
-        <v>260</v>
+        <v>160</v>
       </c>
       <c r="AN14" t="n">
-        <v>3.75</v>
+        <v>1000</v>
       </c>
       <c r="AO14" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15">
@@ -2413,118 +2413,118 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Shamrock Rovers</t>
+          <t>Sparta Prague</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Hamrun Spartans FC</t>
+          <t>Aberdeen</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.9</v>
+        <v>1.22</v>
       </c>
       <c r="G15" t="n">
-        <v>1.96</v>
+        <v>1.23</v>
       </c>
       <c r="H15" t="n">
-        <v>4.7</v>
+        <v>15.5</v>
       </c>
       <c r="I15" t="n">
-        <v>5.1</v>
+        <v>18</v>
       </c>
       <c r="J15" t="n">
-        <v>3.55</v>
+        <v>7.8</v>
       </c>
       <c r="K15" t="n">
-        <v>3.7</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="L15" t="n">
-        <v>1.44</v>
+        <v>1.27</v>
       </c>
       <c r="M15" t="n">
-        <v>1.08</v>
+        <v>1.03</v>
       </c>
       <c r="N15" t="n">
-        <v>3.6</v>
+        <v>6.4</v>
       </c>
       <c r="O15" t="n">
-        <v>1.34</v>
+        <v>1.16</v>
       </c>
       <c r="P15" t="n">
-        <v>1.93</v>
+        <v>2.88</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.04</v>
+        <v>1.51</v>
       </c>
       <c r="R15" t="n">
-        <v>1.34</v>
+        <v>1.75</v>
       </c>
       <c r="S15" t="n">
-        <v>3.6</v>
+        <v>2.28</v>
       </c>
       <c r="T15" t="n">
-        <v>1.89</v>
+        <v>2.26</v>
       </c>
       <c r="U15" t="n">
-        <v>1.99</v>
+        <v>1.76</v>
       </c>
       <c r="V15" t="n">
-        <v>1.25</v>
+        <v>1.06</v>
       </c>
       <c r="W15" t="n">
-        <v>2.04</v>
+        <v>5.3</v>
       </c>
       <c r="X15" t="n">
+        <v>80</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>400</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>190</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>29</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>290</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AG15" t="n">
         <v>13</v>
       </c>
-      <c r="Y15" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>36</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>120</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>9</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>330</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>11</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>11</v>
-      </c>
       <c r="AH15" t="n">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="AI15" t="n">
-        <v>75</v>
+        <v>210</v>
       </c>
       <c r="AJ15" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="AK15" t="n">
-        <v>20</v>
+        <v>14.5</v>
       </c>
       <c r="AL15" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AM15" t="n">
-        <v>120</v>
+        <v>230</v>
       </c>
       <c r="AN15" t="n">
-        <v>15</v>
+        <v>3.75</v>
       </c>
       <c r="AO15" t="n">
         <v>1000</v>
@@ -2548,121 +2548,121 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Dynamo Kiev</t>
+          <t>Shamrock Rovers</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>FC Noah</t>
+          <t>Hamrun Spartans FC</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.46</v>
+        <v>1.86</v>
       </c>
       <c r="G16" t="n">
-        <v>2.5</v>
+        <v>1.89</v>
       </c>
       <c r="H16" t="n">
-        <v>3.15</v>
+        <v>4.9</v>
       </c>
       <c r="I16" t="n">
-        <v>3.25</v>
+        <v>5.2</v>
       </c>
       <c r="J16" t="n">
-        <v>3.45</v>
+        <v>3.7</v>
       </c>
       <c r="K16" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="L16" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="M16" t="n">
         <v>1.08</v>
       </c>
       <c r="N16" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="O16" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="P16" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
       <c r="R16" t="n">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="S16" t="n">
-        <v>3.95</v>
+        <v>3.75</v>
       </c>
       <c r="T16" t="n">
-        <v>1.81</v>
+        <v>1.91</v>
       </c>
       <c r="U16" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="V16" t="n">
-        <v>1.44</v>
+        <v>1.23</v>
       </c>
       <c r="W16" t="n">
-        <v>1.66</v>
+        <v>2.12</v>
       </c>
       <c r="X16" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="Y16" t="n">
-        <v>12</v>
+        <v>16.5</v>
       </c>
       <c r="Z16" t="n">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="AA16" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="AB16" t="n">
-        <v>10.5</v>
+        <v>8.6</v>
       </c>
       <c r="AC16" t="n">
-        <v>7.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD16" t="n">
-        <v>14</v>
+        <v>19.5</v>
       </c>
       <c r="AE16" t="n">
+        <v>330</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>75</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>20</v>
+      </c>
+      <c r="AL16" t="n">
         <v>40</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>19</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>55</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>36</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>32</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>48</v>
       </c>
       <c r="AM16" t="n">
         <v>120</v>
       </c>
       <c r="AN16" t="n">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="AO16" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="17">
@@ -2683,121 +2683,121 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>AEK Athens</t>
+          <t>Dynamo Kiev</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Universitatea Craiova</t>
+          <t>FC Noah</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.44</v>
+        <v>2.22</v>
       </c>
       <c r="G17" t="n">
-        <v>1.46</v>
+        <v>2.26</v>
       </c>
       <c r="H17" t="n">
-        <v>8.800000000000001</v>
+        <v>3.45</v>
       </c>
       <c r="I17" t="n">
-        <v>10</v>
+        <v>3.55</v>
       </c>
       <c r="J17" t="n">
-        <v>4.9</v>
+        <v>3.7</v>
       </c>
       <c r="K17" t="n">
-        <v>5</v>
+        <v>3.8</v>
       </c>
       <c r="L17" t="n">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
       <c r="M17" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N17" t="n">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="O17" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P17" t="n">
-        <v>1.96</v>
+        <v>2.1</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.94</v>
+        <v>1.85</v>
       </c>
       <c r="R17" t="n">
-        <v>1.36</v>
+        <v>1.43</v>
       </c>
       <c r="S17" t="n">
-        <v>3.4</v>
+        <v>3.15</v>
       </c>
       <c r="T17" t="n">
-        <v>2.18</v>
+        <v>1.74</v>
       </c>
       <c r="U17" t="n">
-        <v>1.75</v>
+        <v>2.22</v>
       </c>
       <c r="V17" t="n">
-        <v>1.11</v>
+        <v>1.39</v>
       </c>
       <c r="W17" t="n">
-        <v>3.15</v>
+        <v>1.79</v>
       </c>
       <c r="X17" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="Y17" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="Z17" t="n">
-        <v>85</v>
+        <v>27</v>
       </c>
       <c r="AA17" t="n">
-        <v>360</v>
+        <v>65</v>
       </c>
       <c r="AB17" t="n">
-        <v>7.8</v>
+        <v>11</v>
       </c>
       <c r="AC17" t="n">
-        <v>10.5</v>
+        <v>8.4</v>
       </c>
       <c r="AD17" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>95</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>46</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>28</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>22</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>80</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AO17" t="n">
         <v>36</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>180</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>30</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>150</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>17</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>44</v>
-      </c>
-      <c r="AM17" t="n">
-        <v>200</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>8</v>
-      </c>
-      <c r="AO17" t="n">
-        <v>260</v>
       </c>
     </row>
     <row r="18">
@@ -2818,121 +2818,121 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Rayo Vallecano</t>
+          <t>AEK Athens</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>KF Drita</t>
+          <t>Universitatea Craiova</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.19</v>
+        <v>1.43</v>
       </c>
       <c r="G18" t="n">
-        <v>1.2</v>
+        <v>1.45</v>
       </c>
       <c r="H18" t="n">
-        <v>20</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="I18" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="J18" t="n">
-        <v>8.199999999999999</v>
+        <v>4.9</v>
       </c>
       <c r="K18" t="n">
-        <v>9</v>
+        <v>5.1</v>
       </c>
       <c r="L18" t="n">
-        <v>1.26</v>
+        <v>1.42</v>
       </c>
       <c r="M18" t="n">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="N18" t="n">
-        <v>6.2</v>
+        <v>4</v>
       </c>
       <c r="O18" t="n">
-        <v>1.17</v>
+        <v>1.3</v>
       </c>
       <c r="P18" t="n">
-        <v>2.74</v>
+        <v>2</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.52</v>
+        <v>1.93</v>
       </c>
       <c r="R18" t="n">
-        <v>1.71</v>
+        <v>1.38</v>
       </c>
       <c r="S18" t="n">
-        <v>2.26</v>
+        <v>3.4</v>
       </c>
       <c r="T18" t="n">
-        <v>2.42</v>
+        <v>2.24</v>
       </c>
       <c r="U18" t="n">
-        <v>1.61</v>
+        <v>1.74</v>
       </c>
       <c r="V18" t="n">
-        <v>1.04</v>
+        <v>1.11</v>
       </c>
       <c r="W18" t="n">
-        <v>6</v>
+        <v>3.2</v>
       </c>
       <c r="X18" t="n">
-        <v>34</v>
+        <v>15.5</v>
       </c>
       <c r="Y18" t="n">
-        <v>75</v>
+        <v>27</v>
       </c>
       <c r="Z18" t="n">
-        <v>290</v>
+        <v>90</v>
       </c>
       <c r="AA18" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="AB18" t="n">
-        <v>11</v>
+        <v>7.8</v>
       </c>
       <c r="AC18" t="n">
-        <v>21</v>
+        <v>11.5</v>
       </c>
       <c r="AD18" t="n">
-        <v>100</v>
+        <v>38</v>
       </c>
       <c r="AE18" t="n">
-        <v>580</v>
+        <v>180</v>
       </c>
       <c r="AF18" t="n">
         <v>7.6</v>
       </c>
       <c r="AG18" t="n">
-        <v>13</v>
+        <v>10.5</v>
       </c>
       <c r="AH18" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AI18" t="n">
-        <v>370</v>
+        <v>170</v>
       </c>
       <c r="AJ18" t="n">
-        <v>8.4</v>
+        <v>11.5</v>
       </c>
       <c r="AK18" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AL18" t="n">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="AM18" t="n">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="AN18" t="n">
-        <v>3.45</v>
+        <v>7.6</v>
       </c>
       <c r="AO18" t="n">
-        <v>1000</v>
+        <v>250</v>
       </c>
     </row>
     <row r="19">
@@ -2953,121 +2953,121 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Lausanne</t>
+          <t>Rayo Vallecano</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Fiorentina</t>
+          <t>KF Drita</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>3.95</v>
+        <v>1.2</v>
       </c>
       <c r="G19" t="n">
-        <v>4.1</v>
+        <v>1.22</v>
       </c>
       <c r="H19" t="n">
-        <v>2.06</v>
+        <v>18.5</v>
       </c>
       <c r="I19" t="n">
-        <v>2.08</v>
+        <v>22</v>
       </c>
       <c r="J19" t="n">
-        <v>3.75</v>
+        <v>7.8</v>
       </c>
       <c r="K19" t="n">
-        <v>3.85</v>
+        <v>8.6</v>
       </c>
       <c r="L19" t="n">
-        <v>1.38</v>
+        <v>1.28</v>
       </c>
       <c r="M19" t="n">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="N19" t="n">
-        <v>4.2</v>
+        <v>6</v>
       </c>
       <c r="O19" t="n">
-        <v>1.27</v>
+        <v>1.18</v>
       </c>
       <c r="P19" t="n">
-        <v>2.1</v>
+        <v>2.68</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.83</v>
+        <v>1.56</v>
       </c>
       <c r="R19" t="n">
-        <v>1.43</v>
+        <v>1.7</v>
       </c>
       <c r="S19" t="n">
-        <v>3.05</v>
+        <v>2.38</v>
       </c>
       <c r="T19" t="n">
-        <v>1.71</v>
+        <v>2.42</v>
       </c>
       <c r="U19" t="n">
-        <v>2.24</v>
+        <v>1.67</v>
       </c>
       <c r="V19" t="n">
-        <v>1.92</v>
+        <v>1.05</v>
       </c>
       <c r="W19" t="n">
-        <v>1.32</v>
+        <v>5.6</v>
       </c>
       <c r="X19" t="n">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="Y19" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="Z19" t="n">
-        <v>13.5</v>
+        <v>240</v>
       </c>
       <c r="AA19" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AB19" t="n">
-        <v>17</v>
+        <v>10.5</v>
       </c>
       <c r="AC19" t="n">
-        <v>8.6</v>
+        <v>1000</v>
       </c>
       <c r="AD19" t="n">
-        <v>10.5</v>
+        <v>75</v>
       </c>
       <c r="AE19" t="n">
-        <v>21</v>
+        <v>490</v>
       </c>
       <c r="AF19" t="n">
-        <v>32</v>
+        <v>7.6</v>
       </c>
       <c r="AG19" t="n">
-        <v>16.5</v>
+        <v>12.5</v>
       </c>
       <c r="AH19" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AI19" t="n">
-        <v>34</v>
+        <v>330</v>
       </c>
       <c r="AJ19" t="n">
-        <v>80</v>
+        <v>8.4</v>
       </c>
       <c r="AK19" t="n">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="AL19" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AM19" t="n">
-        <v>85</v>
+        <v>320</v>
       </c>
       <c r="AN19" t="n">
-        <v>44</v>
+        <v>3.8</v>
       </c>
       <c r="AO19" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="20">
@@ -3088,121 +3088,121 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Legia Warsaw</t>
+          <t>Lausanne</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Lincoln Red Imps</t>
+          <t>Fiorentina</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.33</v>
+        <v>4.2</v>
       </c>
       <c r="G20" t="n">
-        <v>1.36</v>
+        <v>4.4</v>
       </c>
       <c r="H20" t="n">
-        <v>10</v>
+        <v>1.94</v>
       </c>
       <c r="I20" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="J20" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="K20" t="n">
+        <v>4</v>
+      </c>
+      <c r="L20" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N20" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P20" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="S20" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="T20" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="U20" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="V20" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="W20" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X20" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>14</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>46</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC20" t="n">
         <v>11.5</v>
       </c>
-      <c r="J20" t="n">
-        <v>6</v>
-      </c>
-      <c r="K20" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="L20" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="M20" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N20" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="O20" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P20" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="R20" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="S20" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="T20" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="U20" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="V20" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="W20" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="X20" t="n">
-        <v>30</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>50</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>110</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>360</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>13.5</v>
-      </c>
       <c r="AD20" t="n">
-        <v>38</v>
+        <v>10.5</v>
       </c>
       <c r="AE20" t="n">
-        <v>150</v>
+        <v>18.5</v>
       </c>
       <c r="AF20" t="n">
-        <v>9.4</v>
+        <v>75</v>
       </c>
       <c r="AG20" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>32</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>90</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>48</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>55</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>580</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>220</v>
+      </c>
+      <c r="AO20" t="n">
         <v>11</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>29</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>130</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>13</v>
-      </c>
-      <c r="AL20" t="n">
-        <v>32</v>
-      </c>
-      <c r="AM20" t="n">
-        <v>140</v>
-      </c>
-      <c r="AN20" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="AO20" t="n">
-        <v>140</v>
       </c>
     </row>
     <row r="21">
@@ -3223,121 +3223,121 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Az Alkmaar</t>
+          <t>Legia Warsaw</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Jagiellonia Bialystock</t>
+          <t>Lincoln Red Imps</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.57</v>
+        <v>1.33</v>
       </c>
       <c r="G21" t="n">
-        <v>1.59</v>
+        <v>1.34</v>
       </c>
       <c r="H21" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="I21" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="J21" t="n">
         <v>6.2</v>
       </c>
-      <c r="I21" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="J21" t="n">
-        <v>4.6</v>
-      </c>
       <c r="K21" t="n">
-        <v>4.8</v>
+        <v>6.6</v>
       </c>
       <c r="L21" t="n">
-        <v>1.32</v>
+        <v>1.27</v>
       </c>
       <c r="M21" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N21" t="n">
-        <v>5.5</v>
+        <v>6.2</v>
       </c>
       <c r="O21" t="n">
-        <v>1.21</v>
+        <v>1.17</v>
       </c>
       <c r="P21" t="n">
-        <v>2.42</v>
+        <v>2.76</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.64</v>
+        <v>1.54</v>
       </c>
       <c r="R21" t="n">
-        <v>1.58</v>
+        <v>1.7</v>
       </c>
       <c r="S21" t="n">
-        <v>2.58</v>
+        <v>2.34</v>
       </c>
       <c r="T21" t="n">
-        <v>1.72</v>
+        <v>1.95</v>
       </c>
       <c r="U21" t="n">
-        <v>2.24</v>
+        <v>1.96</v>
       </c>
       <c r="V21" t="n">
-        <v>1.17</v>
+        <v>1.1</v>
       </c>
       <c r="W21" t="n">
-        <v>2.68</v>
+        <v>3.95</v>
       </c>
       <c r="X21" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="Y21" t="n">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="Z21" t="n">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="AA21" t="n">
-        <v>190</v>
+        <v>390</v>
       </c>
       <c r="AB21" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>14</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>38</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>170</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AG21" t="n">
         <v>11</v>
       </c>
-      <c r="AC21" t="n">
+      <c r="AH21" t="n">
+        <v>29</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>400</v>
+      </c>
+      <c r="AJ21" t="n">
         <v>11</v>
       </c>
-      <c r="AD21" t="n">
-        <v>25</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>210</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>11</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>19</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>70</v>
-      </c>
-      <c r="AJ21" t="n">
-        <v>15.5</v>
-      </c>
       <c r="AK21" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AL21" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="AM21" t="n">
-        <v>330</v>
+        <v>140</v>
       </c>
       <c r="AN21" t="n">
-        <v>7</v>
+        <v>4.4</v>
       </c>
       <c r="AO21" t="n">
-        <v>75</v>
+        <v>170</v>
       </c>
     </row>
     <row r="22">
@@ -3358,121 +3358,121 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Strasbourg</t>
+          <t>Az Alkmaar</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Breidablik</t>
+          <t>Jagiellonia Bialystock</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="G22" t="n">
-        <v>1.26</v>
+        <v>1.52</v>
       </c>
       <c r="H22" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="I22" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="J22" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="K22" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="L22" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N22" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="P22" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="R22" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="S22" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="T22" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="U22" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V22" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="W22" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="X22" t="n">
+        <v>32</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>36</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>65</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>190</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>14</v>
+      </c>
+      <c r="AC22" t="n">
         <v>13</v>
       </c>
-      <c r="I22" t="n">
-        <v>14</v>
-      </c>
-      <c r="J22" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="K22" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="L22" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="M22" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N22" t="n">
-        <v>8</v>
-      </c>
-      <c r="O22" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="P22" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="R22" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="S22" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="T22" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="U22" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="V22" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="W22" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="X22" t="n">
-        <v>46</v>
-      </c>
-      <c r="Y22" t="n">
+      <c r="AD22" t="n">
+        <v>26</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>75</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AI22" t="n">
         <v>65</v>
       </c>
-      <c r="Z22" t="n">
-        <v>150</v>
-      </c>
-      <c r="AA22" t="n">
-        <v>550</v>
-      </c>
-      <c r="AB22" t="n">
+      <c r="AJ22" t="n">
         <v>15</v>
-      </c>
-      <c r="AC22" t="n">
-        <v>17</v>
-      </c>
-      <c r="AD22" t="n">
-        <v>48</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>180</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH22" t="n">
-        <v>30</v>
-      </c>
-      <c r="AI22" t="n">
-        <v>130</v>
-      </c>
-      <c r="AJ22" t="n">
-        <v>10.5</v>
       </c>
       <c r="AK22" t="n">
         <v>14.5</v>
       </c>
       <c r="AL22" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="AM22" t="n">
-        <v>130</v>
+        <v>75</v>
       </c>
       <c r="AN22" t="n">
-        <v>3.3</v>
+        <v>5.3</v>
       </c>
       <c r="AO22" t="n">
-        <v>150</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23">
@@ -3493,121 +3493,256 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
+          <t>Strasbourg</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Breidablik</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="G23" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="H23" t="n">
+        <v>14</v>
+      </c>
+      <c r="I23" t="n">
+        <v>15</v>
+      </c>
+      <c r="J23" t="n">
+        <v>8</v>
+      </c>
+      <c r="K23" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="L23" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N23" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="O23" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="P23" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="R23" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="S23" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="T23" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="U23" t="n">
+        <v>2</v>
+      </c>
+      <c r="V23" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="W23" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="X23" t="n">
+        <v>55</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>130</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>160</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>23</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>260</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>75</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>520</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>14</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>430</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>UEFA Europa Conference League</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>2025-12-18</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>17:00:00</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
           <t>Mainz</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>Samsunspor</t>
         </is>
       </c>
-      <c r="F23" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="G23" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="H23" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="I23" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="J23" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="K23" t="n">
+      <c r="F24" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="G24" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="H24" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="I24" t="n">
         <v>4.6</v>
       </c>
-      <c r="L23" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="M23" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N23" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="O23" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="P23" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="R23" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="S23" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="T23" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="U23" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="V23" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="W23" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="X23" t="n">
-        <v>40</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>27</v>
-      </c>
-      <c r="Z23" t="n">
+      <c r="J24" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="K24" t="n">
+        <v>4</v>
+      </c>
+      <c r="L24" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N24" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="P24" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="R24" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="S24" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="T24" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="U24" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V24" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="W24" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="X24" t="n">
+        <v>18</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="Z24" t="n">
         <v>46</v>
       </c>
-      <c r="AA23" t="n">
+      <c r="AA24" t="n">
         <v>140</v>
       </c>
-      <c r="AB23" t="n">
-        <v>12</v>
-      </c>
-      <c r="AC23" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD23" t="n">
-        <v>22</v>
-      </c>
-      <c r="AE23" t="n">
-        <v>170</v>
-      </c>
-      <c r="AF23" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AG23" t="n">
+      <c r="AB24" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>50</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AG24" t="n">
         <v>10</v>
       </c>
-      <c r="AH23" t="n">
-        <v>19</v>
-      </c>
-      <c r="AI23" t="n">
+      <c r="AH24" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI24" t="n">
         <v>160</v>
       </c>
-      <c r="AJ23" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AK23" t="n">
-        <v>16</v>
-      </c>
-      <c r="AL23" t="n">
-        <v>32</v>
-      </c>
-      <c r="AM23" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN23" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AO23" t="n">
-        <v>60</v>
+      <c r="AJ24" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>30</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>85</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>11</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-18.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-18.xlsx
@@ -667,109 +667,109 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.02</v>
+        <v>1.32</v>
       </c>
       <c r="G2" t="n">
-        <v>2.12</v>
+        <v>1.34</v>
       </c>
       <c r="H2" t="n">
-        <v>3.45</v>
+        <v>15</v>
       </c>
       <c r="I2" t="n">
-        <v>3.95</v>
+        <v>17.5</v>
       </c>
       <c r="J2" t="n">
-        <v>3.7</v>
+        <v>5.3</v>
       </c>
       <c r="K2" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="S2" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="T2" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="U2" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="V2" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="W2" t="n">
+        <v>4</v>
+      </c>
+      <c r="X2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB2" t="n">
         <v>4.5</v>
       </c>
-      <c r="L2" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N2" t="n">
-        <v>4</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="P2" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="S2" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="T2" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="U2" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="V2" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="W2" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="X2" t="n">
-        <v>19</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>960</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>110</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>29</v>
-      </c>
       <c r="AC2" t="n">
-        <v>12</v>
+        <v>7.6</v>
       </c>
       <c r="AD2" t="n">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="AE2" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AF2" t="n">
-        <v>960</v>
+        <v>5.4</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AH2" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AI2" t="n">
-        <v>960</v>
+        <v>980</v>
       </c>
       <c r="AJ2" t="n">
-        <v>180</v>
+        <v>15</v>
       </c>
       <c r="AK2" t="n">
-        <v>70</v>
+        <v>26</v>
       </c>
       <c r="AL2" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AM2" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AN2" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="AO2" t="n">
         <v>1000</v>
@@ -802,97 +802,97 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="G3" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="H3" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="I3" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="J3" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="K3" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N3" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P3" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="S3" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="T3" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="U3" t="n">
         <v>2.14</v>
       </c>
-      <c r="I3" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="J3" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="K3" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="L3" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N3" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P3" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="S3" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="T3" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="U3" t="n">
-        <v>2.12</v>
-      </c>
       <c r="V3" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="W3" t="n">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="X3" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="Y3" t="n">
         <v>18</v>
       </c>
       <c r="Z3" t="n">
-        <v>65</v>
+        <v>28</v>
       </c>
       <c r="AA3" t="n">
-        <v>140</v>
+        <v>900</v>
       </c>
       <c r="AB3" t="n">
         <v>27</v>
       </c>
       <c r="AC3" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="AD3" t="n">
         <v>21</v>
       </c>
       <c r="AE3" t="n">
-        <v>140</v>
+        <v>70</v>
       </c>
       <c r="AF3" t="n">
         <v>1000</v>
       </c>
       <c r="AG3" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AH3" t="n">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="AI3" t="n">
         <v>200</v>
       </c>
       <c r="AJ3" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AK3" t="n">
         <v>1000</v>
@@ -901,13 +901,13 @@
         <v>1000</v>
       </c>
       <c r="AM3" t="n">
-        <v>580</v>
+        <v>1000</v>
       </c>
       <c r="AN3" t="n">
         <v>1000</v>
       </c>
       <c r="AO3" t="n">
-        <v>85</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4">
@@ -937,37 +937,37 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>5.3</v>
+        <v>5.9</v>
       </c>
       <c r="G4" t="n">
-        <v>6.4</v>
+        <v>7.2</v>
       </c>
       <c r="H4" t="n">
-        <v>1.98</v>
+        <v>1.86</v>
       </c>
       <c r="I4" t="n">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="J4" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="K4" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="L4" t="n">
-        <v>1.66</v>
+        <v>1.69</v>
       </c>
       <c r="M4" t="n">
-        <v>1.13</v>
+        <v>1.15</v>
       </c>
       <c r="N4" t="n">
-        <v>2.18</v>
+        <v>2.28</v>
       </c>
       <c r="O4" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="P4" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="Q4" t="n">
         <v>3.05</v>
@@ -979,70 +979,70 @@
         <v>7</v>
       </c>
       <c r="T4" t="n">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="U4" t="n">
-        <v>1.54</v>
+        <v>1.52</v>
       </c>
       <c r="V4" t="n">
-        <v>1.91</v>
+        <v>2.04</v>
       </c>
       <c r="W4" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="X4" t="n">
-        <v>8.4</v>
+        <v>7.6</v>
       </c>
       <c r="Y4" t="n">
-        <v>6.6</v>
+        <v>5.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>12</v>
+        <v>9.6</v>
       </c>
       <c r="AA4" t="n">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="AB4" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AC4" t="n">
-        <v>9.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD4" t="n">
-        <v>15</v>
+        <v>12.5</v>
       </c>
       <c r="AE4" t="n">
         <v>70</v>
       </c>
       <c r="AF4" t="n">
-        <v>55</v>
+        <v>130</v>
       </c>
       <c r="AG4" t="n">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="AH4" t="n">
-        <v>42</v>
+        <v>110</v>
       </c>
       <c r="AI4" t="n">
         <v>260</v>
       </c>
       <c r="AJ4" t="n">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="AK4" t="n">
         <v>180</v>
       </c>
       <c r="AL4" t="n">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="AM4" t="n">
         <v>450</v>
       </c>
       <c r="AN4" t="n">
-        <v>370</v>
+        <v>600</v>
       </c>
       <c r="AO4" t="n">
-        <v>40</v>
+        <v>600</v>
       </c>
     </row>
     <row r="5">
@@ -1072,112 +1072,112 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2</v>
+        <v>2.26</v>
       </c>
       <c r="G5" t="n">
-        <v>2.14</v>
+        <v>2.4</v>
       </c>
       <c r="H5" t="n">
-        <v>4.8</v>
+        <v>3.55</v>
       </c>
       <c r="I5" t="n">
-        <v>5.8</v>
+        <v>4.1</v>
       </c>
       <c r="J5" t="n">
-        <v>2.94</v>
+        <v>2.98</v>
       </c>
       <c r="K5" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="L5" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="M5" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="N5" t="n">
-        <v>2.32</v>
+        <v>2.28</v>
       </c>
       <c r="O5" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="P5" t="n">
         <v>1.41</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.92</v>
+        <v>3</v>
       </c>
       <c r="R5" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="S5" t="n">
         <v>6.6</v>
       </c>
       <c r="T5" t="n">
-        <v>2.42</v>
+        <v>2.3</v>
       </c>
       <c r="U5" t="n">
         <v>1.63</v>
       </c>
       <c r="V5" t="n">
-        <v>1.22</v>
+        <v>1.33</v>
       </c>
       <c r="W5" t="n">
-        <v>1.87</v>
+        <v>1.71</v>
       </c>
       <c r="X5" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="Y5" t="n">
-        <v>12.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z5" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>120</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>7</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>19</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>85</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>30</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>140</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>38</v>
+      </c>
+      <c r="AK5" t="n">
         <v>42</v>
       </c>
-      <c r="AA5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>26</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>34</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>27</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>34</v>
-      </c>
       <c r="AL5" t="n">
-        <v>210</v>
+        <v>90</v>
       </c>
       <c r="AM5" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="AN5" t="n">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="AO5" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
     </row>
     <row r="6">
@@ -1207,64 +1207,64 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.38</v>
+        <v>1.41</v>
       </c>
       <c r="G6" t="n">
-        <v>1.45</v>
+        <v>1.49</v>
       </c>
       <c r="H6" t="n">
-        <v>10</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="I6" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J6" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="K6" t="n">
-        <v>5.6</v>
+        <v>5.3</v>
       </c>
       <c r="L6" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="M6" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N6" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="S6" t="n">
         <v>3.6</v>
       </c>
-      <c r="O6" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="P6" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="S6" t="n">
-        <v>3.4</v>
-      </c>
       <c r="T6" t="n">
-        <v>2.26</v>
+        <v>2.18</v>
       </c>
       <c r="U6" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="V6" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="W6" t="n">
-        <v>3.15</v>
+        <v>3</v>
       </c>
       <c r="X6" t="n">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="Y6" t="n">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="Z6" t="n">
         <v>1000</v>
@@ -1273,19 +1273,19 @@
         <v>1000</v>
       </c>
       <c r="AB6" t="n">
-        <v>7.4</v>
+        <v>7</v>
       </c>
       <c r="AC6" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>350</v>
+        <v>120</v>
       </c>
       <c r="AE6" t="n">
         <v>1000</v>
       </c>
       <c r="AF6" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AG6" t="n">
         <v>11</v>
@@ -1297,19 +1297,19 @@
         <v>1000</v>
       </c>
       <c r="AJ6" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="AK6" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="AL6" t="n">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="AM6" t="n">
         <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>8.4</v>
+        <v>9</v>
       </c>
       <c r="AO6" t="n">
         <v>1000</v>
@@ -1342,85 +1342,85 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.66</v>
+        <v>2.76</v>
       </c>
       <c r="G7" t="n">
-        <v>2.7</v>
+        <v>2.78</v>
       </c>
       <c r="H7" t="n">
-        <v>2.68</v>
+        <v>2.58</v>
       </c>
       <c r="I7" t="n">
-        <v>2.74</v>
+        <v>2.62</v>
       </c>
       <c r="J7" t="n">
         <v>3.85</v>
       </c>
       <c r="K7" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="L7" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="M7" t="n">
         <v>1.05</v>
       </c>
       <c r="N7" t="n">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="O7" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="P7" t="n">
-        <v>2.28</v>
+        <v>2.34</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.73</v>
+        <v>1.71</v>
       </c>
       <c r="R7" t="n">
-        <v>1.51</v>
+        <v>1.53</v>
       </c>
       <c r="S7" t="n">
-        <v>2.86</v>
+        <v>2.8</v>
       </c>
       <c r="T7" t="n">
         <v>1.65</v>
       </c>
       <c r="U7" t="n">
-        <v>2.42</v>
+        <v>2.5</v>
       </c>
       <c r="V7" t="n">
-        <v>1.58</v>
+        <v>1.61</v>
       </c>
       <c r="W7" t="n">
-        <v>1.58</v>
+        <v>1.56</v>
       </c>
       <c r="X7" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Y7" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>38</v>
+      </c>
+      <c r="AB7" t="n">
         <v>15</v>
       </c>
-      <c r="Z7" t="n">
-        <v>20</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>40</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>14.5</v>
-      </c>
       <c r="AC7" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AD7" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AE7" t="n">
         <v>27</v>
       </c>
       <c r="AF7" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AG7" t="n">
         <v>12.5</v>
@@ -1429,10 +1429,10 @@
         <v>15</v>
       </c>
       <c r="AI7" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AJ7" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AK7" t="n">
         <v>27</v>
@@ -1444,10 +1444,10 @@
         <v>65</v>
       </c>
       <c r="AN7" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AO7" t="n">
         <v>19.5</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>18.5</v>
       </c>
     </row>
     <row r="8">
@@ -1477,10 +1477,10 @@
         </is>
       </c>
       <c r="F8" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="G8" t="n">
         <v>1.28</v>
-      </c>
-      <c r="G8" t="n">
-        <v>1.29</v>
       </c>
       <c r="H8" t="n">
         <v>14.5</v>
@@ -1489,10 +1489,10 @@
         <v>15.5</v>
       </c>
       <c r="J8" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="K8" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="L8" t="n">
         <v>1.27</v>
@@ -1501,37 +1501,37 @@
         <v>1.03</v>
       </c>
       <c r="N8" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="O8" t="n">
         <v>1.17</v>
       </c>
       <c r="P8" t="n">
-        <v>2.82</v>
+        <v>2.9</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.53</v>
+        <v>1.51</v>
       </c>
       <c r="R8" t="n">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="S8" t="n">
-        <v>2.34</v>
+        <v>2.28</v>
       </c>
       <c r="T8" t="n">
         <v>2.08</v>
       </c>
       <c r="U8" t="n">
-        <v>1.82</v>
+        <v>1.85</v>
       </c>
       <c r="V8" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="W8" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="X8" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="Y8" t="n">
         <v>55</v>
@@ -1564,22 +1564,22 @@
         <v>32</v>
       </c>
       <c r="AI8" t="n">
-        <v>190</v>
+        <v>160</v>
       </c>
       <c r="AJ8" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AK8" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AL8" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AM8" t="n">
         <v>170</v>
       </c>
       <c r="AN8" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="AO8" t="n">
         <v>1000</v>
@@ -1612,64 +1612,64 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="G9" t="n">
-        <v>1.66</v>
+        <v>1.63</v>
       </c>
       <c r="H9" t="n">
         <v>6.4</v>
       </c>
       <c r="I9" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="J9" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="K9" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N9" t="n">
         <v>4</v>
       </c>
-      <c r="K9" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="L9" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N9" t="n">
-        <v>3.35</v>
-      </c>
       <c r="O9" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="P9" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="R9" t="n">
         <v>1.39</v>
       </c>
-      <c r="P9" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1.3</v>
-      </c>
       <c r="S9" t="n">
-        <v>4.1</v>
+        <v>3.4</v>
       </c>
       <c r="T9" t="n">
-        <v>2.12</v>
+        <v>1.99</v>
       </c>
       <c r="U9" t="n">
-        <v>1.77</v>
+        <v>1.9</v>
       </c>
       <c r="V9" t="n">
         <v>1.17</v>
       </c>
       <c r="W9" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="X9" t="n">
-        <v>12</v>
+        <v>15.5</v>
       </c>
       <c r="Y9" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="Z9" t="n">
         <v>55</v>
@@ -1678,46 +1678,46 @@
         <v>210</v>
       </c>
       <c r="AB9" t="n">
-        <v>7.2</v>
+        <v>8</v>
       </c>
       <c r="AC9" t="n">
-        <v>8.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AD9" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AE9" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AF9" t="n">
-        <v>8.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AG9" t="n">
         <v>10.5</v>
       </c>
       <c r="AH9" t="n">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="AI9" t="n">
         <v>290</v>
       </c>
       <c r="AJ9" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AK9" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AL9" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="AM9" t="n">
-        <v>580</v>
+        <v>140</v>
       </c>
       <c r="AN9" t="n">
-        <v>27</v>
+        <v>9.6</v>
       </c>
       <c r="AO9" t="n">
-        <v>170</v>
+        <v>150</v>
       </c>
     </row>
     <row r="10">
@@ -1747,112 +1747,112 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="G10" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="H10" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="I10" t="n">
         <v>4.8</v>
       </c>
       <c r="J10" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="K10" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="L10" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="M10" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N10" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="O10" t="n">
-        <v>1.4</v>
+        <v>1.43</v>
       </c>
       <c r="P10" t="n">
-        <v>1.82</v>
+        <v>1.73</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="R10" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="S10" t="n">
-        <v>4.1</v>
+        <v>4.4</v>
       </c>
       <c r="T10" t="n">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="U10" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="V10" t="n">
         <v>1.26</v>
       </c>
       <c r="W10" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="X10" t="n">
         <v>11.5</v>
       </c>
       <c r="Y10" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Z10" t="n">
         <v>34</v>
       </c>
       <c r="AA10" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AB10" t="n">
-        <v>8.199999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="AC10" t="n">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="AD10" t="n">
         <v>19</v>
       </c>
       <c r="AE10" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AF10" t="n">
         <v>11.5</v>
       </c>
       <c r="AG10" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AH10" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI10" t="n">
-        <v>160</v>
+        <v>85</v>
       </c>
       <c r="AJ10" t="n">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="AK10" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AL10" t="n">
-        <v>95</v>
+        <v>150</v>
       </c>
       <c r="AM10" t="n">
-        <v>580</v>
+        <v>150</v>
       </c>
       <c r="AN10" t="n">
-        <v>16.5</v>
+        <v>18</v>
       </c>
       <c r="AO10" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="11">
@@ -1882,112 +1882,112 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.24</v>
+        <v>1.31</v>
       </c>
       <c r="G11" t="n">
-        <v>1.27</v>
+        <v>1.32</v>
       </c>
       <c r="H11" t="n">
-        <v>14</v>
+        <v>11.5</v>
       </c>
       <c r="I11" t="n">
-        <v>16.5</v>
+        <v>13</v>
       </c>
       <c r="J11" t="n">
-        <v>7</v>
+        <v>6.2</v>
       </c>
       <c r="K11" t="n">
-        <v>7.4</v>
+        <v>6.6</v>
       </c>
       <c r="L11" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="M11" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N11" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="O11" t="n">
         <v>1.2</v>
       </c>
       <c r="P11" t="n">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="R11" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="S11" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="T11" t="n">
-        <v>2.26</v>
+        <v>2.08</v>
       </c>
       <c r="U11" t="n">
-        <v>1.71</v>
+        <v>1.83</v>
       </c>
       <c r="V11" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="W11" t="n">
-        <v>4.7</v>
+        <v>4</v>
       </c>
       <c r="X11" t="n">
+        <v>27</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>120</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>120</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>490</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>44</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>220</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH11" t="n">
         <v>32</v>
       </c>
-      <c r="Y11" t="n">
-        <v>60</v>
-      </c>
-      <c r="Z11" t="n">
+      <c r="AI11" t="n">
+        <v>150</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>38</v>
+      </c>
+      <c r="AM11" t="n">
         <v>190</v>
       </c>
-      <c r="AA11" t="n">
-        <v>910</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>16</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>55</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>320</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>38</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>240</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>14</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>40</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>240</v>
-      </c>
       <c r="AN11" t="n">
-        <v>4.2</v>
+        <v>4.8</v>
       </c>
       <c r="AO11" t="n">
-        <v>1000</v>
+        <v>210</v>
       </c>
     </row>
     <row r="12">
@@ -2017,22 +2017,22 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="G12" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="H12" t="n">
         <v>4</v>
       </c>
       <c r="I12" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="J12" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="K12" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="L12" t="n">
         <v>1.51</v>
@@ -2050,7 +2050,7 @@
         <v>1.74</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="R12" t="n">
         <v>1.26</v>
@@ -2065,10 +2065,10 @@
         <v>1.9</v>
       </c>
       <c r="V12" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="W12" t="n">
-        <v>1.96</v>
+        <v>1.94</v>
       </c>
       <c r="X12" t="n">
         <v>13</v>
@@ -2077,7 +2077,7 @@
         <v>13</v>
       </c>
       <c r="Z12" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AA12" t="n">
         <v>100</v>
@@ -2086,31 +2086,31 @@
         <v>7.8</v>
       </c>
       <c r="AC12" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AD12" t="n">
-        <v>17.5</v>
+        <v>32</v>
       </c>
       <c r="AE12" t="n">
         <v>65</v>
       </c>
       <c r="AF12" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AG12" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AH12" t="n">
         <v>24</v>
       </c>
       <c r="AI12" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AJ12" t="n">
         <v>25</v>
       </c>
       <c r="AK12" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AL12" t="n">
         <v>46</v>
@@ -2119,7 +2119,7 @@
         <v>140</v>
       </c>
       <c r="AN12" t="n">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="AO12" t="n">
         <v>85</v>
@@ -2158,7 +2158,7 @@
         <v>2.9</v>
       </c>
       <c r="H13" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="I13" t="n">
         <v>2.84</v>
@@ -2170,31 +2170,31 @@
         <v>3.4</v>
       </c>
       <c r="L13" t="n">
-        <v>1.47</v>
+        <v>1.49</v>
       </c>
       <c r="M13" t="n">
         <v>1.09</v>
       </c>
       <c r="N13" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="O13" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="P13" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.2</v>
+        <v>2.26</v>
       </c>
       <c r="R13" t="n">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="S13" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="T13" t="n">
-        <v>1.91</v>
+        <v>1.88</v>
       </c>
       <c r="U13" t="n">
         <v>2.02</v>
@@ -2203,31 +2203,31 @@
         <v>1.54</v>
       </c>
       <c r="W13" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="X13" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="Y13" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="Z13" t="n">
         <v>17.5</v>
       </c>
       <c r="AA13" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AB13" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AC13" t="n">
         <v>7.4</v>
       </c>
       <c r="AD13" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AE13" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AF13" t="n">
         <v>17.5</v>
@@ -2242,7 +2242,7 @@
         <v>55</v>
       </c>
       <c r="AJ13" t="n">
-        <v>110</v>
+        <v>46</v>
       </c>
       <c r="AK13" t="n">
         <v>36</v>
@@ -2251,13 +2251,13 @@
         <v>55</v>
       </c>
       <c r="AM13" t="n">
-        <v>580</v>
+        <v>470</v>
       </c>
       <c r="AN13" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AO13" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14">
@@ -2287,64 +2287,64 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="G14" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="H14" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="I14" t="n">
-        <v>2.64</v>
+        <v>2.68</v>
       </c>
       <c r="J14" t="n">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="K14" t="n">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
       <c r="L14" t="n">
-        <v>1.6</v>
+        <v>1.53</v>
       </c>
       <c r="M14" t="n">
-        <v>1.12</v>
+        <v>1.1</v>
       </c>
       <c r="N14" t="n">
-        <v>2.92</v>
+        <v>3.3</v>
       </c>
       <c r="O14" t="n">
-        <v>1.48</v>
+        <v>1.42</v>
       </c>
       <c r="P14" t="n">
-        <v>1.62</v>
+        <v>1.76</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.52</v>
+        <v>2.26</v>
       </c>
       <c r="R14" t="n">
-        <v>1.22</v>
+        <v>1.28</v>
       </c>
       <c r="S14" t="n">
-        <v>4.8</v>
+        <v>4.2</v>
       </c>
       <c r="T14" t="n">
         <v>1.05</v>
       </c>
       <c r="U14" t="n">
-        <v>1.04</v>
+        <v>1.89</v>
       </c>
       <c r="V14" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="W14" t="n">
-        <v>1.4</v>
+        <v>1.43</v>
       </c>
       <c r="X14" t="n">
-        <v>8.6</v>
+        <v>10.5</v>
       </c>
       <c r="Y14" t="n">
-        <v>16.5</v>
+        <v>13.5</v>
       </c>
       <c r="Z14" t="n">
         <v>1000</v>
@@ -2353,7 +2353,7 @@
         <v>1000</v>
       </c>
       <c r="AB14" t="n">
-        <v>29</v>
+        <v>11.5</v>
       </c>
       <c r="AC14" t="n">
         <v>6.8</v>
@@ -2362,37 +2362,37 @@
         <v>12.5</v>
       </c>
       <c r="AE14" t="n">
-        <v>95</v>
+        <v>34</v>
       </c>
       <c r="AF14" t="n">
         <v>1000</v>
       </c>
       <c r="AG14" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AH14" t="n">
-        <v>22</v>
+        <v>19.5</v>
       </c>
       <c r="AI14" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AJ14" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AK14" t="n">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="AL14" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AM14" t="n">
-        <v>160</v>
+        <v>580</v>
       </c>
       <c r="AN14" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="AO14" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15">
@@ -2428,16 +2428,16 @@
         <v>1.23</v>
       </c>
       <c r="H15" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="I15" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="J15" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="K15" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="L15" t="n">
         <v>1.27</v>
@@ -2446,85 +2446,85 @@
         <v>1.03</v>
       </c>
       <c r="N15" t="n">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="O15" t="n">
         <v>1.16</v>
       </c>
       <c r="P15" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.51</v>
+        <v>1.48</v>
       </c>
       <c r="R15" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="S15" t="n">
-        <v>2.28</v>
+        <v>2.24</v>
       </c>
       <c r="T15" t="n">
-        <v>2.26</v>
+        <v>2.18</v>
       </c>
       <c r="U15" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="V15" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="W15" t="n">
         <v>5.3</v>
       </c>
       <c r="X15" t="n">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Y15" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="Z15" t="n">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="AA15" t="n">
         <v>1000</v>
       </c>
       <c r="AB15" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AC15" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AD15" t="n">
         <v>1000</v>
       </c>
       <c r="AE15" t="n">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="AF15" t="n">
         <v>8.6</v>
       </c>
       <c r="AG15" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH15" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AI15" t="n">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="AJ15" t="n">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="AK15" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AL15" t="n">
         <v>1000</v>
       </c>
       <c r="AM15" t="n">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="AN15" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="AO15" t="n">
         <v>1000</v>
@@ -2557,22 +2557,22 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.86</v>
+        <v>1.88</v>
       </c>
       <c r="G16" t="n">
-        <v>1.89</v>
+        <v>1.92</v>
       </c>
       <c r="H16" t="n">
         <v>4.9</v>
       </c>
       <c r="I16" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="J16" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K16" t="n">
         <v>3.7</v>
-      </c>
-      <c r="K16" t="n">
-        <v>3.75</v>
       </c>
       <c r="L16" t="n">
         <v>1.45</v>
@@ -2581,34 +2581,34 @@
         <v>1.08</v>
       </c>
       <c r="N16" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="O16" t="n">
         <v>1.35</v>
       </c>
       <c r="P16" t="n">
-        <v>1.92</v>
+        <v>1.87</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="R16" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="S16" t="n">
         <v>3.75</v>
       </c>
       <c r="T16" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="U16" t="n">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="V16" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="W16" t="n">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="X16" t="n">
         <v>13</v>
@@ -2623,10 +2623,10 @@
         <v>120</v>
       </c>
       <c r="AB16" t="n">
-        <v>8.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC16" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AD16" t="n">
         <v>19.5</v>
@@ -2635,31 +2635,31 @@
         <v>330</v>
       </c>
       <c r="AF16" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AG16" t="n">
-        <v>11</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH16" t="n">
         <v>21</v>
       </c>
       <c r="AI16" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AJ16" t="n">
         <v>21</v>
       </c>
       <c r="AK16" t="n">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="AL16" t="n">
         <v>40</v>
       </c>
       <c r="AM16" t="n">
-        <v>120</v>
+        <v>580</v>
       </c>
       <c r="AN16" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AO16" t="n">
         <v>1000</v>
@@ -2692,76 +2692,76 @@
         </is>
       </c>
       <c r="F17" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="G17" t="n">
         <v>2.22</v>
       </c>
-      <c r="G17" t="n">
-        <v>2.26</v>
-      </c>
       <c r="H17" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="I17" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="J17" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="K17" t="n">
         <v>3.8</v>
       </c>
       <c r="L17" t="n">
-        <v>1.39</v>
+        <v>1.36</v>
       </c>
       <c r="M17" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N17" t="n">
-        <v>4.2</v>
+        <v>4.9</v>
       </c>
       <c r="O17" t="n">
-        <v>1.3</v>
+        <v>1.24</v>
       </c>
       <c r="P17" t="n">
-        <v>2.1</v>
+        <v>2.34</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="R17" t="n">
-        <v>1.43</v>
+        <v>1.54</v>
       </c>
       <c r="S17" t="n">
-        <v>3.15</v>
+        <v>2.76</v>
       </c>
       <c r="T17" t="n">
-        <v>1.74</v>
+        <v>1.61</v>
       </c>
       <c r="U17" t="n">
-        <v>2.22</v>
+        <v>2.48</v>
       </c>
       <c r="V17" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="W17" t="n">
-        <v>1.79</v>
+        <v>1.82</v>
       </c>
       <c r="X17" t="n">
-        <v>15.5</v>
+        <v>18</v>
       </c>
       <c r="Y17" t="n">
-        <v>15</v>
+        <v>17.5</v>
       </c>
       <c r="Z17" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="AA17" t="n">
         <v>65</v>
       </c>
       <c r="AB17" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AC17" t="n">
-        <v>8.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD17" t="n">
         <v>15</v>
@@ -2770,34 +2770,34 @@
         <v>95</v>
       </c>
       <c r="AF17" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AG17" t="n">
         <v>11</v>
       </c>
       <c r="AH17" t="n">
-        <v>17.5</v>
+        <v>15</v>
       </c>
       <c r="AI17" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="AJ17" t="n">
+        <v>29</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>20</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>30</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>330</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AO17" t="n">
         <v>28</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>22</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM17" t="n">
-        <v>80</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AO17" t="n">
-        <v>36</v>
       </c>
     </row>
     <row r="18">
@@ -2827,19 +2827,19 @@
         </is>
       </c>
       <c r="F18" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="G18" t="n">
         <v>1.43</v>
       </c>
-      <c r="G18" t="n">
-        <v>1.45</v>
-      </c>
       <c r="H18" t="n">
-        <v>9.199999999999999</v>
+        <v>10</v>
       </c>
       <c r="I18" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="J18" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="K18" t="n">
         <v>5.1</v>
@@ -2851,58 +2851,58 @@
         <v>1.06</v>
       </c>
       <c r="N18" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="O18" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P18" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="R18" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="S18" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="T18" t="n">
-        <v>2.24</v>
+        <v>2.2</v>
       </c>
       <c r="U18" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="V18" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="W18" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="X18" t="n">
-        <v>15.5</v>
+        <v>17</v>
       </c>
       <c r="Y18" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="Z18" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AA18" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="AB18" t="n">
-        <v>7.8</v>
+        <v>8.4</v>
       </c>
       <c r="AC18" t="n">
         <v>11.5</v>
       </c>
       <c r="AD18" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AE18" t="n">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="AF18" t="n">
         <v>7.6</v>
@@ -2917,22 +2917,22 @@
         <v>170</v>
       </c>
       <c r="AJ18" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AK18" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AL18" t="n">
         <v>44</v>
       </c>
       <c r="AM18" t="n">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="AN18" t="n">
-        <v>7.6</v>
+        <v>7.2</v>
       </c>
       <c r="AO18" t="n">
-        <v>250</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="19">
@@ -2968,10 +2968,10 @@
         <v>1.22</v>
       </c>
       <c r="H19" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="I19" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J19" t="n">
         <v>7.8</v>
@@ -2986,43 +2986,43 @@
         <v>1.03</v>
       </c>
       <c r="N19" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="O19" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P19" t="n">
-        <v>2.68</v>
+        <v>2.78</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.56</v>
+        <v>1.52</v>
       </c>
       <c r="R19" t="n">
-        <v>1.7</v>
+        <v>1.74</v>
       </c>
       <c r="S19" t="n">
-        <v>2.38</v>
+        <v>2.32</v>
       </c>
       <c r="T19" t="n">
-        <v>2.42</v>
+        <v>2.32</v>
       </c>
       <c r="U19" t="n">
-        <v>1.67</v>
+        <v>1.71</v>
       </c>
       <c r="V19" t="n">
         <v>1.05</v>
       </c>
       <c r="W19" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="X19" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="Y19" t="n">
         <v>1000</v>
       </c>
       <c r="Z19" t="n">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="AA19" t="n">
         <v>1000</v>
@@ -3031,16 +3031,16 @@
         <v>10.5</v>
       </c>
       <c r="AC19" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AD19" t="n">
         <v>75</v>
       </c>
       <c r="AE19" t="n">
-        <v>490</v>
+        <v>420</v>
       </c>
       <c r="AF19" t="n">
-        <v>7.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AG19" t="n">
         <v>12.5</v>
@@ -3049,7 +3049,7 @@
         <v>1000</v>
       </c>
       <c r="AI19" t="n">
-        <v>330</v>
+        <v>290</v>
       </c>
       <c r="AJ19" t="n">
         <v>8.4</v>
@@ -3058,13 +3058,13 @@
         <v>15</v>
       </c>
       <c r="AL19" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AM19" t="n">
-        <v>320</v>
+        <v>240</v>
       </c>
       <c r="AN19" t="n">
-        <v>3.8</v>
+        <v>3.65</v>
       </c>
       <c r="AO19" t="n">
         <v>1000</v>
@@ -3097,61 +3097,61 @@
         </is>
       </c>
       <c r="F20" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="G20" t="n">
         <v>4.2</v>
       </c>
-      <c r="G20" t="n">
-        <v>4.4</v>
-      </c>
       <c r="H20" t="n">
-        <v>1.94</v>
+        <v>1.97</v>
       </c>
       <c r="I20" t="n">
-        <v>1.96</v>
+        <v>1.99</v>
       </c>
       <c r="J20" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="K20" t="n">
         <v>4</v>
       </c>
       <c r="L20" t="n">
-        <v>1.37</v>
+        <v>1.34</v>
       </c>
       <c r="M20" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N20" t="n">
-        <v>4.5</v>
+        <v>5.2</v>
       </c>
       <c r="O20" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P20" t="n">
-        <v>2.22</v>
+        <v>2.4</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.78</v>
+        <v>1.67</v>
       </c>
       <c r="R20" t="n">
-        <v>1.48</v>
+        <v>1.56</v>
       </c>
       <c r="S20" t="n">
-        <v>2.96</v>
+        <v>2.68</v>
       </c>
       <c r="T20" t="n">
-        <v>1.68</v>
+        <v>1.61</v>
       </c>
       <c r="U20" t="n">
-        <v>2.32</v>
+        <v>2.42</v>
       </c>
       <c r="V20" t="n">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="W20" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="X20" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="Y20" t="n">
         <v>12</v>
@@ -3160,49 +3160,49 @@
         <v>14</v>
       </c>
       <c r="AA20" t="n">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="AB20" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AC20" t="n">
-        <v>11.5</v>
+        <v>9</v>
       </c>
       <c r="AD20" t="n">
         <v>10.5</v>
       </c>
       <c r="AE20" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AF20" t="n">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AG20" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AH20" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AI20" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AJ20" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AK20" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AL20" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AM20" t="n">
-        <v>580</v>
+        <v>70</v>
       </c>
       <c r="AN20" t="n">
-        <v>220</v>
+        <v>38</v>
       </c>
       <c r="AO20" t="n">
-        <v>11</v>
+        <v>9.800000000000001</v>
       </c>
     </row>
     <row r="21">
@@ -3232,10 +3232,10 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="G21" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="H21" t="n">
         <v>10.5</v>
@@ -3244,10 +3244,10 @@
         <v>11.5</v>
       </c>
       <c r="J21" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="K21" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="L21" t="n">
         <v>1.27</v>
@@ -3256,34 +3256,34 @@
         <v>1.03</v>
       </c>
       <c r="N21" t="n">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
       <c r="O21" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="P21" t="n">
-        <v>2.76</v>
+        <v>2.86</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.54</v>
+        <v>1.52</v>
       </c>
       <c r="R21" t="n">
-        <v>1.7</v>
+        <v>1.74</v>
       </c>
       <c r="S21" t="n">
-        <v>2.34</v>
+        <v>2.3</v>
       </c>
       <c r="T21" t="n">
-        <v>1.95</v>
+        <v>1.88</v>
       </c>
       <c r="U21" t="n">
-        <v>1.96</v>
+        <v>2.02</v>
       </c>
       <c r="V21" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="W21" t="n">
-        <v>3.95</v>
+        <v>3.85</v>
       </c>
       <c r="X21" t="n">
         <v>30</v>
@@ -3295,7 +3295,7 @@
         <v>110</v>
       </c>
       <c r="AA21" t="n">
-        <v>390</v>
+        <v>500</v>
       </c>
       <c r="AB21" t="n">
         <v>11.5</v>
@@ -3307,16 +3307,16 @@
         <v>38</v>
       </c>
       <c r="AE21" t="n">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="AF21" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AG21" t="n">
         <v>11</v>
       </c>
       <c r="AH21" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AI21" t="n">
         <v>400</v>
@@ -3337,7 +3337,7 @@
         <v>4.4</v>
       </c>
       <c r="AO21" t="n">
-        <v>170</v>
+        <v>180</v>
       </c>
     </row>
     <row r="22">
@@ -3367,85 +3367,85 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="G22" t="n">
-        <v>1.52</v>
+        <v>1.48</v>
       </c>
       <c r="H22" t="n">
-        <v>6.6</v>
+        <v>7.4</v>
       </c>
       <c r="I22" t="n">
-        <v>7.2</v>
+        <v>7.8</v>
       </c>
       <c r="J22" t="n">
         <v>5.2</v>
       </c>
       <c r="K22" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="L22" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="M22" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N22" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="O22" t="n">
         <v>1.16</v>
       </c>
       <c r="P22" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="R22" t="n">
-        <v>1.78</v>
+        <v>1.83</v>
       </c>
       <c r="S22" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="T22" t="n">
-        <v>1.63</v>
+        <v>1.68</v>
       </c>
       <c r="U22" t="n">
         <v>2.4</v>
       </c>
       <c r="V22" t="n">
-        <v>1.16</v>
+        <v>1.14</v>
       </c>
       <c r="W22" t="n">
-        <v>2.9</v>
+        <v>3.05</v>
       </c>
       <c r="X22" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Y22" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="Z22" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AA22" t="n">
-        <v>190</v>
+        <v>220</v>
       </c>
       <c r="AB22" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AC22" t="n">
         <v>13</v>
       </c>
       <c r="AD22" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AE22" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="AF22" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="AG22" t="n">
         <v>10.5</v>
@@ -3454,25 +3454,25 @@
         <v>19.5</v>
       </c>
       <c r="AI22" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AJ22" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AK22" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AL22" t="n">
         <v>24</v>
       </c>
       <c r="AM22" t="n">
+        <v>80</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="AO22" t="n">
         <v>75</v>
-      </c>
-      <c r="AN22" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="AO22" t="n">
-        <v>65</v>
       </c>
     </row>
     <row r="23">
@@ -3502,22 +3502,22 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="G23" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="H23" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I23" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J23" t="n">
-        <v>8</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="K23" t="n">
-        <v>8.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="L23" t="n">
         <v>1.21</v>
@@ -3532,7 +3532,7 @@
         <v>1.12</v>
       </c>
       <c r="P23" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="Q23" t="n">
         <v>1.36</v>
@@ -3541,43 +3541,43 @@
         <v>2.02</v>
       </c>
       <c r="S23" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="T23" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="U23" t="n">
         <v>1.94</v>
       </c>
-      <c r="U23" t="n">
-        <v>2</v>
-      </c>
       <c r="V23" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="W23" t="n">
-        <v>5.1</v>
+        <v>5.6</v>
       </c>
       <c r="X23" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="Y23" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="Z23" t="n">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="AA23" t="n">
         <v>1000</v>
       </c>
       <c r="AB23" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AC23" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AD23" t="n">
         <v>1000</v>
       </c>
       <c r="AE23" t="n">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="AF23" t="n">
         <v>10.5</v>
@@ -3586,25 +3586,25 @@
         <v>12</v>
       </c>
       <c r="AH23" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AI23" t="n">
-        <v>520</v>
+        <v>180</v>
       </c>
       <c r="AJ23" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AK23" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AL23" t="n">
         <v>34</v>
       </c>
       <c r="AM23" t="n">
-        <v>430</v>
+        <v>1000</v>
       </c>
       <c r="AN23" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="AO23" t="n">
         <v>1000</v>
@@ -3643,61 +3643,61 @@
         <v>1.92</v>
       </c>
       <c r="H24" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="I24" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="J24" t="n">
-        <v>3.85</v>
+        <v>4</v>
       </c>
       <c r="K24" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="L24" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="M24" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N24" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="O24" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="P24" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="R24" t="n">
-        <v>1.49</v>
+        <v>1.51</v>
       </c>
       <c r="S24" t="n">
-        <v>2.9</v>
+        <v>2.84</v>
       </c>
       <c r="T24" t="n">
-        <v>1.7</v>
+        <v>1.74</v>
       </c>
       <c r="U24" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="V24" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="W24" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="X24" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="Y24" t="n">
         <v>19.5</v>
       </c>
       <c r="Z24" t="n">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="AA24" t="n">
         <v>140</v>
@@ -3709,25 +3709,25 @@
         <v>9</v>
       </c>
       <c r="AD24" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AE24" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AF24" t="n">
         <v>12.5</v>
       </c>
       <c r="AG24" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AH24" t="n">
         <v>17</v>
       </c>
       <c r="AI24" t="n">
-        <v>160</v>
+        <v>50</v>
       </c>
       <c r="AJ24" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AK24" t="n">
         <v>18.5</v>
@@ -3736,13 +3736,13 @@
         <v>30</v>
       </c>
       <c r="AM24" t="n">
-        <v>85</v>
+        <v>580</v>
       </c>
       <c r="AN24" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AO24" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-18.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-18.xlsx
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Turkish 2 Lig</t>
+          <t>Azerbaijan Premier League</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,132 +653,132 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>07:00:00</t>
+          <t>12:30:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1461 Trabzon</t>
+          <t>FC Sabah</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Kirklarelispor</t>
+          <t>Qarabag FK</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.32</v>
+        <v>3.5</v>
       </c>
       <c r="G2" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="H2" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="I2" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="J2" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K2" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="L2" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N2" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="S2" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="T2" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="U2" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="V2" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="W2" t="n">
         <v>1.34</v>
       </c>
-      <c r="H2" t="n">
-        <v>15</v>
-      </c>
-      <c r="I2" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="J2" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="K2" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="P2" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="S2" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="T2" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="U2" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="V2" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="W2" t="n">
-        <v>4</v>
-      </c>
       <c r="X2" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="Y2" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AA2" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AB2" t="n">
-        <v>4.5</v>
+        <v>22</v>
       </c>
       <c r="AC2" t="n">
-        <v>7.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD2" t="n">
-        <v>32</v>
+        <v>19.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>190</v>
+        <v>70</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.4</v>
+        <v>65</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="AH2" t="n">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="AI2" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AJ2" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AK2" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AL2" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AM2" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AO2" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Azerbaijan Premier League</t>
+          <t>Algerian Ligue 1</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,126 +788,126 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>12:30:00</t>
+          <t>13:00:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>FC Sabah</t>
+          <t>MB Rouissat</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Qarabag FK</t>
+          <t>MC Alger</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="G3" t="n">
-        <v>3.85</v>
+        <v>7</v>
       </c>
       <c r="H3" t="n">
-        <v>2.16</v>
+        <v>1.89</v>
       </c>
       <c r="I3" t="n">
-        <v>2.28</v>
+        <v>1.93</v>
       </c>
       <c r="J3" t="n">
-        <v>3.45</v>
+        <v>3.05</v>
       </c>
       <c r="K3" t="n">
-        <v>3.95</v>
+        <v>3.3</v>
       </c>
       <c r="L3" t="n">
-        <v>1.44</v>
+        <v>1.69</v>
       </c>
       <c r="M3" t="n">
-        <v>1.07</v>
+        <v>1.15</v>
       </c>
       <c r="N3" t="n">
-        <v>3.7</v>
+        <v>2.32</v>
       </c>
       <c r="O3" t="n">
-        <v>1.33</v>
+        <v>1.68</v>
       </c>
       <c r="P3" t="n">
-        <v>1.96</v>
+        <v>1.41</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.97</v>
+        <v>3.1</v>
       </c>
       <c r="R3" t="n">
-        <v>1.38</v>
+        <v>1.13</v>
       </c>
       <c r="S3" t="n">
-        <v>3.5</v>
+        <v>7</v>
       </c>
       <c r="T3" t="n">
-        <v>1.73</v>
+        <v>2.58</v>
       </c>
       <c r="U3" t="n">
-        <v>2.14</v>
+        <v>1.52</v>
       </c>
       <c r="V3" t="n">
-        <v>1.79</v>
+        <v>2.06</v>
       </c>
       <c r="W3" t="n">
-        <v>1.35</v>
+        <v>1.17</v>
       </c>
       <c r="X3" t="n">
-        <v>1000</v>
+        <v>7.4</v>
       </c>
       <c r="Y3" t="n">
-        <v>18</v>
+        <v>5.4</v>
       </c>
       <c r="Z3" t="n">
-        <v>28</v>
+        <v>9.4</v>
       </c>
       <c r="AA3" t="n">
-        <v>900</v>
+        <v>80</v>
       </c>
       <c r="AB3" t="n">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="AC3" t="n">
-        <v>9</v>
+        <v>8.4</v>
       </c>
       <c r="AD3" t="n">
-        <v>21</v>
+        <v>12.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="AF3" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AG3" t="n">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="AH3" t="n">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="AI3" t="n">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="AJ3" t="n">
         <v>900</v>
       </c>
       <c r="AK3" t="n">
-        <v>1000</v>
+        <v>750</v>
       </c>
       <c r="AL3" t="n">
-        <v>1000</v>
+        <v>750</v>
       </c>
       <c r="AM3" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="AN3" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="AO3" t="n">
-        <v>17</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4">
@@ -928,49 +928,49 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>MB Rouissat</t>
+          <t>ASO Chlef</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>MC Alger</t>
+          <t>MC Oran</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>5.9</v>
+        <v>2.36</v>
       </c>
       <c r="G4" t="n">
-        <v>7.2</v>
+        <v>2.44</v>
       </c>
       <c r="H4" t="n">
-        <v>1.86</v>
+        <v>3.65</v>
       </c>
       <c r="I4" t="n">
-        <v>1.95</v>
+        <v>3.95</v>
       </c>
       <c r="J4" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="K4" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="L4" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="M4" t="n">
         <v>1.15</v>
       </c>
       <c r="N4" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="O4" t="n">
-        <v>1.67</v>
+        <v>1.69</v>
       </c>
       <c r="P4" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="R4" t="n">
         <v>1.13</v>
@@ -979,76 +979,76 @@
         <v>7</v>
       </c>
       <c r="T4" t="n">
-        <v>2.56</v>
+        <v>2.36</v>
       </c>
       <c r="U4" t="n">
-        <v>1.52</v>
+        <v>1.63</v>
       </c>
       <c r="V4" t="n">
-        <v>2.04</v>
+        <v>1.34</v>
       </c>
       <c r="W4" t="n">
-        <v>1.18</v>
+        <v>1.7</v>
       </c>
       <c r="X4" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="Y4" t="n">
-        <v>5.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Z4" t="n">
-        <v>9.6</v>
+        <v>25</v>
       </c>
       <c r="AA4" t="n">
-        <v>24</v>
+        <v>110</v>
       </c>
       <c r="AB4" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="AC4" t="n">
-        <v>8.199999999999999</v>
+        <v>7.4</v>
       </c>
       <c r="AD4" t="n">
-        <v>12.5</v>
+        <v>18.5</v>
       </c>
       <c r="AE4" t="n">
-        <v>70</v>
+        <v>290</v>
       </c>
       <c r="AF4" t="n">
-        <v>130</v>
+        <v>13</v>
       </c>
       <c r="AG4" t="n">
-        <v>80</v>
+        <v>13.5</v>
       </c>
       <c r="AH4" t="n">
-        <v>110</v>
+        <v>32</v>
       </c>
       <c r="AI4" t="n">
-        <v>260</v>
+        <v>290</v>
       </c>
       <c r="AJ4" t="n">
-        <v>270</v>
+        <v>38</v>
       </c>
       <c r="AK4" t="n">
-        <v>180</v>
+        <v>42</v>
       </c>
       <c r="AL4" t="n">
-        <v>230</v>
+        <v>90</v>
       </c>
       <c r="AM4" t="n">
-        <v>450</v>
+        <v>300</v>
       </c>
       <c r="AN4" t="n">
-        <v>600</v>
+        <v>60</v>
       </c>
       <c r="AO4" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Algerian Ligue 1</t>
+          <t>Friendly Matches</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1063,121 +1063,121 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>ASO Chlef</t>
+          <t>Necaxa</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>MC Oran</t>
+          <t>Mineros de Zacatecas</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.26</v>
+        <v>1.7</v>
       </c>
       <c r="G5" t="n">
-        <v>2.4</v>
+        <v>1.95</v>
       </c>
       <c r="H5" t="n">
-        <v>3.55</v>
+        <v>3.75</v>
       </c>
       <c r="I5" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="J5" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K5" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N5" t="n">
         <v>4.1</v>
       </c>
-      <c r="J5" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="K5" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="L5" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="N5" t="n">
-        <v>2.28</v>
-      </c>
       <c r="O5" t="n">
-        <v>1.65</v>
+        <v>1.18</v>
       </c>
       <c r="P5" t="n">
-        <v>1.41</v>
+        <v>2.22</v>
       </c>
       <c r="Q5" t="n">
-        <v>3</v>
+        <v>1.57</v>
       </c>
       <c r="R5" t="n">
-        <v>1.13</v>
+        <v>1.55</v>
       </c>
       <c r="S5" t="n">
-        <v>6.6</v>
+        <v>2.18</v>
       </c>
       <c r="T5" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="U5" t="n">
         <v>2.3</v>
       </c>
-      <c r="U5" t="n">
-        <v>1.63</v>
-      </c>
       <c r="V5" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="W5" t="n">
-        <v>1.71</v>
+        <v>2.04</v>
       </c>
       <c r="X5" t="n">
-        <v>7.6</v>
+        <v>1000</v>
       </c>
       <c r="Y5" t="n">
-        <v>9.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="Z5" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AA5" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>7</v>
+        <v>1000</v>
       </c>
       <c r="AC5" t="n">
-        <v>7.4</v>
+        <v>42</v>
       </c>
       <c r="AD5" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AE5" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AF5" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AG5" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AH5" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AI5" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AJ5" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AK5" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AL5" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AM5" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AO5" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="6">
@@ -1207,22 +1207,22 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="G6" t="n">
         <v>1.49</v>
       </c>
       <c r="H6" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="I6" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="J6" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="K6" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="L6" t="n">
         <v>1.41</v>
@@ -1231,40 +1231,40 @@
         <v>1.07</v>
       </c>
       <c r="N6" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="O6" t="n">
         <v>1.32</v>
       </c>
       <c r="P6" t="n">
-        <v>1.89</v>
+        <v>1.92</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.98</v>
+        <v>1.96</v>
       </c>
       <c r="R6" t="n">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="S6" t="n">
-        <v>3.6</v>
+        <v>3.45</v>
       </c>
       <c r="T6" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="U6" t="n">
-        <v>1.64</v>
+        <v>1.69</v>
       </c>
       <c r="V6" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="W6" t="n">
         <v>3</v>
       </c>
       <c r="X6" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="Y6" t="n">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="Z6" t="n">
         <v>1000</v>
@@ -1273,7 +1273,7 @@
         <v>1000</v>
       </c>
       <c r="AB6" t="n">
-        <v>7</v>
+        <v>7.4</v>
       </c>
       <c r="AC6" t="n">
         <v>11.5</v>
@@ -1285,7 +1285,7 @@
         <v>1000</v>
       </c>
       <c r="AF6" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AG6" t="n">
         <v>11</v>
@@ -1300,16 +1300,16 @@
         <v>12.5</v>
       </c>
       <c r="AK6" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AL6" t="n">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="AM6" t="n">
         <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AO6" t="n">
         <v>1000</v>
@@ -1345,7 +1345,7 @@
         <v>2.76</v>
       </c>
       <c r="G7" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="H7" t="n">
         <v>2.58</v>
@@ -1354,7 +1354,7 @@
         <v>2.62</v>
       </c>
       <c r="J7" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="K7" t="n">
         <v>3.95</v>
@@ -1366,31 +1366,31 @@
         <v>1.05</v>
       </c>
       <c r="N7" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="O7" t="n">
         <v>1.23</v>
       </c>
       <c r="P7" t="n">
-        <v>2.34</v>
+        <v>2.42</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.71</v>
+        <v>1.68</v>
       </c>
       <c r="R7" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="S7" t="n">
-        <v>2.8</v>
+        <v>2.76</v>
       </c>
       <c r="T7" t="n">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="U7" t="n">
         <v>2.5</v>
       </c>
       <c r="V7" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="W7" t="n">
         <v>1.56</v>
@@ -1399,13 +1399,13 @@
         <v>21</v>
       </c>
       <c r="Y7" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="Z7" t="n">
         <v>19.5</v>
       </c>
       <c r="AA7" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AB7" t="n">
         <v>15</v>
@@ -1426,13 +1426,13 @@
         <v>12.5</v>
       </c>
       <c r="AH7" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AI7" t="n">
         <v>32</v>
       </c>
       <c r="AJ7" t="n">
-        <v>42</v>
+        <v>100</v>
       </c>
       <c r="AK7" t="n">
         <v>27</v>
@@ -1447,7 +1447,7 @@
         <v>18.5</v>
       </c>
       <c r="AO7" t="n">
-        <v>19.5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8">
@@ -1489,7 +1489,7 @@
         <v>15.5</v>
       </c>
       <c r="J8" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="K8" t="n">
         <v>7</v>
@@ -1501,13 +1501,13 @@
         <v>1.03</v>
       </c>
       <c r="N8" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="O8" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="P8" t="n">
-        <v>2.9</v>
+        <v>2.94</v>
       </c>
       <c r="Q8" t="n">
         <v>1.51</v>
@@ -1519,10 +1519,10 @@
         <v>2.28</v>
       </c>
       <c r="T8" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="U8" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="V8" t="n">
         <v>1.07</v>
@@ -1537,16 +1537,16 @@
         <v>55</v>
       </c>
       <c r="Z8" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="AA8" t="n">
         <v>620</v>
       </c>
       <c r="AB8" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AC8" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AD8" t="n">
         <v>55</v>
@@ -1555,7 +1555,7 @@
         <v>300</v>
       </c>
       <c r="AF8" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AG8" t="n">
         <v>12</v>
@@ -1564,19 +1564,19 @@
         <v>32</v>
       </c>
       <c r="AI8" t="n">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="AJ8" t="n">
-        <v>9.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="AK8" t="n">
         <v>13</v>
       </c>
       <c r="AL8" t="n">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AM8" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="AN8" t="n">
         <v>3.8</v>
@@ -1612,112 +1612,112 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="G9" t="n">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="H9" t="n">
-        <v>6.4</v>
+        <v>7.2</v>
       </c>
       <c r="I9" t="n">
-        <v>7</v>
+        <v>7.6</v>
       </c>
       <c r="J9" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="K9" t="n">
-        <v>4.4</v>
+        <v>4.7</v>
       </c>
       <c r="L9" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="M9" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N9" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="O9" t="n">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="P9" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="S9" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="T9" t="n">
         <v>2.02</v>
       </c>
-      <c r="Q9" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="S9" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="T9" t="n">
-        <v>1.99</v>
-      </c>
       <c r="U9" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="V9" t="n">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="W9" t="n">
-        <v>2.6</v>
+        <v>2.78</v>
       </c>
       <c r="X9" t="n">
-        <v>15.5</v>
+        <v>17</v>
       </c>
       <c r="Y9" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="Z9" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AA9" t="n">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="AB9" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC9" t="n">
-        <v>9.6</v>
+        <v>11</v>
       </c>
       <c r="AD9" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AE9" t="n">
         <v>120</v>
       </c>
       <c r="AF9" t="n">
-        <v>9.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AG9" t="n">
         <v>10.5</v>
       </c>
       <c r="AH9" t="n">
-        <v>65</v>
+        <v>24</v>
       </c>
       <c r="AI9" t="n">
-        <v>290</v>
+        <v>110</v>
       </c>
       <c r="AJ9" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AK9" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AL9" t="n">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="AM9" t="n">
         <v>140</v>
       </c>
       <c r="AN9" t="n">
-        <v>9.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AO9" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="10">
@@ -1747,31 +1747,31 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="G10" t="n">
-        <v>2</v>
+        <v>1.96</v>
       </c>
       <c r="H10" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="I10" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="J10" t="n">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="K10" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="L10" t="n">
         <v>1.52</v>
       </c>
       <c r="M10" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="N10" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="O10" t="n">
         <v>1.43</v>
@@ -1780,10 +1780,10 @@
         <v>1.73</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="R10" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="S10" t="n">
         <v>4.4</v>
@@ -1795,13 +1795,13 @@
         <v>1.92</v>
       </c>
       <c r="V10" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="W10" t="n">
-        <v>1.98</v>
+        <v>2.04</v>
       </c>
       <c r="X10" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="Y10" t="n">
         <v>14</v>
@@ -1810,49 +1810,49 @@
         <v>34</v>
       </c>
       <c r="AA10" t="n">
-        <v>120</v>
+        <v>170</v>
       </c>
       <c r="AB10" t="n">
-        <v>7.8</v>
+        <v>7.4</v>
       </c>
       <c r="AC10" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AD10" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AE10" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AF10" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AG10" t="n">
-        <v>11</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH10" t="n">
         <v>22</v>
       </c>
       <c r="AI10" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AJ10" t="n">
         <v>23</v>
       </c>
       <c r="AK10" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AL10" t="n">
-        <v>150</v>
+        <v>46</v>
       </c>
       <c r="AM10" t="n">
-        <v>150</v>
+        <v>470</v>
       </c>
       <c r="AN10" t="n">
         <v>18</v>
       </c>
       <c r="AO10" t="n">
-        <v>1000</v>
+        <v>260</v>
       </c>
     </row>
     <row r="11">
@@ -1882,112 +1882,112 @@
         </is>
       </c>
       <c r="F11" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="G11" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="H11" t="n">
+        <v>11</v>
+      </c>
+      <c r="I11" t="n">
+        <v>12</v>
+      </c>
+      <c r="J11" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="K11" t="n">
+        <v>6</v>
+      </c>
+      <c r="L11" t="n">
         <v>1.31</v>
-      </c>
-      <c r="G11" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="H11" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="I11" t="n">
-        <v>13</v>
-      </c>
-      <c r="J11" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="K11" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="L11" t="n">
-        <v>1.3</v>
       </c>
       <c r="M11" t="n">
         <v>1.04</v>
       </c>
       <c r="N11" t="n">
-        <v>5.7</v>
+        <v>5.4</v>
       </c>
       <c r="O11" t="n">
         <v>1.2</v>
       </c>
       <c r="P11" t="n">
-        <v>2.58</v>
+        <v>2.5</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="R11" t="n">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="S11" t="n">
-        <v>2.52</v>
+        <v>2.56</v>
       </c>
       <c r="T11" t="n">
-        <v>2.08</v>
+        <v>2.02</v>
       </c>
       <c r="U11" t="n">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="V11" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="W11" t="n">
-        <v>4</v>
+        <v>3.7</v>
       </c>
       <c r="X11" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Y11" t="n">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="Z11" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AA11" t="n">
-        <v>490</v>
+        <v>500</v>
       </c>
       <c r="AB11" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AC11" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="AD11" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AE11" t="n">
-        <v>220</v>
+        <v>160</v>
       </c>
       <c r="AF11" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AG11" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AH11" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AI11" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="AJ11" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AK11" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AL11" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AM11" t="n">
+        <v>180</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="AO11" t="n">
         <v>190</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>210</v>
       </c>
     </row>
     <row r="12">
@@ -2017,67 +2017,67 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.04</v>
+        <v>1.98</v>
       </c>
       <c r="G12" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="H12" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I12" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="J12" t="n">
-        <v>3.7</v>
+        <v>3.85</v>
       </c>
       <c r="K12" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="L12" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="M12" t="n">
         <v>1.09</v>
       </c>
       <c r="N12" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="O12" t="n">
         <v>1.42</v>
       </c>
       <c r="P12" t="n">
-        <v>1.74</v>
+        <v>1.78</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.28</v>
+        <v>2.24</v>
       </c>
       <c r="R12" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="S12" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="T12" t="n">
-        <v>1.99</v>
+        <v>2.02</v>
       </c>
       <c r="U12" t="n">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="V12" t="n">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="W12" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="X12" t="n">
         <v>13</v>
       </c>
       <c r="Y12" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AA12" t="n">
         <v>100</v>
@@ -2086,16 +2086,16 @@
         <v>7.8</v>
       </c>
       <c r="AC12" t="n">
-        <v>8.4</v>
+        <v>9</v>
       </c>
       <c r="AD12" t="n">
-        <v>32</v>
+        <v>17.5</v>
       </c>
       <c r="AE12" t="n">
-        <v>65</v>
+        <v>380</v>
       </c>
       <c r="AF12" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AG12" t="n">
         <v>11</v>
@@ -2104,25 +2104,25 @@
         <v>24</v>
       </c>
       <c r="AI12" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AJ12" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AK12" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AL12" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AM12" t="n">
         <v>140</v>
       </c>
       <c r="AN12" t="n">
-        <v>20</v>
+        <v>18.5</v>
       </c>
       <c r="AO12" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13">
@@ -2155,19 +2155,19 @@
         <v>2.86</v>
       </c>
       <c r="G13" t="n">
-        <v>2.9</v>
+        <v>2.96</v>
       </c>
       <c r="H13" t="n">
-        <v>2.8</v>
+        <v>2.74</v>
       </c>
       <c r="I13" t="n">
-        <v>2.84</v>
+        <v>2.82</v>
       </c>
       <c r="J13" t="n">
         <v>3.35</v>
       </c>
       <c r="K13" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="L13" t="n">
         <v>1.49</v>
@@ -2203,34 +2203,34 @@
         <v>1.54</v>
       </c>
       <c r="W13" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="X13" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="Y13" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>44</v>
+      </c>
+      <c r="AB13" t="n">
         <v>10.5</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>46</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>10</v>
       </c>
       <c r="AC13" t="n">
         <v>7.4</v>
       </c>
       <c r="AD13" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AE13" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AF13" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="AG13" t="n">
         <v>13</v>
@@ -2239,10 +2239,10 @@
         <v>19</v>
       </c>
       <c r="AI13" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AJ13" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AK13" t="n">
         <v>36</v>
@@ -2251,13 +2251,13 @@
         <v>55</v>
       </c>
       <c r="AM13" t="n">
-        <v>470</v>
+        <v>120</v>
       </c>
       <c r="AN13" t="n">
+        <v>36</v>
+      </c>
+      <c r="AO13" t="n">
         <v>34</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>36</v>
       </c>
     </row>
     <row r="14">
@@ -2287,112 +2287,112 @@
         </is>
       </c>
       <c r="F14" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="G14" t="n">
         <v>3.25</v>
       </c>
-      <c r="G14" t="n">
+      <c r="H14" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="I14" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="J14" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K14" t="n">
         <v>3.3</v>
       </c>
-      <c r="H14" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="I14" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="J14" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="K14" t="n">
-        <v>3.2</v>
-      </c>
       <c r="L14" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="M14" t="n">
         <v>1.1</v>
       </c>
       <c r="N14" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="O14" t="n">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
       <c r="P14" t="n">
-        <v>1.76</v>
+        <v>1.79</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.26</v>
+        <v>2.2</v>
       </c>
       <c r="R14" t="n">
-        <v>1.28</v>
+        <v>1.31</v>
       </c>
       <c r="S14" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="T14" t="n">
-        <v>1.05</v>
+        <v>1.83</v>
       </c>
       <c r="U14" t="n">
-        <v>1.89</v>
+        <v>2.06</v>
       </c>
       <c r="V14" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="W14" t="n">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
       <c r="X14" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y14" t="n">
         <v>10.5</v>
       </c>
-      <c r="Y14" t="n">
-        <v>13.5</v>
-      </c>
       <c r="Z14" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AA14" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AB14" t="n">
         <v>11.5</v>
       </c>
       <c r="AC14" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="AD14" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AE14" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="AF14" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AG14" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AH14" t="n">
-        <v>19.5</v>
+        <v>18</v>
       </c>
       <c r="AI14" t="n">
+        <v>46</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>60</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>40</v>
+      </c>
+      <c r="AL14" t="n">
         <v>55</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>65</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>46</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>65</v>
       </c>
       <c r="AM14" t="n">
         <v>580</v>
       </c>
       <c r="AN14" t="n">
-        <v>600</v>
+        <v>42</v>
       </c>
       <c r="AO14" t="n">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15">
@@ -2428,10 +2428,10 @@
         <v>1.23</v>
       </c>
       <c r="H15" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="I15" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="J15" t="n">
         <v>8</v>
@@ -2440,7 +2440,7 @@
         <v>8.4</v>
       </c>
       <c r="L15" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="M15" t="n">
         <v>1.03</v>
@@ -2449,22 +2449,22 @@
         <v>6.8</v>
       </c>
       <c r="O15" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="P15" t="n">
         <v>3</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="R15" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="S15" t="n">
-        <v>2.24</v>
+        <v>2.2</v>
       </c>
       <c r="T15" t="n">
-        <v>2.18</v>
+        <v>2.12</v>
       </c>
       <c r="U15" t="n">
         <v>1.77</v>
@@ -2476,13 +2476,13 @@
         <v>5.3</v>
       </c>
       <c r="X15" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="Y15" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="Z15" t="n">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="AA15" t="n">
         <v>1000</v>
@@ -2491,40 +2491,40 @@
         <v>11.5</v>
       </c>
       <c r="AC15" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AD15" t="n">
         <v>1000</v>
       </c>
       <c r="AE15" t="n">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="AF15" t="n">
         <v>8.6</v>
       </c>
       <c r="AG15" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AH15" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AI15" t="n">
         <v>230</v>
       </c>
       <c r="AJ15" t="n">
-        <v>9</v>
+        <v>9.4</v>
       </c>
       <c r="AK15" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AL15" t="n">
         <v>1000</v>
       </c>
       <c r="AM15" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="AN15" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="AO15" t="n">
         <v>1000</v>
@@ -2557,22 +2557,22 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.88</v>
+        <v>1.86</v>
       </c>
       <c r="G16" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="H16" t="n">
         <v>4.9</v>
       </c>
       <c r="I16" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="J16" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="K16" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="L16" t="n">
         <v>1.45</v>
@@ -2581,37 +2581,37 @@
         <v>1.08</v>
       </c>
       <c r="N16" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="O16" t="n">
         <v>1.35</v>
       </c>
       <c r="P16" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="R16" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="S16" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="T16" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="U16" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="V16" t="n">
         <v>1.24</v>
       </c>
       <c r="W16" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="X16" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="Y16" t="n">
         <v>16.5</v>
@@ -2620,7 +2620,7 @@
         <v>36</v>
       </c>
       <c r="AA16" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AB16" t="n">
         <v>8.199999999999999</v>
@@ -2629,13 +2629,13 @@
         <v>8.4</v>
       </c>
       <c r="AD16" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AE16" t="n">
-        <v>330</v>
+        <v>110</v>
       </c>
       <c r="AF16" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AG16" t="n">
         <v>9.800000000000001</v>
@@ -2650,19 +2650,19 @@
         <v>21</v>
       </c>
       <c r="AK16" t="n">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="AL16" t="n">
         <v>40</v>
       </c>
       <c r="AM16" t="n">
-        <v>580</v>
+        <v>130</v>
       </c>
       <c r="AN16" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AO16" t="n">
-        <v>1000</v>
+        <v>270</v>
       </c>
     </row>
     <row r="17">
@@ -2692,22 +2692,22 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="G17" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="H17" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="I17" t="n">
         <v>3.55</v>
-      </c>
-      <c r="I17" t="n">
-        <v>3.6</v>
       </c>
       <c r="J17" t="n">
         <v>3.75</v>
       </c>
       <c r="K17" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="L17" t="n">
         <v>1.36</v>
@@ -2716,58 +2716,58 @@
         <v>1.06</v>
       </c>
       <c r="N17" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="O17" t="n">
         <v>1.24</v>
       </c>
       <c r="P17" t="n">
-        <v>2.34</v>
+        <v>2.3</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="R17" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="S17" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="T17" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="U17" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="V17" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="W17" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="X17" t="n">
         <v>18</v>
       </c>
       <c r="Y17" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="Z17" t="n">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="AA17" t="n">
         <v>65</v>
       </c>
       <c r="AB17" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AC17" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="AD17" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AE17" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AF17" t="n">
         <v>15.5</v>
@@ -2776,25 +2776,25 @@
         <v>11</v>
       </c>
       <c r="AH17" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AI17" t="n">
         <v>40</v>
       </c>
       <c r="AJ17" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AK17" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AL17" t="n">
         <v>30</v>
       </c>
       <c r="AM17" t="n">
-        <v>330</v>
+        <v>70</v>
       </c>
       <c r="AN17" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AO17" t="n">
         <v>28</v>
@@ -2827,82 +2827,82 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="G18" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+      <c r="I18" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="J18" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="K18" t="n">
+        <v>5</v>
+      </c>
+      <c r="L18" t="n">
         <v>1.43</v>
-      </c>
-      <c r="H18" t="n">
-        <v>10</v>
-      </c>
-      <c r="I18" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="J18" t="n">
-        <v>5</v>
-      </c>
-      <c r="K18" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="L18" t="n">
-        <v>1.42</v>
       </c>
       <c r="M18" t="n">
         <v>1.06</v>
       </c>
       <c r="N18" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="O18" t="n">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="P18" t="n">
-        <v>2.04</v>
+        <v>1.99</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="R18" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="S18" t="n">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="T18" t="n">
         <v>2.2</v>
       </c>
       <c r="U18" t="n">
-        <v>1.75</v>
+        <v>1.77</v>
       </c>
       <c r="V18" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="W18" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="X18" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="Y18" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="Z18" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AA18" t="n">
-        <v>450</v>
+        <v>410</v>
       </c>
       <c r="AB18" t="n">
-        <v>8.4</v>
+        <v>7.6</v>
       </c>
       <c r="AC18" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AD18" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="AE18" t="n">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="AF18" t="n">
         <v>7.6</v>
@@ -2914,22 +2914,22 @@
         <v>32</v>
       </c>
       <c r="AI18" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="AJ18" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK18" t="n">
-        <v>16</v>
+        <v>17.5</v>
       </c>
       <c r="AL18" t="n">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="AM18" t="n">
-        <v>210</v>
+        <v>250</v>
       </c>
       <c r="AN18" t="n">
-        <v>7.2</v>
+        <v>7.8</v>
       </c>
       <c r="AO18" t="n">
         <v>1000</v>
@@ -2962,25 +2962,25 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="G19" t="n">
         <v>1.22</v>
       </c>
       <c r="H19" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="I19" t="n">
         <v>19.5</v>
       </c>
-      <c r="I19" t="n">
-        <v>21</v>
-      </c>
       <c r="J19" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="K19" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="L19" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="M19" t="n">
         <v>1.03</v>
@@ -2992,28 +2992,28 @@
         <v>1.17</v>
       </c>
       <c r="P19" t="n">
-        <v>2.78</v>
+        <v>2.84</v>
       </c>
       <c r="Q19" t="n">
         <v>1.52</v>
       </c>
       <c r="R19" t="n">
-        <v>1.74</v>
+        <v>1.76</v>
       </c>
       <c r="S19" t="n">
-        <v>2.32</v>
+        <v>2.28</v>
       </c>
       <c r="T19" t="n">
-        <v>2.32</v>
+        <v>2.28</v>
       </c>
       <c r="U19" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="V19" t="n">
         <v>1.05</v>
       </c>
       <c r="W19" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="X19" t="n">
         <v>34</v>
@@ -3022,7 +3022,7 @@
         <v>1000</v>
       </c>
       <c r="Z19" t="n">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="AA19" t="n">
         <v>1000</v>
@@ -3031,10 +3031,10 @@
         <v>10.5</v>
       </c>
       <c r="AC19" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AD19" t="n">
-        <v>75</v>
+        <v>400</v>
       </c>
       <c r="AE19" t="n">
         <v>420</v>
@@ -3043,25 +3043,25 @@
         <v>8.199999999999999</v>
       </c>
       <c r="AG19" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AH19" t="n">
         <v>1000</v>
       </c>
       <c r="AI19" t="n">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="AJ19" t="n">
-        <v>8.4</v>
+        <v>9</v>
       </c>
       <c r="AK19" t="n">
         <v>15</v>
       </c>
       <c r="AL19" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AM19" t="n">
-        <v>240</v>
+        <v>260</v>
       </c>
       <c r="AN19" t="n">
         <v>3.65</v>
@@ -3097,94 +3097,94 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="G20" t="n">
         <v>4.2</v>
       </c>
       <c r="H20" t="n">
-        <v>1.97</v>
+        <v>2</v>
       </c>
       <c r="I20" t="n">
-        <v>1.99</v>
+        <v>2.02</v>
       </c>
       <c r="J20" t="n">
-        <v>3.95</v>
+        <v>3.85</v>
       </c>
       <c r="K20" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="L20" t="n">
-        <v>1.34</v>
+        <v>1.37</v>
       </c>
       <c r="M20" t="n">
         <v>1.05</v>
       </c>
       <c r="N20" t="n">
-        <v>5.2</v>
+        <v>4.7</v>
       </c>
       <c r="O20" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P20" t="n">
-        <v>2.4</v>
+        <v>2.28</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="R20" t="n">
-        <v>1.56</v>
+        <v>1.52</v>
       </c>
       <c r="S20" t="n">
-        <v>2.68</v>
+        <v>2.88</v>
       </c>
       <c r="T20" t="n">
-        <v>1.61</v>
+        <v>1.69</v>
       </c>
       <c r="U20" t="n">
-        <v>2.42</v>
+        <v>2.36</v>
       </c>
       <c r="V20" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="W20" t="n">
         <v>1.31</v>
       </c>
       <c r="X20" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="Y20" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="Z20" t="n">
         <v>14</v>
       </c>
       <c r="AA20" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AB20" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AC20" t="n">
-        <v>9</v>
+        <v>8.6</v>
       </c>
       <c r="AD20" t="n">
         <v>10.5</v>
       </c>
       <c r="AE20" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="AF20" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AG20" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AH20" t="n">
         <v>16</v>
       </c>
       <c r="AI20" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AJ20" t="n">
         <v>80</v>
@@ -3196,13 +3196,13 @@
         <v>50</v>
       </c>
       <c r="AM20" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AN20" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AO20" t="n">
-        <v>9.800000000000001</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21">
@@ -3232,22 +3232,22 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.34</v>
+        <v>1.32</v>
       </c>
       <c r="G21" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="H21" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="I21" t="n">
         <v>11.5</v>
       </c>
       <c r="J21" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="K21" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="L21" t="n">
         <v>1.27</v>
@@ -3262,7 +3262,7 @@
         <v>1.16</v>
       </c>
       <c r="P21" t="n">
-        <v>2.86</v>
+        <v>2.92</v>
       </c>
       <c r="Q21" t="n">
         <v>1.52</v>
@@ -3271,10 +3271,10 @@
         <v>1.74</v>
       </c>
       <c r="S21" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="T21" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="U21" t="n">
         <v>2.02</v>
@@ -3283,7 +3283,7 @@
         <v>1.09</v>
       </c>
       <c r="W21" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="X21" t="n">
         <v>30</v>
@@ -3304,7 +3304,7 @@
         <v>14</v>
       </c>
       <c r="AD21" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AE21" t="n">
         <v>150</v>
@@ -3331,13 +3331,13 @@
         <v>32</v>
       </c>
       <c r="AM21" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="AN21" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="AO21" t="n">
-        <v>180</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="22">
@@ -3367,91 +3367,91 @@
         </is>
       </c>
       <c r="F22" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="G22" t="n">
         <v>1.45</v>
       </c>
-      <c r="G22" t="n">
-        <v>1.48</v>
-      </c>
       <c r="H22" t="n">
-        <v>7.4</v>
+        <v>7.8</v>
       </c>
       <c r="I22" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="J22" t="n">
-        <v>5.2</v>
+        <v>5.5</v>
       </c>
       <c r="K22" t="n">
-        <v>5.6</v>
+        <v>5.8</v>
       </c>
       <c r="L22" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="M22" t="n">
         <v>1.03</v>
       </c>
       <c r="N22" t="n">
-        <v>6.8</v>
+        <v>7.2</v>
       </c>
       <c r="O22" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="P22" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="R22" t="n">
-        <v>1.83</v>
+        <v>1.86</v>
       </c>
       <c r="S22" t="n">
-        <v>2.16</v>
+        <v>2.12</v>
       </c>
       <c r="T22" t="n">
         <v>1.68</v>
       </c>
       <c r="U22" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="V22" t="n">
         <v>1.14</v>
       </c>
       <c r="W22" t="n">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
       <c r="X22" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="Y22" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="Z22" t="n">
         <v>75</v>
       </c>
       <c r="AA22" t="n">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="AB22" t="n">
+        <v>14</v>
+      </c>
+      <c r="AC22" t="n">
         <v>13.5</v>
       </c>
-      <c r="AC22" t="n">
-        <v>13</v>
-      </c>
       <c r="AD22" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AE22" t="n">
         <v>85</v>
       </c>
       <c r="AF22" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AG22" t="n">
         <v>10.5</v>
       </c>
       <c r="AH22" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AI22" t="n">
         <v>70</v>
@@ -3469,7 +3469,7 @@
         <v>80</v>
       </c>
       <c r="AN22" t="n">
-        <v>4.9</v>
+        <v>4.5</v>
       </c>
       <c r="AO22" t="n">
         <v>75</v>
@@ -3502,67 +3502,67 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="G23" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="H23" t="n">
+        <v>14</v>
+      </c>
+      <c r="I23" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="J23" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="K23" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="L23" t="n">
         <v>1.22</v>
-      </c>
-      <c r="H23" t="n">
-        <v>16</v>
-      </c>
-      <c r="I23" t="n">
-        <v>17</v>
-      </c>
-      <c r="J23" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="K23" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="L23" t="n">
-        <v>1.21</v>
       </c>
       <c r="M23" t="n">
         <v>1.02</v>
       </c>
       <c r="N23" t="n">
-        <v>8.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="O23" t="n">
         <v>1.12</v>
       </c>
       <c r="P23" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="R23" t="n">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="S23" t="n">
-        <v>1.94</v>
+        <v>1.97</v>
       </c>
       <c r="T23" t="n">
-        <v>1.96</v>
+        <v>1.92</v>
       </c>
       <c r="U23" t="n">
-        <v>1.94</v>
+        <v>1.97</v>
       </c>
       <c r="V23" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="W23" t="n">
-        <v>5.6</v>
+        <v>5.3</v>
       </c>
       <c r="X23" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="Y23" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="Z23" t="n">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="AA23" t="n">
         <v>1000</v>
@@ -3574,10 +3574,10 @@
         <v>21</v>
       </c>
       <c r="AD23" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AE23" t="n">
-        <v>270</v>
+        <v>240</v>
       </c>
       <c r="AF23" t="n">
         <v>10.5</v>
@@ -3586,16 +3586,16 @@
         <v>12</v>
       </c>
       <c r="AH23" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AI23" t="n">
-        <v>180</v>
+        <v>290</v>
       </c>
       <c r="AJ23" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AK23" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AL23" t="n">
         <v>34</v>
@@ -3604,7 +3604,7 @@
         <v>1000</v>
       </c>
       <c r="AN23" t="n">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="AO23" t="n">
         <v>1000</v>
@@ -3637,22 +3637,22 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="G24" t="n">
-        <v>1.92</v>
+        <v>1.88</v>
       </c>
       <c r="H24" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="I24" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="J24" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="K24" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="L24" t="n">
         <v>1.35</v>
@@ -3661,34 +3661,34 @@
         <v>1.04</v>
       </c>
       <c r="N24" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="O24" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="P24" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="R24" t="n">
-        <v>1.51</v>
+        <v>1.53</v>
       </c>
       <c r="S24" t="n">
-        <v>2.84</v>
+        <v>2.8</v>
       </c>
       <c r="T24" t="n">
-        <v>1.74</v>
+        <v>1.71</v>
       </c>
       <c r="U24" t="n">
-        <v>2.28</v>
+        <v>2.34</v>
       </c>
       <c r="V24" t="n">
         <v>1.29</v>
       </c>
       <c r="W24" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="X24" t="n">
         <v>22</v>
@@ -3700,28 +3700,28 @@
         <v>36</v>
       </c>
       <c r="AA24" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AB24" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AC24" t="n">
-        <v>9</v>
+        <v>9.4</v>
       </c>
       <c r="AD24" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AE24" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AF24" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AG24" t="n">
         <v>10.5</v>
       </c>
       <c r="AH24" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AI24" t="n">
         <v>50</v>
@@ -3730,19 +3730,19 @@
         <v>22</v>
       </c>
       <c r="AK24" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AL24" t="n">
         <v>30</v>
       </c>
       <c r="AM24" t="n">
-        <v>580</v>
+        <v>110</v>
       </c>
       <c r="AN24" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AO24" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-18.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-18.xlsx
@@ -667,76 +667,76 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="G2" t="n">
-        <v>3.95</v>
+        <v>3.85</v>
       </c>
       <c r="H2" t="n">
         <v>2.2</v>
       </c>
       <c r="I2" t="n">
-        <v>2.32</v>
+        <v>2.26</v>
       </c>
       <c r="J2" t="n">
-        <v>3.3</v>
+        <v>3.45</v>
       </c>
       <c r="K2" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="L2" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="M2" t="n">
         <v>1.08</v>
       </c>
       <c r="N2" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="O2" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P2" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="R2" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="S2" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="T2" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="U2" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="V2" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="W2" t="n">
         <v>1.35</v>
       </c>
-      <c r="S2" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="T2" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="U2" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="V2" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="W2" t="n">
-        <v>1.34</v>
-      </c>
       <c r="X2" t="n">
-        <v>65</v>
+        <v>14.5</v>
       </c>
       <c r="Y2" t="n">
         <v>10.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>28</v>
+        <v>14.5</v>
       </c>
       <c r="AA2" t="n">
-        <v>140</v>
+        <v>32</v>
       </c>
       <c r="AB2" t="n">
-        <v>22</v>
+        <v>15.5</v>
       </c>
       <c r="AC2" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AD2" t="n">
         <v>19.5</v>
@@ -748,13 +748,13 @@
         <v>65</v>
       </c>
       <c r="AG2" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AH2" t="n">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="AI2" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AJ2" t="n">
         <v>1000</v>
@@ -808,16 +808,16 @@
         <v>7</v>
       </c>
       <c r="H3" t="n">
-        <v>1.89</v>
+        <v>1.83</v>
       </c>
       <c r="I3" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="J3" t="n">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
       <c r="K3" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="L3" t="n">
         <v>1.69</v>
@@ -838,19 +838,19 @@
         <v>3.1</v>
       </c>
       <c r="R3" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="S3" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="T3" t="n">
         <v>2.58</v>
       </c>
       <c r="U3" t="n">
-        <v>1.52</v>
+        <v>1.54</v>
       </c>
       <c r="V3" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="W3" t="n">
         <v>1.17</v>
@@ -859,13 +859,13 @@
         <v>7.4</v>
       </c>
       <c r="Y3" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="Z3" t="n">
-        <v>9.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AA3" t="n">
-        <v>80</v>
+        <v>22</v>
       </c>
       <c r="AB3" t="n">
         <v>14</v>
@@ -874,22 +874,22 @@
         <v>8.4</v>
       </c>
       <c r="AD3" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AE3" t="n">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="AF3" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AG3" t="n">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="AH3" t="n">
         <v>65</v>
       </c>
       <c r="AI3" t="n">
-        <v>180</v>
+        <v>95</v>
       </c>
       <c r="AJ3" t="n">
         <v>900</v>
@@ -907,7 +907,7 @@
         <v>600</v>
       </c>
       <c r="AO3" t="n">
-        <v>55</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4">
@@ -937,19 +937,19 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="G4" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="H4" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="I4" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="J4" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="K4" t="n">
         <v>3.25</v>
@@ -958,7 +958,7 @@
         <v>1.68</v>
       </c>
       <c r="M4" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="N4" t="n">
         <v>2.32</v>
@@ -973,55 +973,55 @@
         <v>3.1</v>
       </c>
       <c r="R4" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="S4" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="T4" t="n">
-        <v>2.36</v>
+        <v>2.32</v>
       </c>
       <c r="U4" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="V4" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="W4" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="X4" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="Y4" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="Z4" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AA4" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AB4" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="AC4" t="n">
         <v>7.4</v>
       </c>
       <c r="AD4" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AE4" t="n">
-        <v>290</v>
+        <v>75</v>
       </c>
       <c r="AF4" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AG4" t="n">
         <v>13.5</v>
       </c>
       <c r="AH4" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AI4" t="n">
         <v>290</v>
@@ -1039,10 +1039,10 @@
         <v>300</v>
       </c>
       <c r="AN4" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AO4" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5">
@@ -1072,22 +1072,22 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.7</v>
+        <v>1.78</v>
       </c>
       <c r="G5" t="n">
-        <v>1.95</v>
+        <v>1.88</v>
       </c>
       <c r="H5" t="n">
-        <v>3.75</v>
+        <v>4.3</v>
       </c>
       <c r="I5" t="n">
-        <v>5.8</v>
+        <v>5.1</v>
       </c>
       <c r="J5" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="K5" t="n">
-        <v>5.1</v>
+        <v>4.5</v>
       </c>
       <c r="L5" t="n">
         <v>1.28</v>
@@ -1096,34 +1096,34 @@
         <v>1.03</v>
       </c>
       <c r="N5" t="n">
-        <v>4.1</v>
+        <v>5.3</v>
       </c>
       <c r="O5" t="n">
         <v>1.18</v>
       </c>
       <c r="P5" t="n">
-        <v>2.22</v>
+        <v>2.48</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="R5" t="n">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="S5" t="n">
-        <v>2.18</v>
+        <v>2.42</v>
       </c>
       <c r="T5" t="n">
-        <v>1.56</v>
+        <v>1.58</v>
       </c>
       <c r="U5" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="V5" t="n">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="W5" t="n">
-        <v>2.04</v>
+        <v>2.12</v>
       </c>
       <c r="X5" t="n">
         <v>1000</v>
@@ -1174,7 +1174,7 @@
         <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AO5" t="n">
         <v>1000</v>
@@ -1213,7 +1213,7 @@
         <v>1.49</v>
       </c>
       <c r="H6" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="I6" t="n">
         <v>11.5</v>
@@ -1234,25 +1234,25 @@
         <v>3.7</v>
       </c>
       <c r="O6" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="P6" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="R6" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="S6" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="T6" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="U6" t="n">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="V6" t="n">
         <v>1.1</v>
@@ -1261,7 +1261,7 @@
         <v>3</v>
       </c>
       <c r="X6" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Y6" t="n">
         <v>42</v>
@@ -1273,7 +1273,7 @@
         <v>1000</v>
       </c>
       <c r="AB6" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AC6" t="n">
         <v>11.5</v>
@@ -1285,13 +1285,13 @@
         <v>1000</v>
       </c>
       <c r="AF6" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AG6" t="n">
         <v>11</v>
       </c>
       <c r="AH6" t="n">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="AI6" t="n">
         <v>1000</v>
@@ -1300,10 +1300,10 @@
         <v>12.5</v>
       </c>
       <c r="AK6" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AL6" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AM6" t="n">
         <v>1000</v>
@@ -1369,25 +1369,25 @@
         <v>5.1</v>
       </c>
       <c r="O7" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="P7" t="n">
         <v>2.42</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.68</v>
+        <v>1.66</v>
       </c>
       <c r="R7" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="S7" t="n">
-        <v>2.76</v>
+        <v>2.7</v>
       </c>
       <c r="T7" t="n">
-        <v>1.61</v>
+        <v>1.59</v>
       </c>
       <c r="U7" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="V7" t="n">
         <v>1.62</v>
@@ -1396,10 +1396,10 @@
         <v>1.56</v>
       </c>
       <c r="X7" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Y7" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="Z7" t="n">
         <v>19.5</v>
@@ -1408,7 +1408,7 @@
         <v>36</v>
       </c>
       <c r="AB7" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AC7" t="n">
         <v>9</v>
@@ -1426,13 +1426,13 @@
         <v>12.5</v>
       </c>
       <c r="AH7" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AI7" t="n">
         <v>32</v>
       </c>
       <c r="AJ7" t="n">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="AK7" t="n">
         <v>27</v>
@@ -1441,10 +1441,10 @@
         <v>34</v>
       </c>
       <c r="AM7" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AN7" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AO7" t="n">
         <v>17</v>
@@ -1477,10 +1477,10 @@
         </is>
       </c>
       <c r="F8" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="G8" t="n">
         <v>1.27</v>
-      </c>
-      <c r="G8" t="n">
-        <v>1.28</v>
       </c>
       <c r="H8" t="n">
         <v>14.5</v>
@@ -1489,10 +1489,10 @@
         <v>15.5</v>
       </c>
       <c r="J8" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="K8" t="n">
-        <v>7</v>
+        <v>7.4</v>
       </c>
       <c r="L8" t="n">
         <v>1.27</v>
@@ -1501,22 +1501,22 @@
         <v>1.03</v>
       </c>
       <c r="N8" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="O8" t="n">
         <v>1.16</v>
       </c>
       <c r="P8" t="n">
-        <v>2.94</v>
+        <v>2.9</v>
       </c>
       <c r="Q8" t="n">
         <v>1.51</v>
       </c>
       <c r="R8" t="n">
-        <v>1.74</v>
+        <v>1.77</v>
       </c>
       <c r="S8" t="n">
-        <v>2.28</v>
+        <v>2.24</v>
       </c>
       <c r="T8" t="n">
         <v>2.12</v>
@@ -1525,25 +1525,25 @@
         <v>1.84</v>
       </c>
       <c r="V8" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="W8" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="X8" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Y8" t="n">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="Z8" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AA8" t="n">
-        <v>620</v>
+        <v>610</v>
       </c>
       <c r="AB8" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AC8" t="n">
         <v>16</v>
@@ -1555,7 +1555,7 @@
         <v>300</v>
       </c>
       <c r="AF8" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AG8" t="n">
         <v>12</v>
@@ -1576,10 +1576,10 @@
         <v>42</v>
       </c>
       <c r="AM8" t="n">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="AN8" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="AO8" t="n">
         <v>1000</v>
@@ -1612,10 +1612,10 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="G9" t="n">
-        <v>1.56</v>
+        <v>1.54</v>
       </c>
       <c r="H9" t="n">
         <v>7.2</v>
@@ -1624,13 +1624,13 @@
         <v>7.6</v>
       </c>
       <c r="J9" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="K9" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="L9" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="M9" t="n">
         <v>1.06</v>
@@ -1642,10 +1642,10 @@
         <v>1.3</v>
       </c>
       <c r="P9" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="R9" t="n">
         <v>1.41</v>
@@ -1657,37 +1657,37 @@
         <v>2.02</v>
       </c>
       <c r="U9" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="V9" t="n">
         <v>1.15</v>
       </c>
       <c r="W9" t="n">
-        <v>2.78</v>
+        <v>2.84</v>
       </c>
       <c r="X9" t="n">
         <v>17</v>
       </c>
       <c r="Y9" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="Z9" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AA9" t="n">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="AB9" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AC9" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AD9" t="n">
         <v>27</v>
       </c>
       <c r="AE9" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AF9" t="n">
         <v>8.800000000000001</v>
@@ -1708,13 +1708,13 @@
         <v>16</v>
       </c>
       <c r="AL9" t="n">
-        <v>120</v>
+        <v>48</v>
       </c>
       <c r="AM9" t="n">
         <v>140</v>
       </c>
       <c r="AN9" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AO9" t="n">
         <v>1000</v>
@@ -1747,94 +1747,94 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="G10" t="n">
-        <v>1.96</v>
+        <v>1.93</v>
       </c>
       <c r="H10" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="I10" t="n">
         <v>5</v>
       </c>
       <c r="J10" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="K10" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="L10" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="M10" t="n">
         <v>1.09</v>
       </c>
       <c r="N10" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="O10" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="P10" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="R10" t="n">
         <v>1.27</v>
       </c>
       <c r="S10" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="T10" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="U10" t="n">
-        <v>1.92</v>
+        <v>1.89</v>
       </c>
       <c r="V10" t="n">
         <v>1.25</v>
       </c>
       <c r="W10" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="X10" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="Y10" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="Z10" t="n">
         <v>34</v>
       </c>
       <c r="AA10" t="n">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="AB10" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AC10" t="n">
         <v>7.4</v>
       </c>
       <c r="AD10" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AE10" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AF10" t="n">
         <v>11</v>
       </c>
       <c r="AG10" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AH10" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AI10" t="n">
-        <v>90</v>
+        <v>160</v>
       </c>
       <c r="AJ10" t="n">
         <v>23</v>
@@ -1843,16 +1843,16 @@
         <v>21</v>
       </c>
       <c r="AL10" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AM10" t="n">
-        <v>470</v>
+        <v>160</v>
       </c>
       <c r="AN10" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AO10" t="n">
-        <v>260</v>
+        <v>600</v>
       </c>
     </row>
     <row r="11">
@@ -1882,16 +1882,16 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="G11" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="H11" t="n">
+        <v>10</v>
+      </c>
+      <c r="I11" t="n">
         <v>11</v>
-      </c>
-      <c r="I11" t="n">
-        <v>12</v>
       </c>
       <c r="J11" t="n">
         <v>5.8</v>
@@ -1918,58 +1918,58 @@
         <v>1.62</v>
       </c>
       <c r="R11" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="S11" t="n">
         <v>2.56</v>
       </c>
       <c r="T11" t="n">
-        <v>2.02</v>
+        <v>1.97</v>
       </c>
       <c r="U11" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="V11" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="W11" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="X11" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Y11" t="n">
         <v>40</v>
       </c>
       <c r="Z11" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AA11" t="n">
-        <v>500</v>
+        <v>360</v>
       </c>
       <c r="AB11" t="n">
-        <v>9.6</v>
+        <v>10</v>
       </c>
       <c r="AC11" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AD11" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AE11" t="n">
         <v>160</v>
       </c>
       <c r="AF11" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="AG11" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AH11" t="n">
         <v>28</v>
       </c>
       <c r="AI11" t="n">
-        <v>160</v>
+        <v>130</v>
       </c>
       <c r="AJ11" t="n">
         <v>11</v>
@@ -1981,13 +1981,13 @@
         <v>34</v>
       </c>
       <c r="AM11" t="n">
-        <v>180</v>
+        <v>140</v>
       </c>
       <c r="AN11" t="n">
         <v>5.1</v>
       </c>
       <c r="AO11" t="n">
-        <v>190</v>
+        <v>170</v>
       </c>
     </row>
     <row r="12">
@@ -2020,79 +2020,79 @@
         <v>1.98</v>
       </c>
       <c r="G12" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="H12" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I12" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="J12" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="K12" t="n">
         <v>3.85</v>
       </c>
-      <c r="K12" t="n">
-        <v>3.9</v>
-      </c>
       <c r="L12" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="M12" t="n">
         <v>1.09</v>
       </c>
       <c r="N12" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="O12" t="n">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
       <c r="P12" t="n">
-        <v>1.78</v>
+        <v>1.85</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.24</v>
+        <v>2.14</v>
       </c>
       <c r="R12" t="n">
-        <v>1.27</v>
+        <v>1.31</v>
       </c>
       <c r="S12" t="n">
-        <v>4.3</v>
+        <v>3.95</v>
       </c>
       <c r="T12" t="n">
-        <v>2.02</v>
+        <v>1.95</v>
       </c>
       <c r="U12" t="n">
-        <v>1.87</v>
+        <v>1.95</v>
       </c>
       <c r="V12" t="n">
         <v>1.3</v>
       </c>
       <c r="W12" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="X12" t="n">
         <v>13</v>
       </c>
       <c r="Y12" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AA12" t="n">
         <v>100</v>
       </c>
       <c r="AB12" t="n">
-        <v>7.8</v>
+        <v>8.4</v>
       </c>
       <c r="AC12" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD12" t="n">
         <v>17.5</v>
       </c>
       <c r="AE12" t="n">
-        <v>380</v>
+        <v>100</v>
       </c>
       <c r="AF12" t="n">
         <v>11.5</v>
@@ -2107,22 +2107,22 @@
         <v>75</v>
       </c>
       <c r="AJ12" t="n">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="AK12" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AL12" t="n">
         <v>44</v>
       </c>
       <c r="AM12" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AN12" t="n">
-        <v>18.5</v>
+        <v>16.5</v>
       </c>
       <c r="AO12" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13">
@@ -2152,52 +2152,52 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="G13" t="n">
-        <v>2.96</v>
+        <v>2.94</v>
       </c>
       <c r="H13" t="n">
-        <v>2.74</v>
+        <v>2.8</v>
       </c>
       <c r="I13" t="n">
         <v>2.82</v>
       </c>
       <c r="J13" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="K13" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="L13" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="M13" t="n">
         <v>1.09</v>
       </c>
       <c r="N13" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="O13" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="P13" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.26</v>
+        <v>2.22</v>
       </c>
       <c r="R13" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="S13" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="T13" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="U13" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="V13" t="n">
         <v>1.54</v>
@@ -2209,7 +2209,7 @@
         <v>12</v>
       </c>
       <c r="Y13" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="Z13" t="n">
         <v>17</v>
@@ -2224,7 +2224,7 @@
         <v>7.4</v>
       </c>
       <c r="AD13" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AE13" t="n">
         <v>34</v>
@@ -2236,13 +2236,13 @@
         <v>13</v>
       </c>
       <c r="AH13" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AI13" t="n">
         <v>50</v>
       </c>
       <c r="AJ13" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AK13" t="n">
         <v>36</v>
@@ -2257,7 +2257,7 @@
         <v>36</v>
       </c>
       <c r="AO13" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14">
@@ -2287,10 +2287,10 @@
         </is>
       </c>
       <c r="F14" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="G14" t="n">
         <v>3.15</v>
-      </c>
-      <c r="G14" t="n">
-        <v>3.25</v>
       </c>
       <c r="H14" t="n">
         <v>2.62</v>
@@ -2299,88 +2299,88 @@
         <v>2.66</v>
       </c>
       <c r="J14" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K14" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="L14" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="M14" t="n">
         <v>1.1</v>
       </c>
       <c r="N14" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="O14" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="P14" t="n">
         <v>1.79</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="R14" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="S14" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="T14" t="n">
-        <v>1.83</v>
+        <v>1.88</v>
       </c>
       <c r="U14" t="n">
-        <v>2.06</v>
+        <v>2.02</v>
       </c>
       <c r="V14" t="n">
         <v>1.6</v>
       </c>
       <c r="W14" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="X14" t="n">
         <v>11</v>
       </c>
       <c r="Y14" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>20</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>420</v>
+      </c>
+      <c r="AB14" t="n">
         <v>10.5</v>
       </c>
-      <c r="Z14" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>70</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>11.5</v>
-      </c>
       <c r="AC14" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="AD14" t="n">
         <v>12</v>
       </c>
       <c r="AE14" t="n">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="AF14" t="n">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="AG14" t="n">
-        <v>13.5</v>
+        <v>16</v>
       </c>
       <c r="AH14" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AI14" t="n">
-        <v>46</v>
+        <v>480</v>
       </c>
       <c r="AJ14" t="n">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="AK14" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AL14" t="n">
         <v>55</v>
@@ -2389,10 +2389,10 @@
         <v>580</v>
       </c>
       <c r="AN14" t="n">
-        <v>42</v>
+        <v>140</v>
       </c>
       <c r="AO14" t="n">
-        <v>28</v>
+        <v>600</v>
       </c>
     </row>
     <row r="15">
@@ -2422,22 +2422,22 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="G15" t="n">
-        <v>1.23</v>
+        <v>1.26</v>
       </c>
       <c r="H15" t="n">
-        <v>16.5</v>
+        <v>14.5</v>
       </c>
       <c r="I15" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J15" t="n">
-        <v>8</v>
+        <v>7.2</v>
       </c>
       <c r="K15" t="n">
-        <v>8.4</v>
+        <v>7.6</v>
       </c>
       <c r="L15" t="n">
         <v>1.26</v>
@@ -2464,70 +2464,70 @@
         <v>2.2</v>
       </c>
       <c r="T15" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="U15" t="n">
-        <v>1.77</v>
+        <v>1.84</v>
       </c>
       <c r="V15" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="W15" t="n">
-        <v>5.3</v>
+        <v>4.8</v>
       </c>
       <c r="X15" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="Y15" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="Z15" t="n">
-        <v>210</v>
+        <v>160</v>
       </c>
       <c r="AA15" t="n">
-        <v>1000</v>
+        <v>750</v>
       </c>
       <c r="AB15" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="AC15" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AD15" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AE15" t="n">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="AF15" t="n">
         <v>8.6</v>
       </c>
       <c r="AG15" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AH15" t="n">
-        <v>150</v>
+        <v>34</v>
       </c>
       <c r="AI15" t="n">
-        <v>230</v>
+        <v>170</v>
       </c>
       <c r="AJ15" t="n">
         <v>9.4</v>
       </c>
       <c r="AK15" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AL15" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AM15" t="n">
         <v>200</v>
       </c>
       <c r="AN15" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="AO15" t="n">
-        <v>1000</v>
+        <v>230</v>
       </c>
     </row>
     <row r="16">
@@ -2557,79 +2557,79 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.86</v>
+        <v>1.91</v>
       </c>
       <c r="G16" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="H16" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="I16" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="J16" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K16" t="n">
         <v>3.7</v>
       </c>
-      <c r="K16" t="n">
-        <v>3.75</v>
-      </c>
       <c r="L16" t="n">
-        <v>1.45</v>
+        <v>1.49</v>
       </c>
       <c r="M16" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N16" t="n">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="O16" t="n">
-        <v>1.35</v>
+        <v>1.4</v>
       </c>
       <c r="P16" t="n">
-        <v>1.88</v>
+        <v>1.81</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.12</v>
+        <v>2.22</v>
       </c>
       <c r="R16" t="n">
-        <v>1.35</v>
+        <v>1.3</v>
       </c>
       <c r="S16" t="n">
-        <v>3.7</v>
+        <v>4.1</v>
       </c>
       <c r="T16" t="n">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="U16" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="V16" t="n">
         <v>1.24</v>
       </c>
       <c r="W16" t="n">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="X16" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="Y16" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="Z16" t="n">
         <v>36</v>
       </c>
       <c r="AA16" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="AB16" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AC16" t="n">
-        <v>8.4</v>
+        <v>8</v>
       </c>
       <c r="AD16" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AE16" t="n">
         <v>110</v>
@@ -2641,10 +2641,10 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AH16" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI16" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AJ16" t="n">
         <v>21</v>
@@ -2653,16 +2653,16 @@
         <v>22</v>
       </c>
       <c r="AL16" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AM16" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="AN16" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AO16" t="n">
-        <v>270</v>
+        <v>600</v>
       </c>
     </row>
     <row r="17">
@@ -2698,61 +2698,61 @@
         <v>2.24</v>
       </c>
       <c r="H17" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I17" t="n">
         <v>3.45</v>
       </c>
-      <c r="I17" t="n">
-        <v>3.55</v>
-      </c>
       <c r="J17" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="K17" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="L17" t="n">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="M17" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N17" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="O17" t="n">
         <v>1.24</v>
       </c>
       <c r="P17" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.73</v>
+        <v>1.68</v>
       </c>
       <c r="R17" t="n">
-        <v>1.53</v>
+        <v>1.56</v>
       </c>
       <c r="S17" t="n">
-        <v>2.78</v>
+        <v>2.72</v>
       </c>
       <c r="T17" t="n">
-        <v>1.6</v>
+        <v>1.64</v>
       </c>
       <c r="U17" t="n">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="V17" t="n">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="W17" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="X17" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Y17" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="Z17" t="n">
-        <v>65</v>
+        <v>26</v>
       </c>
       <c r="AA17" t="n">
         <v>65</v>
@@ -2764,10 +2764,10 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AD17" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AE17" t="n">
-        <v>90</v>
+        <v>38</v>
       </c>
       <c r="AF17" t="n">
         <v>15.5</v>
@@ -2779,10 +2779,10 @@
         <v>15.5</v>
       </c>
       <c r="AI17" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AJ17" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AK17" t="n">
         <v>21</v>
@@ -2794,10 +2794,10 @@
         <v>70</v>
       </c>
       <c r="AN17" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AO17" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18">
@@ -2830,79 +2830,79 @@
         <v>1.43</v>
       </c>
       <c r="G18" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="H18" t="n">
         <v>9</v>
       </c>
       <c r="I18" t="n">
-        <v>9.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="J18" t="n">
-        <v>4.8</v>
+        <v>5.1</v>
       </c>
       <c r="K18" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="L18" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="M18" t="n">
         <v>1.06</v>
       </c>
       <c r="N18" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="O18" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="P18" t="n">
-        <v>1.99</v>
+        <v>2.04</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="R18" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="S18" t="n">
-        <v>3.5</v>
+        <v>3.35</v>
       </c>
       <c r="T18" t="n">
-        <v>2.2</v>
+        <v>2.16</v>
       </c>
       <c r="U18" t="n">
         <v>1.77</v>
       </c>
       <c r="V18" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="W18" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="X18" t="n">
-        <v>16.5</v>
+        <v>18</v>
       </c>
       <c r="Y18" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="Z18" t="n">
-        <v>90</v>
+        <v>200</v>
       </c>
       <c r="AA18" t="n">
-        <v>410</v>
+        <v>470</v>
       </c>
       <c r="AB18" t="n">
-        <v>7.6</v>
+        <v>12</v>
       </c>
       <c r="AC18" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AD18" t="n">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="AE18" t="n">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="AF18" t="n">
         <v>7.6</v>
@@ -2914,22 +2914,22 @@
         <v>32</v>
       </c>
       <c r="AI18" t="n">
-        <v>160</v>
+        <v>190</v>
       </c>
       <c r="AJ18" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AK18" t="n">
-        <v>17.5</v>
+        <v>15.5</v>
       </c>
       <c r="AL18" t="n">
-        <v>60</v>
+        <v>250</v>
       </c>
       <c r="AM18" t="n">
-        <v>250</v>
+        <v>230</v>
       </c>
       <c r="AN18" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AO18" t="n">
         <v>1000</v>
@@ -2968,10 +2968,10 @@
         <v>1.22</v>
       </c>
       <c r="H19" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="I19" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="J19" t="n">
         <v>8</v>
@@ -2980,31 +2980,31 @@
         <v>8.4</v>
       </c>
       <c r="L19" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="M19" t="n">
         <v>1.03</v>
       </c>
       <c r="N19" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="O19" t="n">
         <v>1.17</v>
       </c>
       <c r="P19" t="n">
-        <v>2.84</v>
+        <v>2.88</v>
       </c>
       <c r="Q19" t="n">
         <v>1.52</v>
       </c>
       <c r="R19" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="S19" t="n">
         <v>2.28</v>
       </c>
       <c r="T19" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="U19" t="n">
         <v>1.72</v>
@@ -3013,7 +3013,7 @@
         <v>1.05</v>
       </c>
       <c r="W19" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="X19" t="n">
         <v>34</v>
@@ -3028,16 +3028,16 @@
         <v>1000</v>
       </c>
       <c r="AB19" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AC19" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AD19" t="n">
         <v>400</v>
       </c>
       <c r="AE19" t="n">
-        <v>420</v>
+        <v>390</v>
       </c>
       <c r="AF19" t="n">
         <v>8.199999999999999</v>
@@ -3052,19 +3052,19 @@
         <v>280</v>
       </c>
       <c r="AJ19" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AK19" t="n">
         <v>15</v>
       </c>
       <c r="AL19" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AM19" t="n">
         <v>260</v>
       </c>
       <c r="AN19" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="AO19" t="n">
         <v>1000</v>
@@ -3097,22 +3097,22 @@
         </is>
       </c>
       <c r="F20" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="G20" t="n">
         <v>4</v>
       </c>
-      <c r="G20" t="n">
-        <v>4.2</v>
-      </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="I20" t="n">
-        <v>2.02</v>
+        <v>2.08</v>
       </c>
       <c r="J20" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="K20" t="n">
         <v>3.85</v>
-      </c>
-      <c r="K20" t="n">
-        <v>3.9</v>
       </c>
       <c r="L20" t="n">
         <v>1.37</v>
@@ -3124,19 +3124,19 @@
         <v>4.7</v>
       </c>
       <c r="O20" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="P20" t="n">
-        <v>2.28</v>
+        <v>2.24</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="R20" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="S20" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="T20" t="n">
         <v>1.69</v>
@@ -3145,25 +3145,25 @@
         <v>2.36</v>
       </c>
       <c r="V20" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="W20" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="X20" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="Y20" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="Z20" t="n">
         <v>14</v>
       </c>
       <c r="AA20" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AB20" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AC20" t="n">
         <v>8.6</v>
@@ -3172,37 +3172,37 @@
         <v>10.5</v>
       </c>
       <c r="AE20" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="AF20" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AG20" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AH20" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AI20" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="AJ20" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AK20" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="AL20" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AM20" t="n">
         <v>75</v>
       </c>
       <c r="AN20" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="AO20" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21">
@@ -3232,82 +3232,82 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.32</v>
+        <v>1.37</v>
       </c>
       <c r="G21" t="n">
-        <v>1.33</v>
+        <v>1.39</v>
       </c>
       <c r="H21" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I21" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="J21" t="n">
-        <v>6.2</v>
+        <v>5.6</v>
       </c>
       <c r="K21" t="n">
-        <v>6.6</v>
+        <v>5.9</v>
       </c>
       <c r="L21" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="M21" t="n">
         <v>1.03</v>
       </c>
       <c r="N21" t="n">
-        <v>6.6</v>
+        <v>6.2</v>
       </c>
       <c r="O21" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="P21" t="n">
-        <v>2.92</v>
+        <v>2.7</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.52</v>
+        <v>1.56</v>
       </c>
       <c r="R21" t="n">
-        <v>1.74</v>
+        <v>1.71</v>
       </c>
       <c r="S21" t="n">
-        <v>2.28</v>
+        <v>2.36</v>
       </c>
       <c r="T21" t="n">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="U21" t="n">
-        <v>2.02</v>
+        <v>2.08</v>
       </c>
       <c r="V21" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="W21" t="n">
-        <v>3.95</v>
+        <v>3.55</v>
       </c>
       <c r="X21" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Y21" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="Z21" t="n">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="AA21" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="AB21" t="n">
         <v>11.5</v>
       </c>
       <c r="AC21" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AD21" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="AE21" t="n">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="AF21" t="n">
         <v>9.4</v>
@@ -3316,13 +3316,13 @@
         <v>11</v>
       </c>
       <c r="AH21" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AI21" t="n">
-        <v>400</v>
+        <v>110</v>
       </c>
       <c r="AJ21" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK21" t="n">
         <v>13</v>
@@ -3334,10 +3334,10 @@
         <v>120</v>
       </c>
       <c r="AN21" t="n">
-        <v>4.3</v>
+        <v>4.7</v>
       </c>
       <c r="AO21" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
     </row>
     <row r="22">
@@ -3367,82 +3367,82 @@
         </is>
       </c>
       <c r="F22" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="G22" t="n">
         <v>1.43</v>
       </c>
-      <c r="G22" t="n">
-        <v>1.45</v>
-      </c>
       <c r="H22" t="n">
+        <v>8</v>
+      </c>
+      <c r="I22" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="J22" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="K22" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="L22" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N22" t="n">
         <v>7.8</v>
       </c>
-      <c r="I22" t="n">
-        <v>8</v>
-      </c>
-      <c r="J22" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="K22" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="L22" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="M22" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N22" t="n">
-        <v>7.2</v>
-      </c>
       <c r="O22" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="P22" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="R22" t="n">
-        <v>1.86</v>
+        <v>1.92</v>
       </c>
       <c r="S22" t="n">
-        <v>2.12</v>
+        <v>2.04</v>
       </c>
       <c r="T22" t="n">
         <v>1.68</v>
       </c>
       <c r="U22" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="V22" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="W22" t="n">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="X22" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="Y22" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="Z22" t="n">
+        <v>85</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>240</v>
+      </c>
+      <c r="AB22" t="n">
         <v>75</v>
-      </c>
-      <c r="AA22" t="n">
-        <v>200</v>
-      </c>
-      <c r="AB22" t="n">
-        <v>14</v>
       </c>
       <c r="AC22" t="n">
         <v>13.5</v>
       </c>
       <c r="AD22" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AE22" t="n">
-        <v>85</v>
+        <v>210</v>
       </c>
       <c r="AF22" t="n">
         <v>12</v>
@@ -3457,19 +3457,19 @@
         <v>70</v>
       </c>
       <c r="AJ22" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AK22" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AL22" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AM22" t="n">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="AN22" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="AO22" t="n">
         <v>75</v>
@@ -3502,76 +3502,76 @@
         </is>
       </c>
       <c r="F23" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="G23" t="n">
         <v>1.22</v>
       </c>
-      <c r="G23" t="n">
-        <v>1.23</v>
-      </c>
       <c r="H23" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I23" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="J23" t="n">
-        <v>8.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="K23" t="n">
-        <v>8.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="L23" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="M23" t="n">
         <v>1.02</v>
       </c>
       <c r="N23" t="n">
-        <v>8.199999999999999</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="O23" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="P23" t="n">
-        <v>3.4</v>
+        <v>3.65</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.38</v>
+        <v>1.34</v>
       </c>
       <c r="R23" t="n">
-        <v>1.98</v>
+        <v>2.1</v>
       </c>
       <c r="S23" t="n">
-        <v>1.97</v>
+        <v>1.87</v>
       </c>
       <c r="T23" t="n">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="U23" t="n">
-        <v>1.97</v>
+        <v>2.02</v>
       </c>
       <c r="V23" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="W23" t="n">
-        <v>5.3</v>
+        <v>5.6</v>
       </c>
       <c r="X23" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="Y23" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="Z23" t="n">
-        <v>180</v>
+        <v>220</v>
       </c>
       <c r="AA23" t="n">
         <v>1000</v>
       </c>
       <c r="AB23" t="n">
-        <v>14</v>
+        <v>15.5</v>
       </c>
       <c r="AC23" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AD23" t="n">
         <v>55</v>
@@ -3580,31 +3580,31 @@
         <v>240</v>
       </c>
       <c r="AF23" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AG23" t="n">
         <v>12</v>
       </c>
       <c r="AH23" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AI23" t="n">
-        <v>290</v>
+        <v>190</v>
       </c>
       <c r="AJ23" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AK23" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AL23" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AM23" t="n">
         <v>1000</v>
       </c>
       <c r="AN23" t="n">
-        <v>3.15</v>
+        <v>2.98</v>
       </c>
       <c r="AO23" t="n">
         <v>1000</v>
@@ -3640,19 +3640,19 @@
         <v>1.87</v>
       </c>
       <c r="G24" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="H24" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="I24" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="J24" t="n">
         <v>4.1</v>
       </c>
       <c r="K24" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="L24" t="n">
         <v>1.35</v>
@@ -3661,40 +3661,40 @@
         <v>1.04</v>
       </c>
       <c r="N24" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="O24" t="n">
         <v>1.23</v>
       </c>
       <c r="P24" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="Q24" t="n">
         <v>1.72</v>
       </c>
       <c r="R24" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="S24" t="n">
-        <v>2.8</v>
+        <v>2.84</v>
       </c>
       <c r="T24" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="U24" t="n">
         <v>2.34</v>
       </c>
       <c r="V24" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="W24" t="n">
         <v>2.12</v>
       </c>
       <c r="X24" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Y24" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="Z24" t="n">
         <v>36</v>
@@ -3703,7 +3703,7 @@
         <v>130</v>
       </c>
       <c r="AB24" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AC24" t="n">
         <v>9.4</v>
@@ -3712,28 +3712,28 @@
         <v>17.5</v>
       </c>
       <c r="AE24" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AF24" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AG24" t="n">
         <v>10.5</v>
       </c>
       <c r="AH24" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AI24" t="n">
         <v>50</v>
       </c>
       <c r="AJ24" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AK24" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AL24" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AM24" t="n">
         <v>110</v>
@@ -3742,7 +3742,7 @@
         <v>10</v>
       </c>
       <c r="AO24" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-18.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-18.xlsx
@@ -667,112 +667,112 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="G2" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="H2" t="n">
-        <v>2.2</v>
+        <v>3.4</v>
       </c>
       <c r="I2" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="J2" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="K2" t="n">
         <v>2.26</v>
       </c>
-      <c r="J2" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="K2" t="n">
-        <v>3.65</v>
-      </c>
       <c r="L2" t="n">
-        <v>1.44</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1.08</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>1.89</v>
+        <v>2.72</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.04</v>
+        <v>1.54</v>
       </c>
       <c r="R2" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="S2" t="n">
-        <v>3.75</v>
+        <v>3.95</v>
       </c>
       <c r="T2" t="n">
-        <v>1.74</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>2.14</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>1.79</v>
+        <v>1.37</v>
       </c>
       <c r="W2" t="n">
         <v>1.35</v>
       </c>
       <c r="X2" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="Y2" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="Z2" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AA2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>26</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>60</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK2" t="n">
         <v>32</v>
       </c>
-      <c r="AB2" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>70</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>65</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>27</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>34</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>200</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>1000</v>
-      </c>
       <c r="AL2" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AM2" t="n">
-        <v>1000</v>
+        <v>370</v>
       </c>
       <c r="AN2" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AO2" t="n">
-        <v>55</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3">
@@ -802,112 +802,112 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>6</v>
+        <v>1.96</v>
       </c>
       <c r="G3" t="n">
-        <v>7</v>
+        <v>2.02</v>
       </c>
       <c r="H3" t="n">
-        <v>1.83</v>
+        <v>5.7</v>
       </c>
       <c r="I3" t="n">
-        <v>1.91</v>
+        <v>5.8</v>
       </c>
       <c r="J3" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="K3" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
         <v>3.35</v>
       </c>
-      <c r="L3" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="N3" t="n">
-        <v>2.32</v>
-      </c>
       <c r="O3" t="n">
-        <v>1.68</v>
+        <v>1.4</v>
       </c>
       <c r="P3" t="n">
-        <v>1.41</v>
+        <v>1.47</v>
       </c>
       <c r="Q3" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="R3" t="n">
-        <v>1.14</v>
+        <v>1.1</v>
       </c>
       <c r="S3" t="n">
-        <v>7.2</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="T3" t="n">
-        <v>2.58</v>
+        <v>1.64</v>
       </c>
       <c r="U3" t="n">
-        <v>1.54</v>
+        <v>2.42</v>
       </c>
       <c r="V3" t="n">
-        <v>2.1</v>
+        <v>1.2</v>
       </c>
       <c r="W3" t="n">
-        <v>1.17</v>
+        <v>1.98</v>
       </c>
       <c r="X3" t="n">
-        <v>7.4</v>
+        <v>1000</v>
       </c>
       <c r="Y3" t="n">
-        <v>5.3</v>
+        <v>1000</v>
       </c>
       <c r="Z3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AD3" t="n">
         <v>8.800000000000001</v>
       </c>
-      <c r="AA3" t="n">
-        <v>22</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>14</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AD3" t="n">
+      <c r="AE3" t="n">
+        <v>50</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AG3" t="n">
         <v>12</v>
       </c>
-      <c r="AE3" t="n">
-        <v>55</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>48</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>32</v>
-      </c>
       <c r="AH3" t="n">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="AI3" t="n">
-        <v>95</v>
+        <v>140</v>
       </c>
       <c r="AJ3" t="n">
-        <v>900</v>
+        <v>90</v>
       </c>
       <c r="AK3" t="n">
-        <v>750</v>
+        <v>110</v>
       </c>
       <c r="AL3" t="n">
-        <v>750</v>
+        <v>250</v>
       </c>
       <c r="AM3" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>600</v>
+        <v>370</v>
       </c>
       <c r="AO3" t="n">
-        <v>29</v>
+        <v>200</v>
       </c>
     </row>
     <row r="4">
@@ -937,112 +937,112 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.34</v>
+        <v>1.31</v>
       </c>
       <c r="G4" t="n">
-        <v>2.46</v>
+        <v>1.34</v>
       </c>
       <c r="H4" t="n">
-        <v>3.7</v>
+        <v>18</v>
       </c>
       <c r="I4" t="n">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="J4" t="n">
-        <v>3</v>
+        <v>5.1</v>
       </c>
       <c r="K4" t="n">
-        <v>3.25</v>
+        <v>5.3</v>
       </c>
       <c r="L4" t="n">
-        <v>1.68</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>1.16</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>2.32</v>
+        <v>2.98</v>
       </c>
       <c r="O4" t="n">
-        <v>1.69</v>
+        <v>1.44</v>
       </c>
       <c r="P4" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="R4" t="n">
-        <v>1.14</v>
+        <v>1.1</v>
       </c>
       <c r="S4" t="n">
-        <v>7.2</v>
+        <v>9.6</v>
       </c>
       <c r="T4" t="n">
-        <v>2.32</v>
+        <v>2.42</v>
       </c>
       <c r="U4" t="n">
         <v>1.64</v>
       </c>
       <c r="V4" t="n">
-        <v>1.33</v>
+        <v>1.04</v>
       </c>
       <c r="W4" t="n">
-        <v>1.67</v>
+        <v>3.95</v>
       </c>
       <c r="X4" t="n">
-        <v>7.2</v>
+        <v>1000</v>
       </c>
       <c r="Y4" t="n">
-        <v>9.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="Z4" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AA4" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>6.8</v>
+        <v>3.2</v>
       </c>
       <c r="AC4" t="n">
-        <v>7.4</v>
+        <v>6.4</v>
       </c>
       <c r="AD4" t="n">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="AE4" t="n">
-        <v>75</v>
+        <v>250</v>
       </c>
       <c r="AF4" t="n">
-        <v>13.5</v>
+        <v>5.3</v>
       </c>
       <c r="AG4" t="n">
-        <v>13.5</v>
+        <v>10</v>
       </c>
       <c r="AH4" t="n">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="AI4" t="n">
-        <v>290</v>
+        <v>340</v>
       </c>
       <c r="AJ4" t="n">
-        <v>38</v>
+        <v>18.5</v>
       </c>
       <c r="AK4" t="n">
         <v>42</v>
       </c>
       <c r="AL4" t="n">
-        <v>90</v>
+        <v>170</v>
       </c>
       <c r="AM4" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AO4" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="5">
@@ -1072,58 +1072,58 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.78</v>
+        <v>1.04</v>
       </c>
       <c r="G5" t="n">
-        <v>1.88</v>
+        <v>2.28</v>
       </c>
       <c r="H5" t="n">
-        <v>4.3</v>
+        <v>3.5</v>
       </c>
       <c r="I5" t="n">
-        <v>5.1</v>
+        <v>870</v>
       </c>
       <c r="J5" t="n">
-        <v>3.9</v>
+        <v>1.19</v>
       </c>
       <c r="K5" t="n">
-        <v>4.5</v>
+        <v>500</v>
       </c>
       <c r="L5" t="n">
-        <v>1.28</v>
+        <v>1.03</v>
       </c>
       <c r="M5" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N5" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P5" t="n">
         <v>1.03</v>
       </c>
-      <c r="N5" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="P5" t="n">
-        <v>2.48</v>
-      </c>
       <c r="Q5" t="n">
-        <v>1.58</v>
+        <v>1.03</v>
       </c>
       <c r="R5" t="n">
-        <v>1.6</v>
+        <v>1.35</v>
       </c>
       <c r="S5" t="n">
-        <v>2.42</v>
+        <v>2.96</v>
       </c>
       <c r="T5" t="n">
-        <v>1.58</v>
+        <v>1.04</v>
       </c>
       <c r="U5" t="n">
-        <v>2.4</v>
+        <v>2.16</v>
       </c>
       <c r="V5" t="n">
-        <v>1.25</v>
+        <v>1.02</v>
       </c>
       <c r="W5" t="n">
-        <v>2.12</v>
+        <v>1.02</v>
       </c>
       <c r="X5" t="n">
         <v>1000</v>
@@ -1141,7 +1141,7 @@
         <v>1000</v>
       </c>
       <c r="AC5" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AD5" t="n">
         <v>1000</v>
@@ -1174,7 +1174,7 @@
         <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AO5" t="n">
         <v>1000</v>
@@ -1207,31 +1207,31 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="G6" t="n">
-        <v>1.49</v>
+        <v>1.44</v>
       </c>
       <c r="H6" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="I6" t="n">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="J6" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="K6" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="L6" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="M6" t="n">
         <v>1.07</v>
       </c>
       <c r="N6" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="O6" t="n">
         <v>1.33</v>
@@ -1246,19 +1246,19 @@
         <v>1.33</v>
       </c>
       <c r="S6" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="T6" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="U6" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="V6" t="n">
         <v>1.1</v>
       </c>
       <c r="W6" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="X6" t="n">
         <v>15</v>
@@ -1279,7 +1279,7 @@
         <v>11.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>120</v>
+        <v>85</v>
       </c>
       <c r="AE6" t="n">
         <v>1000</v>
@@ -1300,7 +1300,7 @@
         <v>12.5</v>
       </c>
       <c r="AK6" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AL6" t="n">
         <v>140</v>
@@ -1342,61 +1342,61 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="G7" t="n">
         <v>2.8</v>
       </c>
       <c r="H7" t="n">
-        <v>2.58</v>
+        <v>2.54</v>
       </c>
       <c r="I7" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="J7" t="n">
         <v>3.9</v>
       </c>
       <c r="K7" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="L7" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="M7" t="n">
         <v>1.05</v>
       </c>
       <c r="N7" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="O7" t="n">
         <v>1.22</v>
       </c>
       <c r="P7" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="Q7" t="n">
         <v>1.66</v>
       </c>
       <c r="R7" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="S7" t="n">
-        <v>2.7</v>
+        <v>2.68</v>
       </c>
       <c r="T7" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="U7" t="n">
-        <v>2.52</v>
+        <v>2.58</v>
       </c>
       <c r="V7" t="n">
         <v>1.62</v>
       </c>
       <c r="W7" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="X7" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Y7" t="n">
         <v>15</v>
@@ -1408,7 +1408,7 @@
         <v>36</v>
       </c>
       <c r="AB7" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AC7" t="n">
         <v>9</v>
@@ -1417,10 +1417,10 @@
         <v>12</v>
       </c>
       <c r="AE7" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AF7" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AG7" t="n">
         <v>12.5</v>
@@ -1444,10 +1444,10 @@
         <v>60</v>
       </c>
       <c r="AN7" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AO7" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8">
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="G8" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="H8" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="I8" t="n">
         <v>14.5</v>
       </c>
-      <c r="I8" t="n">
-        <v>15.5</v>
-      </c>
       <c r="J8" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="K8" t="n">
         <v>7</v>
-      </c>
-      <c r="K8" t="n">
-        <v>7.4</v>
       </c>
       <c r="L8" t="n">
         <v>1.27</v>
@@ -1501,85 +1501,85 @@
         <v>1.03</v>
       </c>
       <c r="N8" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="O8" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="P8" t="n">
-        <v>2.9</v>
+        <v>2.74</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.51</v>
+        <v>1.55</v>
       </c>
       <c r="R8" t="n">
-        <v>1.77</v>
+        <v>1.7</v>
       </c>
       <c r="S8" t="n">
-        <v>2.24</v>
+        <v>2.4</v>
       </c>
       <c r="T8" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="U8" t="n">
-        <v>1.84</v>
+        <v>1.82</v>
       </c>
       <c r="V8" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="W8" t="n">
-        <v>4.8</v>
+        <v>4.4</v>
       </c>
       <c r="X8" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="Y8" t="n">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="Z8" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AA8" t="n">
-        <v>610</v>
+        <v>550</v>
       </c>
       <c r="AB8" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AC8" t="n">
-        <v>16</v>
+        <v>14.5</v>
       </c>
       <c r="AD8" t="n">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="AE8" t="n">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="AF8" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AG8" t="n">
         <v>12</v>
       </c>
       <c r="AH8" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="AI8" t="n">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="AJ8" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AK8" t="n">
         <v>13</v>
       </c>
       <c r="AL8" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AM8" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="AN8" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="AO8" t="n">
         <v>1000</v>
@@ -1612,97 +1612,97 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.52</v>
+        <v>1.48</v>
       </c>
       <c r="G9" t="n">
-        <v>1.54</v>
+        <v>1.49</v>
       </c>
       <c r="H9" t="n">
-        <v>7.2</v>
+        <v>7.8</v>
       </c>
       <c r="I9" t="n">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="J9" t="n">
-        <v>4.7</v>
+        <v>4.9</v>
       </c>
       <c r="K9" t="n">
-        <v>4.8</v>
+        <v>5.1</v>
       </c>
       <c r="L9" t="n">
-        <v>1.41</v>
+        <v>1.38</v>
       </c>
       <c r="M9" t="n">
         <v>1.06</v>
       </c>
       <c r="N9" t="n">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="O9" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="P9" t="n">
-        <v>2.12</v>
+        <v>2.24</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.87</v>
+        <v>1.78</v>
       </c>
       <c r="R9" t="n">
-        <v>1.41</v>
+        <v>1.47</v>
       </c>
       <c r="S9" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="T9" t="n">
         <v>2.02</v>
       </c>
       <c r="U9" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="V9" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="W9" t="n">
-        <v>2.84</v>
+        <v>3</v>
       </c>
       <c r="X9" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Y9" t="n">
         <v>27</v>
       </c>
       <c r="Z9" t="n">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="AA9" t="n">
-        <v>240</v>
+        <v>260</v>
       </c>
       <c r="AB9" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="AC9" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AD9" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AE9" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AF9" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AG9" t="n">
         <v>10.5</v>
       </c>
       <c r="AH9" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AI9" t="n">
         <v>110</v>
       </c>
       <c r="AJ9" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AK9" t="n">
         <v>16</v>
@@ -1714,10 +1714,10 @@
         <v>140</v>
       </c>
       <c r="AN9" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AO9" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
     </row>
     <row r="10">
@@ -1747,112 +1747,112 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="G10" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="H10" t="n">
-        <v>4.9</v>
+        <v>4.6</v>
       </c>
       <c r="I10" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="J10" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="K10" t="n">
-        <v>3.65</v>
+        <v>3.8</v>
       </c>
       <c r="L10" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="M10" t="n">
-        <v>1.09</v>
+        <v>1.06</v>
       </c>
       <c r="N10" t="n">
-        <v>3.15</v>
+        <v>4.2</v>
       </c>
       <c r="O10" t="n">
-        <v>1.44</v>
+        <v>1.29</v>
       </c>
       <c r="P10" t="n">
-        <v>1.72</v>
+        <v>2.12</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.34</v>
+        <v>1.86</v>
       </c>
       <c r="R10" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="S10" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="T10" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="U10" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="V10" t="n">
         <v>1.27</v>
       </c>
-      <c r="S10" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="T10" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="U10" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="V10" t="n">
-        <v>1.25</v>
-      </c>
       <c r="W10" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="X10" t="n">
-        <v>11.5</v>
+        <v>16.5</v>
       </c>
       <c r="Y10" t="n">
+        <v>18</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>44</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>95</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>18</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>55</v>
+      </c>
+      <c r="AF10" t="n">
         <v>14.5</v>
       </c>
-      <c r="Z10" t="n">
-        <v>34</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>180</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>20</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>80</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>11</v>
-      </c>
       <c r="AG10" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AH10" t="n">
-        <v>23</v>
+        <v>17.5</v>
       </c>
       <c r="AI10" t="n">
-        <v>160</v>
+        <v>60</v>
       </c>
       <c r="AJ10" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AK10" t="n">
         <v>21</v>
       </c>
       <c r="AL10" t="n">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="AM10" t="n">
-        <v>160</v>
+        <v>90</v>
       </c>
       <c r="AN10" t="n">
-        <v>18.5</v>
+        <v>12</v>
       </c>
       <c r="AO10" t="n">
-        <v>600</v>
+        <v>140</v>
       </c>
     </row>
     <row r="11">
@@ -1894,7 +1894,7 @@
         <v>11</v>
       </c>
       <c r="J11" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="K11" t="n">
         <v>6</v>
@@ -1906,49 +1906,49 @@
         <v>1.04</v>
       </c>
       <c r="N11" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="O11" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P11" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.62</v>
+        <v>1.64</v>
       </c>
       <c r="R11" t="n">
         <v>1.6</v>
       </c>
       <c r="S11" t="n">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="T11" t="n">
-        <v>1.97</v>
+        <v>2.04</v>
       </c>
       <c r="U11" t="n">
-        <v>1.92</v>
+        <v>1.88</v>
       </c>
       <c r="V11" t="n">
         <v>1.1</v>
       </c>
       <c r="W11" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="X11" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="Y11" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="Z11" t="n">
         <v>100</v>
       </c>
       <c r="AA11" t="n">
-        <v>360</v>
+        <v>400</v>
       </c>
       <c r="AB11" t="n">
-        <v>10</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC11" t="n">
         <v>13</v>
@@ -1957,16 +1957,16 @@
         <v>38</v>
       </c>
       <c r="AE11" t="n">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="AF11" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AG11" t="n">
         <v>10</v>
       </c>
       <c r="AH11" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AI11" t="n">
         <v>130</v>
@@ -1975,19 +1975,19 @@
         <v>11</v>
       </c>
       <c r="AK11" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AL11" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AM11" t="n">
         <v>140</v>
       </c>
       <c r="AN11" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="AO11" t="n">
-        <v>170</v>
+        <v>180</v>
       </c>
     </row>
     <row r="12">
@@ -2017,10 +2017,10 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="G12" t="n">
-        <v>1.99</v>
+        <v>1.97</v>
       </c>
       <c r="H12" t="n">
         <v>4.2</v>
@@ -2029,70 +2029,70 @@
         <v>4.4</v>
       </c>
       <c r="J12" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="K12" t="n">
+        <v>4</v>
+      </c>
+      <c r="L12" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N12" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P12" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="S12" t="n">
         <v>3.8</v>
       </c>
-      <c r="K12" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="L12" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N12" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="P12" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="R12" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="S12" t="n">
-        <v>3.95</v>
-      </c>
       <c r="T12" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="U12" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V12" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="W12" t="n">
-        <v>1.99</v>
+        <v>2.02</v>
       </c>
       <c r="X12" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="Y12" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="Z12" t="n">
         <v>30</v>
       </c>
       <c r="AA12" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AB12" t="n">
-        <v>8.4</v>
+        <v>9</v>
       </c>
       <c r="AC12" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AD12" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AE12" t="n">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="AF12" t="n">
         <v>11.5</v>
@@ -2101,28 +2101,28 @@
         <v>11</v>
       </c>
       <c r="AH12" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AI12" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AJ12" t="n">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="AK12" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AL12" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AM12" t="n">
-        <v>130</v>
+        <v>580</v>
       </c>
       <c r="AN12" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AO12" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13">
@@ -2152,61 +2152,61 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="G13" t="n">
-        <v>2.94</v>
+        <v>2.92</v>
       </c>
       <c r="H13" t="n">
-        <v>2.8</v>
+        <v>2.72</v>
       </c>
       <c r="I13" t="n">
-        <v>2.82</v>
+        <v>2.74</v>
       </c>
       <c r="J13" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="K13" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="L13" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="M13" t="n">
         <v>1.09</v>
       </c>
       <c r="N13" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="O13" t="n">
-        <v>1.41</v>
+        <v>1.38</v>
       </c>
       <c r="P13" t="n">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.22</v>
+        <v>2.12</v>
       </c>
       <c r="R13" t="n">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="S13" t="n">
-        <v>4.1</v>
+        <v>3.95</v>
       </c>
       <c r="T13" t="n">
-        <v>1.87</v>
+        <v>1.83</v>
       </c>
       <c r="U13" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="V13" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="W13" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="X13" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="Y13" t="n">
         <v>10.5</v>
@@ -2215,19 +2215,19 @@
         <v>17</v>
       </c>
       <c r="AA13" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AB13" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AC13" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AD13" t="n">
         <v>12.5</v>
       </c>
       <c r="AE13" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AF13" t="n">
         <v>18.5</v>
@@ -2236,10 +2236,10 @@
         <v>13</v>
       </c>
       <c r="AH13" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AI13" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AJ13" t="n">
         <v>46</v>
@@ -2248,16 +2248,16 @@
         <v>36</v>
       </c>
       <c r="AL13" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AM13" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AN13" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AO13" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14">
@@ -2287,10 +2287,10 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="G14" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="H14" t="n">
         <v>2.62</v>
@@ -2299,61 +2299,61 @@
         <v>2.66</v>
       </c>
       <c r="J14" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="K14" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="L14" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="M14" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="N14" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="O14" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="P14" t="n">
-        <v>1.79</v>
+        <v>1.83</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.22</v>
+        <v>2.16</v>
       </c>
       <c r="R14" t="n">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="S14" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="T14" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="U14" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="V14" t="n">
         <v>1.6</v>
       </c>
       <c r="W14" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="X14" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="Y14" t="n">
         <v>9.6</v>
       </c>
       <c r="Z14" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AA14" t="n">
-        <v>420</v>
+        <v>42</v>
       </c>
       <c r="AB14" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="AC14" t="n">
         <v>7.2</v>
@@ -2362,22 +2362,22 @@
         <v>12</v>
       </c>
       <c r="AE14" t="n">
-        <v>150</v>
+        <v>30</v>
       </c>
       <c r="AF14" t="n">
-        <v>100</v>
+        <v>21</v>
       </c>
       <c r="AG14" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AH14" t="n">
         <v>18.5</v>
       </c>
       <c r="AI14" t="n">
-        <v>480</v>
+        <v>46</v>
       </c>
       <c r="AJ14" t="n">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="AK14" t="n">
         <v>38</v>
@@ -2386,13 +2386,13 @@
         <v>55</v>
       </c>
       <c r="AM14" t="n">
-        <v>580</v>
+        <v>180</v>
       </c>
       <c r="AN14" t="n">
-        <v>140</v>
+        <v>42</v>
       </c>
       <c r="AO14" t="n">
-        <v>600</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15">
@@ -2422,31 +2422,31 @@
         </is>
       </c>
       <c r="F15" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="H15" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="I15" t="n">
+        <v>18</v>
+      </c>
+      <c r="J15" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="K15" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="L15" t="n">
         <v>1.25</v>
       </c>
-      <c r="G15" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="H15" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="I15" t="n">
-        <v>16</v>
-      </c>
-      <c r="J15" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="K15" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="L15" t="n">
-        <v>1.26</v>
-      </c>
       <c r="M15" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N15" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="O15" t="n">
         <v>1.15</v>
@@ -2455,79 +2455,79 @@
         <v>3</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="R15" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="S15" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="T15" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="U15" t="n">
         <v>1.79</v>
       </c>
-      <c r="S15" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="T15" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="U15" t="n">
-        <v>1.84</v>
-      </c>
       <c r="V15" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="W15" t="n">
-        <v>4.8</v>
+        <v>5.2</v>
       </c>
       <c r="X15" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Y15" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="Z15" t="n">
-        <v>160</v>
+        <v>210</v>
       </c>
       <c r="AA15" t="n">
-        <v>750</v>
+        <v>1000</v>
       </c>
       <c r="AB15" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AC15" t="n">
-        <v>17</v>
+        <v>19.5</v>
       </c>
       <c r="AD15" t="n">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="AE15" t="n">
-        <v>250</v>
+        <v>320</v>
       </c>
       <c r="AF15" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AG15" t="n">
         <v>12</v>
       </c>
       <c r="AH15" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="AI15" t="n">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="AJ15" t="n">
-        <v>9.4</v>
+        <v>9</v>
       </c>
       <c r="AK15" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AL15" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="AM15" t="n">
         <v>200</v>
       </c>
       <c r="AN15" t="n">
-        <v>3.6</v>
+        <v>3.45</v>
       </c>
       <c r="AO15" t="n">
-        <v>230</v>
+        <v>300</v>
       </c>
     </row>
     <row r="16">
@@ -2557,112 +2557,112 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.91</v>
+        <v>1.88</v>
       </c>
       <c r="G16" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="H16" t="n">
-        <v>4.8</v>
+        <v>5.2</v>
       </c>
       <c r="I16" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="J16" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="K16" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="L16" t="n">
-        <v>1.49</v>
+        <v>1.53</v>
       </c>
       <c r="M16" t="n">
         <v>1.09</v>
       </c>
       <c r="N16" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="O16" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="P16" t="n">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="R16" t="n">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="S16" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="T16" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="U16" t="n">
-        <v>1.91</v>
+        <v>1.88</v>
       </c>
       <c r="V16" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="W16" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="X16" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Y16" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="Z16" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AA16" t="n">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="AB16" t="n">
-        <v>8</v>
+        <v>7.4</v>
       </c>
       <c r="AC16" t="n">
         <v>8</v>
       </c>
       <c r="AD16" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AE16" t="n">
         <v>110</v>
       </c>
       <c r="AF16" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AG16" t="n">
-        <v>9.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="AH16" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AI16" t="n">
-        <v>85</v>
+        <v>190</v>
       </c>
       <c r="AJ16" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AK16" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AL16" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AM16" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="AN16" t="n">
         <v>16</v>
       </c>
       <c r="AO16" t="n">
-        <v>600</v>
+        <v>270</v>
       </c>
     </row>
     <row r="17">
@@ -2692,16 +2692,16 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="G17" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="H17" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="I17" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="J17" t="n">
         <v>3.9</v>
@@ -2710,73 +2710,73 @@
         <v>3.95</v>
       </c>
       <c r="L17" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="M17" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N17" t="n">
-        <v>5</v>
+        <v>5.4</v>
       </c>
       <c r="O17" t="n">
-        <v>1.24</v>
+        <v>1.21</v>
       </c>
       <c r="P17" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.68</v>
+        <v>1.63</v>
       </c>
       <c r="R17" t="n">
-        <v>1.56</v>
+        <v>1.61</v>
       </c>
       <c r="S17" t="n">
-        <v>2.72</v>
+        <v>2.56</v>
       </c>
       <c r="T17" t="n">
-        <v>1.64</v>
+        <v>1.57</v>
       </c>
       <c r="U17" t="n">
-        <v>2.5</v>
+        <v>2.64</v>
       </c>
       <c r="V17" t="n">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="W17" t="n">
-        <v>1.81</v>
+        <v>1.78</v>
       </c>
       <c r="X17" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="Y17" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="Z17" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AA17" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AB17" t="n">
-        <v>12.5</v>
+        <v>14</v>
       </c>
       <c r="AC17" t="n">
-        <v>8.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="AD17" t="n">
         <v>14</v>
       </c>
       <c r="AE17" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AF17" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="AG17" t="n">
         <v>11</v>
       </c>
       <c r="AH17" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AI17" t="n">
         <v>38</v>
@@ -2788,16 +2788,16 @@
         <v>21</v>
       </c>
       <c r="AL17" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AM17" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AN17" t="n">
         <v>12</v>
       </c>
       <c r="AO17" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18">
@@ -2827,25 +2827,25 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.43</v>
+        <v>1.41</v>
       </c>
       <c r="G18" t="n">
         <v>1.44</v>
       </c>
       <c r="H18" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="I18" t="n">
-        <v>9.4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="J18" t="n">
         <v>5.1</v>
       </c>
       <c r="K18" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="L18" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="M18" t="n">
         <v>1.06</v>
@@ -2857,52 +2857,52 @@
         <v>1.3</v>
       </c>
       <c r="P18" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.92</v>
+        <v>1.89</v>
       </c>
       <c r="R18" t="n">
         <v>1.4</v>
       </c>
       <c r="S18" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="T18" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="U18" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="V18" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="W18" t="n">
         <v>3.3</v>
       </c>
       <c r="X18" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Y18" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Z18" t="n">
-        <v>200</v>
+        <v>95</v>
       </c>
       <c r="AA18" t="n">
-        <v>470</v>
+        <v>430</v>
       </c>
       <c r="AB18" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AC18" t="n">
         <v>12</v>
       </c>
-      <c r="AC18" t="n">
-        <v>11.5</v>
-      </c>
       <c r="AD18" t="n">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="AE18" t="n">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="AF18" t="n">
         <v>7.6</v>
@@ -2911,10 +2911,10 @@
         <v>10.5</v>
       </c>
       <c r="AH18" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AI18" t="n">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="AJ18" t="n">
         <v>11.5</v>
@@ -2923,16 +2923,16 @@
         <v>15.5</v>
       </c>
       <c r="AL18" t="n">
-        <v>250</v>
+        <v>42</v>
       </c>
       <c r="AM18" t="n">
-        <v>230</v>
+        <v>790</v>
       </c>
       <c r="AN18" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AO18" t="n">
-        <v>1000</v>
+        <v>310</v>
       </c>
     </row>
     <row r="19">
@@ -2962,49 +2962,49 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="G19" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="H19" t="n">
-        <v>18</v>
+        <v>16.5</v>
       </c>
       <c r="I19" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J19" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="K19" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="L19" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="M19" t="n">
         <v>1.03</v>
       </c>
       <c r="N19" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="O19" t="n">
         <v>1.17</v>
       </c>
       <c r="P19" t="n">
-        <v>2.88</v>
+        <v>2.76</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.52</v>
+        <v>1.54</v>
       </c>
       <c r="R19" t="n">
-        <v>1.77</v>
+        <v>1.74</v>
       </c>
       <c r="S19" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="T19" t="n">
         <v>2.28</v>
-      </c>
-      <c r="T19" t="n">
-        <v>2.26</v>
       </c>
       <c r="U19" t="n">
         <v>1.72</v>
@@ -3013,7 +3013,7 @@
         <v>1.05</v>
       </c>
       <c r="W19" t="n">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="X19" t="n">
         <v>34</v>
@@ -3022,49 +3022,49 @@
         <v>1000</v>
       </c>
       <c r="Z19" t="n">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="AA19" t="n">
         <v>1000</v>
       </c>
       <c r="AB19" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AC19" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AD19" t="n">
         <v>400</v>
       </c>
       <c r="AE19" t="n">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="AF19" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AG19" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="AH19" t="n">
         <v>1000</v>
       </c>
       <c r="AI19" t="n">
-        <v>280</v>
+        <v>250</v>
       </c>
       <c r="AJ19" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AK19" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AL19" t="n">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="AM19" t="n">
         <v>260</v>
       </c>
       <c r="AN19" t="n">
-        <v>3.55</v>
+        <v>3.7</v>
       </c>
       <c r="AO19" t="n">
         <v>1000</v>
@@ -3097,73 +3097,73 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="G20" t="n">
         <v>4</v>
       </c>
       <c r="H20" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="I20" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="J20" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="K20" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="L20" t="n">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="M20" t="n">
         <v>1.05</v>
       </c>
       <c r="N20" t="n">
-        <v>4.7</v>
+        <v>4.9</v>
       </c>
       <c r="O20" t="n">
         <v>1.24</v>
       </c>
       <c r="P20" t="n">
-        <v>2.24</v>
+        <v>2.3</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.76</v>
+        <v>1.74</v>
       </c>
       <c r="R20" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="S20" t="n">
-        <v>2.9</v>
+        <v>2.84</v>
       </c>
       <c r="T20" t="n">
-        <v>1.69</v>
+        <v>1.66</v>
       </c>
       <c r="U20" t="n">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="V20" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="W20" t="n">
         <v>1.33</v>
       </c>
       <c r="X20" t="n">
-        <v>18.5</v>
+        <v>21</v>
       </c>
       <c r="Y20" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Z20" t="n">
         <v>14</v>
       </c>
       <c r="AA20" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AB20" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AC20" t="n">
         <v>8.6</v>
@@ -3184,7 +3184,7 @@
         <v>16.5</v>
       </c>
       <c r="AI20" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AJ20" t="n">
         <v>75</v>
@@ -3193,16 +3193,16 @@
         <v>42</v>
       </c>
       <c r="AL20" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AM20" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AN20" t="n">
-        <v>40</v>
+        <v>220</v>
       </c>
       <c r="AO20" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21">
@@ -3232,25 +3232,25 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="G21" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="H21" t="n">
-        <v>10</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="I21" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="J21" t="n">
         <v>5.6</v>
       </c>
       <c r="K21" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="L21" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="M21" t="n">
         <v>1.03</v>
@@ -3259,85 +3259,85 @@
         <v>6.2</v>
       </c>
       <c r="O21" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="P21" t="n">
-        <v>2.7</v>
+        <v>2.78</v>
       </c>
       <c r="Q21" t="n">
         <v>1.56</v>
       </c>
       <c r="R21" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="S21" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="T21" t="n">
         <v>1.82</v>
       </c>
       <c r="U21" t="n">
-        <v>2.08</v>
+        <v>2.16</v>
       </c>
       <c r="V21" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="W21" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="X21" t="n">
         <v>29</v>
       </c>
       <c r="Y21" t="n">
-        <v>42</v>
+        <v>130</v>
       </c>
       <c r="Z21" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AA21" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="AB21" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AC21" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AD21" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AE21" t="n">
-        <v>130</v>
+        <v>290</v>
       </c>
       <c r="AF21" t="n">
         <v>9.4</v>
       </c>
       <c r="AG21" t="n">
-        <v>11</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH21" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AI21" t="n">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="AJ21" t="n">
         <v>12</v>
       </c>
       <c r="AK21" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AL21" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AM21" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AN21" t="n">
-        <v>4.7</v>
+        <v>4.9</v>
       </c>
       <c r="AO21" t="n">
-        <v>130</v>
+        <v>150</v>
       </c>
     </row>
     <row r="22">
@@ -3367,22 +3367,22 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="G22" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="H22" t="n">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="I22" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J22" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="K22" t="n">
         <v>5.8</v>
-      </c>
-      <c r="K22" t="n">
-        <v>6.2</v>
       </c>
       <c r="L22" t="n">
         <v>1.24</v>
@@ -3394,13 +3394,13 @@
         <v>7.8</v>
       </c>
       <c r="O22" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="P22" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="R22" t="n">
         <v>1.92</v>
@@ -3409,7 +3409,7 @@
         <v>2.04</v>
       </c>
       <c r="T22" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="U22" t="n">
         <v>2.4</v>
@@ -3418,31 +3418,31 @@
         <v>1.13</v>
       </c>
       <c r="W22" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="X22" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="Y22" t="n">
         <v>42</v>
       </c>
       <c r="Z22" t="n">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="AA22" t="n">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="AB22" t="n">
-        <v>75</v>
+        <v>14.5</v>
       </c>
       <c r="AC22" t="n">
         <v>13.5</v>
       </c>
       <c r="AD22" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AE22" t="n">
-        <v>210</v>
+        <v>90</v>
       </c>
       <c r="AF22" t="n">
         <v>12</v>
@@ -3451,10 +3451,10 @@
         <v>10.5</v>
       </c>
       <c r="AH22" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI22" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="AJ22" t="n">
         <v>14</v>
@@ -3463,16 +3463,16 @@
         <v>13</v>
       </c>
       <c r="AL22" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AM22" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AN22" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="AO22" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
     </row>
     <row r="23">
@@ -3502,22 +3502,22 @@
         </is>
       </c>
       <c r="F23" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="G23" t="n">
         <v>1.21</v>
       </c>
-      <c r="G23" t="n">
-        <v>1.22</v>
-      </c>
       <c r="H23" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="I23" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="J23" t="n">
-        <v>8.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="K23" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="L23" t="n">
         <v>1.2</v>
@@ -3526,67 +3526,67 @@
         <v>1.02</v>
       </c>
       <c r="N23" t="n">
-        <v>9.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="O23" t="n">
         <v>1.11</v>
       </c>
       <c r="P23" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="R23" t="n">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
       <c r="S23" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="T23" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="U23" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="V23" t="n">
         <v>1.06</v>
       </c>
       <c r="W23" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="X23" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="Y23" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="Z23" t="n">
-        <v>220</v>
+        <v>180</v>
       </c>
       <c r="AA23" t="n">
         <v>1000</v>
       </c>
       <c r="AB23" t="n">
-        <v>15.5</v>
+        <v>14</v>
       </c>
       <c r="AC23" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AD23" t="n">
         <v>55</v>
       </c>
       <c r="AE23" t="n">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="AF23" t="n">
-        <v>11</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG23" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AH23" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="AI23" t="n">
         <v>190</v>
@@ -3595,16 +3595,16 @@
         <v>11.5</v>
       </c>
       <c r="AK23" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AL23" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AM23" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AN23" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="AO23" t="n">
         <v>1000</v>
@@ -3637,16 +3637,16 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="G24" t="n">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="H24" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="I24" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="J24" t="n">
         <v>4.1</v>
@@ -3655,10 +3655,10 @@
         <v>4.2</v>
       </c>
       <c r="L24" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="M24" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N24" t="n">
         <v>5</v>
@@ -3667,31 +3667,31 @@
         <v>1.23</v>
       </c>
       <c r="P24" t="n">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="R24" t="n">
-        <v>1.52</v>
+        <v>1.54</v>
       </c>
       <c r="S24" t="n">
-        <v>2.84</v>
+        <v>2.78</v>
       </c>
       <c r="T24" t="n">
         <v>1.7</v>
       </c>
       <c r="U24" t="n">
-        <v>2.34</v>
+        <v>2.4</v>
       </c>
       <c r="V24" t="n">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="W24" t="n">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="X24" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y24" t="n">
         <v>20</v>
@@ -3700,49 +3700,49 @@
         <v>36</v>
       </c>
       <c r="AA24" t="n">
-        <v>130</v>
+        <v>85</v>
       </c>
       <c r="AB24" t="n">
         <v>11</v>
       </c>
       <c r="AC24" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AD24" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AE24" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AF24" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AG24" t="n">
         <v>10.5</v>
       </c>
       <c r="AH24" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AI24" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AJ24" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AK24" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AL24" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AM24" t="n">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="AN24" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AO24" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-18.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-18.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO24"/>
+  <dimension ref="A1:AO22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Azerbaijan Premier League</t>
+          <t>Friendly Matches</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,72 +653,72 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>12:30:00</t>
+          <t>13:00:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>FC Sabah</t>
+          <t>Necaxa</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Qarabag FK</t>
+          <t>Mineros de Zacatecas</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3.75</v>
+        <v>1.04</v>
       </c>
       <c r="G2" t="n">
-        <v>3.9</v>
+        <v>2.28</v>
       </c>
       <c r="H2" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I2" t="n">
-        <v>3.5</v>
+        <v>870</v>
       </c>
       <c r="J2" t="n">
-        <v>2.24</v>
+        <v>1.19</v>
       </c>
       <c r="K2" t="n">
-        <v>2.26</v>
+        <v>500</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P2" t="n">
-        <v>2.72</v>
+        <v>1.03</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.54</v>
+        <v>1.03</v>
       </c>
       <c r="R2" t="n">
-        <v>1.31</v>
+        <v>1.35</v>
       </c>
       <c r="S2" t="n">
-        <v>3.95</v>
+        <v>2.96</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>2.16</v>
       </c>
       <c r="V2" t="n">
-        <v>1.37</v>
+        <v>1.02</v>
       </c>
       <c r="W2" t="n">
-        <v>1.35</v>
+        <v>1.02</v>
       </c>
       <c r="X2" t="n">
         <v>1000</v>
@@ -736,43 +736,43 @@
         <v>1000</v>
       </c>
       <c r="AC2" t="n">
-        <v>2.8</v>
+        <v>1000</v>
       </c>
       <c r="AD2" t="n">
-        <v>5.6</v>
+        <v>1000</v>
       </c>
       <c r="AE2" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AF2" t="n">
         <v>1000</v>
       </c>
       <c r="AG2" t="n">
-        <v>5.7</v>
+        <v>1000</v>
       </c>
       <c r="AH2" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AI2" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AJ2" t="n">
         <v>1000</v>
       </c>
       <c r="AK2" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AL2" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AM2" t="n">
-        <v>370</v>
+        <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AO2" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
@@ -788,132 +788,132 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>13:00:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>MB Rouissat</t>
+          <t>USM Alger</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>MC Alger</t>
+          <t>ES Ben Aknoun</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.96</v>
+        <v>1.49</v>
       </c>
       <c r="G3" t="n">
-        <v>2.02</v>
+        <v>1.53</v>
       </c>
       <c r="H3" t="n">
-        <v>5.7</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="I3" t="n">
-        <v>5.8</v>
+        <v>9.4</v>
       </c>
       <c r="J3" t="n">
-        <v>3</v>
+        <v>4.3</v>
       </c>
       <c r="K3" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N3" t="n">
         <v>3.15</v>
       </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>3.35</v>
-      </c>
       <c r="O3" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="P3" t="n">
-        <v>1.47</v>
+        <v>1.7</v>
       </c>
       <c r="Q3" t="n">
-        <v>3</v>
+        <v>1.22</v>
       </c>
       <c r="R3" t="n">
-        <v>1.1</v>
+        <v>1.26</v>
       </c>
       <c r="S3" t="n">
-        <v>9.199999999999999</v>
+        <v>4.4</v>
       </c>
       <c r="T3" t="n">
-        <v>1.64</v>
+        <v>2.3</v>
       </c>
       <c r="U3" t="n">
-        <v>2.42</v>
+        <v>1.62</v>
       </c>
       <c r="V3" t="n">
-        <v>1.2</v>
+        <v>1.11</v>
       </c>
       <c r="W3" t="n">
-        <v>1.98</v>
+        <v>2.84</v>
       </c>
       <c r="X3" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="Z3" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AA3" t="n">
-        <v>1000</v>
+        <v>530</v>
       </c>
       <c r="AB3" t="n">
-        <v>3.5</v>
+        <v>6.2</v>
       </c>
       <c r="AC3" t="n">
-        <v>3.6</v>
+        <v>10</v>
       </c>
       <c r="AD3" t="n">
-        <v>8.800000000000001</v>
+        <v>46</v>
       </c>
       <c r="AE3" t="n">
-        <v>50</v>
+        <v>270</v>
       </c>
       <c r="AF3" t="n">
-        <v>11.5</v>
+        <v>7.8</v>
       </c>
       <c r="AG3" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>44</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>260</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>75</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>360</v>
+      </c>
+      <c r="AN3" t="n">
         <v>12</v>
       </c>
-      <c r="AH3" t="n">
-        <v>34</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>140</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>90</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>110</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>250</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>370</v>
-      </c>
       <c r="AO3" t="n">
-        <v>200</v>
+        <v>550</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Algerian Ligue 1</t>
+          <t>UEFA Europa Conference League</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,132 +923,132 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>13:00:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>ASO Chlef</t>
+          <t>Shamrock Rovers</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>MC Oran</t>
+          <t>Hamrun Spartans FC</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.31</v>
+        <v>1.84</v>
       </c>
       <c r="G4" t="n">
-        <v>1.34</v>
+        <v>1.86</v>
       </c>
       <c r="H4" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="I4" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="J4" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K4" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N4" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="S4" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="T4" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="U4" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="V4" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="W4" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="X4" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>40</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>160</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>23</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>100</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>110</v>
+      </c>
+      <c r="AJ4" t="n">
         <v>18</v>
       </c>
-      <c r="I4" t="n">
-        <v>25</v>
-      </c>
-      <c r="J4" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="K4" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P4" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="S4" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="T4" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="U4" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="V4" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="W4" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="X4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>32</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>250</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>48</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>340</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>18.5</v>
-      </c>
       <c r="AK4" t="n">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="AL4" t="n">
-        <v>170</v>
+        <v>46</v>
       </c>
       <c r="AM4" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AN4" t="n">
-        <v>65</v>
+        <v>14.5</v>
       </c>
       <c r="AO4" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Friendly Matches</t>
+          <t>UEFA Europa Conference League</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,132 +1058,132 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>13:00:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Necaxa</t>
+          <t>Slovan Bratislava</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Mineros de Zacatecas</t>
+          <t>Hacken</t>
         </is>
       </c>
       <c r="F5" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="G5" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="H5" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="I5" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="J5" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="K5" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="M5" t="n">
         <v>1.04</v>
       </c>
-      <c r="G5" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="H5" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="I5" t="n">
-        <v>870</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="K5" t="n">
-        <v>500</v>
-      </c>
-      <c r="L5" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.07</v>
-      </c>
       <c r="N5" t="n">
-        <v>1.1</v>
+        <v>5.6</v>
       </c>
       <c r="O5" t="n">
-        <v>1.01</v>
+        <v>1.21</v>
       </c>
       <c r="P5" t="n">
-        <v>1.03</v>
+        <v>2.56</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.03</v>
+        <v>1.62</v>
       </c>
       <c r="R5" t="n">
-        <v>1.35</v>
+        <v>1.63</v>
       </c>
       <c r="S5" t="n">
-        <v>2.96</v>
+        <v>2.54</v>
       </c>
       <c r="T5" t="n">
-        <v>1.04</v>
+        <v>1.56</v>
       </c>
       <c r="U5" t="n">
-        <v>2.16</v>
+        <v>2.7</v>
       </c>
       <c r="V5" t="n">
-        <v>1.02</v>
+        <v>1.63</v>
       </c>
       <c r="W5" t="n">
-        <v>1.02</v>
+        <v>1.53</v>
       </c>
       <c r="X5" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="Y5" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="Z5" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AA5" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AB5" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AC5" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD5" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AE5" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AF5" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AG5" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AH5" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AI5" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AJ5" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AK5" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AL5" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AM5" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AN5" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AO5" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Algerian Ligue 1</t>
+          <t>UEFA Europa Conference League</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,126 +1193,126 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>USM Alger</t>
+          <t>Crystal Palace</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>ES Ben Aknoun</t>
+          <t>KuPS</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.42</v>
+        <v>1.32</v>
       </c>
       <c r="G6" t="n">
-        <v>1.44</v>
+        <v>1.34</v>
       </c>
       <c r="H6" t="n">
-        <v>9.4</v>
+        <v>11</v>
       </c>
       <c r="I6" t="n">
+        <v>12</v>
+      </c>
+      <c r="J6" t="n">
+        <v>6</v>
+      </c>
+      <c r="K6" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N6" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="P6" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="S6" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="T6" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="U6" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="V6" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="W6" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="X6" t="n">
+        <v>25</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>40</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>110</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>520</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AC6" t="n">
         <v>13</v>
       </c>
-      <c r="J6" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="K6" t="n">
+      <c r="AD6" t="n">
+        <v>44</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>190</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>30</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>140</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>38</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>150</v>
+      </c>
+      <c r="AN6" t="n">
         <v>5.2</v>
       </c>
-      <c r="L6" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N6" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P6" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>2</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="S6" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="T6" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="U6" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="V6" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="W6" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="X6" t="n">
-        <v>15</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>42</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>85</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>8</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>50</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>18</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>140</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>8.800000000000001</v>
-      </c>
       <c r="AO6" t="n">
-        <v>1000</v>
+        <v>230</v>
       </c>
     </row>
     <row r="7">
@@ -1333,121 +1333,121 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Slovan Bratislava</t>
+          <t>AEK Larnaca</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Hacken</t>
+          <t>Shkendija</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.78</v>
+        <v>1.47</v>
       </c>
       <c r="G7" t="n">
-        <v>2.8</v>
+        <v>1.48</v>
       </c>
       <c r="H7" t="n">
-        <v>2.54</v>
+        <v>7.8</v>
       </c>
       <c r="I7" t="n">
-        <v>2.6</v>
+        <v>8</v>
       </c>
       <c r="J7" t="n">
-        <v>3.9</v>
+        <v>5.1</v>
       </c>
       <c r="K7" t="n">
-        <v>4</v>
+        <v>5.2</v>
       </c>
       <c r="L7" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="M7" t="n">
         <v>1.05</v>
       </c>
       <c r="N7" t="n">
-        <v>5.3</v>
+        <v>4.8</v>
       </c>
       <c r="O7" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P7" t="n">
-        <v>2.46</v>
+        <v>2.32</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.66</v>
+        <v>1.73</v>
       </c>
       <c r="R7" t="n">
-        <v>1.56</v>
+        <v>1.51</v>
       </c>
       <c r="S7" t="n">
-        <v>2.68</v>
+        <v>2.86</v>
       </c>
       <c r="T7" t="n">
-        <v>1.58</v>
+        <v>1.88</v>
       </c>
       <c r="U7" t="n">
-        <v>2.58</v>
+        <v>2.02</v>
       </c>
       <c r="V7" t="n">
-        <v>1.62</v>
+        <v>1.14</v>
       </c>
       <c r="W7" t="n">
-        <v>1.55</v>
+        <v>3.05</v>
       </c>
       <c r="X7" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Y7" t="n">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="Z7" t="n">
-        <v>19.5</v>
+        <v>70</v>
       </c>
       <c r="AA7" t="n">
+        <v>250</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>29</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>110</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>24</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>160</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>13</v>
+      </c>
+      <c r="AL7" t="n">
         <v>36</v>
       </c>
-      <c r="AB7" t="n">
-        <v>16</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>12</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>25</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>22</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>32</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>65</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>27</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>34</v>
-      </c>
       <c r="AM7" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="AN7" t="n">
-        <v>17.5</v>
+        <v>7.4</v>
       </c>
       <c r="AO7" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="8">
@@ -1468,121 +1468,121 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Crystal Palace</t>
+          <t>Shakhtar</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>KuPS</t>
+          <t>Rijeka</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.28</v>
+        <v>1.88</v>
       </c>
       <c r="G8" t="n">
-        <v>1.29</v>
+        <v>1.89</v>
       </c>
       <c r="H8" t="n">
-        <v>13.5</v>
+        <v>5.3</v>
       </c>
       <c r="I8" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="J8" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="K8" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N8" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>2</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="S8" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="T8" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="U8" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="V8" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="W8" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="X8" t="n">
         <v>14.5</v>
       </c>
-      <c r="J8" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="K8" t="n">
-        <v>7</v>
-      </c>
-      <c r="L8" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N8" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P8" t="n">
-        <v>2.74</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="S8" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="T8" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="U8" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="V8" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="W8" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="X8" t="n">
-        <v>32</v>
-      </c>
       <c r="Y8" t="n">
-        <v>55</v>
+        <v>17.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>140</v>
+        <v>44</v>
       </c>
       <c r="AA8" t="n">
-        <v>550</v>
+        <v>160</v>
       </c>
       <c r="AB8" t="n">
-        <v>11</v>
+        <v>8.4</v>
       </c>
       <c r="AC8" t="n">
-        <v>14.5</v>
+        <v>8</v>
       </c>
       <c r="AD8" t="n">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="AE8" t="n">
-        <v>290</v>
+        <v>70</v>
       </c>
       <c r="AF8" t="n">
-        <v>8.199999999999999</v>
+        <v>11.5</v>
       </c>
       <c r="AG8" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>75</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>20</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>20</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>38</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>150</v>
+      </c>
+      <c r="AN8" t="n">
         <v>12</v>
       </c>
-      <c r="AH8" t="n">
-        <v>36</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>190</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>13</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>40</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>160</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>3.75</v>
-      </c>
       <c r="AO8" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9">
@@ -1603,55 +1603,55 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>AEK Larnaca</t>
+          <t>NK Celje</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Shkendija</t>
+          <t>Shelbourne</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.48</v>
+        <v>1.32</v>
       </c>
       <c r="G9" t="n">
-        <v>1.49</v>
+        <v>1.33</v>
       </c>
       <c r="H9" t="n">
-        <v>7.8</v>
+        <v>11</v>
       </c>
       <c r="I9" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="J9" t="n">
-        <v>4.9</v>
+        <v>6.2</v>
       </c>
       <c r="K9" t="n">
-        <v>5.1</v>
+        <v>6.4</v>
       </c>
       <c r="L9" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="M9" t="n">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="N9" t="n">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="O9" t="n">
-        <v>1.27</v>
+        <v>1.18</v>
       </c>
       <c r="P9" t="n">
-        <v>2.24</v>
+        <v>2.72</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.78</v>
+        <v>1.55</v>
       </c>
       <c r="R9" t="n">
-        <v>1.47</v>
+        <v>1.69</v>
       </c>
       <c r="S9" t="n">
-        <v>3</v>
+        <v>2.38</v>
       </c>
       <c r="T9" t="n">
         <v>2.02</v>
@@ -1660,64 +1660,64 @@
         <v>1.92</v>
       </c>
       <c r="V9" t="n">
-        <v>1.14</v>
+        <v>1.09</v>
       </c>
       <c r="W9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="X9" t="n">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="Y9" t="n">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="Z9" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="AA9" t="n">
-        <v>260</v>
+        <v>480</v>
       </c>
       <c r="AB9" t="n">
-        <v>8.6</v>
+        <v>11</v>
       </c>
       <c r="AC9" t="n">
-        <v>11</v>
+        <v>14.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="AE9" t="n">
-        <v>120</v>
+        <v>170</v>
       </c>
       <c r="AF9" t="n">
         <v>8.6</v>
       </c>
       <c r="AG9" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AH9" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AI9" t="n">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="AJ9" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK9" t="n">
         <v>13</v>
       </c>
-      <c r="AK9" t="n">
-        <v>16</v>
-      </c>
       <c r="AL9" t="n">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="AM9" t="n">
         <v>140</v>
       </c>
       <c r="AN9" t="n">
-        <v>7</v>
+        <v>4.3</v>
       </c>
       <c r="AO9" t="n">
-        <v>170</v>
+        <v>220</v>
       </c>
     </row>
     <row r="10">
@@ -1738,121 +1738,121 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Shakhtar</t>
+          <t>Zrinjski</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Rijeka</t>
+          <t>Rapid Vienna</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.93</v>
+        <v>1.79</v>
       </c>
       <c r="G10" t="n">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="H10" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="I10" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="J10" t="n">
-        <v>3.7</v>
+        <v>4.2</v>
       </c>
       <c r="K10" t="n">
-        <v>3.8</v>
+        <v>4.3</v>
       </c>
       <c r="L10" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="M10" t="n">
         <v>1.06</v>
       </c>
       <c r="N10" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="O10" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P10" t="n">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.86</v>
+        <v>1.89</v>
       </c>
       <c r="R10" t="n">
-        <v>1.46</v>
+        <v>1.4</v>
       </c>
       <c r="S10" t="n">
-        <v>3.05</v>
+        <v>3.3</v>
       </c>
       <c r="T10" t="n">
-        <v>1.71</v>
+        <v>1.87</v>
       </c>
       <c r="U10" t="n">
-        <v>2.26</v>
+        <v>2.06</v>
       </c>
       <c r="V10" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="W10" t="n">
-        <v>2.04</v>
+        <v>2.24</v>
       </c>
       <c r="X10" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="Y10" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Z10" t="n">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="AA10" t="n">
-        <v>95</v>
+        <v>170</v>
       </c>
       <c r="AB10" t="n">
-        <v>10</v>
+        <v>9.4</v>
       </c>
       <c r="AC10" t="n">
-        <v>8.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="AD10" t="n">
         <v>18</v>
       </c>
       <c r="AE10" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AF10" t="n">
-        <v>14.5</v>
+        <v>10.5</v>
       </c>
       <c r="AG10" t="n">
-        <v>10.5</v>
+        <v>9.6</v>
       </c>
       <c r="AH10" t="n">
-        <v>17.5</v>
+        <v>23</v>
       </c>
       <c r="AI10" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AJ10" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AK10" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AL10" t="n">
         <v>34</v>
       </c>
       <c r="AM10" t="n">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="AN10" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AO10" t="n">
-        <v>140</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11">
@@ -1873,121 +1873,121 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>NK Celje</t>
+          <t>Omonia</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Shelbourne</t>
+          <t>Rakow Czestochowa</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.35</v>
+        <v>3.5</v>
       </c>
       <c r="G11" t="n">
-        <v>1.36</v>
+        <v>3.55</v>
       </c>
       <c r="H11" t="n">
-        <v>10</v>
+        <v>2.4</v>
       </c>
       <c r="I11" t="n">
-        <v>11</v>
+        <v>2.46</v>
       </c>
       <c r="J11" t="n">
-        <v>5.9</v>
+        <v>3.25</v>
       </c>
       <c r="K11" t="n">
-        <v>6</v>
+        <v>3.3</v>
       </c>
       <c r="L11" t="n">
-        <v>1.31</v>
+        <v>1.47</v>
       </c>
       <c r="M11" t="n">
-        <v>1.04</v>
+        <v>1.09</v>
       </c>
       <c r="N11" t="n">
-        <v>5.3</v>
+        <v>3.55</v>
       </c>
       <c r="O11" t="n">
-        <v>1.22</v>
+        <v>1.37</v>
       </c>
       <c r="P11" t="n">
-        <v>2.52</v>
+        <v>1.85</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.64</v>
+        <v>2.12</v>
       </c>
       <c r="R11" t="n">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="S11" t="n">
-        <v>2.6</v>
+        <v>3.9</v>
       </c>
       <c r="T11" t="n">
-        <v>2.04</v>
+        <v>1.84</v>
       </c>
       <c r="U11" t="n">
-        <v>1.88</v>
+        <v>2.12</v>
       </c>
       <c r="V11" t="n">
-        <v>1.1</v>
+        <v>1.68</v>
       </c>
       <c r="W11" t="n">
-        <v>3.7</v>
+        <v>1.39</v>
       </c>
       <c r="X11" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>36</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>28</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>24</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>44</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>65</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>42</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>55</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>100</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>42</v>
+      </c>
+      <c r="AO11" t="n">
         <v>23</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>36</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>100</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>400</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>38</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>180</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>27</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>130</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>32</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>140</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>180</v>
       </c>
     </row>
     <row r="12">
@@ -2008,121 +2008,121 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Zrinjski</t>
+          <t>Sigma Olomouc</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Rapid Vienna</t>
+          <t>Lech Poznan</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.93</v>
+        <v>3.3</v>
       </c>
       <c r="G12" t="n">
-        <v>1.97</v>
+        <v>3.35</v>
       </c>
       <c r="H12" t="n">
-        <v>4.2</v>
+        <v>2.64</v>
       </c>
       <c r="I12" t="n">
-        <v>4.4</v>
+        <v>2.66</v>
       </c>
       <c r="J12" t="n">
-        <v>3.95</v>
+        <v>3.1</v>
       </c>
       <c r="K12" t="n">
-        <v>4</v>
+        <v>3.15</v>
       </c>
       <c r="L12" t="n">
-        <v>1.46</v>
+        <v>1.5</v>
       </c>
       <c r="M12" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N12" t="n">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="O12" t="n">
-        <v>1.36</v>
+        <v>1.39</v>
       </c>
       <c r="P12" t="n">
-        <v>1.92</v>
+        <v>1.78</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.06</v>
+        <v>2.24</v>
       </c>
       <c r="R12" t="n">
-        <v>1.34</v>
+        <v>1.3</v>
       </c>
       <c r="S12" t="n">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="T12" t="n">
-        <v>1.91</v>
+        <v>1.86</v>
       </c>
       <c r="U12" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="V12" t="n">
-        <v>1.29</v>
+        <v>1.6</v>
       </c>
       <c r="W12" t="n">
-        <v>2.02</v>
+        <v>1.42</v>
       </c>
       <c r="X12" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>40</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>30</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG12" t="n">
         <v>14</v>
       </c>
-      <c r="Y12" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>30</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>95</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>9</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>17</v>
-      </c>
-      <c r="AE12" t="n">
+      <c r="AH12" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>46</v>
+      </c>
+      <c r="AJ12" t="n">
         <v>55</v>
       </c>
-      <c r="AF12" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>22</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>70</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>23</v>
-      </c>
       <c r="AK12" t="n">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="AL12" t="n">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="AM12" t="n">
         <v>580</v>
       </c>
       <c r="AN12" t="n">
-        <v>15.5</v>
+        <v>42</v>
       </c>
       <c r="AO12" t="n">
-        <v>65</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13">
@@ -2143,121 +2143,121 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Omonia</t>
+          <t>Strasbourg</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Rakow Czestochowa</t>
+          <t>Breidablik</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.9</v>
+        <v>1.21</v>
       </c>
       <c r="G13" t="n">
-        <v>2.92</v>
+        <v>1.22</v>
       </c>
       <c r="H13" t="n">
-        <v>2.72</v>
+        <v>15.5</v>
       </c>
       <c r="I13" t="n">
-        <v>2.74</v>
+        <v>16.5</v>
       </c>
       <c r="J13" t="n">
-        <v>3.4</v>
+        <v>9</v>
       </c>
       <c r="K13" t="n">
-        <v>3.45</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="L13" t="n">
-        <v>1.47</v>
+        <v>1.19</v>
       </c>
       <c r="M13" t="n">
-        <v>1.09</v>
+        <v>1.01</v>
       </c>
       <c r="N13" t="n">
-        <v>3.45</v>
+        <v>9.6</v>
       </c>
       <c r="O13" t="n">
-        <v>1.38</v>
+        <v>1.1</v>
       </c>
       <c r="P13" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="R13" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="T13" t="n">
         <v>1.84</v>
       </c>
-      <c r="Q13" t="n">
+      <c r="U13" t="n">
         <v>2.12</v>
       </c>
-      <c r="R13" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="S13" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="T13" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="U13" t="n">
-        <v>2.08</v>
-      </c>
       <c r="V13" t="n">
-        <v>1.57</v>
+        <v>1.06</v>
       </c>
       <c r="W13" t="n">
-        <v>1.52</v>
+        <v>5.6</v>
       </c>
       <c r="X13" t="n">
-        <v>12.5</v>
+        <v>65</v>
       </c>
       <c r="Y13" t="n">
+        <v>80</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>180</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>22</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>70</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>240</v>
+      </c>
+      <c r="AF13" t="n">
         <v>10.5</v>
       </c>
-      <c r="Z13" t="n">
-        <v>17</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>42</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>11</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>32</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>18.5</v>
-      </c>
       <c r="AG13" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>34</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>140</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AK13" t="n">
         <v>13</v>
       </c>
-      <c r="AH13" t="n">
-        <v>18</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>46</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>46</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>36</v>
-      </c>
       <c r="AL13" t="n">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="AM13" t="n">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="AN13" t="n">
-        <v>34</v>
+        <v>2.84</v>
       </c>
       <c r="AO13" t="n">
-        <v>29</v>
+        <v>190</v>
       </c>
     </row>
     <row r="14">
@@ -2278,121 +2278,121 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Sigma Olomouc</t>
+          <t>Sparta Prague</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Lech Poznan</t>
+          <t>Aberdeen</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>3.1</v>
+        <v>1.26</v>
       </c>
       <c r="G14" t="n">
-        <v>3.2</v>
+        <v>1.27</v>
       </c>
       <c r="H14" t="n">
-        <v>2.62</v>
+        <v>13.5</v>
       </c>
       <c r="I14" t="n">
-        <v>2.66</v>
+        <v>14</v>
       </c>
       <c r="J14" t="n">
-        <v>3.25</v>
+        <v>7</v>
       </c>
       <c r="K14" t="n">
-        <v>3.35</v>
+        <v>7.2</v>
       </c>
       <c r="L14" t="n">
-        <v>1.52</v>
+        <v>1.26</v>
       </c>
       <c r="M14" t="n">
-        <v>1.09</v>
+        <v>1.03</v>
       </c>
       <c r="N14" t="n">
-        <v>3.45</v>
+        <v>6.2</v>
       </c>
       <c r="O14" t="n">
-        <v>1.39</v>
+        <v>1.18</v>
       </c>
       <c r="P14" t="n">
-        <v>1.83</v>
+        <v>2.78</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.16</v>
+        <v>1.54</v>
       </c>
       <c r="R14" t="n">
-        <v>1.31</v>
+        <v>1.68</v>
       </c>
       <c r="S14" t="n">
-        <v>4</v>
+        <v>2.4</v>
       </c>
       <c r="T14" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="U14" t="n">
         <v>1.85</v>
       </c>
-      <c r="U14" t="n">
-        <v>2.06</v>
-      </c>
       <c r="V14" t="n">
-        <v>1.6</v>
+        <v>1.07</v>
       </c>
       <c r="W14" t="n">
-        <v>1.45</v>
+        <v>4.6</v>
       </c>
       <c r="X14" t="n">
-        <v>11.5</v>
+        <v>34</v>
       </c>
       <c r="Y14" t="n">
-        <v>9.6</v>
+        <v>55</v>
       </c>
       <c r="Z14" t="n">
-        <v>17</v>
+        <v>140</v>
       </c>
       <c r="AA14" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AB14" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AC14" t="n">
-        <v>7.2</v>
+        <v>15.5</v>
       </c>
       <c r="AD14" t="n">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="AE14" t="n">
-        <v>30</v>
+        <v>210</v>
       </c>
       <c r="AF14" t="n">
-        <v>21</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AG14" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AH14" t="n">
-        <v>18.5</v>
+        <v>32</v>
       </c>
       <c r="AI14" t="n">
-        <v>46</v>
+        <v>170</v>
       </c>
       <c r="AJ14" t="n">
-        <v>55</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AK14" t="n">
-        <v>38</v>
+        <v>13.5</v>
       </c>
       <c r="AL14" t="n">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="AM14" t="n">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="AN14" t="n">
-        <v>42</v>
+        <v>4.2</v>
       </c>
       <c r="AO14" t="n">
-        <v>28</v>
+        <v>230</v>
       </c>
     </row>
     <row r="15">
@@ -2413,121 +2413,121 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Sparta Prague</t>
+          <t>Dynamo Kiev</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Aberdeen</t>
+          <t>FC Noah</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.22</v>
+        <v>2.18</v>
       </c>
       <c r="G15" t="n">
-        <v>1.24</v>
+        <v>2.2</v>
       </c>
       <c r="H15" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="I15" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="J15" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="K15" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="L15" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N15" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P15" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="S15" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="T15" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="U15" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="V15" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="W15" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="X15" t="n">
+        <v>25</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>28</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>42</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>90</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>14</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>95</v>
+      </c>
+      <c r="AF15" t="n">
         <v>16.5</v>
       </c>
-      <c r="I15" t="n">
-        <v>18</v>
-      </c>
-      <c r="J15" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="K15" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="L15" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="M15" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N15" t="n">
-        <v>7</v>
-      </c>
-      <c r="O15" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="P15" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="R15" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="S15" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="T15" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="U15" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="V15" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="W15" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="X15" t="n">
-        <v>34</v>
-      </c>
-      <c r="Y15" t="n">
+      <c r="AG15" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>130</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>28</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>19</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>27</v>
+      </c>
+      <c r="AM15" t="n">
         <v>60</v>
       </c>
-      <c r="Z15" t="n">
-        <v>210</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>75</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>320</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>38</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>180</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>9</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>14</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>40</v>
-      </c>
-      <c r="AM15" t="n">
-        <v>200</v>
-      </c>
       <c r="AN15" t="n">
-        <v>3.45</v>
+        <v>10.5</v>
       </c>
       <c r="AO15" t="n">
-        <v>300</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16">
@@ -2548,121 +2548,121 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Shamrock Rovers</t>
+          <t>AEK Athens</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Hamrun Spartans FC</t>
+          <t>Universitatea Craiova</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.88</v>
+        <v>1.38</v>
       </c>
       <c r="G16" t="n">
-        <v>1.9</v>
+        <v>1.39</v>
       </c>
       <c r="H16" t="n">
-        <v>5.2</v>
+        <v>10.5</v>
       </c>
       <c r="I16" t="n">
+        <v>11</v>
+      </c>
+      <c r="J16" t="n">
         <v>5.3</v>
       </c>
-      <c r="J16" t="n">
+      <c r="K16" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="L16" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N16" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="P16" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="S16" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="T16" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="U16" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="V16" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="W16" t="n">
         <v>3.55</v>
       </c>
-      <c r="K16" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="L16" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="M16" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N16" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="P16" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="R16" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="S16" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="T16" t="n">
-        <v>2</v>
-      </c>
-      <c r="U16" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="V16" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="W16" t="n">
-        <v>2.1</v>
-      </c>
       <c r="X16" t="n">
-        <v>12</v>
+        <v>17.5</v>
       </c>
       <c r="Y16" t="n">
-        <v>15.5</v>
+        <v>32</v>
       </c>
       <c r="Z16" t="n">
-        <v>38</v>
+        <v>110</v>
       </c>
       <c r="AA16" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AB16" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>42</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>240</v>
+      </c>
+      <c r="AF16" t="n">
         <v>7.4</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>21</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>110</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>10.5</v>
       </c>
       <c r="AG16" t="n">
         <v>10.5</v>
       </c>
       <c r="AH16" t="n">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="AI16" t="n">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="AJ16" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="AK16" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="AL16" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AM16" t="n">
-        <v>150</v>
+        <v>210</v>
       </c>
       <c r="AN16" t="n">
-        <v>16</v>
+        <v>6.4</v>
       </c>
       <c r="AO16" t="n">
-        <v>270</v>
+        <v>390</v>
       </c>
     </row>
     <row r="17">
@@ -2683,121 +2683,121 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Dynamo Kiev</t>
+          <t>Rayo Vallecano</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>FC Noah</t>
+          <t>KF Drita</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.26</v>
+        <v>1.2</v>
       </c>
       <c r="G17" t="n">
-        <v>2.28</v>
+        <v>1.21</v>
       </c>
       <c r="H17" t="n">
-        <v>3.25</v>
+        <v>19</v>
       </c>
       <c r="I17" t="n">
-        <v>3.35</v>
+        <v>21</v>
       </c>
       <c r="J17" t="n">
-        <v>3.9</v>
+        <v>8.4</v>
       </c>
       <c r="K17" t="n">
-        <v>3.95</v>
+        <v>8.6</v>
       </c>
       <c r="L17" t="n">
-        <v>1.33</v>
+        <v>1.27</v>
       </c>
       <c r="M17" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N17" t="n">
-        <v>5.4</v>
+        <v>6.2</v>
       </c>
       <c r="O17" t="n">
-        <v>1.21</v>
+        <v>1.18</v>
       </c>
       <c r="P17" t="n">
-        <v>2.5</v>
+        <v>2.76</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.63</v>
+        <v>1.54</v>
       </c>
       <c r="R17" t="n">
-        <v>1.61</v>
+        <v>1.71</v>
       </c>
       <c r="S17" t="n">
-        <v>2.56</v>
+        <v>2.34</v>
       </c>
       <c r="T17" t="n">
-        <v>1.57</v>
+        <v>2.32</v>
       </c>
       <c r="U17" t="n">
-        <v>2.64</v>
+        <v>1.68</v>
       </c>
       <c r="V17" t="n">
-        <v>1.43</v>
+        <v>1.05</v>
       </c>
       <c r="W17" t="n">
-        <v>1.78</v>
+        <v>5.8</v>
       </c>
       <c r="X17" t="n">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="Y17" t="n">
-        <v>18.5</v>
+        <v>990</v>
       </c>
       <c r="Z17" t="n">
-        <v>28</v>
+        <v>220</v>
       </c>
       <c r="AA17" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AB17" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>21</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>430</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>44</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>260</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK17" t="n">
         <v>14</v>
       </c>
-      <c r="AC17" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>14</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>34</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>38</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>32</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>21</v>
-      </c>
       <c r="AL17" t="n">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="AM17" t="n">
-        <v>60</v>
+        <v>240</v>
       </c>
       <c r="AN17" t="n">
-        <v>12</v>
+        <v>3.6</v>
       </c>
       <c r="AO17" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="18">
@@ -2818,121 +2818,121 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>AEK Athens</t>
+          <t>Lausanne</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Universitatea Craiova</t>
+          <t>Fiorentina</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.41</v>
+        <v>3.55</v>
       </c>
       <c r="G18" t="n">
-        <v>1.44</v>
+        <v>3.6</v>
       </c>
       <c r="H18" t="n">
-        <v>9.199999999999999</v>
+        <v>2.22</v>
       </c>
       <c r="I18" t="n">
-        <v>9.800000000000001</v>
+        <v>2.24</v>
       </c>
       <c r="J18" t="n">
-        <v>5.1</v>
+        <v>3.65</v>
       </c>
       <c r="K18" t="n">
-        <v>5.3</v>
+        <v>3.7</v>
       </c>
       <c r="L18" t="n">
-        <v>1.4</v>
+        <v>1.35</v>
       </c>
       <c r="M18" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N18" t="n">
-        <v>4.1</v>
+        <v>5</v>
       </c>
       <c r="O18" t="n">
-        <v>1.3</v>
+        <v>1.23</v>
       </c>
       <c r="P18" t="n">
-        <v>2.08</v>
+        <v>2.34</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.89</v>
+        <v>1.73</v>
       </c>
       <c r="R18" t="n">
-        <v>1.4</v>
+        <v>1.53</v>
       </c>
       <c r="S18" t="n">
-        <v>3.3</v>
+        <v>2.76</v>
       </c>
       <c r="T18" t="n">
-        <v>2.2</v>
+        <v>1.62</v>
       </c>
       <c r="U18" t="n">
-        <v>1.76</v>
+        <v>2.48</v>
       </c>
       <c r="V18" t="n">
-        <v>1.11</v>
+        <v>1.8</v>
       </c>
       <c r="W18" t="n">
-        <v>3.3</v>
+        <v>1.38</v>
       </c>
       <c r="X18" t="n">
-        <v>17</v>
+        <v>18.5</v>
       </c>
       <c r="Y18" t="n">
-        <v>29</v>
+        <v>12.5</v>
       </c>
       <c r="Z18" t="n">
-        <v>95</v>
+        <v>15.5</v>
       </c>
       <c r="AA18" t="n">
-        <v>430</v>
+        <v>27</v>
       </c>
       <c r="AB18" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AC18" t="n">
         <v>8.4</v>
       </c>
-      <c r="AC18" t="n">
-        <v>12</v>
-      </c>
       <c r="AD18" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>20</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>27</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>30</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>55</v>
+      </c>
+      <c r="AK18" t="n">
         <v>36</v>
       </c>
-      <c r="AE18" t="n">
-        <v>190</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>30</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>150</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>15.5</v>
-      </c>
       <c r="AL18" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AM18" t="n">
-        <v>790</v>
+        <v>60</v>
       </c>
       <c r="AN18" t="n">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="AO18" t="n">
-        <v>310</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="19">
@@ -2953,121 +2953,121 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Rayo Vallecano</t>
+          <t>Legia Warsaw</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>KF Drita</t>
+          <t>Lincoln Red Imps</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.22</v>
+        <v>1.36</v>
       </c>
       <c r="G19" t="n">
-        <v>1.23</v>
+        <v>1.37</v>
       </c>
       <c r="H19" t="n">
-        <v>16.5</v>
+        <v>10</v>
       </c>
       <c r="I19" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="J19" t="n">
-        <v>7.8</v>
+        <v>5.8</v>
       </c>
       <c r="K19" t="n">
-        <v>8.199999999999999</v>
+        <v>6</v>
       </c>
       <c r="L19" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="M19" t="n">
         <v>1.03</v>
       </c>
       <c r="N19" t="n">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
       <c r="O19" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="P19" t="n">
-        <v>2.76</v>
+        <v>2.88</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="R19" t="n">
-        <v>1.74</v>
+        <v>1.76</v>
       </c>
       <c r="S19" t="n">
-        <v>2.32</v>
+        <v>2.26</v>
       </c>
       <c r="T19" t="n">
-        <v>2.28</v>
+        <v>1.82</v>
       </c>
       <c r="U19" t="n">
-        <v>1.72</v>
+        <v>2.18</v>
       </c>
       <c r="V19" t="n">
-        <v>1.05</v>
+        <v>1.09</v>
       </c>
       <c r="W19" t="n">
-        <v>5.3</v>
+        <v>3.7</v>
       </c>
       <c r="X19" t="n">
         <v>34</v>
       </c>
       <c r="Y19" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="Z19" t="n">
-        <v>210</v>
+        <v>100</v>
       </c>
       <c r="AA19" t="n">
-        <v>1000</v>
+        <v>350</v>
       </c>
       <c r="AB19" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>36</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>130</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG19" t="n">
         <v>10.5</v>
       </c>
-      <c r="AC19" t="n">
-        <v>19</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>400</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>380</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>8</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>11.5</v>
-      </c>
       <c r="AH19" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AI19" t="n">
-        <v>250</v>
+        <v>110</v>
       </c>
       <c r="AJ19" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AK19" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AL19" t="n">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="AM19" t="n">
-        <v>260</v>
+        <v>110</v>
       </c>
       <c r="AN19" t="n">
-        <v>3.7</v>
+        <v>4.3</v>
       </c>
       <c r="AO19" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
     </row>
     <row r="20">
@@ -3088,121 +3088,121 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Lausanne</t>
+          <t>Az Alkmaar</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Fiorentina</t>
+          <t>Jagiellonia Bialystock</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>3.95</v>
+        <v>1.43</v>
       </c>
       <c r="G20" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+      <c r="I20" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="J20" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="K20" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="L20" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N20" t="n">
+        <v>8</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="P20" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="S20" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="T20" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="U20" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="V20" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="W20" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="X20" t="n">
+        <v>40</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>46</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>85</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>240</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>16</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>29</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>85</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>65</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>120</v>
+      </c>
+      <c r="AN20" t="n">
         <v>4</v>
       </c>
-      <c r="H20" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="I20" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="J20" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="K20" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="L20" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="M20" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N20" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="O20" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="P20" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="R20" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="S20" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="T20" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="U20" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="V20" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="W20" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="X20" t="n">
-        <v>21</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>14</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>26</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>30</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>32</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>75</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>42</v>
-      </c>
-      <c r="AL20" t="n">
-        <v>46</v>
-      </c>
-      <c r="AM20" t="n">
-        <v>70</v>
-      </c>
-      <c r="AN20" t="n">
-        <v>220</v>
-      </c>
       <c r="AO20" t="n">
-        <v>11</v>
+        <v>80</v>
       </c>
     </row>
     <row r="21">
@@ -3223,127 +3223,127 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Legia Warsaw</t>
+          <t>Mainz</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Lincoln Red Imps</t>
+          <t>Samsunspor</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.39</v>
+        <v>1.86</v>
       </c>
       <c r="G21" t="n">
-        <v>1.4</v>
+        <v>1.88</v>
       </c>
       <c r="H21" t="n">
-        <v>9.199999999999999</v>
+        <v>4.4</v>
       </c>
       <c r="I21" t="n">
-        <v>9.800000000000001</v>
+        <v>4.5</v>
       </c>
       <c r="J21" t="n">
-        <v>5.6</v>
+        <v>4.1</v>
       </c>
       <c r="K21" t="n">
-        <v>5.8</v>
+        <v>4.2</v>
       </c>
       <c r="L21" t="n">
-        <v>1.29</v>
+        <v>1.34</v>
       </c>
       <c r="M21" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N21" t="n">
-        <v>6.2</v>
+        <v>4.9</v>
       </c>
       <c r="O21" t="n">
-        <v>1.18</v>
+        <v>1.24</v>
       </c>
       <c r="P21" t="n">
-        <v>2.78</v>
+        <v>2.3</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.56</v>
+        <v>1.73</v>
       </c>
       <c r="R21" t="n">
-        <v>1.7</v>
+        <v>1.51</v>
       </c>
       <c r="S21" t="n">
-        <v>2.4</v>
+        <v>2.84</v>
       </c>
       <c r="T21" t="n">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="U21" t="n">
-        <v>2.16</v>
+        <v>2.32</v>
       </c>
       <c r="V21" t="n">
-        <v>1.11</v>
+        <v>1.28</v>
       </c>
       <c r="W21" t="n">
-        <v>3.5</v>
+        <v>2.12</v>
       </c>
       <c r="X21" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="Y21" t="n">
-        <v>130</v>
+        <v>19.5</v>
       </c>
       <c r="Z21" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AA21" t="n">
-        <v>300</v>
+        <v>95</v>
       </c>
       <c r="AB21" t="n">
         <v>11</v>
       </c>
       <c r="AC21" t="n">
-        <v>12.5</v>
+        <v>9</v>
       </c>
       <c r="AD21" t="n">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="AE21" t="n">
-        <v>290</v>
+        <v>60</v>
       </c>
       <c r="AF21" t="n">
-        <v>9.4</v>
+        <v>11.5</v>
       </c>
       <c r="AG21" t="n">
-        <v>9.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="AH21" t="n">
-        <v>23</v>
+        <v>16.5</v>
       </c>
       <c r="AI21" t="n">
-        <v>95</v>
+        <v>60</v>
       </c>
       <c r="AJ21" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="AK21" t="n">
-        <v>13.5</v>
+        <v>17.5</v>
       </c>
       <c r="AL21" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AM21" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AN21" t="n">
-        <v>4.9</v>
+        <v>9.6</v>
       </c>
       <c r="AO21" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>UEFA Europa Conference League</t>
+          <t>Honduras Liga Nacional</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -3353,396 +3353,126 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>22:30:00</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Az Alkmaar</t>
+          <t>CD Marathon</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Jagiellonia Bialystock</t>
+          <t>Platense FC</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.43</v>
+        <v>1.68</v>
       </c>
       <c r="G22" t="n">
-        <v>1.44</v>
+        <v>1.81</v>
       </c>
       <c r="H22" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="I22" t="n">
+        <v>8</v>
+      </c>
+      <c r="J22" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="K22" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="L22" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N22" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P22" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="R22" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="S22" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="T22" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="U22" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="V22" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="W22" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="X22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>65</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB22" t="n">
         <v>7.6</v>
       </c>
-      <c r="I22" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="J22" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="K22" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="L22" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="M22" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N22" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="O22" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="P22" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="R22" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="S22" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="T22" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="U22" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="V22" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="W22" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="X22" t="n">
-        <v>40</v>
-      </c>
-      <c r="Y22" t="n">
-        <v>42</v>
-      </c>
-      <c r="Z22" t="n">
-        <v>100</v>
-      </c>
-      <c r="AA22" t="n">
-        <v>230</v>
-      </c>
-      <c r="AB22" t="n">
-        <v>14.5</v>
-      </c>
       <c r="AC22" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AD22" t="n">
-        <v>32</v>
+        <v>980</v>
       </c>
       <c r="AE22" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AF22" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AG22" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AH22" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AI22" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AJ22" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AK22" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AL22" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AM22" t="n">
         <v>1000</v>
       </c>
       <c r="AN22" t="n">
-        <v>4.1</v>
+        <v>980</v>
       </c>
       <c r="AO22" t="n">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>UEFA Europa Conference League</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>2025-12-18</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>17:00:00</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>Strasbourg</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>Breidablik</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="G23" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="H23" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="I23" t="n">
-        <v>17</v>
-      </c>
-      <c r="J23" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="K23" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="L23" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="M23" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N23" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="O23" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="P23" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="R23" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="S23" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="T23" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="U23" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="V23" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="W23" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="X23" t="n">
-        <v>55</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>75</v>
-      </c>
-      <c r="Z23" t="n">
-        <v>180</v>
-      </c>
-      <c r="AA23" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB23" t="n">
-        <v>14</v>
-      </c>
-      <c r="AC23" t="n">
-        <v>22</v>
-      </c>
-      <c r="AD23" t="n">
-        <v>55</v>
-      </c>
-      <c r="AE23" t="n">
-        <v>230</v>
-      </c>
-      <c r="AF23" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AG23" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AH23" t="n">
-        <v>36</v>
-      </c>
-      <c r="AI23" t="n">
-        <v>190</v>
-      </c>
-      <c r="AJ23" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AK23" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AL23" t="n">
-        <v>30</v>
-      </c>
-      <c r="AM23" t="n">
-        <v>170</v>
-      </c>
-      <c r="AN23" t="n">
-        <v>3</v>
-      </c>
-      <c r="AO23" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>UEFA Europa Conference League</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>2025-12-18</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>17:00:00</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>Mainz</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>Samsunspor</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="G24" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="H24" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="I24" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="J24" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="K24" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="L24" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="M24" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N24" t="n">
-        <v>5</v>
-      </c>
-      <c r="O24" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="P24" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="R24" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="S24" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="T24" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="U24" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="V24" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="W24" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="X24" t="n">
-        <v>22</v>
-      </c>
-      <c r="Y24" t="n">
-        <v>20</v>
-      </c>
-      <c r="Z24" t="n">
-        <v>36</v>
-      </c>
-      <c r="AA24" t="n">
-        <v>85</v>
-      </c>
-      <c r="AB24" t="n">
-        <v>11</v>
-      </c>
-      <c r="AC24" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AD24" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AE24" t="n">
-        <v>50</v>
-      </c>
-      <c r="AF24" t="n">
-        <v>12</v>
-      </c>
-      <c r="AG24" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH24" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AI24" t="n">
-        <v>48</v>
-      </c>
-      <c r="AJ24" t="n">
-        <v>22</v>
-      </c>
-      <c r="AK24" t="n">
-        <v>19</v>
-      </c>
-      <c r="AL24" t="n">
-        <v>28</v>
-      </c>
-      <c r="AM24" t="n">
-        <v>70</v>
-      </c>
-      <c r="AN24" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AO24" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-18.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-18.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO22"/>
+  <dimension ref="A1:AO20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Friendly Matches</t>
+          <t>UEFA Europa Conference League</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,115 +653,115 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>13:00:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Necaxa</t>
+          <t>Az Alkmaar</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Mineros de Zacatecas</t>
+          <t>Jagiellonia Bialystock</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.04</v>
+        <v>1.81</v>
       </c>
       <c r="G2" t="n">
-        <v>2.28</v>
+        <v>1.83</v>
       </c>
       <c r="H2" t="n">
-        <v>3.5</v>
+        <v>16</v>
       </c>
       <c r="I2" t="n">
-        <v>870</v>
+        <v>18</v>
       </c>
       <c r="J2" t="n">
-        <v>1.19</v>
+        <v>2.52</v>
       </c>
       <c r="K2" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="N2" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="O2" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="S2" t="n">
+        <v>70</v>
+      </c>
+      <c r="T2" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="U2" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="V2" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="W2" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="X2" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>480</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>27</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>990</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>80</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>42</v>
+      </c>
+      <c r="AK2" t="n">
         <v>500</v>
       </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N2" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="P2" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="S2" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="T2" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="U2" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="V2" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="W2" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="X2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>1000</v>
-      </c>
       <c r="AL2" t="n">
         <v>1000</v>
       </c>
@@ -769,7 +769,7 @@
         <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>1000</v>
+        <v>270</v>
       </c>
       <c r="AO2" t="n">
         <v>1000</v>
@@ -778,7 +778,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Algerian Ligue 1</t>
+          <t>UEFA Europa Conference League</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,126 +788,126 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>USM Alger</t>
+          <t>Shamrock Rovers</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>ES Ben Aknoun</t>
+          <t>Hamrun Spartans FC</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.49</v>
+        <v>1.07</v>
       </c>
       <c r="G3" t="n">
-        <v>1.53</v>
+        <v>1.08</v>
       </c>
       <c r="H3" t="n">
-        <v>8.800000000000001</v>
+        <v>140</v>
       </c>
       <c r="I3" t="n">
-        <v>9.4</v>
+        <v>390</v>
       </c>
       <c r="J3" t="n">
-        <v>4.3</v>
+        <v>16</v>
       </c>
       <c r="K3" t="n">
-        <v>4.6</v>
+        <v>16.5</v>
       </c>
       <c r="L3" t="n">
-        <v>1.46</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>1.07</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>3.15</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.44</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.7</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.22</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>1.26</v>
+        <v>2.08</v>
       </c>
       <c r="S3" t="n">
-        <v>4.4</v>
+        <v>1.92</v>
       </c>
       <c r="T3" t="n">
-        <v>2.3</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>1.62</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>1.11</v>
+        <v>1.01</v>
       </c>
       <c r="W3" t="n">
-        <v>2.84</v>
+        <v>14</v>
       </c>
       <c r="X3" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="Y3" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="Z3" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AA3" t="n">
-        <v>530</v>
+        <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>6.2</v>
+        <v>1000</v>
       </c>
       <c r="AC3" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="AD3" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AE3" t="n">
-        <v>270</v>
+        <v>1000</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.8</v>
+        <v>1000</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>2.18</v>
       </c>
       <c r="AH3" t="n">
-        <v>44</v>
+        <v>19.5</v>
       </c>
       <c r="AI3" t="n">
-        <v>260</v>
+        <v>1000</v>
       </c>
       <c r="AJ3" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AK3" t="n">
-        <v>21</v>
+        <v>3.35</v>
       </c>
       <c r="AL3" t="n">
-        <v>75</v>
+        <v>36</v>
       </c>
       <c r="AM3" t="n">
-        <v>360</v>
+        <v>990</v>
       </c>
       <c r="AN3" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AO3" t="n">
-        <v>550</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4">
@@ -928,121 +928,121 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Shamrock Rovers</t>
+          <t>Slovan Bratislava</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Hamrun Spartans FC</t>
+          <t>Hacken</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.84</v>
+        <v>4.9</v>
       </c>
       <c r="G4" t="n">
-        <v>1.86</v>
+        <v>5.1</v>
       </c>
       <c r="H4" t="n">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="I4" t="n">
-        <v>5.6</v>
+        <v>4.7</v>
       </c>
       <c r="J4" t="n">
-        <v>3.6</v>
+        <v>1.7</v>
       </c>
       <c r="K4" t="n">
-        <v>3.65</v>
+        <v>1.72</v>
       </c>
       <c r="L4" t="n">
-        <v>1.53</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>1.09</v>
+        <v>2.06</v>
       </c>
       <c r="N4" t="n">
-        <v>3.3</v>
+        <v>1.18</v>
       </c>
       <c r="O4" t="n">
-        <v>1.42</v>
+        <v>6.2</v>
       </c>
       <c r="P4" t="n">
-        <v>1.78</v>
+        <v>1.02</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.26</v>
+        <v>29</v>
       </c>
       <c r="R4" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="S4" t="n">
+        <v>130</v>
+      </c>
+      <c r="T4" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="U4" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="V4" t="n">
         <v>1.28</v>
       </c>
-      <c r="S4" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="T4" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="U4" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="V4" t="n">
-        <v>1.21</v>
-      </c>
       <c r="W4" t="n">
-        <v>2.16</v>
+        <v>1.26</v>
       </c>
       <c r="X4" t="n">
-        <v>12</v>
+        <v>2.04</v>
       </c>
       <c r="Y4" t="n">
-        <v>15.5</v>
+        <v>5.7</v>
       </c>
       <c r="Z4" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AA4" t="n">
-        <v>160</v>
+        <v>510</v>
       </c>
       <c r="AB4" t="n">
-        <v>7.4</v>
+        <v>6</v>
       </c>
       <c r="AC4" t="n">
-        <v>8.199999999999999</v>
+        <v>18.5</v>
       </c>
       <c r="AD4" t="n">
-        <v>23</v>
+        <v>130</v>
       </c>
       <c r="AE4" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.6</v>
+        <v>42</v>
       </c>
       <c r="AG4" t="n">
-        <v>10.5</v>
+        <v>140</v>
       </c>
       <c r="AH4" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AI4" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AJ4" t="n">
-        <v>18</v>
+        <v>620</v>
       </c>
       <c r="AK4" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AL4" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AM4" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AO4" t="n">
-        <v>190</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="5">
@@ -1063,121 +1063,121 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Slovan Bratislava</t>
+          <t>Crystal Palace</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Hacken</t>
+          <t>KuPS</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.84</v>
+        <v>1.84</v>
       </c>
       <c r="G5" t="n">
-        <v>2.9</v>
+        <v>1.85</v>
       </c>
       <c r="H5" t="n">
-        <v>2.54</v>
+        <v>42</v>
       </c>
       <c r="I5" t="n">
-        <v>2.58</v>
+        <v>50</v>
       </c>
       <c r="J5" t="n">
-        <v>3.8</v>
+        <v>2.28</v>
       </c>
       <c r="K5" t="n">
-        <v>3.9</v>
+        <v>2.3</v>
       </c>
       <c r="L5" t="n">
-        <v>1.31</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>1.04</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>5.6</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>1.21</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>2.56</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.62</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>1.63</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>2.54</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>1.56</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>2.7</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>1.63</v>
+        <v>1.02</v>
       </c>
       <c r="W5" t="n">
-        <v>1.53</v>
+        <v>2.28</v>
       </c>
       <c r="X5" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="Y5" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="Z5" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AA5" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AC5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>980</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>990</v>
+      </c>
+      <c r="AN5" t="n">
         <v>9.199999999999999</v>
       </c>
-      <c r="AD5" t="n">
-        <v>12</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>23</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>23</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>14</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>30</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>42</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>26</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>55</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>17</v>
-      </c>
       <c r="AO5" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="6">
@@ -1198,121 +1198,121 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Crystal Palace</t>
+          <t>AEK Larnaca</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>KuPS</t>
+          <t>Shkendija</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.32</v>
+        <v>2.14</v>
       </c>
       <c r="G6" t="n">
-        <v>1.34</v>
+        <v>2.18</v>
       </c>
       <c r="H6" t="n">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="I6" t="n">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="J6" t="n">
-        <v>6</v>
+        <v>1.97</v>
       </c>
       <c r="K6" t="n">
-        <v>6.4</v>
+        <v>1.98</v>
       </c>
       <c r="L6" t="n">
-        <v>1.32</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>1.04</v>
+        <v>1.85</v>
       </c>
       <c r="N6" t="n">
-        <v>5.2</v>
+        <v>1.16</v>
       </c>
       <c r="O6" t="n">
-        <v>1.23</v>
+        <v>6.6</v>
       </c>
       <c r="P6" t="n">
-        <v>2.42</v>
+        <v>1.01</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.68</v>
+        <v>40</v>
       </c>
       <c r="R6" t="n">
-        <v>1.56</v>
+        <v>1.01</v>
       </c>
       <c r="S6" t="n">
-        <v>2.74</v>
+        <v>140</v>
       </c>
       <c r="T6" t="n">
-        <v>2.14</v>
+        <v>1.66</v>
       </c>
       <c r="U6" t="n">
-        <v>1.86</v>
+        <v>1.01</v>
       </c>
       <c r="V6" t="n">
-        <v>1.09</v>
+        <v>1.02</v>
       </c>
       <c r="W6" t="n">
-        <v>3.9</v>
+        <v>1.9</v>
       </c>
       <c r="X6" t="n">
-        <v>25</v>
+        <v>2.12</v>
       </c>
       <c r="Y6" t="n">
-        <v>40</v>
+        <v>980</v>
       </c>
       <c r="Z6" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AA6" t="n">
-        <v>520</v>
+        <v>1000</v>
       </c>
       <c r="AB6" t="n">
-        <v>8.6</v>
+        <v>3.8</v>
       </c>
       <c r="AC6" t="n">
-        <v>13</v>
+        <v>980</v>
       </c>
       <c r="AD6" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AE6" t="n">
-        <v>190</v>
+        <v>1000</v>
       </c>
       <c r="AF6" t="n">
-        <v>7.8</v>
+        <v>1000</v>
       </c>
       <c r="AG6" t="n">
-        <v>9.800000000000001</v>
+        <v>990</v>
       </c>
       <c r="AH6" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AI6" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AJ6" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AK6" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AL6" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AM6" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>5.2</v>
+        <v>1000</v>
       </c>
       <c r="AO6" t="n">
-        <v>230</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="7">
@@ -1333,118 +1333,118 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>AEK Larnaca</t>
+          <t>Shakhtar</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Shkendija</t>
+          <t>Rijeka</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.47</v>
+        <v>3.65</v>
       </c>
       <c r="G7" t="n">
-        <v>1.48</v>
+        <v>3.75</v>
       </c>
       <c r="H7" t="n">
-        <v>7.8</v>
+        <v>10.5</v>
       </c>
       <c r="I7" t="n">
-        <v>8</v>
+        <v>11.5</v>
       </c>
       <c r="J7" t="n">
-        <v>5.1</v>
+        <v>1.55</v>
       </c>
       <c r="K7" t="n">
-        <v>5.2</v>
+        <v>1.57</v>
       </c>
       <c r="L7" t="n">
-        <v>1.36</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>1.05</v>
+        <v>2.5</v>
       </c>
       <c r="N7" t="n">
-        <v>4.8</v>
+        <v>1.08</v>
       </c>
       <c r="O7" t="n">
-        <v>1.25</v>
+        <v>12.5</v>
       </c>
       <c r="P7" t="n">
-        <v>2.32</v>
+        <v>1.01</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.73</v>
+        <v>65</v>
       </c>
       <c r="R7" t="n">
-        <v>1.51</v>
+        <v>1.01</v>
       </c>
       <c r="S7" t="n">
-        <v>2.86</v>
+        <v>340</v>
       </c>
       <c r="T7" t="n">
-        <v>1.88</v>
+        <v>22</v>
       </c>
       <c r="U7" t="n">
-        <v>2.02</v>
+        <v>1.04</v>
       </c>
       <c r="V7" t="n">
-        <v>1.14</v>
+        <v>1.09</v>
       </c>
       <c r="W7" t="n">
-        <v>3.05</v>
+        <v>1.34</v>
       </c>
       <c r="X7" t="n">
-        <v>21</v>
+        <v>1.65</v>
       </c>
       <c r="Y7" t="n">
-        <v>28</v>
+        <v>12.5</v>
       </c>
       <c r="Z7" t="n">
-        <v>70</v>
+        <v>270</v>
       </c>
       <c r="AA7" t="n">
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="AB7" t="n">
-        <v>9.199999999999999</v>
+        <v>4.7</v>
       </c>
       <c r="AC7" t="n">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="AD7" t="n">
-        <v>29</v>
+        <v>990</v>
       </c>
       <c r="AE7" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AF7" t="n">
-        <v>8.4</v>
+        <v>34</v>
       </c>
       <c r="AG7" t="n">
-        <v>9.800000000000001</v>
+        <v>990</v>
       </c>
       <c r="AH7" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AI7" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AJ7" t="n">
-        <v>12.5</v>
+        <v>500</v>
       </c>
       <c r="AK7" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AL7" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AM7" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AN7" t="n">
-        <v>7.4</v>
+        <v>1000</v>
       </c>
       <c r="AO7" t="n">
         <v>1000</v>
@@ -1468,121 +1468,121 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Shakhtar</t>
+          <t>NK Celje</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Rijeka</t>
+          <t>Shelbourne</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.88</v>
+        <v>2.54</v>
       </c>
       <c r="G8" t="n">
-        <v>1.89</v>
+        <v>3.2</v>
       </c>
       <c r="H8" t="n">
-        <v>5.3</v>
+        <v>1.35</v>
       </c>
       <c r="I8" t="n">
-        <v>5.4</v>
+        <v>15</v>
       </c>
       <c r="J8" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="K8" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="N8" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="O8" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>26</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="S8" t="n">
+        <v>130</v>
+      </c>
+      <c r="T8" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="U8" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="V8" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="W8" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="X8" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>21</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>380</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB8" t="n">
         <v>3.55</v>
       </c>
-      <c r="K8" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="L8" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N8" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="P8" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>2</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="S8" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="T8" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="U8" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="V8" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="W8" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="X8" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>44</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>160</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>8.4</v>
-      </c>
       <c r="AC8" t="n">
-        <v>8</v>
+        <v>980</v>
       </c>
       <c r="AD8" t="n">
-        <v>21</v>
+        <v>990</v>
       </c>
       <c r="AE8" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AF8" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AG8" t="n">
-        <v>10</v>
+        <v>990</v>
       </c>
       <c r="AH8" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AI8" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AJ8" t="n">
-        <v>20</v>
+        <v>180</v>
       </c>
       <c r="AK8" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AL8" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AM8" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AN8" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AO8" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="9">
@@ -1603,121 +1603,121 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>NK Celje</t>
+          <t>Zrinjski</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Shelbourne</t>
+          <t>Rapid Vienna</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.32</v>
+        <v>11.5</v>
       </c>
       <c r="G9" t="n">
-        <v>1.33</v>
+        <v>13.5</v>
       </c>
       <c r="H9" t="n">
-        <v>11</v>
+        <v>1.53</v>
       </c>
       <c r="I9" t="n">
-        <v>12</v>
+        <v>1.57</v>
       </c>
       <c r="J9" t="n">
-        <v>6.2</v>
+        <v>3.55</v>
       </c>
       <c r="K9" t="n">
-        <v>6.4</v>
+        <v>3.85</v>
       </c>
       <c r="L9" t="n">
-        <v>1.29</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>1.03</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>6</v>
+        <v>2.32</v>
       </c>
       <c r="O9" t="n">
-        <v>1.18</v>
+        <v>1.73</v>
       </c>
       <c r="P9" t="n">
-        <v>2.72</v>
+        <v>1.21</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.55</v>
+        <v>5.5</v>
       </c>
       <c r="R9" t="n">
-        <v>1.69</v>
+        <v>1.04</v>
       </c>
       <c r="S9" t="n">
-        <v>2.38</v>
+        <v>22</v>
       </c>
       <c r="T9" t="n">
-        <v>2.02</v>
+        <v>2.32</v>
       </c>
       <c r="U9" t="n">
-        <v>1.92</v>
+        <v>1.42</v>
       </c>
       <c r="V9" t="n">
-        <v>1.09</v>
+        <v>3</v>
       </c>
       <c r="W9" t="n">
-        <v>4</v>
+        <v>1.06</v>
       </c>
       <c r="X9" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="Y9" t="n">
-        <v>44</v>
+        <v>2.36</v>
       </c>
       <c r="Z9" t="n">
-        <v>120</v>
+        <v>8</v>
       </c>
       <c r="AA9" t="n">
-        <v>480</v>
+        <v>70</v>
       </c>
       <c r="AB9" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AC9" t="n">
-        <v>14.5</v>
+        <v>4.1</v>
       </c>
       <c r="AD9" t="n">
-        <v>40</v>
+        <v>19.5</v>
       </c>
       <c r="AE9" t="n">
         <v>170</v>
       </c>
       <c r="AF9" t="n">
-        <v>8.6</v>
+        <v>1000</v>
       </c>
       <c r="AG9" t="n">
-        <v>11</v>
+        <v>17.5</v>
       </c>
       <c r="AH9" t="n">
-        <v>28</v>
+        <v>990</v>
       </c>
       <c r="AI9" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AJ9" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="AK9" t="n">
-        <v>13</v>
+        <v>160</v>
       </c>
       <c r="AL9" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AM9" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AN9" t="n">
-        <v>4.3</v>
+        <v>1000</v>
       </c>
       <c r="AO9" t="n">
-        <v>220</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="10">
@@ -1738,121 +1738,121 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Zrinjski</t>
+          <t>Mainz</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Rapid Vienna</t>
+          <t>Samsunspor</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.79</v>
+        <v>1.02</v>
       </c>
       <c r="G10" t="n">
-        <v>1.8</v>
+        <v>1.03</v>
       </c>
       <c r="H10" t="n">
-        <v>4.8</v>
+        <v>160</v>
       </c>
       <c r="I10" t="n">
-        <v>4.9</v>
+        <v>1000</v>
       </c>
       <c r="J10" t="n">
-        <v>4.2</v>
+        <v>42</v>
       </c>
       <c r="K10" t="n">
-        <v>4.3</v>
+        <v>48</v>
       </c>
       <c r="L10" t="n">
-        <v>1.42</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>1.06</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>4.1</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.08</v>
+        <v>1.78</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.89</v>
+        <v>2.24</v>
       </c>
       <c r="R10" t="n">
-        <v>1.4</v>
+        <v>1.13</v>
       </c>
       <c r="S10" t="n">
-        <v>3.3</v>
+        <v>7.8</v>
       </c>
       <c r="T10" t="n">
-        <v>1.87</v>
+        <v>4.4</v>
       </c>
       <c r="U10" t="n">
-        <v>2.06</v>
+        <v>1.26</v>
       </c>
       <c r="V10" t="n">
-        <v>1.25</v>
+        <v>1.01</v>
       </c>
       <c r="W10" t="n">
-        <v>2.24</v>
+        <v>40</v>
       </c>
       <c r="X10" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="Y10" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="Z10" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AA10" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AB10" t="n">
-        <v>9.4</v>
+        <v>1000</v>
       </c>
       <c r="AC10" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AD10" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AE10" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AF10" t="n">
-        <v>10.5</v>
+        <v>1.85</v>
       </c>
       <c r="AG10" t="n">
-        <v>9.6</v>
+        <v>7.8</v>
       </c>
       <c r="AH10" t="n">
-        <v>23</v>
+        <v>70</v>
       </c>
       <c r="AI10" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AJ10" t="n">
-        <v>19.5</v>
+        <v>5.1</v>
       </c>
       <c r="AK10" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="AL10" t="n">
-        <v>34</v>
+        <v>290</v>
       </c>
       <c r="AM10" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AN10" t="n">
-        <v>11.5</v>
+        <v>26</v>
       </c>
       <c r="AO10" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="11">
@@ -1882,112 +1882,112 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>3.5</v>
+        <v>55</v>
       </c>
       <c r="G11" t="n">
-        <v>3.55</v>
+        <v>85</v>
       </c>
       <c r="H11" t="n">
-        <v>2.4</v>
+        <v>1.18</v>
       </c>
       <c r="I11" t="n">
-        <v>2.46</v>
+        <v>1.2</v>
       </c>
       <c r="J11" t="n">
-        <v>3.25</v>
+        <v>6.4</v>
       </c>
       <c r="K11" t="n">
-        <v>3.3</v>
+        <v>7.4</v>
       </c>
       <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
         <v>1.47</v>
       </c>
-      <c r="M11" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N11" t="n">
-        <v>3.55</v>
-      </c>
       <c r="O11" t="n">
-        <v>1.37</v>
+        <v>3</v>
       </c>
       <c r="P11" t="n">
-        <v>1.85</v>
+        <v>1.05</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.12</v>
+        <v>18</v>
       </c>
       <c r="R11" t="n">
-        <v>1.33</v>
+        <v>1.01</v>
       </c>
       <c r="S11" t="n">
-        <v>3.9</v>
+        <v>110</v>
       </c>
       <c r="T11" t="n">
-        <v>1.84</v>
+        <v>5.3</v>
       </c>
       <c r="U11" t="n">
-        <v>2.12</v>
+        <v>1.19</v>
       </c>
       <c r="V11" t="n">
-        <v>1.68</v>
+        <v>6.4</v>
       </c>
       <c r="W11" t="n">
-        <v>1.39</v>
+        <v>1.01</v>
       </c>
       <c r="X11" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="Y11" t="n">
-        <v>9.6</v>
+        <v>1.52</v>
       </c>
       <c r="Z11" t="n">
-        <v>15</v>
+        <v>7.4</v>
       </c>
       <c r="AA11" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AB11" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AC11" t="n">
-        <v>7.2</v>
+        <v>7.8</v>
       </c>
       <c r="AD11" t="n">
-        <v>12</v>
+        <v>990</v>
       </c>
       <c r="AE11" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AF11" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AG11" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AH11" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AI11" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AJ11" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AK11" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AL11" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AM11" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AN11" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AO11" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="12">
@@ -2008,121 +2008,121 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Sigma Olomouc</t>
+          <t>Strasbourg</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Lech Poznan</t>
+          <t>Breidablik</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>3.3</v>
+        <v>1.7</v>
       </c>
       <c r="G12" t="n">
-        <v>3.35</v>
+        <v>1.71</v>
       </c>
       <c r="H12" t="n">
-        <v>2.64</v>
+        <v>18</v>
       </c>
       <c r="I12" t="n">
-        <v>2.66</v>
+        <v>19</v>
       </c>
       <c r="J12" t="n">
-        <v>3.1</v>
+        <v>2.76</v>
       </c>
       <c r="K12" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
         <v>3.15</v>
       </c>
-      <c r="L12" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N12" t="n">
+      <c r="Q12" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="S12" t="n">
         <v>3.4</v>
       </c>
-      <c r="O12" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="P12" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="R12" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="S12" t="n">
-        <v>4.1</v>
-      </c>
       <c r="T12" t="n">
-        <v>1.86</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>2.08</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>1.6</v>
+        <v>1.05</v>
       </c>
       <c r="W12" t="n">
-        <v>1.42</v>
+        <v>2.42</v>
       </c>
       <c r="X12" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="Y12" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="Z12" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AA12" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AB12" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AC12" t="n">
-        <v>6.8</v>
+        <v>3.15</v>
       </c>
       <c r="AD12" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="AE12" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AF12" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AG12" t="n">
-        <v>14</v>
+        <v>3.75</v>
       </c>
       <c r="AH12" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AI12" t="n">
-        <v>46</v>
+        <v>990</v>
       </c>
       <c r="AJ12" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AK12" t="n">
-        <v>40</v>
+        <v>970</v>
       </c>
       <c r="AL12" t="n">
-        <v>55</v>
+        <v>990</v>
       </c>
       <c r="AM12" t="n">
-        <v>580</v>
+        <v>1000</v>
       </c>
       <c r="AN12" t="n">
-        <v>42</v>
+        <v>980</v>
       </c>
       <c r="AO12" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="13">
@@ -2143,121 +2143,121 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Strasbourg</t>
+          <t>Sparta Prague</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Breidablik</t>
+          <t>Aberdeen</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.21</v>
+        <v>1.01</v>
       </c>
       <c r="G13" t="n">
-        <v>1.22</v>
+        <v>1.01</v>
       </c>
       <c r="H13" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="I13" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="J13" t="n">
-        <v>9</v>
+        <v>300</v>
       </c>
       <c r="K13" t="n">
-        <v>9.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="L13" t="n">
-        <v>1.19</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="S13" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="T13" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="U13" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="V13" t="n">
         <v>1.01</v>
       </c>
-      <c r="N13" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="P13" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="R13" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="S13" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="T13" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="U13" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="V13" t="n">
-        <v>1.06</v>
-      </c>
       <c r="W13" t="n">
-        <v>5.6</v>
+        <v>240</v>
       </c>
       <c r="X13" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="Y13" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="Z13" t="n">
-        <v>180</v>
+        <v>1000</v>
       </c>
       <c r="AA13" t="n">
         <v>1000</v>
       </c>
       <c r="AB13" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AC13" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AD13" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AE13" t="n">
-        <v>240</v>
+        <v>1000</v>
       </c>
       <c r="AF13" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AG13" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AH13" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AI13" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AJ13" t="n">
-        <v>11.5</v>
+        <v>1.91</v>
       </c>
       <c r="AK13" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AL13" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AM13" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AN13" t="n">
-        <v>2.84</v>
+        <v>2.66</v>
       </c>
       <c r="AO13" t="n">
-        <v>190</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="14">
@@ -2278,121 +2278,121 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Sparta Prague</t>
+          <t>Dynamo Kiev</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Aberdeen</t>
+          <t>FC Noah</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.26</v>
+        <v>1.02</v>
       </c>
       <c r="G14" t="n">
-        <v>1.27</v>
+        <v>1.03</v>
       </c>
       <c r="H14" t="n">
-        <v>13.5</v>
+        <v>210</v>
       </c>
       <c r="I14" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="J14" t="n">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="K14" t="n">
-        <v>7.2</v>
+        <v>48</v>
       </c>
       <c r="L14" t="n">
-        <v>1.26</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>1.03</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>6.2</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>1.18</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>2.78</v>
+        <v>1.93</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.54</v>
+        <v>2.02</v>
       </c>
       <c r="R14" t="n">
-        <v>1.68</v>
+        <v>1.17</v>
       </c>
       <c r="S14" t="n">
-        <v>2.4</v>
+        <v>6.4</v>
       </c>
       <c r="T14" t="n">
-        <v>2.12</v>
+        <v>3.9</v>
       </c>
       <c r="U14" t="n">
-        <v>1.85</v>
+        <v>1.32</v>
       </c>
       <c r="V14" t="n">
-        <v>1.07</v>
+        <v>1.01</v>
       </c>
       <c r="W14" t="n">
-        <v>4.6</v>
+        <v>34</v>
       </c>
       <c r="X14" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="Y14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AH14" t="n">
         <v>55</v>
       </c>
-      <c r="Z14" t="n">
-        <v>140</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>48</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>210</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>32</v>
-      </c>
       <c r="AI14" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AJ14" t="n">
-        <v>9.199999999999999</v>
+        <v>5.1</v>
       </c>
       <c r="AK14" t="n">
-        <v>13.5</v>
+        <v>19.5</v>
       </c>
       <c r="AL14" t="n">
-        <v>40</v>
+        <v>160</v>
       </c>
       <c r="AM14" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AN14" t="n">
-        <v>4.2</v>
+        <v>23</v>
       </c>
       <c r="AO14" t="n">
-        <v>230</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="15">
@@ -2413,121 +2413,121 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Dynamo Kiev</t>
+          <t>Rayo Vallecano</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>FC Noah</t>
+          <t>KF Drita</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.18</v>
+        <v>1.01</v>
       </c>
       <c r="G15" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="H15" t="n">
+        <v>180</v>
+      </c>
+      <c r="I15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J15" t="n">
+        <v>130</v>
+      </c>
+      <c r="K15" t="n">
+        <v>300</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="Q15" t="n">
         <v>2.2</v>
       </c>
-      <c r="H15" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="I15" t="n">
+      <c r="R15" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="S15" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="T15" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="U15" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="V15" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="W15" t="n">
+        <v>100</v>
+      </c>
+      <c r="X15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>20</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>350</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ15" t="n">
         <v>3.5</v>
       </c>
-      <c r="J15" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="K15" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="L15" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="M15" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N15" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="O15" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P15" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="R15" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="S15" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="T15" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="U15" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="V15" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="W15" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="X15" t="n">
-        <v>25</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>28</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>42</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>90</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>14</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>95</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>130</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>28</v>
-      </c>
       <c r="AK15" t="n">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="AL15" t="n">
-        <v>27</v>
+        <v>990</v>
       </c>
       <c r="AM15" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AN15" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AO15" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="16">
@@ -2557,112 +2557,112 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.38</v>
+        <v>8.4</v>
       </c>
       <c r="G16" t="n">
-        <v>1.39</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H16" t="n">
-        <v>10.5</v>
+        <v>1.71</v>
       </c>
       <c r="I16" t="n">
-        <v>11</v>
+        <v>1.75</v>
       </c>
       <c r="J16" t="n">
-        <v>5.3</v>
+        <v>3.2</v>
       </c>
       <c r="K16" t="n">
-        <v>5.4</v>
+        <v>3.35</v>
       </c>
       <c r="L16" t="n">
-        <v>1.38</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>1.06</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>4.4</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>1.28</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.12</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.84</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>1.44</v>
+        <v>2.14</v>
       </c>
       <c r="S16" t="n">
-        <v>3.15</v>
+        <v>1.78</v>
       </c>
       <c r="T16" t="n">
-        <v>2.24</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>1.75</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>1.1</v>
+        <v>2.58</v>
       </c>
       <c r="W16" t="n">
-        <v>3.55</v>
+        <v>1.09</v>
       </c>
       <c r="X16" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="Y16" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="Z16" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AA16" t="n">
         <v>1000</v>
       </c>
       <c r="AB16" t="n">
-        <v>7.8</v>
+        <v>1000</v>
       </c>
       <c r="AC16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="AE16" t="n">
         <v>12.5</v>
       </c>
-      <c r="AD16" t="n">
-        <v>42</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>240</v>
-      </c>
       <c r="AF16" t="n">
-        <v>7.4</v>
+        <v>1000</v>
       </c>
       <c r="AG16" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AH16" t="n">
-        <v>36</v>
+        <v>3.5</v>
       </c>
       <c r="AI16" t="n">
-        <v>170</v>
+        <v>26</v>
       </c>
       <c r="AJ16" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AK16" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AL16" t="n">
-        <v>44</v>
+        <v>12.5</v>
       </c>
       <c r="AM16" t="n">
-        <v>210</v>
+        <v>100</v>
       </c>
       <c r="AN16" t="n">
-        <v>6.4</v>
+        <v>1000</v>
       </c>
       <c r="AO16" t="n">
-        <v>390</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="17">
@@ -2683,118 +2683,118 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Rayo Vallecano</t>
+          <t>Lausanne</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>KF Drita</t>
+          <t>Fiorentina</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.2</v>
+        <v>1.38</v>
       </c>
       <c r="G17" t="n">
-        <v>1.21</v>
+        <v>1.39</v>
       </c>
       <c r="H17" t="n">
         <v>19</v>
       </c>
       <c r="I17" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J17" t="n">
-        <v>8.4</v>
+        <v>4.4</v>
       </c>
       <c r="K17" t="n">
-        <v>8.6</v>
+        <v>4.5</v>
       </c>
       <c r="L17" t="n">
-        <v>1.27</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="P17" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="R17" t="n">
         <v>1.03</v>
       </c>
-      <c r="N17" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="P17" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="R17" t="n">
-        <v>1.71</v>
-      </c>
       <c r="S17" t="n">
-        <v>2.34</v>
+        <v>29</v>
       </c>
       <c r="T17" t="n">
-        <v>2.32</v>
+        <v>2.82</v>
       </c>
       <c r="U17" t="n">
-        <v>1.68</v>
+        <v>1.48</v>
       </c>
       <c r="V17" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="W17" t="n">
-        <v>5.8</v>
+        <v>3.85</v>
       </c>
       <c r="X17" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="Y17" t="n">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="Z17" t="n">
-        <v>220</v>
+        <v>1000</v>
       </c>
       <c r="AA17" t="n">
         <v>1000</v>
       </c>
       <c r="AB17" t="n">
-        <v>10</v>
+        <v>2.06</v>
       </c>
       <c r="AC17" t="n">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="AD17" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AE17" t="n">
-        <v>430</v>
+        <v>300</v>
       </c>
       <c r="AF17" t="n">
-        <v>7.4</v>
+        <v>6.8</v>
       </c>
       <c r="AG17" t="n">
-        <v>12.5</v>
+        <v>20</v>
       </c>
       <c r="AH17" t="n">
-        <v>44</v>
+        <v>120</v>
       </c>
       <c r="AI17" t="n">
-        <v>260</v>
+        <v>1000</v>
       </c>
       <c r="AJ17" t="n">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="AK17" t="n">
-        <v>14</v>
+        <v>190</v>
       </c>
       <c r="AL17" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AM17" t="n">
-        <v>240</v>
+        <v>1000</v>
       </c>
       <c r="AN17" t="n">
-        <v>3.6</v>
+        <v>460</v>
       </c>
       <c r="AO17" t="n">
         <v>1000</v>
@@ -2818,121 +2818,121 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Lausanne</t>
+          <t>Legia Warsaw</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Fiorentina</t>
+          <t>Lincoln Red Imps</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>3.55</v>
+        <v>1.01</v>
       </c>
       <c r="G18" t="n">
-        <v>3.6</v>
+        <v>1.01</v>
       </c>
       <c r="H18" t="n">
+        <v>80</v>
+      </c>
+      <c r="I18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J18" t="n">
+        <v>100</v>
+      </c>
+      <c r="K18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0</v>
+      </c>
+      <c r="R18" t="n">
         <v>2.22</v>
       </c>
-      <c r="I18" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="J18" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="K18" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="L18" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="M18" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N18" t="n">
-        <v>5</v>
-      </c>
-      <c r="O18" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="P18" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="R18" t="n">
-        <v>1.53</v>
-      </c>
       <c r="S18" t="n">
-        <v>2.76</v>
+        <v>1.79</v>
       </c>
       <c r="T18" t="n">
-        <v>1.62</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="U18" t="n">
-        <v>2.48</v>
+        <v>1.11</v>
       </c>
       <c r="V18" t="n">
-        <v>1.8</v>
+        <v>1.01</v>
       </c>
       <c r="W18" t="n">
-        <v>1.38</v>
+        <v>100</v>
       </c>
       <c r="X18" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="Y18" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="Z18" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AA18" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AB18" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AC18" t="n">
-        <v>8.4</v>
+        <v>1000</v>
       </c>
       <c r="AD18" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AE18" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AF18" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AG18" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AH18" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AI18" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AJ18" t="n">
-        <v>55</v>
+        <v>2.52</v>
       </c>
       <c r="AK18" t="n">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="AL18" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AM18" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AN18" t="n">
-        <v>28</v>
+        <v>2.04</v>
       </c>
       <c r="AO18" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="19">
@@ -2953,127 +2953,127 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Legia Warsaw</t>
+          <t>Sigma Olomouc</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Lincoln Red Imps</t>
+          <t>Lech Poznan</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.36</v>
+        <v>150</v>
       </c>
       <c r="G19" t="n">
-        <v>1.37</v>
+        <v>380</v>
       </c>
       <c r="H19" t="n">
-        <v>10</v>
+        <v>1.04</v>
       </c>
       <c r="I19" t="n">
-        <v>11</v>
+        <v>1.05</v>
       </c>
       <c r="J19" t="n">
-        <v>5.8</v>
+        <v>25</v>
       </c>
       <c r="K19" t="n">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="L19" t="n">
-        <v>1.26</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>1.03</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>6.6</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>1.16</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>2.88</v>
+        <v>1.77</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.5</v>
+        <v>2.26</v>
       </c>
       <c r="R19" t="n">
-        <v>1.76</v>
+        <v>1.14</v>
       </c>
       <c r="S19" t="n">
-        <v>2.26</v>
+        <v>8</v>
       </c>
       <c r="T19" t="n">
-        <v>1.82</v>
+        <v>3.6</v>
       </c>
       <c r="U19" t="n">
-        <v>2.18</v>
+        <v>1.33</v>
       </c>
       <c r="V19" t="n">
-        <v>1.09</v>
+        <v>26</v>
       </c>
       <c r="W19" t="n">
-        <v>3.7</v>
+        <v>1.01</v>
       </c>
       <c r="X19" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="Y19" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="Z19" t="n">
-        <v>100</v>
+        <v>1.85</v>
       </c>
       <c r="AA19" t="n">
-        <v>350</v>
+        <v>7</v>
       </c>
       <c r="AB19" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AC19" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AD19" t="n">
-        <v>36</v>
+        <v>5.7</v>
       </c>
       <c r="AE19" t="n">
-        <v>130</v>
+        <v>21</v>
       </c>
       <c r="AF19" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="AG19" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AH19" t="n">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="AI19" t="n">
-        <v>110</v>
+        <v>180</v>
       </c>
       <c r="AJ19" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AK19" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AL19" t="n">
-        <v>32</v>
+        <v>450</v>
       </c>
       <c r="AM19" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AN19" t="n">
-        <v>4.3</v>
+        <v>1000</v>
       </c>
       <c r="AO19" t="n">
-        <v>120</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>UEFA Europa Conference League</t>
+          <t>Honduras Liga Nacional</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -3083,395 +3083,125 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>22:30:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Az Alkmaar</t>
+          <t>CD Marathon</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Jagiellonia Bialystock</t>
+          <t>Platense FC</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.43</v>
+        <v>1.69</v>
       </c>
       <c r="G20" t="n">
-        <v>1.44</v>
+        <v>1.77</v>
       </c>
       <c r="H20" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="I20" t="n">
         <v>8</v>
       </c>
-      <c r="I20" t="n">
-        <v>8.199999999999999</v>
-      </c>
       <c r="J20" t="n">
-        <v>5.6</v>
+        <v>3.35</v>
       </c>
       <c r="K20" t="n">
-        <v>5.7</v>
+        <v>4.2</v>
       </c>
       <c r="L20" t="n">
-        <v>1.23</v>
+        <v>1.46</v>
       </c>
       <c r="M20" t="n">
-        <v>1.02</v>
+        <v>1.09</v>
       </c>
       <c r="N20" t="n">
-        <v>8</v>
+        <v>3.05</v>
       </c>
       <c r="O20" t="n">
-        <v>1.13</v>
+        <v>1.4</v>
       </c>
       <c r="P20" t="n">
-        <v>3.35</v>
+        <v>1.71</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.41</v>
+        <v>2.12</v>
       </c>
       <c r="R20" t="n">
-        <v>1.96</v>
+        <v>1.26</v>
       </c>
       <c r="S20" t="n">
-        <v>2.02</v>
+        <v>3.8</v>
       </c>
       <c r="T20" t="n">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="U20" t="n">
-        <v>2.46</v>
+        <v>1.71</v>
       </c>
       <c r="V20" t="n">
-        <v>1.13</v>
+        <v>1.17</v>
       </c>
       <c r="W20" t="n">
-        <v>3.25</v>
+        <v>2.3</v>
       </c>
       <c r="X20" t="n">
-        <v>40</v>
+        <v>13.5</v>
       </c>
       <c r="Y20" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="Z20" t="n">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="AA20" t="n">
-        <v>240</v>
+        <v>1000</v>
       </c>
       <c r="AB20" t="n">
-        <v>16</v>
+        <v>7.8</v>
       </c>
       <c r="AC20" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AD20" t="n">
-        <v>29</v>
+        <v>980</v>
       </c>
       <c r="AE20" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AF20" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AG20" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AH20" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AI20" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AJ20" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AK20" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AL20" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AM20" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AN20" t="n">
-        <v>4</v>
+        <v>1000</v>
       </c>
       <c r="AO20" t="n">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>UEFA Europa Conference League</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>2025-12-18</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>17:00:00</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>Mainz</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>Samsunspor</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="G21" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="H21" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="I21" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="J21" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="K21" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="L21" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="M21" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N21" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="O21" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="P21" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="R21" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="S21" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="T21" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="U21" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="V21" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="W21" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="X21" t="n">
-        <v>21</v>
-      </c>
-      <c r="Y21" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="Z21" t="n">
-        <v>36</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>95</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>11</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>17</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>60</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>60</v>
-      </c>
-      <c r="AJ21" t="n">
-        <v>20</v>
-      </c>
-      <c r="AK21" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AL21" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM21" t="n">
-        <v>100</v>
-      </c>
-      <c r="AN21" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AO21" t="n">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Honduras Liga Nacional</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>2025-12-18</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>22:30:00</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>CD Marathon</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>Platense FC</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="G22" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="H22" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="I22" t="n">
-        <v>8</v>
-      </c>
-      <c r="J22" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="K22" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="L22" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="M22" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N22" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="O22" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P22" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="R22" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="S22" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="T22" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="U22" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="V22" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="W22" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="X22" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y22" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z22" t="n">
-        <v>65</v>
-      </c>
-      <c r="AA22" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB22" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AC22" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AD22" t="n">
-        <v>980</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>11</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH22" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI22" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ22" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK22" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL22" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM22" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN22" t="n">
-        <v>980</v>
-      </c>
-      <c r="AO22" t="n">
         <v>1000</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-18.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-18.xlsx
@@ -667,58 +667,58 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
       <c r="G2" t="n">
-        <v>1.67</v>
+        <v>1.22</v>
       </c>
       <c r="H2" t="n">
-        <v>5.2</v>
+        <v>22</v>
       </c>
       <c r="I2" t="n">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="J2" t="n">
-        <v>4.2</v>
+        <v>7.2</v>
       </c>
       <c r="K2" t="n">
-        <v>4.9</v>
+        <v>7.8</v>
       </c>
       <c r="L2" t="n">
-        <v>1.44</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1.08</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>3.55</v>
+        <v>6.6</v>
       </c>
       <c r="O2" t="n">
-        <v>1.37</v>
+        <v>1.16</v>
       </c>
       <c r="P2" t="n">
-        <v>1.85</v>
+        <v>2.32</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.02</v>
+        <v>1.71</v>
       </c>
       <c r="R2" t="n">
-        <v>1.32</v>
+        <v>1.42</v>
       </c>
       <c r="S2" t="n">
-        <v>3.65</v>
+        <v>3.2</v>
       </c>
       <c r="T2" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="U2" t="n">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="V2" t="n">
-        <v>1.18</v>
+        <v>1.04</v>
       </c>
       <c r="W2" t="n">
-        <v>2.4</v>
+        <v>5.5</v>
       </c>
       <c r="X2" t="n">
         <v>1000</v>
@@ -727,49 +727,49 @@
         <v>1000</v>
       </c>
       <c r="Z2" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AA2" t="n">
         <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>8.800000000000001</v>
+        <v>7.6</v>
       </c>
       <c r="AC2" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>980</v>
+        <v>55</v>
       </c>
       <c r="AE2" t="n">
-        <v>1000</v>
+        <v>280</v>
       </c>
       <c r="AF2" t="n">
-        <v>1000</v>
+        <v>5.9</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AH2" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AI2" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AJ2" t="n">
-        <v>15</v>
+        <v>8.4</v>
       </c>
       <c r="AK2" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AL2" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AM2" t="n">
-        <v>1000</v>
+        <v>280</v>
       </c>
       <c r="AN2" t="n">
-        <v>1000</v>
+        <v>7</v>
       </c>
       <c r="AO2" t="n">
         <v>1000</v>
